--- a/GetTextBlockHtml/cf_out.xlsx
+++ b/GetTextBlockHtml/cf_out.xlsx
@@ -463,27 +463,159 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>/content/dam/au/cf/html/about/strategic-plan/2019</t>
+          <t>/content/dam/au/cf/html/about/strategic-plan/2019/index</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>index</t>
+          <t>txt-5200467</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AU's 7-Year Strategic Plan: Changemakers for a Changing World | American University, Washington, DC</t>
+          <t>txt-5200467</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>/conf/au/settings/dam/cfm/models/side-nav-cf-model</t>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;section class="text-block clearfix" data-element="2016 Text Block" id="txt-5200467"&gt;
+          <t xml:space="preserve">
+&lt;style&gt;
+.html-embed-wrapper .col-lg-1, .html-embed-wrapper .col-lg-10, .html-embed-wrapper .col-lg-11, .html-embed-wrapper .col-lg-12, .html-embed-wrapper .col-lg-2, .html-embed-wrapper .col-lg-3, .html-embed-wrapper .col-lg-4, .html-embed-wrapper .col-lg-5, .html-embed-wrapper .col-lg-6, .html-embed-wrapper .col-lg-7, .html-embed-wrapper .col-lg-8, .html-embed-wrapper .col-lg-9, .html-embed-wrapper .col-md-1, .html-embed-wrapper .col-md-10, .html-embed-wrapper .col-md-11, .html-embed-wrapper .col-md-12, .html-embed-wrapper .col-md-2, .html-embed-wrapper .col-md-3, .html-embed-wrapper .col-md-4, .html-embed-wrapper .col-md-5, .html-embed-wrapper .col-md-6, .html-embed-wrapper .col-md-7, .html-embed-wrapper .col-md-8, .html-embed-wrapper .col-md-9, .html-embed-wrapper .col-sm-1, .html-embed-wrapper .col-sm-10, .html-embed-wrapper .col-sm-11, .html-embed-wrapper .col-sm-12, .html-embed-wrapper .col-sm-2, .html-embed-wrapper .col-sm-3, .html-embed-wrapper .col-sm-4, .html-embed-wrapper .col-sm-5, .html-embed-wrapper .col-sm-6, .html-embed-wrapper .col-sm-7, .html-embed-wrapper .col-sm-8, .html-embed-wrapper .col-sm-9, .html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {position: relative;
+min-height: 1px;
+padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {float: left}
+.html-embed-wrapper .col-xs-12 {width: 100%}
+.html-embed-wrapper .spacious-margins {margin-top: 50px;
+margin-bottom: 50px}
+@media (max-width: 767px) {
+.html-embed-wrapper .text-block dl.tabular {overflow: visible !important}
+}
+.html-embed-wrapper ol.spacious li, .html-embed-wrapper ul.spacious li {margin-bottom: 25px}
+.html-embed-wrapper ol.spacious li ol, .html-embed-wrapper ol.spacious li ul, .html-embed-wrapper ul.spacious li ol, .html-embed-wrapper ul.spacious li ul {margin-top: 25px}
+.html-embed-wrapper ol.spacious li:last-child, .html-embed-wrapper ul.spacious li:last-child {margin-bottom: 0}
+.html-embed-wrapper ol[class*=cols-].spacious li, .html-embed-wrapper ul[class*=cols-].spacious li {padding: 0 0 25px;
+margin: 0}
+.html-embed-wrapper .col-sm-1 dl.tabular, .html-embed-wrapper .col-sm-2 dl.tabular, .html-embed-wrapper .col-sm-3 dl.tabular, .html-embed-wrapper .col-sm-4 dl.tabular, .html-embed-wrapper .col-sm-5 dl.tabular, .html-embed-wrapper .col-sm-6 dl.tabular, .html-embed-wrapper dl.tabular {overflow: auto}
+.html-embed-wrapper .col-sm-1 dl.tabular dt, .html-embed-wrapper .col-sm-2 dl.tabular dt, .html-embed-wrapper .col-sm-3 dl.tabular dt, .html-embed-wrapper .col-sm-4 dl.tabular dt, .html-embed-wrapper .col-sm-5 dl.tabular dt, .html-embed-wrapper .col-sm-6 dl.tabular dt, .html-embed-wrapper dl.tabular dt {display: block;
+font-weight: 700;
+border-bottom: 1px solid #d2d2d2;
+width: 100%;
+margin: 20px 0 0;
+padding: 2px 5px 2px 0}
+.html-embed-wrapper .col-sm-1 dl.tabular dt:first-child, .html-embed-wrapper .col-sm-2 dl.tabular dt:first-child, .html-embed-wrapper .col-sm-3 dl.tabular dt:first-child, .html-embed-wrapper .col-sm-4 dl.tabular dt:first-child, .html-embed-wrapper .col-sm-5 dl.tabular dt:first-child, .html-embed-wrapper .col-sm-6 dl.tabular dt:first-child, .html-embed-wrapper dl.tabular dt:first-child {margin-top: 10px}
+.html-embed-wrapper .col-sm-1 dl.tabular dd, .html-embed-wrapper .col-sm-2 dl.tabular dd, .html-embed-wrapper .col-sm-3 dl.tabular dd, .html-embed-wrapper .col-sm-4 dl.tabular dd, .html-embed-wrapper .col-sm-5 dl.tabular dd, .html-embed-wrapper .col-sm-6 dl.tabular dd, .html-embed-wrapper dl.tabular dd {display: block;
+font-weight: 400;
+width: 100%;
+background: 0 0;
+margin: 0 0 10px 0}
+.html-embed-wrapper .col-sm-1 dl.tabular dd &gt; a, .html-embed-wrapper .col-sm-2 dl.tabular dd &gt; a, .html-embed-wrapper .col-sm-3 dl.tabular dd &gt; a, .html-embed-wrapper .col-sm-4 dl.tabular dd &gt; a, .html-embed-wrapper .col-sm-5 dl.tabular dd &gt; a, .html-embed-wrapper .col-sm-6 dl.tabular dd &gt; a, .html-embed-wrapper dl.tabular dd &gt; a {font-weight: 700}
+.html-embed-wrapper .col-sm-1 dl.tabular dd &gt; a.decor, .html-embed-wrapper .col-sm-2 dl.tabular dd &gt; a.decor, .html-embed-wrapper .col-sm-3 dl.tabular dd &gt; a.decor, .html-embed-wrapper .col-sm-4 dl.tabular dd &gt; a.decor, .html-embed-wrapper .col-sm-5 dl.tabular dd &gt; a.decor, .html-embed-wrapper .col-sm-6 dl.tabular dd &gt; a.decor, .html-embed-wrapper dl.tabular dd &gt; a.decor {font-weight: 400}
+.html-embed-wrapper .col-sm-1 dl.tabular.wide-term dt, .html-embed-wrapper .col-sm-2 dl.tabular.wide-term dt, .html-embed-wrapper .col-sm-3 dl.tabular.wide-term dt, .html-embed-wrapper .col-sm-4 dl.tabular.wide-term dt, .html-embed-wrapper .col-sm-5 dl.tabular.wide-term dt, .html-embed-wrapper .col-sm-6 dl.tabular.wide-term dt, .html-embed-wrapper dl.tabular.wide-term dt {width: 100%}
+.html-embed-wrapper .col-sm-1 dl.tabular.wide-term dd, .html-embed-wrapper .col-sm-2 dl.tabular.wide-term dd, .html-embed-wrapper .col-sm-3 dl.tabular.wide-term dd, .html-embed-wrapper .col-sm-4 dl.tabular.wide-term dd, .html-embed-wrapper .col-sm-5 dl.tabular.wide-term dd, .html-embed-wrapper .col-sm-6 dl.tabular.wide-term dd, .html-embed-wrapper dl.tabular.wide-term dd {width: 100%}
+.html-embed-wrapper .col-sm-1 dl.tabular.wide-term dd + dd, .html-embed-wrapper .col-sm-2 dl.tabular.wide-term dd + dd, .html-embed-wrapper .col-sm-3 dl.tabular.wide-term dd + dd, .html-embed-wrapper .col-sm-4 dl.tabular.wide-term dd + dd, .html-embed-wrapper .col-sm-5 dl.tabular.wide-term dd + dd, .html-embed-wrapper .col-sm-6 dl.tabular.wide-term dd + dd, .html-embed-wrapper dl.tabular.wide-term dd + dd {margin-left: 0}
+@media (min-width: 768px) {
+.html-embed-wrapper dl.tabular dt {float: left;
+color: #343434;
+background: 0 0;
+width: 35%;
+clear: left;
+margin: 0 1% 10px 0;
+padding: 0;
+border: none}
+.html-embed-wrapper dl.tabular dt:first-child {margin-top: 0}
+.html-embed-wrapper dl.tabular dd {float: left;
+width: 64%;
+clear: none;
+margin: 0 0 10px 0}
+.html-embed-wrapper dl.tabular dd + dd {margin-top: -5px;
+margin-left: 36%}
+.html-embed-wrapper dl.tabular.wide-term dt {width: 60%}
+.html-embed-wrapper dl.tabular.wide-term dd {width: 39%}
+.html-embed-wrapper dl.tabular.wide-term dd + dd {margin-left: 61%}
+.html-embed-wrapper dl.tabular.narrow-term dt {width: 20%}
+.html-embed-wrapper dl.tabular.narrow-term dt {width: 20%}
+.html-embed-wrapper dl.tabular.narrow-term dd {width: 79%}
+.html-embed-wrapper dl.tabular.narrow-term dd {width: 79%}
+.html-embed-wrapper dl.tabular.narrow-term dd + dd {margin-left: 21%}
+.html-embed-wrapper dl.tabular.narrow-term dd + dd {margin-left: 21%}
+.html-embed-wrapper dl.tabular.narrow-term.extra dt {width: 12.5%}
+.html-embed-wrapper dl.tabular.narrow-term.extra dt {width: 12.5%}
+.html-embed-wrapper dl.tabular.narrow-term.extra dd {width: 86.5%}
+.html-embed-wrapper dl.tabular.narrow-term.extra dd {width: 86.5%}
+.html-embed-wrapper dl.tabular.narrow-term.extra dd + dd {margin-left: 13.5%}
+.html-embed-wrapper dl.tabular.narrow-term.extra dd + dd {margin-left: 13.5%}
+.html-embed-wrapper dl.tabular.spacious {margin-bottom: 15px}
+.html-embed-wrapper dl.tabular.spacious {margin-bottom: 15px}
+.html-embed-wrapper dl.tabular.compact dd, .html-embed-wrapper dl.tabular.compact dt {margin-bottom: 10px}
+.html-embed-wrapper dl.tabular.compact.extra dd, .html-embed-wrapper dl.tabular.compact.extra dt {margin-bottom: 0}
+.html-embed-wrapper dl.tabular.no-bold dd, .html-embed-wrapper dl.tabular.no-bold dt {font-weight: 400}
+.html-embed-wrapper dl.tabular.no-bold dd, .html-embed-wrapper dl.tabular.no-bold dt {font-weight: 400}
+}
+@media (min-width: 992px) {
+.html-embed-wrapper .col-sm-1 dl.tabular dt, .html-embed-wrapper .col-sm-2 dl.tabular dt, .html-embed-wrapper .col-sm-3 dl.tabular dt, .html-embed-wrapper .col-sm-4 dl.tabular dt, .html-embed-wrapper .col-sm-5 dl.tabular dt, .html-embed-wrapper .col-sm-6 dl.tabular dt, .html-embed-wrapper dl.tabular dt {float: left;
+color: #343434;
+background: 0 0;
+width: 35%;
+clear: left;
+margin: 0 1% 10px 0;
+padding: 0;
+border: none}
+.html-embed-wrapper .col-sm-1 dl.tabular dt:first-child, .html-embed-wrapper .col-sm-2 dl.tabular dt:first-child, .html-embed-wrapper .col-sm-3 dl.tabular dt:first-child, .html-embed-wrapper .col-sm-4 dl.tabular dt:first-child, .html-embed-wrapper .col-sm-5 dl.tabular dt:first-child, .html-embed-wrapper .col-sm-6 dl.tabular dt:first-child, .html-embed-wrapper dl.tabular dt:first-child {margin-top: 0}
+.html-embed-wrapper .col-sm-1 dl.tabular dd, .html-embed-wrapper .col-sm-2 dl.tabular dd, .html-embed-wrapper .col-sm-3 dl.tabular dd, .html-embed-wrapper .col-sm-4 dl.tabular dd, .html-embed-wrapper .col-sm-5 dl.tabular dd, .html-embed-wrapper .col-sm-6 dl.tabular dd, .html-embed-wrapper dl.tabular dd {float: left;
+width: 64%;
+clear: none;
+margin: 0 0 10px 0}
+.html-embed-wrapper .col-sm-1 dl.tabular dd + dd, .html-embed-wrapper .col-sm-2 dl.tabular dd + dd, .html-embed-wrapper .col-sm-3 dl.tabular dd + dd, .html-embed-wrapper .col-sm-4 dl.tabular dd + dd, .html-embed-wrapper .col-sm-5 dl.tabular dd + dd, .html-embed-wrapper .col-sm-6 dl.tabular dd + dd, .html-embed-wrapper dl.tabular dd + dd {margin-top: -5px;
+margin-left: 36%}
+.html-embed-wrapper .col-sm-1 dl.tabular.wide-term dt, .html-embed-wrapper .col-sm-2 dl.tabular.wide-term dt, .html-embed-wrapper .col-sm-3 dl.tabular.wide-term dt, .html-embed-wrapper .col-sm-4 dl.tabular.wide-term dt, .html-embed-wrapper .col-sm-5 dl.tabular.wide-term dt, .html-embed-wrapper .col-sm-6 dl.tabular.wide-term dt, .html-embed-wrapper dl.tabular.wide-term dt {width: 60%}
+.html-embed-wrapper .col-sm-1 dl.tabular.wide-term dd, .html-embed-wrapper .col-sm-2 dl.tabular.wide-term dd, .html-embed-wrapper .col-sm-3 dl.tabular.wide-term dd, .html-embed-wrapper .col-sm-4 dl.tabular.wide-term dd, .html-embed-wrapper .col-sm-5 dl.tabular.wide-term dd, .html-embed-wrapper .col-sm-6 dl.tabular.wide-term dd, .html-embed-wrapper dl.tabular.wide-term dd {width: 39%}
+.html-embed-wrapper .col-sm-1 dl.tabular.wide-term dd + dd, .html-embed-wrapper .col-sm-2 dl.tabular.wide-term dd + dd, .html-embed-wrapper .col-sm-3 dl.tabular.wide-term dd + dd, .html-embed-wrapper .col-sm-4 dl.tabular.wide-term dd + dd, .html-embed-wrapper .col-sm-5 dl.tabular.wide-term dd + dd, .html-embed-wrapper .col-sm-6 dl.tabular.wide-term dd + dd, .html-embed-wrapper dl.tabular.wide-term dd + dd {margin-left: 61%}
+.html-embed-wrapper .col-sm-1 dl.tabular.narrow-term dt, .html-embed-wrapper .col-sm-2 dl.tabular.narrow-term dt, .html-embed-wrapper .col-sm-3 dl.tabular.narrow-term dt, .html-embed-wrapper .col-sm-4 dl.tabular.narrow-term dt, .html-embed-wrapper .col-sm-5 dl.tabular.narrow-term dt, .html-embed-wrapper .col-sm-6 dl.tabular.narrow-term dt, .html-embed-wrapper dl.tabular.narrow-term dt {width: 20%}
+.html-embed-wrapper .col-sm-1 dl.tabular.narrow-term dt, .html-embed-wrapper .col-sm-2 dl.tabular.narrow-term dt, .html-embed-wrapper .col-sm-3 dl.tabular.narrow-term dt, .html-embed-wrapper .col-sm-4 dl.tabular.narrow-term dt, .html-embed-wrapper .col-sm-5 dl.tabular.narrow-term dt, .html-embed-wrapper .col-sm-6 dl.tabular.narrow-term dt, .html-embed-wrapper dl.tabular.narrow-term dt {width: 20%}
+.html-embed-wrapper .col-sm-1 dl.tabular.narrow-term dd, .html-embed-wrapper .col-sm-2 dl.tabular.narrow-term dd, .html-embed-wrapper .col-sm-3 dl.tabular.narrow-term dd, .html-embed-wrapper .col-sm-4 dl.tabular.narrow-term dd, .html-embed-wrapper .col-sm-5 dl.tabular.narrow-term dd, .html-embed-wrapper .col-sm-6 dl.tabular.narrow-term dd, .html-embed-wrapper dl.tabular.narrow-term dd {width: 79%}
+.html-embed-wrapper .col-sm-1 dl.tabular.narrow-term dd, .html-embed-wrapper .col-sm-2 dl.tabular.narrow-term dd, .html-embed-wrapper .col-sm-3 dl.tabular.narrow-term dd, .html-embed-wrapper .col-sm-4 dl.tabular.narrow-term dd, .html-embed-wrapper .col-sm-5 dl.tabular.narrow-term dd, .html-embed-wrapper .col-sm-6 dl.tabular.narrow-term dd, .html-embed-wrapper dl.tabular.narrow-term dd {width: 79%}
+.html-embed-wrapper .col-sm-1 dl.tabular.narrow-term dd + dd, .html-embed-wrapper .col-sm-2 dl.tabular.narrow-term dd + dd, .html-embed-wrapper .col-sm-3 dl.tabular.narrow-term dd + dd, .html-embed-wrapper .col-sm-4 dl.tabular.narrow-term dd + dd, .html-embed-wrapper .col-sm-5 dl.tabular.narrow-term dd + dd, .html-embed-wrapper .col-sm-6 dl.tabular.narrow-term dd + dd, .html-embed-wrapper dl.tabular.narrow-term dd + dd {margin-left: 21%}
+.html-embed-wrapper .col-sm-1 dl.tabular.narrow-term dd + dd, .html-embed-wrapper .col-sm-2 dl.tabular.narrow-term dd + dd, .html-embed-wrapper .col-sm-3 dl.tabular.narrow-term dd + dd, .html-embed-wrapper .col-sm-4 dl.tabular.narrow-term dd + dd, .html-embed-wrapper .col-sm-5 dl.tabular.narrow-term dd + dd, .html-embed-wrapper .col-sm-6 dl.tabular.narrow-term dd + dd, .html-embed-wrapper dl.tabular.narrow-term dd + dd {margin-left: 21%}
+.html-embed-wrapper .col-sm-1 dl.tabular.spacious, .html-embed-wrapper .col-sm-2 dl.tabular.spacious, .html-embed-wrapper .col-sm-3 dl.tabular.spacious, .html-embed-wrapper .col-sm-4 dl.tabular.spacious, .html-embed-wrapper .col-sm-5 dl.tabular.spacious, .html-embed-wrapper .col-sm-6 dl.tabular.spacious, .html-embed-wrapper dl.tabular.spacious {margin-bottom: 15px}
+.html-embed-wrapper .col-sm-1 dl.tabular.spacious, .html-embed-wrapper .col-sm-2 dl.tabular.spacious, .html-embed-wrapper .col-sm-3 dl.tabular.spacious, .html-embed-wrapper .col-sm-4 dl.tabular.spacious, .html-embed-wrapper .col-sm-5 dl.tabular.spacious, .html-embed-wrapper .col-sm-6 dl.tabular.spacious, .html-embed-wrapper dl.tabular.spacious {margin-bottom: 15px}
+.html-embed-wrapper .col-sm-1 dl.tabular.compact dd, .html-embed-wrapper .col-sm-1 dl.tabular.compact dt, .html-embed-wrapper .col-sm-2 dl.tabular.compact dd, .html-embed-wrapper .col-sm-2 dl.tabular.compact dt, .html-embed-wrapper .col-sm-3 dl.tabular.compact dd, .html-embed-wrapper .col-sm-3 dl.tabular.compact dt, .html-embed-wrapper .col-sm-4 dl.tabular.compact dd, .html-embed-wrapper .col-sm-4 dl.tabular.compact dt, .html-embed-wrapper .col-sm-5 dl.tabular.compact dd, .html-embed-wrapper .col-sm-5 dl.tabular.compact dt, .html-embed-wrapper .col-sm-6 dl.tabular.compact dd, .html-embed-wrapper .col-sm-6 dl.tabular.compact dt, .html-embed-wrapper dl.tabular.compact dd, .html-embed-wrapper dl.tabular.compact dt {margin-bottom: 10px}
+.html-embed-wrapper .col-sm-1 dl.tabular.compact.extra dd, .html-embed-wrapper .col-sm-1 dl.tabular.compact.extra dt, .html-embed-wrapper .col-sm-2 dl.tabular.compact.extra dd, .html-embed-wrapper .col-sm-2 dl.tabular.compact.extra dt, .html-embed-wrapper .col-sm-3 dl.tabular.compact.extra dd, .html-embed-wrapper .col-sm-3 dl.tabular.compact.extra dt, .html-embed-wrapper .col-sm-4 dl.tabular.compact.extra dd, .html-embed-wrapper .col-sm-4 dl.tabular.compact.extra dt, .html-embed-wrapper .col-sm-5 dl.tabular.compact.extra dd, .html-embed-wrapper .col-sm-5 dl.tabular.compact.extra dt, .html-embed-wrapper .col-sm-6 dl.tabular.compact.extra dd, .html-embed-wrapper .col-sm-6 dl.tabular.compact.extra dt, .html-embed-wrapper dl.tabular.compact.extra dd, .html-embed-wrapper dl.tabular.compact.extra dt {margin-bottom: 0}
+.html-embed-wrapper .col-sm-1 dl.tabular.no-bold dd, .html-embed-wrapper .col-sm-1 dl.tabular.no-bold dt, .html-embed-wrapper .col-sm-2 dl.tabular.no-bold dd, .html-embed-wrapper .col-sm-2 dl.tabular.no-bold dt, .html-embed-wrapper .col-sm-3 dl.tabular.no-bold dd, .html-embed-wrapper .col-sm-3 dl.tabular.no-bold dt, .html-embed-wrapper .col-sm-4 dl.tabular.no-bold dd, .html-embed-wrapper .col-sm-4 dl.tabular.no-bold dt, .html-embed-wrapper .col-sm-5 dl.tabular.no-bold dd, .html-embed-wrapper .col-sm-5 dl.tabular.no-bold dt, .html-embed-wrapper .col-sm-6 dl.tabular.no-bold dd, .html-embed-wrapper .col-sm-6 dl.tabular.no-bold dt, .html-embed-wrapper dl.tabular.no-bold dd, .html-embed-wrapper dl.tabular.no-bold dt {font-weight: 400}
+.html-embed-wrapper .col-sm-1 dl.tabular.no-bold dd, .html-embed-wrapper .col-sm-1 dl.tabular.no-bold dt, .html-embed-wrapper .col-sm-2 dl.tabular.no-bold dd, .html-embed-wrapper .col-sm-2 dl.tabular.no-bold dt, .html-embed-wrapper .col-sm-3 dl.tabular.no-bold dd, .html-embed-wrapper .col-sm-3 dl.tabular.no-bold dt, .html-embed-wrapper .col-sm-4 dl.tabular.no-bold dd, .html-embed-wrapper .col-sm-4 dl.tabular.no-bold dt, .html-embed-wrapper .col-sm-5 dl.tabular.no-bold dd, .html-embed-wrapper .col-sm-5 dl.tabular.no-bold dt, .html-embed-wrapper .col-sm-6 dl.tabular.no-bold dd, .html-embed-wrapper .col-sm-6 dl.tabular.no-bold dt, .html-embed-wrapper dl.tabular.no-bold dd, .html-embed-wrapper dl.tabular.no-bold dt {font-weight: 400}
+}
+.html-embed-wrapper .memorandum dl.narrow-term {margin-bottom: 10px}
+.html-embed-wrapper .memorandum dl.narrow-term dt {font-weight: 400}
+.html-embed-wrapper .next dl.tabular {margin-bottom: 10px}
+.html-embed-wrapper .next dl.tabular dt {font-size: 2rem;
+font-weight: 400;
+width: auto;
+margin: 0 25px 5px 0;
+font-family: "GT Walsheim", Arial, sans-serif;
+border: none;
+float: left;
+clear: left}
+.html-embed-wrapper .next dl.tabular dt:first-of-type {margin-top: 5px;
+font-family: "GT Walsheim", Arial, sans-serif;
+font-weight: 700}
+.html-embed-wrapper .next dl.tabular dd {font-size: 2rem;
+font-weight: 400;
+width: auto;
+margin: 0 0 5px 0;
+font-family: "GT Walsheim", Arial, sans-serif;
+float: left}
+.html-embed-wrapper .next dl.tabular dd:first-of-type {margin-top: 5px;
+font-family: "GT Walsheim", Arial, sans-serif;
+font-weight: 700}
+.html-embed-wrapper .next dl.tabular dd small {font-family: "GT Walsheim", Arial, sans-serif;
+font-weight: 400}
+.html-embed-wrapper ol.subtle-collapsible-list.col-xs-12, .html-embed-wrapper ul.subtle-collapsible-list.col-xs-12 {padding: 0 15px 0 0}
+&lt;/style&gt;&lt;section class="text-block clearfix" data-element="2016 Text Block" id="txt-5200467"&gt;
  &lt;div class="col-xs-12"&gt;
   &lt;dl class="tabular narrow-term no-bold spacious"&gt;
    &lt;dt&gt;

--- a/GetTextBlockHtml/cf_out.xlsx
+++ b/GetTextBlockHtml/cf_out.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,6 +645,7691 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/centers/antiracism/thinking-freedom-series</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>cs_control_5674895-collapse</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>cs_control_5674895-collapse</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+@media print {
+.html-embed-wrapper .btn &gt; .caret, .html-embed-wrapper .dropup &gt; .btn &gt; .caret {border-top-color: #000 !important}
+}
+.html-embed-wrapper .btn {display: inline-block;
+margin-bottom: 0;
+font-weight: 400;
+text-align: center;
+vertical-align: middle;
+-ms-touch-action: manipulation;
+touch-action: manipulation;
+cursor: pointer;
+background-image: none;
+border: 1px solid transparent;
+white-space: nowrap;
+padding: 6px 12px;
+font-size: 14px;
+line-height: 1.428571;
+border-radius: 4px;
+-webkit-user-select: none;
+-moz-user-select: none;
+-ms-user-select: none;
+user-select: none}
+.html-embed-wrapper .btn.active.focus, .html-embed-wrapper .btn.active:focus, .html-embed-wrapper .btn.focus, .html-embed-wrapper .btn:active.focus, .html-embed-wrapper .btn:active:focus, .html-embed-wrapper .btn:focus {outline: thin dotted;
+outline: 5px auto -webkit-focus-ring-color;
+outline-offset: -2px}
+.html-embed-wrapper .btn.focus, .html-embed-wrapper .btn:focus, .html-embed-wrapper .btn:hover {color: #333;
+text-decoration: none}
+.html-embed-wrapper .btn.active, .html-embed-wrapper .btn:active {outline: 0;
+background-image: none;
+box-shadow: inset 0 3px 5px rgba(0, 0, 0, 0.125)}
+.html-embed-wrapper .btn.disabled, .html-embed-wrapper .btn[disabled], .html-embed-wrapper fieldset[disabled] .btn {cursor: not-allowed;
+opacity: 0.65;
+box-shadow: none}
+.html-embed-wrapper a.btn.disabled, .html-embed-wrapper fieldset[disabled] a.btn {pointer-events: none}
+.html-embed-wrapper .btn-default {color: #333;
+background-color: #fff;
+border-color: #ccc}
+.html-embed-wrapper .btn-default.focus, .html-embed-wrapper .btn-default:focus {color: #333;
+background-color: #e6e6e6;
+border-color: #8c8c8c}
+.html-embed-wrapper .btn-default:hover {color: #333;
+background-color: #e6e6e6;
+border-color: #adadad}
+.html-embed-wrapper .btn-default.active, .html-embed-wrapper .btn-default:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-default {color: #333;
+background-color: #e6e6e6;
+border-color: #adadad}
+.html-embed-wrapper .btn-default.active.focus, .html-embed-wrapper .btn-default.active:focus, .html-embed-wrapper .btn-default.active:hover, .html-embed-wrapper .btn-default:active.focus, .html-embed-wrapper .btn-default:active:focus, .html-embed-wrapper .btn-default:active:hover, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-default.focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-default:focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-default:hover {color: #333;
+background-color: #d4d4d4;
+border-color: #8c8c8c}
+.html-embed-wrapper .btn-default.active, .html-embed-wrapper .btn-default:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-default {background-image: none}
+.html-embed-wrapper .btn-default.disabled, .html-embed-wrapper .btn-default.disabled.active, .html-embed-wrapper .btn-default.disabled.focus, .html-embed-wrapper .btn-default.disabled:active, .html-embed-wrapper .btn-default.disabled:focus, .html-embed-wrapper .btn-default.disabled:hover, .html-embed-wrapper .btn-default[disabled], .html-embed-wrapper .btn-default[disabled].active, .html-embed-wrapper .btn-default[disabled].focus, .html-embed-wrapper .btn-default[disabled]:active, .html-embed-wrapper .btn-default[disabled]:focus, .html-embed-wrapper .btn-default[disabled]:hover, .html-embed-wrapper fieldset[disabled] .btn-default, .html-embed-wrapper fieldset[disabled] .btn-default.active, .html-embed-wrapper fieldset[disabled] .btn-default.focus, .html-embed-wrapper fieldset[disabled] .btn-default:active, .html-embed-wrapper fieldset[disabled] .btn-default:focus, .html-embed-wrapper fieldset[disabled] .btn-default:hover {background-color: #fff;
+border-color: #ccc}
+.html-embed-wrapper .btn-default .badge {color: #fff;
+background-color: #333}
+.html-embed-wrapper .btn-primary {color: #fff;
+background-color: #337ab7;
+border-color: #2e6da4}
+.html-embed-wrapper .btn-primary.focus, .html-embed-wrapper .btn-primary:focus {color: #fff;
+background-color: #286090;
+border-color: #122b40}
+.html-embed-wrapper .btn-primary:hover {color: #fff;
+background-color: #286090;
+border-color: #204d74}
+.html-embed-wrapper .btn-primary.active, .html-embed-wrapper .btn-primary:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-primary {color: #fff;
+background-color: #286090;
+border-color: #204d74}
+.html-embed-wrapper .btn-primary.active.focus, .html-embed-wrapper .btn-primary.active:focus, .html-embed-wrapper .btn-primary.active:hover, .html-embed-wrapper .btn-primary:active.focus, .html-embed-wrapper .btn-primary:active:focus, .html-embed-wrapper .btn-primary:active:hover, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-primary.focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-primary:focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-primary:hover {color: #fff;
+background-color: #204d74;
+border-color: #122b40}
+.html-embed-wrapper .btn-primary.active, .html-embed-wrapper .btn-primary:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-primary {background-image: none}
+.html-embed-wrapper .btn-primary.disabled, .html-embed-wrapper .btn-primary.disabled.active, .html-embed-wrapper .btn-primary.disabled.focus, .html-embed-wrapper .btn-primary.disabled:active, .html-embed-wrapper .btn-primary.disabled:focus, .html-embed-wrapper .btn-primary.disabled:hover, .html-embed-wrapper .btn-primary[disabled], .html-embed-wrapper .btn-primary[disabled].active, .html-embed-wrapper .btn-primary[disabled].focus, .html-embed-wrapper .btn-primary[disabled]:active, .html-embed-wrapper .btn-primary[disabled]:focus, .html-embed-wrapper .btn-primary[disabled]:hover, .html-embed-wrapper fieldset[disabled] .btn-primary, .html-embed-wrapper fieldset[disabled] .btn-primary.active, .html-embed-wrapper fieldset[disabled] .btn-primary.focus, .html-embed-wrapper fieldset[disabled] .btn-primary:active, .html-embed-wrapper fieldset[disabled] .btn-primary:focus, .html-embed-wrapper fieldset[disabled] .btn-primary:hover {background-color: #337ab7;
+border-color: #2e6da4}
+.html-embed-wrapper .btn-primary .badge {color: #337ab7;
+background-color: #fff}
+.html-embed-wrapper .btn-success {color: #fff;
+background-color: #5cb85c;
+border-color: #4cae4c}
+.html-embed-wrapper .btn-success.focus, .html-embed-wrapper .btn-success:focus {color: #fff;
+background-color: #449d44;
+border-color: #255625}
+.html-embed-wrapper .btn-success:hover {color: #fff;
+background-color: #449d44;
+border-color: #398439}
+.html-embed-wrapper .btn-success.active, .html-embed-wrapper .btn-success:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-success {color: #fff;
+background-color: #449d44;
+border-color: #398439}
+.html-embed-wrapper .btn-success.active.focus, .html-embed-wrapper .btn-success.active:focus, .html-embed-wrapper .btn-success.active:hover, .html-embed-wrapper .btn-success:active.focus, .html-embed-wrapper .btn-success:active:focus, .html-embed-wrapper .btn-success:active:hover, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-success.focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-success:focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-success:hover {color: #fff;
+background-color: #398439;
+border-color: #255625}
+.html-embed-wrapper .btn-success.active, .html-embed-wrapper .btn-success:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-success {background-image: none}
+.html-embed-wrapper .btn-success.disabled, .html-embed-wrapper .btn-success.disabled.active, .html-embed-wrapper .btn-success.disabled.focus, .html-embed-wrapper .btn-success.disabled:active, .html-embed-wrapper .btn-success.disabled:focus, .html-embed-wrapper .btn-success.disabled:hover, .html-embed-wrapper .btn-success[disabled], .html-embed-wrapper .btn-success[disabled].active, .html-embed-wrapper .btn-success[disabled].focus, .html-embed-wrapper .btn-success[disabled]:active, .html-embed-wrapper .btn-success[disabled]:focus, .html-embed-wrapper .btn-success[disabled]:hover, .html-embed-wrapper fieldset[disabled] .btn-success, .html-embed-wrapper fieldset[disabled] .btn-success.active, .html-embed-wrapper fieldset[disabled] .btn-success.focus, .html-embed-wrapper fieldset[disabled] .btn-success:active, .html-embed-wrapper fieldset[disabled] .btn-success:focus, .html-embed-wrapper fieldset[disabled] .btn-success:hover {background-color: #5cb85c;
+border-color: #4cae4c}
+.html-embed-wrapper .btn-success .badge {color: #5cb85c;
+background-color: #fff}
+.html-embed-wrapper .btn-info {color: #fff;
+background-color: #5bc0de;
+border-color: #46b8da}
+.html-embed-wrapper .btn-info.focus, .html-embed-wrapper .btn-info:focus {color: #fff;
+background-color: #31b0d5;
+border-color: #1b6d85}
+.html-embed-wrapper .btn-info:hover {color: #fff;
+background-color: #31b0d5;
+border-color: #269abc}
+.html-embed-wrapper .btn-info.active, .html-embed-wrapper .btn-info:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-info {color: #fff;
+background-color: #31b0d5;
+border-color: #269abc}
+.html-embed-wrapper .btn-info.active.focus, .html-embed-wrapper .btn-info.active:focus, .html-embed-wrapper .btn-info.active:hover, .html-embed-wrapper .btn-info:active.focus, .html-embed-wrapper .btn-info:active:focus, .html-embed-wrapper .btn-info:active:hover, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-info.focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-info:focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-info:hover {color: #fff;
+background-color: #269abc;
+border-color: #1b6d85}
+.html-embed-wrapper .btn-info.active, .html-embed-wrapper .btn-info:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-info {background-image: none}
+.html-embed-wrapper .btn-info.disabled, .html-embed-wrapper .btn-info.disabled.active, .html-embed-wrapper .btn-info.disabled.focus, .html-embed-wrapper .btn-info.disabled:active, .html-embed-wrapper .btn-info.disabled:focus, .html-embed-wrapper .btn-info.disabled:hover, .html-embed-wrapper .btn-info[disabled], .html-embed-wrapper .btn-info[disabled].active, .html-embed-wrapper .btn-info[disabled].focus, .html-embed-wrapper .btn-info[disabled]:active, .html-embed-wrapper .btn-info[disabled]:focus, .html-embed-wrapper .btn-info[disabled]:hover, .html-embed-wrapper fieldset[disabled] .btn-info, .html-embed-wrapper fieldset[disabled] .btn-info.active, .html-embed-wrapper fieldset[disabled] .btn-info.focus, .html-embed-wrapper fieldset[disabled] .btn-info:active, .html-embed-wrapper fieldset[disabled] .btn-info:focus, .html-embed-wrapper fieldset[disabled] .btn-info:hover {background-color: #5bc0de;
+border-color: #46b8da}
+.html-embed-wrapper .btn-info .badge {color: #5bc0de;
+background-color: #fff}
+.html-embed-wrapper .btn-warning {color: #fff;
+background-color: #f0ad4e;
+border-color: #eea236}
+.html-embed-wrapper .btn-warning.focus, .html-embed-wrapper .btn-warning:focus {color: #fff;
+background-color: #ec971f;
+border-color: #985f0d}
+.html-embed-wrapper .btn-warning:hover {color: #fff;
+background-color: #ec971f;
+border-color: #d58512}
+.html-embed-wrapper .btn-warning.active, .html-embed-wrapper .btn-warning:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-warning {color: #fff;
+background-color: #ec971f;
+border-color: #d58512}
+.html-embed-wrapper .btn-warning.active.focus, .html-embed-wrapper .btn-warning.active:focus, .html-embed-wrapper .btn-warning.active:hover, .html-embed-wrapper .btn-warning:active.focus, .html-embed-wrapper .btn-warning:active:focus, .html-embed-wrapper .btn-warning:active:hover, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-warning.focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-warning:focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-warning:hover {color: #fff;
+background-color: #d58512;
+border-color: #985f0d}
+.html-embed-wrapper .btn-warning.active, .html-embed-wrapper .btn-warning:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-warning {background-image: none}
+.html-embed-wrapper .btn-warning.disabled, .html-embed-wrapper .btn-warning.disabled.active, .html-embed-wrapper .btn-warning.disabled.focus, .html-embed-wrapper .btn-warning.disabled:active, .html-embed-wrapper .btn-warning.disabled:focus, .html-embed-wrapper .btn-warning.disabled:hover, .html-embed-wrapper .btn-warning[disabled], .html-embed-wrapper .btn-warning[disabled].active, .html-embed-wrapper .btn-warning[disabled].focus, .html-embed-wrapper .btn-warning[disabled]:active, .html-embed-wrapper .btn-warning[disabled]:focus, .html-embed-wrapper .btn-warning[disabled]:hover, .html-embed-wrapper fieldset[disabled] .btn-warning, .html-embed-wrapper fieldset[disabled] .btn-warning.active, .html-embed-wrapper fieldset[disabled] .btn-warning.focus, .html-embed-wrapper fieldset[disabled] .btn-warning:active, .html-embed-wrapper fieldset[disabled] .btn-warning:focus, .html-embed-wrapper fieldset[disabled] .btn-warning:hover {background-color: #f0ad4e;
+border-color: #eea236}
+.html-embed-wrapper .btn-warning .badge {color: #f0ad4e;
+background-color: #fff}
+.html-embed-wrapper .btn-danger {color: #fff;
+background-color: #d9534f;
+border-color: #d43f3a}
+.html-embed-wrapper .btn-danger.focus, .html-embed-wrapper .btn-danger:focus {color: #fff;
+background-color: #c9302c;
+border-color: #761c19}
+.html-embed-wrapper .btn-danger:hover {color: #fff;
+background-color: #c9302c;
+border-color: #ac2925}
+.html-embed-wrapper .btn-danger.active, .html-embed-wrapper .btn-danger:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-danger {color: #fff;
+background-color: #c9302c;
+border-color: #ac2925}
+.html-embed-wrapper .btn-danger.active.focus, .html-embed-wrapper .btn-danger.active:focus, .html-embed-wrapper .btn-danger.active:hover, .html-embed-wrapper .btn-danger:active.focus, .html-embed-wrapper .btn-danger:active:focus, .html-embed-wrapper .btn-danger:active:hover, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-danger.focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-danger:focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-danger:hover {color: #fff;
+background-color: #ac2925;
+border-color: #761c19}
+.html-embed-wrapper .btn-danger.active, .html-embed-wrapper .btn-danger:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-danger {background-image: none}
+.html-embed-wrapper .btn-danger.disabled, .html-embed-wrapper .btn-danger.disabled.active, .html-embed-wrapper .btn-danger.disabled.focus, .html-embed-wrapper .btn-danger.disabled:active, .html-embed-wrapper .btn-danger.disabled:focus, .html-embed-wrapper .btn-danger.disabled:hover, .html-embed-wrapper .btn-danger[disabled], .html-embed-wrapper .btn-danger[disabled].active, .html-embed-wrapper .btn-danger[disabled].focus, .html-embed-wrapper .btn-danger[disabled]:active, .html-embed-wrapper .btn-danger[disabled]:focus, .html-embed-wrapper .btn-danger[disabled]:hover, .html-embed-wrapper fieldset[disabled] .btn-danger, .html-embed-wrapper fieldset[disabled] .btn-danger.active, .html-embed-wrapper fieldset[disabled] .btn-danger.focus, .html-embed-wrapper fieldset[disabled] .btn-danger:active, .html-embed-wrapper fieldset[disabled] .btn-danger:focus, .html-embed-wrapper fieldset[disabled] .btn-danger:hover {background-color: #d9534f;
+border-color: #d43f3a}
+.html-embed-wrapper .btn-danger .badge {color: #d9534f;
+background-color: #fff}
+.html-embed-wrapper .btn-link {color: #337ab7;
+font-weight: 400;
+border-radius: 0}
+.html-embed-wrapper .btn-link, .html-embed-wrapper .btn-link.active, .html-embed-wrapper .btn-link:active, .html-embed-wrapper .btn-link[disabled], .html-embed-wrapper fieldset[disabled] .btn-link {background-color: transparent;
+box-shadow: none}
+.html-embed-wrapper .btn-link, .html-embed-wrapper .btn-link:active, .html-embed-wrapper .btn-link:focus, .html-embed-wrapper .btn-link:hover {border-color: transparent}
+.html-embed-wrapper .btn-link:focus, .html-embed-wrapper .btn-link:hover {color: #23527c;
+text-decoration: underline;
+background-color: transparent}
+.html-embed-wrapper .btn-link[disabled]:focus, .html-embed-wrapper .btn-link[disabled]:hover, .html-embed-wrapper fieldset[disabled] .btn-link:focus, .html-embed-wrapper fieldset[disabled] .btn-link:hover {color: #777;
+text-decoration: none}
+.html-embed-wrapper .btn-group-lg &gt; .btn, .html-embed-wrapper .btn-lg {padding: 10px 16px;
+font-size: 18px;
+line-height: 1.333333;
+border-radius: 6px}
+.html-embed-wrapper .btn-group-sm &gt; .btn, .html-embed-wrapper .btn-sm {padding: 5px 10px;
+font-size: 12px;
+line-height: 1.5;
+border-radius: 3px}
+.html-embed-wrapper .btn-group-xs &gt; .btn, .html-embed-wrapper .btn-xs {padding: 1px 5px;
+font-size: 12px;
+line-height: 1.5;
+border-radius: 3px}
+.html-embed-wrapper .btn-block {display: block;
+width: 100%}
+.html-embed-wrapper .btn-block + .btn-block {margin-top: 5px}
+.html-embed-wrapper input[type=button].btn-block, .html-embed-wrapper input[type=reset].btn-block, .html-embed-wrapper input[type=submit].btn-block {width: 100%}
+.html-embed-wrapper .btn-group, .html-embed-wrapper .btn-group-vertical {position: relative;
+display: inline-block;
+vertical-align: middle}
+.html-embed-wrapper .btn-group-vertical &gt; .btn, .html-embed-wrapper .btn-group &gt; .btn {position: relative;
+float: left}
+.html-embed-wrapper .btn-group-vertical &gt; .btn.active, .html-embed-wrapper .btn-group-vertical &gt; .btn:active, .html-embed-wrapper .btn-group-vertical &gt; .btn:focus, .html-embed-wrapper .btn-group-vertical &gt; .btn:hover, .html-embed-wrapper .btn-group &gt; .btn.active, .html-embed-wrapper .btn-group &gt; .btn:active, .html-embed-wrapper .btn-group &gt; .btn:focus, .html-embed-wrapper .btn-group &gt; .btn:hover {z-index: 2}
+.html-embed-wrapper .btn-group .btn + .btn, .html-embed-wrapper .btn-group .btn + .btn-group, .html-embed-wrapper .btn-group .btn-group + .btn, .html-embed-wrapper .btn-group .btn-group + .btn-group {margin-left: -1px}
+.html-embed-wrapper .btn-toolbar {margin-left: -5px}
+.html-embed-wrapper .btn-toolbar .btn, .html-embed-wrapper .btn-toolbar .btn-group, .html-embed-wrapper .btn-toolbar .input-group {float: left}
+.html-embed-wrapper .btn-toolbar &gt; .btn, .html-embed-wrapper .btn-toolbar &gt; .btn-group, .html-embed-wrapper .btn-toolbar &gt; .input-group {margin-left: 5px}
+.html-embed-wrapper .btn-group &gt; .btn:not(:first-child):not(:last-child):not(.dropdown-toggle) {border-radius: 0}
+.html-embed-wrapper .btn-group &gt; .btn:first-child {margin-left: 0}
+.html-embed-wrapper .btn-group &gt; .btn:first-child:not(:last-child):not(.dropdown-toggle) {border-bottom-right-radius: 0;
+border-top-right-radius: 0}
+.html-embed-wrapper .btn-group &gt; .btn:last-child:not(:first-child), .html-embed-wrapper .btn-group &gt; .dropdown-toggle:not(:first-child) {border-bottom-left-radius: 0;
+border-top-left-radius: 0}
+.html-embed-wrapper .btn-group &gt; .btn-group {float: left}
+.html-embed-wrapper .btn-group &gt; .btn-group:not(:first-child):not(:last-child) &gt; .btn {border-radius: 0}
+.html-embed-wrapper .btn-group &gt; .btn-group:first-child:not(:last-child) &gt; .btn:last-child, .html-embed-wrapper .btn-group &gt; .btn-group:first-child:not(:last-child) &gt; .dropdown-toggle {border-bottom-right-radius: 0;
+border-top-right-radius: 0}
+.html-embed-wrapper .btn-group &gt; .btn-group:last-child:not(:first-child) &gt; .btn:first-child {border-bottom-left-radius: 0;
+border-top-left-radius: 0}
+.html-embed-wrapper .btn-group .dropdown-toggle:active, .html-embed-wrapper .btn-group.open .dropdown-toggle {outline: 0}
+.html-embed-wrapper .btn-group &gt; .btn + .dropdown-toggle {padding-left: 8px;
+padding-right: 8px}
+.html-embed-wrapper .btn-group &gt; .btn-lg + .dropdown-toggle {padding-left: 12px;
+padding-right: 12px}
+.html-embed-wrapper .btn-group.open .dropdown-toggle {box-shadow: inset 0 3px 5px rgba(0, 0, 0, 0.125)}
+.html-embed-wrapper .btn-group.open .dropdown-toggle.btn-link {box-shadow: none}
+.html-embed-wrapper .btn .caret {margin-left: 0}
+.html-embed-wrapper .btn-lg .caret {border-width: 5px 5px 0;
+border-bottom-width: 0}
+.html-embed-wrapper .dropup .btn-lg .caret {border-width: 0 5px 5px}
+.html-embed-wrapper .btn-group-vertical &gt; .btn, .html-embed-wrapper .btn-group-vertical &gt; .btn-group, .html-embed-wrapper .btn-group-vertical &gt; .btn-group &gt; .btn {display: block;
+float: none;
+width: 100%;
+max-width: 100%}
+.html-embed-wrapper .btn-group-vertical &gt; .btn-group &gt; .btn {float: none}
+.html-embed-wrapper .btn-group-vertical &gt; .btn + .btn, .html-embed-wrapper .btn-group-vertical &gt; .btn + .btn-group, .html-embed-wrapper .btn-group-vertical &gt; .btn-group + .btn, .html-embed-wrapper .btn-group-vertical &gt; .btn-group + .btn-group {margin-top: -1px;
+margin-left: 0}
+.html-embed-wrapper .btn-group-vertical &gt; .btn:not(:first-child):not(:last-child) {border-radius: 0}
+.html-embed-wrapper .btn-group-vertical &gt; .btn:first-child:not(:last-child) {border-top-right-radius: 4px;
+border-bottom-right-radius: 0;
+border-bottom-left-radius: 0}
+.html-embed-wrapper .btn-group-vertical &gt; .btn:last-child:not(:first-child) {border-bottom-left-radius: 4px;
+border-top-right-radius: 0;
+border-top-left-radius: 0}
+.html-embed-wrapper .btn-group-vertical &gt; .btn-group:not(:first-child):not(:last-child) &gt; .btn {border-radius: 0}
+.html-embed-wrapper .btn-group-vertical &gt; .btn-group:first-child:not(:last-child) &gt; .btn:last-child, .html-embed-wrapper .btn-group-vertical &gt; .btn-group:first-child:not(:last-child) &gt; .dropdown-toggle {border-bottom-right-radius: 0;
+border-bottom-left-radius: 0}
+.html-embed-wrapper .btn-group-vertical &gt; .btn-group:last-child:not(:first-child) &gt; .btn:first-child {border-top-right-radius: 0;
+border-top-left-radius: 0}
+.html-embed-wrapper .btn-group-justified {display: table;
+width: 100%;
+table-layout: fixed;
+border-collapse: separate}
+.html-embed-wrapper .btn-group-justified &gt; .btn, .html-embed-wrapper .btn-group-justified &gt; .btn-group {float: none;
+display: table-cell;
+width: 1%}
+.html-embed-wrapper .btn-group-justified &gt; .btn-group .btn {width: 100%}
+.html-embed-wrapper .btn-group-justified &gt; .btn-group .dropdown-menu {left: auto}
+.html-embed-wrapper [data-toggle=buttons] &gt; .btn input[type=checkbox], .html-embed-wrapper [data-toggle=buttons] &gt; .btn input[type=radio], .html-embed-wrapper [data-toggle=buttons] &gt; .btn-group &gt; .btn input[type=checkbox], .html-embed-wrapper [data-toggle=buttons] &gt; .btn-group &gt; .btn input[type=radio] {position: absolute;
+clip: rect(0, 0, 0, 0);
+pointer-events: none}
+.html-embed-wrapper .input-group-lg &gt; .form-control, .html-embed-wrapper .input-group-lg &gt; .input-group-addon, .html-embed-wrapper .input-group-lg &gt; .input-group-btn &gt; .btn {height: 46px;
+padding: 10px 16px;
+font-size: 18px;
+line-height: 1.333333;
+border-radius: 6px}
+.html-embed-wrapper select.input-group-lg &gt; .form-control, .html-embed-wrapper select.input-group-lg &gt; .input-group-addon, .html-embed-wrapper select.input-group-lg &gt; .input-group-btn &gt; .btn {height: 46px;
+line-height: 46px}
+.html-embed-wrapper select[multiple].input-group-lg &gt; .form-control, .html-embed-wrapper select[multiple].input-group-lg &gt; .input-group-addon, .html-embed-wrapper select[multiple].input-group-lg &gt; .input-group-btn &gt; .btn, .html-embed-wrapper textarea.input-group-lg &gt; .form-control, .html-embed-wrapper textarea.input-group-lg &gt; .input-group-addon, .html-embed-wrapper textarea.input-group-lg &gt; .input-group-btn &gt; .btn {height: auto}
+.html-embed-wrapper .input-group-sm &gt; .form-control, .html-embed-wrapper .input-group-sm &gt; .input-group-addon, .html-embed-wrapper .input-group-sm &gt; .input-group-btn &gt; .btn {height: 30px;
+padding: 5px 10px;
+font-size: 12px;
+line-height: 1.5;
+border-radius: 3px}
+.html-embed-wrapper select.input-group-sm &gt; .form-control, .html-embed-wrapper select.input-group-sm &gt; .input-group-addon, .html-embed-wrapper select.input-group-sm &gt; .input-group-btn &gt; .btn {height: 30px;
+line-height: 30px}
+.html-embed-wrapper select[multiple].input-group-sm &gt; .form-control, .html-embed-wrapper select[multiple].input-group-sm &gt; .input-group-addon, .html-embed-wrapper select[multiple].input-group-sm &gt; .input-group-btn &gt; .btn, .html-embed-wrapper textarea.input-group-sm &gt; .form-control, .html-embed-wrapper textarea.input-group-sm &gt; .input-group-addon, .html-embed-wrapper textarea.input-group-sm &gt; .input-group-btn &gt; .btn {height: auto}
+.html-embed-wrapper .input-group .form-control:first-child, .html-embed-wrapper .input-group-addon:first-child, .html-embed-wrapper .input-group-btn:first-child &gt; .btn, .html-embed-wrapper .input-group-btn:first-child &gt; .btn-group &gt; .btn, .html-embed-wrapper .input-group-btn:first-child &gt; .dropdown-toggle, .html-embed-wrapper .input-group-btn:last-child &gt; .btn-group:not(:last-child) &gt; .btn, .html-embed-wrapper .input-group-btn:last-child &gt; .btn:not(:last-child):not(.dropdown-toggle) {border-bottom-right-radius: 0;
+border-top-right-radius: 0}
+.html-embed-wrapper .input-group .form-control:last-child, .html-embed-wrapper .input-group-addon:last-child, .html-embed-wrapper .input-group-btn:first-child &gt; .btn-group:not(:first-child) &gt; .btn, .html-embed-wrapper .input-group-btn:first-child &gt; .btn:not(:first-child), .html-embed-wrapper .input-group-btn:last-child &gt; .btn, .html-embed-wrapper .input-group-btn:last-child &gt; .btn-group &gt; .btn, .html-embed-wrapper .input-group-btn:last-child &gt; .dropdown-toggle {border-bottom-left-radius: 0;
+border-top-left-radius: 0}
+.html-embed-wrapper .input-group-btn &gt; .btn {position: relative}
+.html-embed-wrapper .input-group-btn &gt; .btn + .btn {margin-left: -1px}
+.html-embed-wrapper .input-group-btn &gt; .btn:active, .html-embed-wrapper .input-group-btn &gt; .btn:focus, .html-embed-wrapper .input-group-btn &gt; .btn:hover {z-index: 2}
+.html-embed-wrapper .input-group-btn:first-child &gt; .btn, .html-embed-wrapper .input-group-btn:first-child &gt; .btn-group {margin-right: -1px}
+.html-embed-wrapper .input-group-btn:last-child &gt; .btn, .html-embed-wrapper .input-group-btn:last-child &gt; .btn-group {z-index: 2;
+margin-left: -1px}
+.html-embed-wrapper .navbar-btn.btn-sm {margin-top: 10px;
+margin-bottom: 10px}
+.html-embed-wrapper .navbar-btn.btn-xs {margin-top: 14px;
+margin-bottom: 14px}
+.html-embed-wrapper .navbar-default .btn-link {color: #777}
+.html-embed-wrapper .navbar-default .btn-link:focus, .html-embed-wrapper .navbar-default .btn-link:hover {color: #333}
+.html-embed-wrapper .navbar-default .btn-link[disabled]:focus, .html-embed-wrapper .navbar-default .btn-link[disabled]:hover, .html-embed-wrapper fieldset[disabled] .navbar-default .btn-link:focus, .html-embed-wrapper fieldset[disabled] .navbar-default .btn-link:hover {color: #ccc}
+.html-embed-wrapper .navbar-inverse .btn-link {color: #9d9d9d}
+.html-embed-wrapper .navbar-inverse .btn-link:focus, .html-embed-wrapper .navbar-inverse .btn-link:hover {color: #fff}
+.html-embed-wrapper .navbar-inverse .btn-link[disabled]:focus, .html-embed-wrapper .navbar-inverse .btn-link[disabled]:hover, .html-embed-wrapper fieldset[disabled] .navbar-inverse .btn-link:focus, .html-embed-wrapper fieldset[disabled] .navbar-inverse .btn-link:hover {color: #444}
+.html-embed-wrapper .btn .label {position: relative;
+top: -1px}
+.html-embed-wrapper .btn .badge {position: relative;
+top: -1px}
+.html-embed-wrapper .btn-group-xs &gt; .btn .badge, .html-embed-wrapper .btn-xs .badge {top: 0;
+padding: 1px 5px}
+.html-embed-wrapper .modal-footer .btn + .btn {margin-left: 5px;
+margin-bottom: 0}
+.html-embed-wrapper .modal-footer .btn-group .btn + .btn {margin-left: -1px}
+.html-embed-wrapper .modal-footer .btn-block + .btn-block {margin-left: 0}
+.html-embed-wrapper .carousel-caption .btn {text-shadow: none}
+.html-embed-wrapper .btn-group-vertical &gt; .btn-group:after, .html-embed-wrapper .btn-group-vertical &gt; .btn-group:before, .html-embed-wrapper .btn-toolbar:after, .html-embed-wrapper .btn-toolbar:before, .html-embed-wrapper .clearfix:after, .html-embed-wrapper .clearfix:before, .html-embed-wrapper .container-fluid:after, .html-embed-wrapper .container-fluid:before, .html-embed-wrapper .container:after, .html-embed-wrapper .container:before, .html-embed-wrapper .dl-horizontal dd:after, .html-embed-wrapper .dl-horizontal dd:before, .html-embed-wrapper .form-horizontal .form-group:after, .html-embed-wrapper .form-horizontal .form-group:before, .html-embed-wrapper .modal-footer:after, .html-embed-wrapper .modal-footer:before, .html-embed-wrapper .nav:after, .html-embed-wrapper .nav:before, .html-embed-wrapper .navbar-collapse:after, .html-embed-wrapper .navbar-collapse:before, .html-embed-wrapper .navbar-header:after, .html-embed-wrapper .navbar-header:before, .html-embed-wrapper .navbar:after, .html-embed-wrapper .navbar:before, .html-embed-wrapper .pager:after, .html-embed-wrapper .pager:before, .html-embed-wrapper .panel-body:after, .html-embed-wrapper .panel-body:before, .html-embed-wrapper .row:after, .html-embed-wrapper .row:before {content: " ";
+display: table}
+.html-embed-wrapper .btn-group-vertical &gt; .btn-group:after, .html-embed-wrapper .btn-toolbar:after, .html-embed-wrapper .clearfix:after, .html-embed-wrapper .container-fluid:after, .html-embed-wrapper .container:after, .html-embed-wrapper .dl-horizontal dd:after, .html-embed-wrapper .form-horizontal .form-group:after, .html-embed-wrapper .modal-footer:after, .html-embed-wrapper .nav:after, .html-embed-wrapper .navbar-collapse:after, .html-embed-wrapper .navbar-header:after, .html-embed-wrapper .navbar:after, .html-embed-wrapper .pager:after, .html-embed-wrapper .panel-body:after, .html-embed-wrapper .row:after {clear: both}
+@media (min-width: 992px) {
+.html-embed-wrapper header[role=banner] #global-CTA .collapse.in a.btn-outline, .html-embed-wrapper header[role=banner] #global-CTA .collapsing a.btn-outline {display: block;
+border-radius: 0;
+height: auto;
+line-height: 3.6rem !important;
+padding-top: 0 !important;
+padding-bottom: 0 !important;
+color: #fff;
+width: auto}
+.html-embed-wrapper header[role=banner] #global-CTA .collapse.in a.btn-outline + a.btn-outline, .html-embed-wrapper header[role=banner] #global-CTA .collapsing a.btn-outline + a.btn-outline {margin-top: 20px}
+}
+.html-embed-wrapper header.tier-2 ul.tier-2-cta .collapse.in a.btn-outline, .html-embed-wrapper header.tier-2 ul.tier-2-cta .collapsing a.btn-outline {display: block;
+border-radius: 0;
+height: auto;
+line-height: 3.6rem !important;
+padding-top: 0 !important;
+padding-bottom: 0 !important;
+color: #fff;
+width: auto}
+.html-embed-wrapper header.tier-2 ul.tier-2-cta .collapse.in a.btn-outline + a.btn-outline, .html-embed-wrapper header.tier-2 ul.tier-2-cta .collapsing a.btn-outline + a.btn-outline {margin-top: 20px}
+.html-embed-wrapper header.tier-2 ul.tier-2-cta .collapse.in a.btn-outline:visited, .html-embed-wrapper header.tier-2 ul.tier-2-cta .collapsing a.btn-outline:visited {color: #fff}
+.html-embed-wrapper header.tier-2 ul.tier-2-cta .collapse.in a.btn-outline:focus, .html-embed-wrapper header.tier-2 ul.tier-2-cta .collapse.in a.btn-outline:hover, .html-embed-wrapper header.tier-2 ul.tier-2-cta .collapsing a.btn-outline:focus, .html-embed-wrapper header.tier-2 ul.tier-2-cta .collapsing a.btn-outline:hover {background: #fff !important;
+color: #4d4037 !important}
+@media (max-width: 992px) {
+.html-embed-wrapper #main-container &gt; .tier-3-cta.fixed-bottom li a.btn {display: inline-block;
+width: 100%;
+height: 30px;
+padding: 0 20px;
+margin: 0;
+font-size: 1.5rem;
+line-height: 30px}
+}
+.html-embed-wrapper #new-mobile-nav #new-mobile-search form#new-search-form #new-submit-search.btn.btn-primary, .html-embed-wrapper #new-mobile-nav #new-search form#new-search-form #new-submit-search.btn.btn-primary, .html-embed-wrapper #new-mobile-search #new-mobile-search form#new-search-form #new-submit-search.btn.btn-primary, .html-embed-wrapper #new-mobile-search #new-search form#new-search-form #new-submit-search.btn.btn-primary, .html-embed-wrapper #new-nav #new-mobile-search form#new-search-form #new-submit-search.btn.btn-primary, .html-embed-wrapper #new-nav #new-search form#new-search-form #new-submit-search.btn.btn-primary, .html-embed-wrapper #new-search #new-mobile-search form#new-search-form #new-submit-search.btn.btn-primary, .html-embed-wrapper #new-search #new-search form#new-search-form #new-submit-search.btn.btn-primary {background: #182449}
+.html-embed-wrapper #new-mobile-nav #new-mobile-search form#new-people-form #new-submit-people.btn.btn-primary, .html-embed-wrapper #new-mobile-nav #new-search form#new-people-form #new-submit-people.btn.btn-primary, .html-embed-wrapper #new-mobile-search #new-mobile-search form#new-people-form #new-submit-people.btn.btn-primary, .html-embed-wrapper #new-mobile-search #new-search form#new-people-form #new-submit-people.btn.btn-primary, .html-embed-wrapper #new-nav #new-mobile-search form#new-people-form #new-submit-people.btn.btn-primary, .html-embed-wrapper #new-nav #new-search form#new-people-form #new-submit-people.btn.btn-primary, .html-embed-wrapper #new-search #new-mobile-search form#new-people-form #new-submit-people.btn.btn-primary, .html-embed-wrapper #new-search #new-search form#new-people-form #new-submit-</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/centers/antiracism/thinking-freedom-series</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>cs_control_5674921-collapse</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>cs_control_5674921-collapse</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+@media print {
+.html-embed-wrapper .btn &gt; .caret, .html-embed-wrapper .dropup &gt; .btn &gt; .caret {border-top-color: #000 !important}
+}
+.html-embed-wrapper .btn {display: inline-block;
+margin-bottom: 0;
+font-weight: 400;
+text-align: center;
+vertical-align: middle;
+-ms-touch-action: manipulation;
+touch-action: manipulation;
+cursor: pointer;
+background-image: none;
+border: 1px solid transparent;
+white-space: nowrap;
+padding: 6px 12px;
+font-size: 14px;
+line-height: 1.428571;
+border-radius: 4px;
+-webkit-user-select: none;
+-moz-user-select: none;
+-ms-user-select: none;
+user-select: none}
+.html-embed-wrapper .btn.active.focus, .html-embed-wrapper .btn.active:focus, .html-embed-wrapper .btn.focus, .html-embed-wrapper .btn:active.focus, .html-embed-wrapper .btn:active:focus, .html-embed-wrapper .btn:focus {outline: thin dotted;
+outline: 5px auto -webkit-focus-ring-color;
+outline-offset: -2px}
+.html-embed-wrapper .btn.focus, .html-embed-wrapper .btn:focus, .html-embed-wrapper .btn:hover {color: #333;
+text-decoration: none}
+.html-embed-wrapper .btn.active, .html-embed-wrapper .btn:active {outline: 0;
+background-image: none;
+box-shadow: inset 0 3px 5px rgba(0, 0, 0, 0.125)}
+.html-embed-wrapper .btn.disabled, .html-embed-wrapper .btn[disabled], .html-embed-wrapper fieldset[disabled] .btn {cursor: not-allowed;
+opacity: 0.65;
+box-shadow: none}
+.html-embed-wrapper a.btn.disabled, .html-embed-wrapper fieldset[disabled] a.btn {pointer-events: none}
+.html-embed-wrapper .btn-default {color: #333;
+background-color: #fff;
+border-color: #ccc}
+.html-embed-wrapper .btn-default.focus, .html-embed-wrapper .btn-default:focus {color: #333;
+background-color: #e6e6e6;
+border-color: #8c8c8c}
+.html-embed-wrapper .btn-default:hover {color: #333;
+background-color: #e6e6e6;
+border-color: #adadad}
+.html-embed-wrapper .btn-default.active, .html-embed-wrapper .btn-default:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-default {color: #333;
+background-color: #e6e6e6;
+border-color: #adadad}
+.html-embed-wrapper .btn-default.active.focus, .html-embed-wrapper .btn-default.active:focus, .html-embed-wrapper .btn-default.active:hover, .html-embed-wrapper .btn-default:active.focus, .html-embed-wrapper .btn-default:active:focus, .html-embed-wrapper .btn-default:active:hover, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-default.focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-default:focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-default:hover {color: #333;
+background-color: #d4d4d4;
+border-color: #8c8c8c}
+.html-embed-wrapper .btn-default.active, .html-embed-wrapper .btn-default:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-default {background-image: none}
+.html-embed-wrapper .btn-default.disabled, .html-embed-wrapper .btn-default.disabled.active, .html-embed-wrapper .btn-default.disabled.focus, .html-embed-wrapper .btn-default.disabled:active, .html-embed-wrapper .btn-default.disabled:focus, .html-embed-wrapper .btn-default.disabled:hover, .html-embed-wrapper .btn-default[disabled], .html-embed-wrapper .btn-default[disabled].active, .html-embed-wrapper .btn-default[disabled].focus, .html-embed-wrapper .btn-default[disabled]:active, .html-embed-wrapper .btn-default[disabled]:focus, .html-embed-wrapper .btn-default[disabled]:hover, .html-embed-wrapper fieldset[disabled] .btn-default, .html-embed-wrapper fieldset[disabled] .btn-default.active, .html-embed-wrapper fieldset[disabled] .btn-default.focus, .html-embed-wrapper fieldset[disabled] .btn-default:active, .html-embed-wrapper fieldset[disabled] .btn-default:focus, .html-embed-wrapper fieldset[disabled] .btn-default:hover {background-color: #fff;
+border-color: #ccc}
+.html-embed-wrapper .btn-default .badge {color: #fff;
+background-color: #333}
+.html-embed-wrapper .btn-primary {color: #fff;
+background-color: #337ab7;
+border-color: #2e6da4}
+.html-embed-wrapper .btn-primary.focus, .html-embed-wrapper .btn-primary:focus {color: #fff;
+background-color: #286090;
+border-color: #122b40}
+.html-embed-wrapper .btn-primary:hover {color: #fff;
+background-color: #286090;
+border-color: #204d74}
+.html-embed-wrapper .btn-primary.active, .html-embed-wrapper .btn-primary:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-primary {color: #fff;
+background-color: #286090;
+border-color: #204d74}
+.html-embed-wrapper .btn-primary.active.focus, .html-embed-wrapper .btn-primary.active:focus, .html-embed-wrapper .btn-primary.active:hover, .html-embed-wrapper .btn-primary:active.focus, .html-embed-wrapper .btn-primary:active:focus, .html-embed-wrapper .btn-primary:active:hover, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-primary.focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-primary:focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-primary:hover {color: #fff;
+background-color: #204d74;
+border-color: #122b40}
+.html-embed-wrapper .btn-primary.active, .html-embed-wrapper .btn-primary:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-primary {background-image: none}
+.html-embed-wrapper .btn-primary.disabled, .html-embed-wrapper .btn-primary.disabled.active, .html-embed-wrapper .btn-primary.disabled.focus, .html-embed-wrapper .btn-primary.disabled:active, .html-embed-wrapper .btn-primary.disabled:focus, .html-embed-wrapper .btn-primary.disabled:hover, .html-embed-wrapper .btn-primary[disabled], .html-embed-wrapper .btn-primary[disabled].active, .html-embed-wrapper .btn-primary[disabled].focus, .html-embed-wrapper .btn-primary[disabled]:active, .html-embed-wrapper .btn-primary[disabled]:focus, .html-embed-wrapper .btn-primary[disabled]:hover, .html-embed-wrapper fieldset[disabled] .btn-primary, .html-embed-wrapper fieldset[disabled] .btn-primary.active, .html-embed-wrapper fieldset[disabled] .btn-primary.focus, .html-embed-wrapper fieldset[disabled] .btn-primary:active, .html-embed-wrapper fieldset[disabled] .btn-primary:focus, .html-embed-wrapper fieldset[disabled] .btn-primary:hover {background-color: #337ab7;
+border-color: #2e6da4}
+.html-embed-wrapper .btn-primary .badge {color: #337ab7;
+background-color: #fff}
+.html-embed-wrapper .btn-success {color: #fff;
+background-color: #5cb85c;
+border-color: #4cae4c}
+.html-embed-wrapper .btn-success.focus, .html-embed-wrapper .btn-success:focus {color: #fff;
+background-color: #449d44;
+border-color: #255625}
+.html-embed-wrapper .btn-success:hover {color: #fff;
+background-color: #449d44;
+border-color: #398439}
+.html-embed-wrapper .btn-success.active, .html-embed-wrapper .btn-success:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-success {color: #fff;
+background-color: #449d44;
+border-color: #398439}
+.html-embed-wrapper .btn-success.active.focus, .html-embed-wrapper .btn-success.active:focus, .html-embed-wrapper .btn-success.active:hover, .html-embed-wrapper .btn-success:active.focus, .html-embed-wrapper .btn-success:active:focus, .html-embed-wrapper .btn-success:active:hover, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-success.focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-success:focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-success:hover {color: #fff;
+background-color: #398439;
+border-color: #255625}
+.html-embed-wrapper .btn-success.active, .html-embed-wrapper .btn-success:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-success {background-image: none}
+.html-embed-wrapper .btn-success.disabled, .html-embed-wrapper .btn-success.disabled.active, .html-embed-wrapper .btn-success.disabled.focus, .html-embed-wrapper .btn-success.disabled:active, .html-embed-wrapper .btn-success.disabled:focus, .html-embed-wrapper .btn-success.disabled:hover, .html-embed-wrapper .btn-success[disabled], .html-embed-wrapper .btn-success[disabled].active, .html-embed-wrapper .btn-success[disabled].focus, .html-embed-wrapper .btn-success[disabled]:active, .html-embed-wrapper .btn-success[disabled]:focus, .html-embed-wrapper .btn-success[disabled]:hover, .html-embed-wrapper fieldset[disabled] .btn-success, .html-embed-wrapper fieldset[disabled] .btn-success.active, .html-embed-wrapper fieldset[disabled] .btn-success.focus, .html-embed-wrapper fieldset[disabled] .btn-success:active, .html-embed-wrapper fieldset[disabled] .btn-success:focus, .html-embed-wrapper fieldset[disabled] .btn-success:hover {background-color: #5cb85c;
+border-color: #4cae4c}
+.html-embed-wrapper .btn-success .badge {color: #5cb85c;
+background-color: #fff}
+.html-embed-wrapper .btn-info {color: #fff;
+background-color: #5bc0de;
+border-color: #46b8da}
+.html-embed-wrapper .btn-info.focus, .html-embed-wrapper .btn-info:focus {color: #fff;
+background-color: #31b0d5;
+border-color: #1b6d85}
+.html-embed-wrapper .btn-info:hover {color: #fff;
+background-color: #31b0d5;
+border-color: #269abc}
+.html-embed-wrapper .btn-info.active, .html-embed-wrapper .btn-info:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-info {color: #fff;
+background-color: #31b0d5;
+border-color: #269abc}
+.html-embed-wrapper .btn-info.active.focus, .html-embed-wrapper .btn-info.active:focus, .html-embed-wrapper .btn-info.active:hover, .html-embed-wrapper .btn-info:active.focus, .html-embed-wrapper .btn-info:active:focus, .html-embed-wrapper .btn-info:active:hover, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-info.focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-info:focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-info:hover {color: #fff;
+background-color: #269abc;
+border-color: #1b6d85}
+.html-embed-wrapper .btn-info.active, .html-embed-wrapper .btn-info:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-info {background-image: none}
+.html-embed-wrapper .btn-info.disabled, .html-embed-wrapper .btn-info.disabled.active, .html-embed-wrapper .btn-info.disabled.focus, .html-embed-wrapper .btn-info.disabled:active, .html-embed-wrapper .btn-info.disabled:focus, .html-embed-wrapper .btn-info.disabled:hover, .html-embed-wrapper .btn-info[disabled], .html-embed-wrapper .btn-info[disabled].active, .html-embed-wrapper .btn-info[disabled].focus, .html-embed-wrapper .btn-info[disabled]:active, .html-embed-wrapper .btn-info[disabled]:focus, .html-embed-wrapper .btn-info[disabled]:hover, .html-embed-wrapper fieldset[disabled] .btn-info, .html-embed-wrapper fieldset[disabled] .btn-info.active, .html-embed-wrapper fieldset[disabled] .btn-info.focus, .html-embed-wrapper fieldset[disabled] .btn-info:active, .html-embed-wrapper fieldset[disabled] .btn-info:focus, .html-embed-wrapper fieldset[disabled] .btn-info:hover {background-color: #5bc0de;
+border-color: #46b8da}
+.html-embed-wrapper .btn-info .badge {color: #5bc0de;
+background-color: #fff}
+.html-embed-wrapper .btn-warning {color: #fff;
+background-color: #f0ad4e;
+border-color: #eea236}
+.html-embed-wrapper .btn-warning.focus, .html-embed-wrapper .btn-warning:focus {color: #fff;
+background-color: #ec971f;
+border-color: #985f0d}
+.html-embed-wrapper .btn-warning:hover {color: #fff;
+background-color: #ec971f;
+border-color: #d58512}
+.html-embed-wrapper .btn-warning.active, .html-embed-wrapper .btn-warning:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-warning {color: #fff;
+background-color: #ec971f;
+border-color: #d58512}
+.html-embed-wrapper .btn-warning.active.focus, .html-embed-wrapper .btn-warning.active:focus, .html-embed-wrapper .btn-warning.active:hover, .html-embed-wrapper .btn-warning:active.focus, .html-embed-wrapper .btn-warning:active:focus, .html-embed-wrapper .btn-warning:active:hover, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-warning.focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-warning:focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-warning:hover {color: #fff;
+background-color: #d58512;
+border-color: #985f0d}
+.html-embed-wrapper .btn-warning.active, .html-embed-wrapper .btn-warning:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-warning {background-image: none}
+.html-embed-wrapper .btn-warning.disabled, .html-embed-wrapper .btn-warning.disabled.active, .html-embed-wrapper .btn-warning.disabled.focus, .html-embed-wrapper .btn-warning.disabled:active, .html-embed-wrapper .btn-warning.disabled:focus, .html-embed-wrapper .btn-warning.disabled:hover, .html-embed-wrapper .btn-warning[disabled], .html-embed-wrapper .btn-warning[disabled].active, .html-embed-wrapper .btn-warning[disabled].focus, .html-embed-wrapper .btn-warning[disabled]:active, .html-embed-wrapper .btn-warning[disabled]:focus, .html-embed-wrapper .btn-warning[disabled]:hover, .html-embed-wrapper fieldset[disabled] .btn-warning, .html-embed-wrapper fieldset[disabled] .btn-warning.active, .html-embed-wrapper fieldset[disabled] .btn-warning.focus, .html-embed-wrapper fieldset[disabled] .btn-warning:active, .html-embed-wrapper fieldset[disabled] .btn-warning:focus, .html-embed-wrapper fieldset[disabled] .btn-warning:hover {background-color: #f0ad4e;
+border-color: #eea236}
+.html-embed-wrapper .btn-warning .badge {color: #f0ad4e;
+background-color: #fff}
+.html-embed-wrapper .btn-danger {color: #fff;
+background-color: #d9534f;
+border-color: #d43f3a}
+.html-embed-wrapper .btn-danger.focus, .html-embed-wrapper .btn-danger:focus {color: #fff;
+background-color: #c9302c;
+border-color: #761c19}
+.html-embed-wrapper .btn-danger:hover {color: #fff;
+background-color: #c9302c;
+border-color: #ac2925}
+.html-embed-wrapper .btn-danger.active, .html-embed-wrapper .btn-danger:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-danger {color: #fff;
+background-color: #c9302c;
+border-color: #ac2925}
+.html-embed-wrapper .btn-danger.active.focus, .html-embed-wrapper .btn-danger.active:focus, .html-embed-wrapper .btn-danger.active:hover, .html-embed-wrapper .btn-danger:active.focus, .html-embed-wrapper .btn-danger:active:focus, .html-embed-wrapper .btn-danger:active:hover, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-danger.focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-danger:focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-danger:hover {color: #fff;
+background-color: #ac2925;
+border-color: #761c19}
+.html-embed-wrapper .btn-danger.active, .html-embed-wrapper .btn-danger:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-danger {background-image: none}
+.html-embed-wrapper .btn-danger.disabled, .html-embed-wrapper .btn-danger.disabled.active, .html-embed-wrapper .btn-danger.disabled.focus, .html-embed-wrapper .btn-danger.disabled:active, .html-embed-wrapper .btn-danger.disabled:focus, .html-embed-wrapper .btn-danger.disabled:hover, .html-embed-wrapper .btn-danger[disabled], .html-embed-wrapper .btn-danger[disabled].active, .html-embed-wrapper .btn-danger[disabled].focus, .html-embed-wrapper .btn-danger[disabled]:active, .html-embed-wrapper .btn-danger[disabled]:focus, .html-embed-wrapper .btn-danger[disabled]:hover, .html-embed-wrapper fieldset[disabled] .btn-danger, .html-embed-wrapper fieldset[disabled] .btn-danger.active, .html-embed-wrapper fieldset[disabled] .btn-danger.focus, .html-embed-wrapper fieldset[disabled] .btn-danger:active, .html-embed-wrapper fieldset[disabled] .btn-danger:focus, .html-embed-wrapper fieldset[disabled] .btn-danger:hover {background-color: #d9534f;
+border-color: #d43f3a}
+.html-embed-wrapper .btn-danger .badge {color: #d9534f;
+background-color: #fff}
+.html-embed-wrapper .btn-link {color: #337ab7;
+font-weight: 400;
+border-radius: 0}
+.html-embed-wrapper .btn-link, .html-embed-wrapper .btn-link.active, .html-embed-wrapper .btn-link:active, .html-embed-wrapper .btn-link[disabled], .html-embed-wrapper fieldset[disabled] .btn-link {background-color: transparent;
+box-shadow: none}
+.html-embed-wrapper .btn-link, .html-embed-wrapper .btn-link:active, .html-embed-wrapper .btn-link:focus, .html-embed-wrapper .btn-link:hover {border-color: transparent}
+.html-embed-wrapper .btn-link:focus, .html-embed-wrapper .btn-link:hover {color: #23527c;
+text-decoration: underline;
+background-color: transparent}
+.html-embed-wrapper .btn-link[disabled]:focus, .html-embed-wrapper .btn-link[disabled]:hover, .html-embed-wrapper fieldset[disabled] .btn-link:focus, .html-embed-wrapper fieldset[disabled] .btn-link:hover {color: #777;
+text-decoration: none}
+.html-embed-wrapper .btn-group-lg &gt; .btn, .html-embed-wrapper .btn-lg {padding: 10px 16px;
+font-size: 18px;
+line-height: 1.333333;
+border-radius: 6px}
+.html-embed-wrapper .btn-group-sm &gt; .btn, .html-embed-wrapper .btn-sm {padding: 5px 10px;
+font-size: 12px;
+line-height: 1.5;
+border-radius: 3px}
+.html-embed-wrapper .btn-group-xs &gt; .btn, .html-embed-wrapper .btn-xs {padding: 1px 5px;
+font-size: 12px;
+line-height: 1.5;
+border-radius: 3px}
+.html-embed-wrapper .btn-block {display: block;
+width: 100%}
+.html-embed-wrapper .btn-block + .btn-block {margin-top: 5px}
+.html-embed-wrapper input[type=button].btn-block, .html-embed-wrapper input[type=reset].btn-block, .html-embed-wrapper input[type=submit].btn-block {width: 100%}
+.html-embed-wrapper .btn-group, .html-embed-wrapper .btn-group-vertical {position: relative;
+display: inline-block;
+vertical-align: middle}
+.html-embed-wrapper .btn-group-vertical &gt; .btn, .html-embed-wrapper .btn-group &gt; .btn {position: relative;
+float: left}
+.html-embed-wrapper .btn-group-vertical &gt; .btn.active, .html-embed-wrapper .btn-group-vertical &gt; .btn:active, .html-embed-wrapper .btn-group-vertical &gt; .btn:focus, .html-embed-wrapper .btn-group-vertical &gt; .btn:hover, .html-embed-wrapper .btn-group &gt; .btn.active, .html-embed-wrapper .btn-group &gt; .btn:active, .html-embed-wrapper .btn-group &gt; .btn:focus, .html-embed-wrapper .btn-group &gt; .btn:hover {z-index: 2}
+.html-embed-wrapper .btn-group .btn + .btn, .html-embed-wrapper .btn-group .btn + .btn-group, .html-embed-wrapper .btn-group .btn-group + .btn, .html-embed-wrapper .btn-group .btn-group + .btn-group {margin-left: -1px}
+.html-embed-wrapper .btn-toolbar {margin-left: -5px}
+.html-embed-wrapper .btn-toolbar .btn, .html-embed-wrapper .btn-toolbar .btn-group, .html-embed-wrapper .btn-toolbar .input-group {float: left}
+.html-embed-wrapper .btn-toolbar &gt; .btn, .html-embed-wrapper .btn-toolbar &gt; .btn-group, .html-embed-wrapper .btn-toolbar &gt; .input-group {margin-left: 5px}
+.html-embed-wrapper .btn-group &gt; .btn:not(:first-child):not(:last-child):not(.dropdown-toggle) {border-radius: 0}
+.html-embed-wrapper .btn-group &gt; .btn:first-child {margin-left: 0}
+.html-embed-wrapper .btn-group &gt; .btn:first-child:not(:last-child):not(.dropdown-toggle) {border-bottom-right-radius: 0;
+border-top-right-radius: 0}
+.html-embed-wrapper .btn-group &gt; .btn:last-child:not(:first-child), .html-embed-wrapper .btn-group &gt; .dropdown-toggle:not(:first-child) {border-bottom-left-radius: 0;
+border-top-left-radius: 0}
+.html-embed-wrapper .btn-group &gt; .btn-group {float: left}
+.html-embed-wrapper .btn-group &gt; .btn-group:not(:first-child):not(:last-child) &gt; .btn {border-radius: 0}
+.html-embed-wrapper .btn-group &gt; .btn-group:first-child:not(:last-child) &gt; .btn:last-child, .html-embed-wrapper .btn-group &gt; .btn-group:first-child:not(:last-child) &gt; .dropdown-toggle {border-bottom-right-radius: 0;
+border-top-right-radius: 0}
+.html-embed-wrapper .btn-group &gt; .btn-group:last-child:not(:first-child) &gt; .btn:first-child {border-bottom-left-radius: 0;
+border-top-left-radius: 0}
+.html-embed-wrapper .btn-group .dropdown-toggle:active, .html-embed-wrapper .btn-group.open .dropdown-toggle {outline: 0}
+.html-embed-wrapper .btn-group &gt; .btn + .dropdown-toggle {padding-left: 8px;
+padding-right: 8px}
+.html-embed-wrapper .btn-group &gt; .btn-lg + .dropdown-toggle {padding-left: 12px;
+padding-right: 12px}
+.html-embed-wrapper .btn-group.open .dropdown-toggle {box-shadow: inset 0 3px 5px rgba(0, 0, 0, 0.125)}
+.html-embed-wrapper .btn-group.open .dropdown-toggle.btn-link {box-shadow: none}
+.html-embed-wrapper .btn .caret {margin-left: 0}
+.html-embed-wrapper .btn-lg .caret {border-width: 5px 5px 0;
+border-bottom-width: 0}
+.html-embed-wrapper .dropup .btn-lg .caret {border-width: 0 5px 5px}
+.html-embed-wrapper .btn-group-vertical &gt; .btn, .html-embed-wrapper .btn-group-vertical &gt; .btn-group, .html-embed-wrapper .btn-group-vertical &gt; .btn-group &gt; .btn {display: block;
+float: none;
+width: 100%;
+max-width: 100%}
+.html-embed-wrapper .btn-group-vertical &gt; .btn-group &gt; .btn {float: none}
+.html-embed-wrapper .btn-group-vertical &gt; .btn + .btn, .html-embed-wrapper .btn-group-vertical &gt; .btn + .btn-group, .html-embed-wrapper .btn-group-vertical &gt; .btn-group + .btn, .html-embed-wrapper .btn-group-vertical &gt; .btn-group + .btn-group {margin-top: -1px;
+margin-left: 0}
+.html-embed-wrapper .btn-group-vertical &gt; .btn:not(:first-child):not(:last-child) {border-radius: 0}
+.html-embed-wrapper .btn-group-vertical &gt; .btn:first-child:not(:last-child) {border-top-right-radius: 4px;
+border-bottom-right-radius: 0;
+border-bottom-left-radius: 0}
+.html-embed-wrapper .btn-group-vertical &gt; .btn:last-child:not(:first-child) {border-bottom-left-radius: 4px;
+border-top-right-radius: 0;
+border-top-left-radius: 0}
+.html-embed-wrapper .btn-group-vertical &gt; .btn-group:not(:first-child):not(:last-child) &gt; .btn {border-radius: 0}
+.html-embed-wrapper .btn-group-vertical &gt; .btn-group:first-child:not(:last-child) &gt; .btn:last-child, .html-embed-wrapper .btn-group-vertical &gt; .btn-group:first-child:not(:last-child) &gt; .dropdown-toggle {border-bottom-right-radius: 0;
+border-bottom-left-radius: 0}
+.html-embed-wrapper .btn-group-vertical &gt; .btn-group:last-child:not(:first-child) &gt; .btn:first-child {border-top-right-radius: 0;
+border-top-left-radius: 0}
+.html-embed-wrapper .btn-group-justified {display: table;
+width: 100%;
+table-layout: fixed;
+border-collapse: separate}
+.html-embed-wrapper .btn-group-justified &gt; .btn, .html-embed-wrapper .btn-group-justified &gt; .btn-group {float: none;
+display: table-cell;
+width: 1%}
+.html-embed-wrapper .btn-group-justified &gt; .btn-group .btn {width: 100%}
+.html-embed-wrapper .btn-group-justified &gt; .btn-group .dropdown-menu {left: auto}
+.html-embed-wrapper [data-toggle=buttons] &gt; .btn input[type=checkbox], .html-embed-wrapper [data-toggle=buttons] &gt; .btn input[type=radio], .html-embed-wrapper [data-toggle=buttons] &gt; .btn-group &gt; .btn input[type=checkbox], .html-embed-wrapper [data-toggle=buttons] &gt; .btn-group &gt; .btn input[type=radio] {position: absolute;
+clip: rect(0, 0, 0, 0);
+pointer-events: none}
+.html-embed-wrapper .input-group-lg &gt; .form-control, .html-embed-wrapper .input-group-lg &gt; .input-group-addon, .html-embed-wrapper .input-group-lg &gt; .input-group-btn &gt; .btn {height: 46px;
+padding: 10px 16px;
+font-size: 18px;
+line-height: 1.333333;
+border-radius: 6px}
+.html-embed-wrapper select.input-group-lg &gt; .form-control, .html-embed-wrapper select.input-group-lg &gt; .input-group-addon, .html-embed-wrapper select.input-group-lg &gt; .input-group-btn &gt; .btn {height: 46px;
+line-height: 46px}
+.html-embed-wrapper select[multiple].input-group-lg &gt; .form-control, .html-embed-wrapper select[multiple].input-group-lg &gt; .input-group-addon, .html-embed-wrapper select[multiple].input-group-lg &gt; .input-group-btn &gt; .btn, .html-embed-wrapper textarea.input-group-lg &gt; .form-control, .html-embed-wrapper textarea.input-group-lg &gt; .input-group-addon, .html-embed-wrapper textarea.input-group-lg &gt; .input-group-btn &gt; .btn {height: auto}
+.html-embed-wrapper .input-group-sm &gt; .form-control, .html-embed-wrapper .input-group-sm &gt; .input-group-addon, .html-embed-wrapper .input-group-sm &gt; .input-group-btn &gt; .btn {height: 30px;
+padding: 5px 10px;
+font-size: 12px;
+line-height: 1.5;
+border-radius: 3px}
+.html-embed-wrapper select.input-group-sm &gt; .form-control, .html-embed-wrapper select.input-group-sm &gt; .input-group-addon, .html-embed-wrapper select.input-group-sm &gt; .input-group-btn &gt; .btn {height: 30px;
+line-height: 30px}
+.html-embed-wrapper select[multiple].input-group-sm &gt; .form-control, .html-embed-wrapper select[multiple].input-group-sm &gt; .input-group-addon, .html-embed-wrapper select[multiple].input-group-sm &gt; .input-group-btn &gt; .btn, .html-embed-wrapper textarea.input-group-sm &gt; .form-control, .html-embed-wrapper textarea.input-group-sm &gt; .input-group-addon, .html-embed-wrapper textarea.input-group-sm &gt; .input-group-btn &gt; .btn {height: auto}
+.html-embed-wrapper .input-group .form-control:first-child, .html-embed-wrapper .input-group-addon:first-child, .html-embed-wrapper .input-group-btn:first-child &gt; .btn, .html-embed-wrapper .input-group-btn:first-child &gt; .btn-group &gt; .btn, .html-embed-wrapper .input-group-btn:first-child &gt; .dropdown-toggle, .html-embed-wrapper .input-group-btn:last-child &gt; .btn-group:not(:last-child) &gt; .btn, .html-embed-wrapper .input-group-btn:last-child &gt; .btn:not(:last-child):not(.dropdown-toggle) {border-bottom-right-radius: 0;
+border-top-right-radius: 0}
+.html-embed-wrapper .input-group .form-control:last-child, .html-embed-wrapper .input-group-addon:last-child, .html-embed-wrapper .input-group-btn:first-child &gt; .btn-group:not(:first-child) &gt; .btn, .html-embed-wrapper .input-group-btn:first-child &gt; .btn:not(:first-child), .html-embed-wrapper .input-group-btn:last-child &gt; .btn, .html-embed-wrapper .input-group-btn:last-child &gt; .btn-group &gt; .btn, .html-embed-wrapper .input-group-btn:last-child &gt; .dropdown-toggle {border-bottom-left-radius: 0;
+border-top-left-radius: 0}
+.html-embed-wrapper .input-group-btn &gt; .btn {position: relative}
+.html-embed-wrapper .input-group-btn &gt; .btn + .btn {margin-left: -1px}
+.html-embed-wrapper .input-group-btn &gt; .btn:active, .html-embed-wrapper .input-group-btn &gt; .btn:focus, .html-embed-wrapper .input-group-btn &gt; .btn:hover {z-index: 2}
+.html-embed-wrapper .input-group-btn:first-child &gt; .btn, .html-embed-wrapper .input-group-btn:first-child &gt; .btn-group {margin-right: -1px}
+.html-embed-wrapper .input-group-btn:last-child &gt; .btn, .html-embed-wrapper .input-group-btn:last-child &gt; .btn-group {z-index: 2;
+margin-left: -1px}
+.html-embed-wrapper .navbar-btn.btn-sm {margin-top: 10px;
+margin-bottom: 10px}
+.html-embed-wrapper .navbar-btn.btn-xs {margin-top: 14px;
+margin-bottom: 14px}
+.html-embed-wrapper .navbar-default .btn-link {color: #777}
+.html-embed-wrapper .navbar-default .btn-link:focus, .html-embed-wrapper .navbar-default .btn-link:hover {color: #333}
+.html-embed-wrapper .navbar-default .btn-link[disabled]:focus, .html-embed-wrapper .navbar-default .btn-link[disabled]:hover, .html-embed-wrapper fieldset[disabled] .navbar-default .btn-link:focus, .html-embed-wrapper fieldset[disabled] .navbar-default .btn-link:hover {color: #ccc}
+.html-embed-wrapper .navbar-inverse .btn-link {color: #9d9d9d}
+.html-embed-wrapper .navbar-inverse .btn-link:focus, .html-embed-wrapper .navbar-inverse .btn-link:hover {color: #fff}
+.html-embed-wrapper .navbar-inverse .btn-link[disabled]:focus, .html-embed-wrapper .navbar-inverse .btn-link[disabled]:hover, .html-embed-wrapper fieldset[disabled] .navbar-inverse .btn-link:focus, .html-embed-wrapper fieldset[disabled] .navbar-inverse .btn-link:hover {color: #444}
+.html-embed-wrapper .btn .label {position: relative;
+top: -1px}
+.html-embed-wrapper .btn .badge {position: relative;
+top: -1px}
+.html-embed-wrapper .btn-group-xs &gt; .btn .badge, .html-embed-wrapper .btn-xs .badge {top: 0;
+padding: 1px 5px}
+.html-embed-wrapper .modal-footer .btn + .btn {margin-left: 5px;
+margin-bottom: 0}
+.html-embed-wrapper .modal-footer .btn-group .btn + .btn {margin-left: -1px}
+.html-embed-wrapper .modal-footer .btn-block + .btn-block {margin-left: 0}
+.html-embed-wrapper .carousel-caption .btn {text-shadow: none}
+.html-embed-wrapper .btn-group-vertical &gt; .btn-group:after, .html-embed-wrapper .btn-group-vertical &gt; .btn-group:before, .html-embed-wrapper .btn-toolbar:after, .html-embed-wrapper .btn-toolbar:before, .html-embed-wrapper .clearfix:after, .html-embed-wrapper .clearfix:before, .html-embed-wrapper .container-fluid:after, .html-embed-wrapper .container-fluid:before, .html-embed-wrapper .container:after, .html-embed-wrapper .container:before, .html-embed-wrapper .dl-horizontal dd:after, .html-embed-wrapper .dl-horizontal dd:before, .html-embed-wrapper .form-horizontal .form-group:after, .html-embed-wrapper .form-horizontal .form-group:before, .html-embed-wrapper .modal-footer:after, .html-embed-wrapper .modal-footer:before, .html-embed-wrapper .nav:after, .html-embed-wrapper .nav:before, .html-embed-wrapper .navbar-collapse:after, .html-embed-wrapper .navbar-collapse:before, .html-embed-wrapper .navbar-header:after, .html-embed-wrapper .navbar-header:before, .html-embed-wrapper .navbar:after, .html-embed-wrapper .navbar:before, .html-embed-wrapper .pager:after, .html-embed-wrapper .pager:before, .html-embed-wrapper .panel-body:after, .html-embed-wrapper .panel-body:before, .html-embed-wrapper .row:after, .html-embed-wrapper .row:before {content: " ";
+display: table}
+.html-embed-wrapper .btn-group-vertical &gt; .btn-group:after, .html-embed-wrapper .btn-toolbar:after, .html-embed-wrapper .clearfix:after, .html-embed-wrapper .container-fluid:after, .html-embed-wrapper .container:after, .html-embed-wrapper .dl-horizontal dd:after, .html-embed-wrapper .form-horizontal .form-group:after, .html-embed-wrapper .modal-footer:after, .html-embed-wrapper .nav:after, .html-embed-wrapper .navbar-collapse:after, .html-embed-wrapper .navbar-header:after, .html-embed-wrapper .navbar:after, .html-embed-wrapper .pager:after, .html-embed-wrapper .panel-body:after, .html-embed-wrapper .row:after {clear: both}
+@media (min-width: 992px) {
+.html-embed-wrapper header[role=banner] #global-CTA .collapse.in a.btn-outline, .html-embed-wrapper header[role=banner] #global-CTA .collapsing a.btn-outline {display: block;
+border-radius: 0;
+height: auto;
+line-height: 3.6rem !important;
+padding-top: 0 !important;
+padding-bottom: 0 !important;
+color: #fff;
+width: auto}
+.html-embed-wrapper header[role=banner] #global-CTA .collapse.in a.btn-outline + a.btn-outline, .html-embed-wrapper header[role=banner] #global-CTA .collapsing a.btn-outline + a.btn-outline {margin-top: 20px}
+}
+.html-embed-wrapper header.tier-2 ul.tier-2-cta .collapse.in a.btn-outline, .html-embed-wrapper header.tier-2 ul.tier-2-cta .collapsing a.btn-outline {display: block;
+border-radius: 0;
+height: auto;
+line-height: 3.6rem !important;
+padding-top: 0 !important;
+padding-bottom: 0 !important;
+color: #fff;
+width: auto}
+.html-embed-wrapper header.tier-2 ul.tier-2-cta .collapse.in a.btn-outline + a.btn-outline, .html-embed-wrapper header.tier-2 ul.tier-2-cta .collapsing a.btn-outline + a.btn-outline {margin-top: 20px}
+.html-embed-wrapper header.tier-2 ul.tier-2-cta .collapse.in a.btn-outline:visited, .html-embed-wrapper header.tier-2 ul.tier-2-cta .collapsing a.btn-outline:visited {color: #fff}
+.html-embed-wrapper header.tier-2 ul.tier-2-cta .collapse.in a.btn-outline:focus, .html-embed-wrapper header.tier-2 ul.tier-2-cta .collapse.in a.btn-outline:hover, .html-embed-wrapper header.tier-2 ul.tier-2-cta .collapsing a.btn-outline:focus, .html-embed-wrapper header.tier-2 ul.tier-2-cta .collapsing a.btn-outline:hover {background: #fff !important;
+color: #4d4037 !important}
+@media (max-width: 992px) {
+.html-embed-wrapper #main-container &gt; .tier-3-cta.fixed-bottom li a.btn {display: inline-block;
+width: 100%;
+height: 30px;
+padding: 0 20px;
+margin: 0;
+font-size: 1.5rem;
+line-height: 30px}
+}
+.html-embed-wrapper #new-mobile-nav #new-mobile-search form#new-search-form #new-submit-search.btn.btn-primary, .html-embed-wrapper #new-mobile-nav #new-search form#new-search-form #new-submit-search.btn.btn-primary, .html-embed-wrapper #new-mobile-search #new-mobile-search form#new-search-form #new-submit-search.btn.btn-primary, .html-embed-wrapper #new-mobile-search #new-search form#new-search-form #new-submit-search.btn.btn-primary, .html-embed-wrapper #new-nav #new-mobile-search form#new-search-form #new-submit-search.btn.btn-primary, .html-embed-wrapper #new-nav #new-search form#new-search-form #new-submit-search.btn.btn-primary, .html-embed-wrapper #new-search #new-mobile-search form#new-search-form #new-submit-search.btn.btn-primary, .html-embed-wrapper #new-search #new-search form#new-search-form #new-submit-search.btn.btn-primary {background: #182449}
+.html-embed-wrapper #new-mobile-nav #new-mobile-search form#new-people-form #new-submit-people.btn.btn-primary, .html-embed-wrapper #new-mobile-nav #new-search form#new-people-form #new-submit-people.btn.btn-primary, .html-embed-wrapper #new-mobile-search #new-mobile-search form#new-people-form #new-submit-people.btn.btn-primary, .html-embed-wrapper #new-mobile-search #new-search form#new-people-form #new-submit-people.btn.btn-primary, .html-embed-wrapper #new-nav #new-mobile-search form#new-people-form #new-submit-people.btn.btn-primary, .html-embed-wrapper #new-nav #new-search form#new-people-form #new-submit-people.btn.btn-primary, .html-embed-wrapper #new-search #new-mobile-search form#new-people-form #new-submit-people.btn.btn-primary, .html-embed-wrapper #new-search #new-search form#new-people-form #new-submit-</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/centers/antiracism/thinking-freedom-series</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>cs_control_5674922-collapse</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>cs_control_5674922-collapse</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+@media print {
+.html-embed-wrapper .btn &gt; .caret, .html-embed-wrapper .dropup &gt; .btn &gt; .caret {border-top-color: #000 !important}
+}
+.html-embed-wrapper .btn {display: inline-block;
+margin-bottom: 0;
+font-weight: 400;
+text-align: center;
+vertical-align: middle;
+-ms-touch-action: manipulation;
+touch-action: manipulation;
+cursor: pointer;
+background-image: none;
+border: 1px solid transparent;
+white-space: nowrap;
+padding: 6px 12px;
+font-size: 14px;
+line-height: 1.428571;
+border-radius: 4px;
+-webkit-user-select: none;
+-moz-user-select: none;
+-ms-user-select: none;
+user-select: none}
+.html-embed-wrapper .btn.active.focus, .html-embed-wrapper .btn.active:focus, .html-embed-wrapper .btn.focus, .html-embed-wrapper .btn:active.focus, .html-embed-wrapper .btn:active:focus, .html-embed-wrapper .btn:focus {outline: thin dotted;
+outline: 5px auto -webkit-focus-ring-color;
+outline-offset: -2px}
+.html-embed-wrapper .btn.focus, .html-embed-wrapper .btn:focus, .html-embed-wrapper .btn:hover {color: #333;
+text-decoration: none}
+.html-embed-wrapper .btn.active, .html-embed-wrapper .btn:active {outline: 0;
+background-image: none;
+box-shadow: inset 0 3px 5px rgba(0, 0, 0, 0.125)}
+.html-embed-wrapper .btn.disabled, .html-embed-wrapper .btn[disabled], .html-embed-wrapper fieldset[disabled] .btn {cursor: not-allowed;
+opacity: 0.65;
+box-shadow: none}
+.html-embed-wrapper a.btn.disabled, .html-embed-wrapper fieldset[disabled] a.btn {pointer-events: none}
+.html-embed-wrapper .btn-default {color: #333;
+background-color: #fff;
+border-color: #ccc}
+.html-embed-wrapper .btn-default.focus, .html-embed-wrapper .btn-default:focus {color: #333;
+background-color: #e6e6e6;
+border-color: #8c8c8c}
+.html-embed-wrapper .btn-default:hover {color: #333;
+background-color: #e6e6e6;
+border-color: #adadad}
+.html-embed-wrapper .btn-default.active, .html-embed-wrapper .btn-default:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-default {color: #333;
+background-color: #e6e6e6;
+border-color: #adadad}
+.html-embed-wrapper .btn-default.active.focus, .html-embed-wrapper .btn-default.active:focus, .html-embed-wrapper .btn-default.active:hover, .html-embed-wrapper .btn-default:active.focus, .html-embed-wrapper .btn-default:active:focus, .html-embed-wrapper .btn-default:active:hover, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-default.focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-default:focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-default:hover {color: #333;
+background-color: #d4d4d4;
+border-color: #8c8c8c}
+.html-embed-wrapper .btn-default.active, .html-embed-wrapper .btn-default:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-default {background-image: none}
+.html-embed-wrapper .btn-default.disabled, .html-embed-wrapper .btn-default.disabled.active, .html-embed-wrapper .btn-default.disabled.focus, .html-embed-wrapper .btn-default.disabled:active, .html-embed-wrapper .btn-default.disabled:focus, .html-embed-wrapper .btn-default.disabled:hover, .html-embed-wrapper .btn-default[disabled], .html-embed-wrapper .btn-default[disabled].active, .html-embed-wrapper .btn-default[disabled].focus, .html-embed-wrapper .btn-default[disabled]:active, .html-embed-wrapper .btn-default[disabled]:focus, .html-embed-wrapper .btn-default[disabled]:hover, .html-embed-wrapper fieldset[disabled] .btn-default, .html-embed-wrapper fieldset[disabled] .btn-default.active, .html-embed-wrapper fieldset[disabled] .btn-default.focus, .html-embed-wrapper fieldset[disabled] .btn-default:active, .html-embed-wrapper fieldset[disabled] .btn-default:focus, .html-embed-wrapper fieldset[disabled] .btn-default:hover {background-color: #fff;
+border-color: #ccc}
+.html-embed-wrapper .btn-default .badge {color: #fff;
+background-color: #333}
+.html-embed-wrapper .btn-primary {color: #fff;
+background-color: #337ab7;
+border-color: #2e6da4}
+.html-embed-wrapper .btn-primary.focus, .html-embed-wrapper .btn-primary:focus {color: #fff;
+background-color: #286090;
+border-color: #122b40}
+.html-embed-wrapper .btn-primary:hover {color: #fff;
+background-color: #286090;
+border-color: #204d74}
+.html-embed-wrapper .btn-primary.active, .html-embed-wrapper .btn-primary:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-primary {color: #fff;
+background-color: #286090;
+border-color: #204d74}
+.html-embed-wrapper .btn-primary.active.focus, .html-embed-wrapper .btn-primary.active:focus, .html-embed-wrapper .btn-primary.active:hover, .html-embed-wrapper .btn-primary:active.focus, .html-embed-wrapper .btn-primary:active:focus, .html-embed-wrapper .btn-primary:active:hover, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-primary.focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-primary:focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-primary:hover {color: #fff;
+background-color: #204d74;
+border-color: #122b40}
+.html-embed-wrapper .btn-primary.active, .html-embed-wrapper .btn-primary:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-primary {background-image: none}
+.html-embed-wrapper .btn-primary.disabled, .html-embed-wrapper .btn-primary.disabled.active, .html-embed-wrapper .btn-primary.disabled.focus, .html-embed-wrapper .btn-primary.disabled:active, .html-embed-wrapper .btn-primary.disabled:focus, .html-embed-wrapper .btn-primary.disabled:hover, .html-embed-wrapper .btn-primary[disabled], .html-embed-wrapper .btn-primary[disabled].active, .html-embed-wrapper .btn-primary[disabled].focus, .html-embed-wrapper .btn-primary[disabled]:active, .html-embed-wrapper .btn-primary[disabled]:focus, .html-embed-wrapper .btn-primary[disabled]:hover, .html-embed-wrapper fieldset[disabled] .btn-primary, .html-embed-wrapper fieldset[disabled] .btn-primary.active, .html-embed-wrapper fieldset[disabled] .btn-primary.focus, .html-embed-wrapper fieldset[disabled] .btn-primary:active, .html-embed-wrapper fieldset[disabled] .btn-primary:focus, .html-embed-wrapper fieldset[disabled] .btn-primary:hover {background-color: #337ab7;
+border-color: #2e6da4}
+.html-embed-wrapper .btn-primary .badge {color: #337ab7;
+background-color: #fff}
+.html-embed-wrapper .btn-success {color: #fff;
+background-color: #5cb85c;
+border-color: #4cae4c}
+.html-embed-wrapper .btn-success.focus, .html-embed-wrapper .btn-success:focus {color: #fff;
+background-color: #449d44;
+border-color: #255625}
+.html-embed-wrapper .btn-success:hover {color: #fff;
+background-color: #449d44;
+border-color: #398439}
+.html-embed-wrapper .btn-success.active, .html-embed-wrapper .btn-success:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-success {color: #fff;
+background-color: #449d44;
+border-color: #398439}
+.html-embed-wrapper .btn-success.active.focus, .html-embed-wrapper .btn-success.active:focus, .html-embed-wrapper .btn-success.active:hover, .html-embed-wrapper .btn-success:active.focus, .html-embed-wrapper .btn-success:active:focus, .html-embed-wrapper .btn-success:active:hover, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-success.focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-success:focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-success:hover {color: #fff;
+background-color: #398439;
+border-color: #255625}
+.html-embed-wrapper .btn-success.active, .html-embed-wrapper .btn-success:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-success {background-image: none}
+.html-embed-wrapper .btn-success.disabled, .html-embed-wrapper .btn-success.disabled.active, .html-embed-wrapper .btn-success.disabled.focus, .html-embed-wrapper .btn-success.disabled:active, .html-embed-wrapper .btn-success.disabled:focus, .html-embed-wrapper .btn-success.disabled:hover, .html-embed-wrapper .btn-success[disabled], .html-embed-wrapper .btn-success[disabled].active, .html-embed-wrapper .btn-success[disabled].focus, .html-embed-wrapper .btn-success[disabled]:active, .html-embed-wrapper .btn-success[disabled]:focus, .html-embed-wrapper .btn-success[disabled]:hover, .html-embed-wrapper fieldset[disabled] .btn-success, .html-embed-wrapper fieldset[disabled] .btn-success.active, .html-embed-wrapper fieldset[disabled] .btn-success.focus, .html-embed-wrapper fieldset[disabled] .btn-success:active, .html-embed-wrapper fieldset[disabled] .btn-success:focus, .html-embed-wrapper fieldset[disabled] .btn-success:hover {background-color: #5cb85c;
+border-color: #4cae4c}
+.html-embed-wrapper .btn-success .badge {color: #5cb85c;
+background-color: #fff}
+.html-embed-wrapper .btn-info {color: #fff;
+background-color: #5bc0de;
+border-color: #46b8da}
+.html-embed-wrapper .btn-info.focus, .html-embed-wrapper .btn-info:focus {color: #fff;
+background-color: #31b0d5;
+border-color: #1b6d85}
+.html-embed-wrapper .btn-info:hover {color: #fff;
+background-color: #31b0d5;
+border-color: #269abc}
+.html-embed-wrapper .btn-info.active, .html-embed-wrapper .btn-info:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-info {color: #fff;
+background-color: #31b0d5;
+border-color: #269abc}
+.html-embed-wrapper .btn-info.active.focus, .html-embed-wrapper .btn-info.active:focus, .html-embed-wrapper .btn-info.active:hover, .html-embed-wrapper .btn-info:active.focus, .html-embed-wrapper .btn-info:active:focus, .html-embed-wrapper .btn-info:active:hover, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-info.focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-info:focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-info:hover {color: #fff;
+background-color: #269abc;
+border-color: #1b6d85}
+.html-embed-wrapper .btn-info.active, .html-embed-wrapper .btn-info:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-info {background-image: none}
+.html-embed-wrapper .btn-info.disabled, .html-embed-wrapper .btn-info.disabled.active, .html-embed-wrapper .btn-info.disabled.focus, .html-embed-wrapper .btn-info.disabled:active, .html-embed-wrapper .btn-info.disabled:focus, .html-embed-wrapper .btn-info.disabled:hover, .html-embed-wrapper .btn-info[disabled], .html-embed-wrapper .btn-info[disabled].active, .html-embed-wrapper .btn-info[disabled].focus, .html-embed-wrapper .btn-info[disabled]:active, .html-embed-wrapper .btn-info[disabled]:focus, .html-embed-wrapper .btn-info[disabled]:hover, .html-embed-wrapper fieldset[disabled] .btn-info, .html-embed-wrapper fieldset[disabled] .btn-info.active, .html-embed-wrapper fieldset[disabled] .btn-info.focus, .html-embed-wrapper fieldset[disabled] .btn-info:active, .html-embed-wrapper fieldset[disabled] .btn-info:focus, .html-embed-wrapper fieldset[disabled] .btn-info:hover {background-color: #5bc0de;
+border-color: #46b8da}
+.html-embed-wrapper .btn-info .badge {color: #5bc0de;
+background-color: #fff}
+.html-embed-wrapper .btn-warning {color: #fff;
+background-color: #f0ad4e;
+border-color: #eea236}
+.html-embed-wrapper .btn-warning.focus, .html-embed-wrapper .btn-warning:focus {color: #fff;
+background-color: #ec971f;
+border-color: #985f0d}
+.html-embed-wrapper .btn-warning:hover {color: #fff;
+background-color: #ec971f;
+border-color: #d58512}
+.html-embed-wrapper .btn-warning.active, .html-embed-wrapper .btn-warning:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-warning {color: #fff;
+background-color: #ec971f;
+border-color: #d58512}
+.html-embed-wrapper .btn-warning.active.focus, .html-embed-wrapper .btn-warning.active:focus, .html-embed-wrapper .btn-warning.active:hover, .html-embed-wrapper .btn-warning:active.focus, .html-embed-wrapper .btn-warning:active:focus, .html-embed-wrapper .btn-warning:active:hover, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-warning.focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-warning:focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-warning:hover {color: #fff;
+background-color: #d58512;
+border-color: #985f0d}
+.html-embed-wrapper .btn-warning.active, .html-embed-wrapper .btn-warning:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-warning {background-image: none}
+.html-embed-wrapper .btn-warning.disabled, .html-embed-wrapper .btn-warning.disabled.active, .html-embed-wrapper .btn-warning.disabled.focus, .html-embed-wrapper .btn-warning.disabled:active, .html-embed-wrapper .btn-warning.disabled:focus, .html-embed-wrapper .btn-warning.disabled:hover, .html-embed-wrapper .btn-warning[disabled], .html-embed-wrapper .btn-warning[disabled].active, .html-embed-wrapper .btn-warning[disabled].focus, .html-embed-wrapper .btn-warning[disabled]:active, .html-embed-wrapper .btn-warning[disabled]:focus, .html-embed-wrapper .btn-warning[disabled]:hover, .html-embed-wrapper fieldset[disabled] .btn-warning, .html-embed-wrapper fieldset[disabled] .btn-warning.active, .html-embed-wrapper fieldset[disabled] .btn-warning.focus, .html-embed-wrapper fieldset[disabled] .btn-warning:active, .html-embed-wrapper fieldset[disabled] .btn-warning:focus, .html-embed-wrapper fieldset[disabled] .btn-warning:hover {background-color: #f0ad4e;
+border-color: #eea236}
+.html-embed-wrapper .btn-warning .badge {color: #f0ad4e;
+background-color: #fff}
+.html-embed-wrapper .btn-danger {color: #fff;
+background-color: #d9534f;
+border-color: #d43f3a}
+.html-embed-wrapper .btn-danger.focus, .html-embed-wrapper .btn-danger:focus {color: #fff;
+background-color: #c9302c;
+border-color: #761c19}
+.html-embed-wrapper .btn-danger:hover {color: #fff;
+background-color: #c9302c;
+border-color: #ac2925}
+.html-embed-wrapper .btn-danger.active, .html-embed-wrapper .btn-danger:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-danger {color: #fff;
+background-color: #c9302c;
+border-color: #ac2925}
+.html-embed-wrapper .btn-danger.active.focus, .html-embed-wrapper .btn-danger.active:focus, .html-embed-wrapper .btn-danger.active:hover, .html-embed-wrapper .btn-danger:active.focus, .html-embed-wrapper .btn-danger:active:focus, .html-embed-wrapper .btn-danger:active:hover, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-danger.focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-danger:focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-danger:hover {color: #fff;
+background-color: #ac2925;
+border-color: #761c19}
+.html-embed-wrapper .btn-danger.active, .html-embed-wrapper .btn-danger:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-danger {background-image: none}
+.html-embed-wrapper .btn-danger.disabled, .html-embed-wrapper .btn-danger.disabled.active, .html-embed-wrapper .btn-danger.disabled.focus, .html-embed-wrapper .btn-danger.disabled:active, .html-embed-wrapper .btn-danger.disabled:focus, .html-embed-wrapper .btn-danger.disabled:hover, .html-embed-wrapper .btn-danger[disabled], .html-embed-wrapper .btn-danger[disabled].active, .html-embed-wrapper .btn-danger[disabled].focus, .html-embed-wrapper .btn-danger[disabled]:active, .html-embed-wrapper .btn-danger[disabled]:focus, .html-embed-wrapper .btn-danger[disabled]:hover, .html-embed-wrapper fieldset[disabled] .btn-danger, .html-embed-wrapper fieldset[disabled] .btn-danger.active, .html-embed-wrapper fieldset[disabled] .btn-danger.focus, .html-embed-wrapper fieldset[disabled] .btn-danger:active, .html-embed-wrapper fieldset[disabled] .btn-danger:focus, .html-embed-wrapper fieldset[disabled] .btn-danger:hover {background-color: #d9534f;
+border-color: #d43f3a}
+.html-embed-wrapper .btn-danger .badge {color: #d9534f;
+background-color: #fff}
+.html-embed-wrapper .btn-link {color: #337ab7;
+font-weight: 400;
+border-radius: 0}
+.html-embed-wrapper .btn-link, .html-embed-wrapper .btn-link.active, .html-embed-wrapper .btn-link:active, .html-embed-wrapper .btn-link[disabled], .html-embed-wrapper fieldset[disabled] .btn-link {background-color: transparent;
+box-shadow: none}
+.html-embed-wrapper .btn-link, .html-embed-wrapper .btn-link:active, .html-embed-wrapper .btn-link:focus, .html-embed-wrapper .btn-link:hover {border-color: transparent}
+.html-embed-wrapper .btn-link:focus, .html-embed-wrapper .btn-link:hover {color: #23527c;
+text-decoration: underline;
+background-color: transparent}
+.html-embed-wrapper .btn-link[disabled]:focus, .html-embed-wrapper .btn-link[disabled]:hover, .html-embed-wrapper fieldset[disabled] .btn-link:focus, .html-embed-wrapper fieldset[disabled] .btn-link:hover {color: #777;
+text-decoration: none}
+.html-embed-wrapper .btn-group-lg &gt; .btn, .html-embed-wrapper .btn-lg {padding: 10px 16px;
+font-size: 18px;
+line-height: 1.333333;
+border-radius: 6px}
+.html-embed-wrapper .btn-group-sm &gt; .btn, .html-embed-wrapper .btn-sm {padding: 5px 10px;
+font-size: 12px;
+line-height: 1.5;
+border-radius: 3px}
+.html-embed-wrapper .btn-group-xs &gt; .btn, .html-embed-wrapper .btn-xs {padding: 1px 5px;
+font-size: 12px;
+line-height: 1.5;
+border-radius: 3px}
+.html-embed-wrapper .btn-block {display: block;
+width: 100%}
+.html-embed-wrapper .btn-block + .btn-block {margin-top: 5px}
+.html-embed-wrapper input[type=button].btn-block, .html-embed-wrapper input[type=reset].btn-block, .html-embed-wrapper input[type=submit].btn-block {width: 100%}
+.html-embed-wrapper .btn-group, .html-embed-wrapper .btn-group-vertical {position: relative;
+display: inline-block;
+vertical-align: middle}
+.html-embed-wrapper .btn-group-vertical &gt; .btn, .html-embed-wrapper .btn-group &gt; .btn {position: relative;
+float: left}
+.html-embed-wrapper .btn-group-vertical &gt; .btn.active, .html-embed-wrapper .btn-group-vertical &gt; .btn:active, .html-embed-wrapper .btn-group-vertical &gt; .btn:focus, .html-embed-wrapper .btn-group-vertical &gt; .btn:hover, .html-embed-wrapper .btn-group &gt; .btn.active, .html-embed-wrapper .btn-group &gt; .btn:active, .html-embed-wrapper .btn-group &gt; .btn:focus, .html-embed-wrapper .btn-group &gt; .btn:hover {z-index: 2}
+.html-embed-wrapper .btn-group .btn + .btn, .html-embed-wrapper .btn-group .btn + .btn-group, .html-embed-wrapper .btn-group .btn-group + .btn, .html-embed-wrapper .btn-group .btn-group + .btn-group {margin-left: -1px}
+.html-embed-wrapper .btn-toolbar {margin-left: -5px}
+.html-embed-wrapper .btn-toolbar .btn, .html-embed-wrapper .btn-toolbar .btn-group, .html-embed-wrapper .btn-toolbar .input-group {float: left}
+.html-embed-wrapper .btn-toolbar &gt; .btn, .html-embed-wrapper .btn-toolbar &gt; .btn-group, .html-embed-wrapper .btn-toolbar &gt; .input-group {margin-left: 5px}
+.html-embed-wrapper .btn-group &gt; .btn:not(:first-child):not(:last-child):not(.dropdown-toggle) {border-radius: 0}
+.html-embed-wrapper .btn-group &gt; .btn:first-child {margin-left: 0}
+.html-embed-wrapper .btn-group &gt; .btn:first-child:not(:last-child):not(.dropdown-toggle) {border-bottom-right-radius: 0;
+border-top-right-radius: 0}
+.html-embed-wrapper .btn-group &gt; .btn:last-child:not(:first-child), .html-embed-wrapper .btn-group &gt; .dropdown-toggle:not(:first-child) {border-bottom-left-radius: 0;
+border-top-left-radius: 0}
+.html-embed-wrapper .btn-group &gt; .btn-group {float: left}
+.html-embed-wrapper .btn-group &gt; .btn-group:not(:first-child):not(:last-child) &gt; .btn {border-radius: 0}
+.html-embed-wrapper .btn-group &gt; .btn-group:first-child:not(:last-child) &gt; .btn:last-child, .html-embed-wrapper .btn-group &gt; .btn-group:first-child:not(:last-child) &gt; .dropdown-toggle {border-bottom-right-radius: 0;
+border-top-right-radius: 0}
+.html-embed-wrapper .btn-group &gt; .btn-group:last-child:not(:first-child) &gt; .btn:first-child {border-bottom-left-radius: 0;
+border-top-left-radius: 0}
+.html-embed-wrapper .btn-group .dropdown-toggle:active, .html-embed-wrapper .btn-group.open .dropdown-toggle {outline: 0}
+.html-embed-wrapper .btn-group &gt; .btn + .dropdown-toggle {padding-left: 8px;
+padding-right: 8px}
+.html-embed-wrapper .btn-group &gt; .btn-lg + .dropdown-toggle {padding-left: 12px;
+padding-right: 12px}
+.html-embed-wrapper .btn-group.open .dropdown-toggle {box-shadow: inset 0 3px 5px rgba(0, 0, 0, 0.125)}
+.html-embed-wrapper .btn-group.open .dropdown-toggle.btn-link {box-shadow: none}
+.html-embed-wrapper .btn .caret {margin-left: 0}
+.html-embed-wrapper .btn-lg .caret {border-width: 5px 5px 0;
+border-bottom-width: 0}
+.html-embed-wrapper .dropup .btn-lg .caret {border-width: 0 5px 5px}
+.html-embed-wrapper .btn-group-vertical &gt; .btn, .html-embed-wrapper .btn-group-vertical &gt; .btn-group, .html-embed-wrapper .btn-group-vertical &gt; .btn-group &gt; .btn {display: block;
+float: none;
+width: 100%;
+max-width: 100%}
+.html-embed-wrapper .btn-group-vertical &gt; .btn-group &gt; .btn {float: none}
+.html-embed-wrapper .btn-group-vertical &gt; .btn + .btn, .html-embed-wrapper .btn-group-vertical &gt; .btn + .btn-group, .html-embed-wrapper .btn-group-vertical &gt; .btn-group + .btn, .html-embed-wrapper .btn-group-vertical &gt; .btn-group + .btn-group {margin-top: -1px;
+margin-left: 0}
+.html-embed-wrapper .btn-group-vertical &gt; .btn:not(:first-child):not(:last-child) {border-radius: 0}
+.html-embed-wrapper .btn-group-vertical &gt; .btn:first-child:not(:last-child) {border-top-right-radius: 4px;
+border-bottom-right-radius: 0;
+border-bottom-left-radius: 0}
+.html-embed-wrapper .btn-group-vertical &gt; .btn:last-child:not(:first-child) {border-bottom-left-radius: 4px;
+border-top-right-radius: 0;
+border-top-left-radius: 0}
+.html-embed-wrapper .btn-group-vertical &gt; .btn-group:not(:first-child):not(:last-child) &gt; .btn {border-radius: 0}
+.html-embed-wrapper .btn-group-vertical &gt; .btn-group:first-child:not(:last-child) &gt; .btn:last-child, .html-embed-wrapper .btn-group-vertical &gt; .btn-group:first-child:not(:last-child) &gt; .dropdown-toggle {border-bottom-right-radius: 0;
+border-bottom-left-radius: 0}
+.html-embed-wrapper .btn-group-vertical &gt; .btn-group:last-child:not(:first-child) &gt; .btn:first-child {border-top-right-radius: 0;
+border-top-left-radius: 0}
+.html-embed-wrapper .btn-group-justified {display: table;
+width: 100%;
+table-layout: fixed;
+border-collapse: separate}
+.html-embed-wrapper .btn-group-justified &gt; .btn, .html-embed-wrapper .btn-group-justified &gt; .btn-group {float: none;
+display: table-cell;
+width: 1%}
+.html-embed-wrapper .btn-group-justified &gt; .btn-group .btn {width: 100%}
+.html-embed-wrapper .btn-group-justified &gt; .btn-group .dropdown-menu {left: auto}
+.html-embed-wrapper [data-toggle=buttons] &gt; .btn input[type=checkbox], .html-embed-wrapper [data-toggle=buttons] &gt; .btn input[type=radio], .html-embed-wrapper [data-toggle=buttons] &gt; .btn-group &gt; .btn input[type=checkbox], .html-embed-wrapper [data-toggle=buttons] &gt; .btn-group &gt; .btn input[type=radio] {position: absolute;
+clip: rect(0, 0, 0, 0);
+pointer-events: none}
+.html-embed-wrapper .input-group-lg &gt; .form-control, .html-embed-wrapper .input-group-lg &gt; .input-group-addon, .html-embed-wrapper .input-group-lg &gt; .input-group-btn &gt; .btn {height: 46px;
+padding: 10px 16px;
+font-size: 18px;
+line-height: 1.333333;
+border-radius: 6px}
+.html-embed-wrapper select.input-group-lg &gt; .form-control, .html-embed-wrapper select.input-group-lg &gt; .input-group-addon, .html-embed-wrapper select.input-group-lg &gt; .input-group-btn &gt; .btn {height: 46px;
+line-height: 46px}
+.html-embed-wrapper select[multiple].input-group-lg &gt; .form-control, .html-embed-wrapper select[multiple].input-group-lg &gt; .input-group-addon, .html-embed-wrapper select[multiple].input-group-lg &gt; .input-group-btn &gt; .btn, .html-embed-wrapper textarea.input-group-lg &gt; .form-control, .html-embed-wrapper textarea.input-group-lg &gt; .input-group-addon, .html-embed-wrapper textarea.input-group-lg &gt; .input-group-btn &gt; .btn {height: auto}
+.html-embed-wrapper .input-group-sm &gt; .form-control, .html-embed-wrapper .input-group-sm &gt; .input-group-addon, .html-embed-wrapper .input-group-sm &gt; .input-group-btn &gt; .btn {height: 30px;
+padding: 5px 10px;
+font-size: 12px;
+line-height: 1.5;
+border-radius: 3px}
+.html-embed-wrapper select.input-group-sm &gt; .form-control, .html-embed-wrapper select.input-group-sm &gt; .input-group-addon, .html-embed-wrapper select.input-group-sm &gt; .input-group-btn &gt; .btn {height: 30px;
+line-height: 30px}
+.html-embed-wrapper select[multiple].input-group-sm &gt; .form-control, .html-embed-wrapper select[multiple].input-group-sm &gt; .input-group-addon, .html-embed-wrapper select[multiple].input-group-sm &gt; .input-group-btn &gt; .btn, .html-embed-wrapper textarea.input-group-sm &gt; .form-control, .html-embed-wrapper textarea.input-group-sm &gt; .input-group-addon, .html-embed-wrapper textarea.input-group-sm &gt; .input-group-btn &gt; .btn {height: auto}
+.html-embed-wrapper .input-group .form-control:first-child, .html-embed-wrapper .input-group-addon:first-child, .html-embed-wrapper .input-group-btn:first-child &gt; .btn, .html-embed-wrapper .input-group-btn:first-child &gt; .btn-group &gt; .btn, .html-embed-wrapper .input-group-btn:first-child &gt; .dropdown-toggle, .html-embed-wrapper .input-group-btn:last-child &gt; .btn-group:not(:last-child) &gt; .btn, .html-embed-wrapper .input-group-btn:last-child &gt; .btn:not(:last-child):not(.dropdown-toggle) {border-bottom-right-radius: 0;
+border-top-right-radius: 0}
+.html-embed-wrapper .input-group .form-control:last-child, .html-embed-wrapper .input-group-addon:last-child, .html-embed-wrapper .input-group-btn:first-child &gt; .btn-group:not(:first-child) &gt; .btn, .html-embed-wrapper .input-group-btn:first-child &gt; .btn:not(:first-child), .html-embed-wrapper .input-group-btn:last-child &gt; .btn, .html-embed-wrapper .input-group-btn:last-child &gt; .btn-group &gt; .btn, .html-embed-wrapper .input-group-btn:last-child &gt; .dropdown-toggle {border-bottom-left-radius: 0;
+border-top-left-radius: 0}
+.html-embed-wrapper .input-group-btn &gt; .btn {position: relative}
+.html-embed-wrapper .input-group-btn &gt; .btn + .btn {margin-left: -1px}
+.html-embed-wrapper .input-group-btn &gt; .btn:active, .html-embed-wrapper .input-group-btn &gt; .btn:focus, .html-embed-wrapper .input-group-btn &gt; .btn:hover {z-index: 2}
+.html-embed-wrapper .input-group-btn:first-child &gt; .btn, .html-embed-wrapper .input-group-btn:first-child &gt; .btn-group {margin-right: -1px}
+.html-embed-wrapper .input-group-btn:last-child &gt; .btn, .html-embed-wrapper .input-group-btn:last-child &gt; .btn-group {z-index: 2;
+margin-left: -1px}
+.html-embed-wrapper .navbar-btn.btn-sm {margin-top: 10px;
+margin-bottom: 10px}
+.html-embed-wrapper .navbar-btn.btn-xs {margin-top: 14px;
+margin-bottom: 14px}
+.html-embed-wrapper .navbar-default .btn-link {color: #777}
+.html-embed-wrapper .navbar-default .btn-link:focus, .html-embed-wrapper .navbar-default .btn-link:hover {color: #333}
+.html-embed-wrapper .navbar-default .btn-link[disabled]:focus, .html-embed-wrapper .navbar-default .btn-link[disabled]:hover, .html-embed-wrapper fieldset[disabled] .navbar-default .btn-link:focus, .html-embed-wrapper fieldset[disabled] .navbar-default .btn-link:hover {color: #ccc}
+.html-embed-wrapper .navbar-inverse .btn-link {color: #9d9d9d}
+.html-embed-wrapper .navbar-inverse .btn-link:focus, .html-embed-wrapper .navbar-inverse .btn-link:hover {color: #fff}
+.html-embed-wrapper .navbar-inverse .btn-link[disabled]:focus, .html-embed-wrapper .navbar-inverse .btn-link[disabled]:hover, .html-embed-wrapper fieldset[disabled] .navbar-inverse .btn-link:focus, .html-embed-wrapper fieldset[disabled] .navbar-inverse .btn-link:hover {color: #444}
+.html-embed-wrapper .btn .label {position: relative;
+top: -1px}
+.html-embed-wrapper .btn .badge {position: relative;
+top: -1px}
+.html-embed-wrapper .btn-group-xs &gt; .btn .badge, .html-embed-wrapper .btn-xs .badge {top: 0;
+padding: 1px 5px}
+.html-embed-wrapper .modal-footer .btn + .btn {margin-left: 5px;
+margin-bottom: 0}
+.html-embed-wrapper .modal-footer .btn-group .btn + .btn {margin-left: -1px}
+.html-embed-wrapper .modal-footer .btn-block + .btn-block {margin-left: 0}
+.html-embed-wrapper .carousel-caption .btn {text-shadow: none}
+.html-embed-wrapper .btn-group-vertical &gt; .btn-group:after, .html-embed-wrapper .btn-group-vertical &gt; .btn-group:before, .html-embed-wrapper .btn-toolbar:after, .html-embed-wrapper .btn-toolbar:before, .html-embed-wrapper .clearfix:after, .html-embed-wrapper .clearfix:before, .html-embed-wrapper .container-fluid:after, .html-embed-wrapper .container-fluid:before, .html-embed-wrapper .container:after, .html-embed-wrapper .container:before, .html-embed-wrapper .dl-horizontal dd:after, .html-embed-wrapper .dl-horizontal dd:before, .html-embed-wrapper .form-horizontal .form-group:after, .html-embed-wrapper .form-horizontal .form-group:before, .html-embed-wrapper .modal-footer:after, .html-embed-wrapper .modal-footer:before, .html-embed-wrapper .nav:after, .html-embed-wrapper .nav:before, .html-embed-wrapper .navbar-collapse:after, .html-embed-wrapper .navbar-collapse:before, .html-embed-wrapper .navbar-header:after, .html-embed-wrapper .navbar-header:before, .html-embed-wrapper .navbar:after, .html-embed-wrapper .navbar:before, .html-embed-wrapper .pager:after, .html-embed-wrapper .pager:before, .html-embed-wrapper .panel-body:after, .html-embed-wrapper .panel-body:before, .html-embed-wrapper .row:after, .html-embed-wrapper .row:before {content: " ";
+display: table}
+.html-embed-wrapper .btn-group-vertical &gt; .btn-group:after, .html-embed-wrapper .btn-toolbar:after, .html-embed-wrapper .clearfix:after, .html-embed-wrapper .container-fluid:after, .html-embed-wrapper .container:after, .html-embed-wrapper .dl-horizontal dd:after, .html-embed-wrapper .form-horizontal .form-group:after, .html-embed-wrapper .modal-footer:after, .html-embed-wrapper .nav:after, .html-embed-wrapper .navbar-collapse:after, .html-embed-wrapper .navbar-header:after, .html-embed-wrapper .navbar:after, .html-embed-wrapper .pager:after, .html-embed-wrapper .panel-body:after, .html-embed-wrapper .row:after {clear: both}
+@media (min-width: 992px) {
+.html-embed-wrapper header[role=banner] #global-CTA .collapse.in a.btn-outline, .html-embed-wrapper header[role=banner] #global-CTA .collapsing a.btn-outline {display: block;
+border-radius: 0;
+height: auto;
+line-height: 3.6rem !important;
+padding-top: 0 !important;
+padding-bottom: 0 !important;
+color: #fff;
+width: auto}
+.html-embed-wrapper header[role=banner] #global-CTA .collapse.in a.btn-outline + a.btn-outline, .html-embed-wrapper header[role=banner] #global-CTA .collapsing a.btn-outline + a.btn-outline {margin-top: 20px}
+}
+.html-embed-wrapper header.tier-2 ul.tier-2-cta .collapse.in a.btn-outline, .html-embed-wrapper header.tier-2 ul.tier-2-cta .collapsing a.btn-outline {display: block;
+border-radius: 0;
+height: auto;
+line-height: 3.6rem !important;
+padding-top: 0 !important;
+padding-bottom: 0 !important;
+color: #fff;
+width: auto}
+.html-embed-wrapper header.tier-2 ul.tier-2-cta .collapse.in a.btn-outline + a.btn-outline, .html-embed-wrapper header.tier-2 ul.tier-2-cta .collapsing a.btn-outline + a.btn-outline {margin-top: 20px}
+.html-embed-wrapper header.tier-2 ul.tier-2-cta .collapse.in a.btn-outline:visited, .html-embed-wrapper header.tier-2 ul.tier-2-cta .collapsing a.btn-outline:visited {color: #fff}
+.html-embed-wrapper header.tier-2 ul.tier-2-cta .collapse.in a.btn-outline:focus, .html-embed-wrapper header.tier-2 ul.tier-2-cta .collapse.in a.btn-outline:hover, .html-embed-wrapper header.tier-2 ul.tier-2-cta .collapsing a.btn-outline:focus, .html-embed-wrapper header.tier-2 ul.tier-2-cta .collapsing a.btn-outline:hover {background: #fff !important;
+color: #4d4037 !important}
+@media (max-width: 992px) {
+.html-embed-wrapper #main-container &gt; .tier-3-cta.fixed-bottom li a.btn {display: inline-block;
+width: 100%;
+height: 30px;
+padding: 0 20px;
+margin: 0;
+font-size: 1.5rem;
+line-height: 30px}
+}
+.html-embed-wrapper #new-mobile-nav #new-mobile-search form#new-search-form #new-submit-search.btn.btn-primary, .html-embed-wrapper #new-mobile-nav #new-search form#new-search-form #new-submit-search.btn.btn-primary, .html-embed-wrapper #new-mobile-search #new-mobile-search form#new-search-form #new-submit-search.btn.btn-primary, .html-embed-wrapper #new-mobile-search #new-search form#new-search-form #new-submit-search.btn.btn-primary, .html-embed-wrapper #new-nav #new-mobile-search form#new-search-form #new-submit-search.btn.btn-primary, .html-embed-wrapper #new-nav #new-search form#new-search-form #new-submit-search.btn.btn-primary, .html-embed-wrapper #new-search #new-mobile-search form#new-search-form #new-submit-search.btn.btn-primary, .html-embed-wrapper #new-search #new-search form#new-search-form #new-submit-search.btn.btn-primary {background: #182449}
+.html-embed-wrapper #new-mobile-nav #new-mobile-search form#new-people-form #new-submit-people.btn.btn-primary, .html-embed-wrapper #new-mobile-nav #new-search form#new-people-form #new-submit-people.btn.btn-primary, .html-embed-wrapper #new-mobile-search #new-mobile-search form#new-people-form #new-submit-people.btn.btn-primary, .html-embed-wrapper #new-mobile-search #new-search form#new-people-form #new-submit-people.btn.btn-primary, .html-embed-wrapper #new-nav #new-mobile-search form#new-people-form #new-submit-people.btn.btn-primary, .html-embed-wrapper #new-nav #new-search form#new-people-form #new-submit-people.btn.btn-primary, .html-embed-wrapper #new-search #new-mobile-search form#new-people-form #new-submit-people.btn.btn-primary, .html-embed-wrapper #new-search #new-search form#new-people-form #new-submit-</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/centers/antiracism/thinking-freedom-series</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>cs_control_5674924-collapse</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>cs_control_5674924-collapse</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+@media print {
+.html-embed-wrapper .btn &gt; .caret, .html-embed-wrapper .dropup &gt; .btn &gt; .caret {border-top-color: #000 !important}
+}
+.html-embed-wrapper .btn {display: inline-block;
+margin-bottom: 0;
+font-weight: 400;
+text-align: center;
+vertical-align: middle;
+-ms-touch-action: manipulation;
+touch-action: manipulation;
+cursor: pointer;
+background-image: none;
+border: 1px solid transparent;
+white-space: nowrap;
+padding: 6px 12px;
+font-size: 14px;
+line-height: 1.428571;
+border-radius: 4px;
+-webkit-user-select: none;
+-moz-user-select: none;
+-ms-user-select: none;
+user-select: none}
+.html-embed-wrapper .btn.active.focus, .html-embed-wrapper .btn.active:focus, .html-embed-wrapper .btn.focus, .html-embed-wrapper .btn:active.focus, .html-embed-wrapper .btn:active:focus, .html-embed-wrapper .btn:focus {outline: thin dotted;
+outline: 5px auto -webkit-focus-ring-color;
+outline-offset: -2px}
+.html-embed-wrapper .btn.focus, .html-embed-wrapper .btn:focus, .html-embed-wrapper .btn:hover {color: #333;
+text-decoration: none}
+.html-embed-wrapper .btn.active, .html-embed-wrapper .btn:active {outline: 0;
+background-image: none;
+box-shadow: inset 0 3px 5px rgba(0, 0, 0, 0.125)}
+.html-embed-wrapper .btn.disabled, .html-embed-wrapper .btn[disabled], .html-embed-wrapper fieldset[disabled] .btn {cursor: not-allowed;
+opacity: 0.65;
+box-shadow: none}
+.html-embed-wrapper a.btn.disabled, .html-embed-wrapper fieldset[disabled] a.btn {pointer-events: none}
+.html-embed-wrapper .btn-default {color: #333;
+background-color: #fff;
+border-color: #ccc}
+.html-embed-wrapper .btn-default.focus, .html-embed-wrapper .btn-default:focus {color: #333;
+background-color: #e6e6e6;
+border-color: #8c8c8c}
+.html-embed-wrapper .btn-default:hover {color: #333;
+background-color: #e6e6e6;
+border-color: #adadad}
+.html-embed-wrapper .btn-default.active, .html-embed-wrapper .btn-default:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-default {color: #333;
+background-color: #e6e6e6;
+border-color: #adadad}
+.html-embed-wrapper .btn-default.active.focus, .html-embed-wrapper .btn-default.active:focus, .html-embed-wrapper .btn-default.active:hover, .html-embed-wrapper .btn-default:active.focus, .html-embed-wrapper .btn-default:active:focus, .html-embed-wrapper .btn-default:active:hover, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-default.focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-default:focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-default:hover {color: #333;
+background-color: #d4d4d4;
+border-color: #8c8c8c}
+.html-embed-wrapper .btn-default.active, .html-embed-wrapper .btn-default:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-default {background-image: none}
+.html-embed-wrapper .btn-default.disabled, .html-embed-wrapper .btn-default.disabled.active, .html-embed-wrapper .btn-default.disabled.focus, .html-embed-wrapper .btn-default.disabled:active, .html-embed-wrapper .btn-default.disabled:focus, .html-embed-wrapper .btn-default.disabled:hover, .html-embed-wrapper .btn-default[disabled], .html-embed-wrapper .btn-default[disabled].active, .html-embed-wrapper .btn-default[disabled].focus, .html-embed-wrapper .btn-default[disabled]:active, .html-embed-wrapper .btn-default[disabled]:focus, .html-embed-wrapper .btn-default[disabled]:hover, .html-embed-wrapper fieldset[disabled] .btn-default, .html-embed-wrapper fieldset[disabled] .btn-default.active, .html-embed-wrapper fieldset[disabled] .btn-default.focus, .html-embed-wrapper fieldset[disabled] .btn-default:active, .html-embed-wrapper fieldset[disabled] .btn-default:focus, .html-embed-wrapper fieldset[disabled] .btn-default:hover {background-color: #fff;
+border-color: #ccc}
+.html-embed-wrapper .btn-default .badge {color: #fff;
+background-color: #333}
+.html-embed-wrapper .btn-primary {color: #fff;
+background-color: #337ab7;
+border-color: #2e6da4}
+.html-embed-wrapper .btn-primary.focus, .html-embed-wrapper .btn-primary:focus {color: #fff;
+background-color: #286090;
+border-color: #122b40}
+.html-embed-wrapper .btn-primary:hover {color: #fff;
+background-color: #286090;
+border-color: #204d74}
+.html-embed-wrapper .btn-primary.active, .html-embed-wrapper .btn-primary:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-primary {color: #fff;
+background-color: #286090;
+border-color: #204d74}
+.html-embed-wrapper .btn-primary.active.focus, .html-embed-wrapper .btn-primary.active:focus, .html-embed-wrapper .btn-primary.active:hover, .html-embed-wrapper .btn-primary:active.focus, .html-embed-wrapper .btn-primary:active:focus, .html-embed-wrapper .btn-primary:active:hover, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-primary.focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-primary:focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-primary:hover {color: #fff;
+background-color: #204d74;
+border-color: #122b40}
+.html-embed-wrapper .btn-primary.active, .html-embed-wrapper .btn-primary:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-primary {background-image: none}
+.html-embed-wrapper .btn-primary.disabled, .html-embed-wrapper .btn-primary.disabled.active, .html-embed-wrapper .btn-primary.disabled.focus, .html-embed-wrapper .btn-primary.disabled:active, .html-embed-wrapper .btn-primary.disabled:focus, .html-embed-wrapper .btn-primary.disabled:hover, .html-embed-wrapper .btn-primary[disabled], .html-embed-wrapper .btn-primary[disabled].active, .html-embed-wrapper .btn-primary[disabled].focus, .html-embed-wrapper .btn-primary[disabled]:active, .html-embed-wrapper .btn-primary[disabled]:focus, .html-embed-wrapper .btn-primary[disabled]:hover, .html-embed-wrapper fieldset[disabled] .btn-primary, .html-embed-wrapper fieldset[disabled] .btn-primary.active, .html-embed-wrapper fieldset[disabled] .btn-primary.focus, .html-embed-wrapper fieldset[disabled] .btn-primary:active, .html-embed-wrapper fieldset[disabled] .btn-primary:focus, .html-embed-wrapper fieldset[disabled] .btn-primary:hover {background-color: #337ab7;
+border-color: #2e6da4}
+.html-embed-wrapper .btn-primary .badge {color: #337ab7;
+background-color: #fff}
+.html-embed-wrapper .btn-success {color: #fff;
+background-color: #5cb85c;
+border-color: #4cae4c}
+.html-embed-wrapper .btn-success.focus, .html-embed-wrapper .btn-success:focus {color: #fff;
+background-color: #449d44;
+border-color: #255625}
+.html-embed-wrapper .btn-success:hover {color: #fff;
+background-color: #449d44;
+border-color: #398439}
+.html-embed-wrapper .btn-success.active, .html-embed-wrapper .btn-success:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-success {color: #fff;
+background-color: #449d44;
+border-color: #398439}
+.html-embed-wrapper .btn-success.active.focus, .html-embed-wrapper .btn-success.active:focus, .html-embed-wrapper .btn-success.active:hover, .html-embed-wrapper .btn-success:active.focus, .html-embed-wrapper .btn-success:active:focus, .html-embed-wrapper .btn-success:active:hover, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-success.focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-success:focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-success:hover {color: #fff;
+background-color: #398439;
+border-color: #255625}
+.html-embed-wrapper .btn-success.active, .html-embed-wrapper .btn-success:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-success {background-image: none}
+.html-embed-wrapper .btn-success.disabled, .html-embed-wrapper .btn-success.disabled.active, .html-embed-wrapper .btn-success.disabled.focus, .html-embed-wrapper .btn-success.disabled:active, .html-embed-wrapper .btn-success.disabled:focus, .html-embed-wrapper .btn-success.disabled:hover, .html-embed-wrapper .btn-success[disabled], .html-embed-wrapper .btn-success[disabled].active, .html-embed-wrapper .btn-success[disabled].focus, .html-embed-wrapper .btn-success[disabled]:active, .html-embed-wrapper .btn-success[disabled]:focus, .html-embed-wrapper .btn-success[disabled]:hover, .html-embed-wrapper fieldset[disabled] .btn-success, .html-embed-wrapper fieldset[disabled] .btn-success.active, .html-embed-wrapper fieldset[disabled] .btn-success.focus, .html-embed-wrapper fieldset[disabled] .btn-success:active, .html-embed-wrapper fieldset[disabled] .btn-success:focus, .html-embed-wrapper fieldset[disabled] .btn-success:hover {background-color: #5cb85c;
+border-color: #4cae4c}
+.html-embed-wrapper .btn-success .badge {color: #5cb85c;
+background-color: #fff}
+.html-embed-wrapper .btn-info {color: #fff;
+background-color: #5bc0de;
+border-color: #46b8da}
+.html-embed-wrapper .btn-info.focus, .html-embed-wrapper .btn-info:focus {color: #fff;
+background-color: #31b0d5;
+border-color: #1b6d85}
+.html-embed-wrapper .btn-info:hover {color: #fff;
+background-color: #31b0d5;
+border-color: #269abc}
+.html-embed-wrapper .btn-info.active, .html-embed-wrapper .btn-info:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-info {color: #fff;
+background-color: #31b0d5;
+border-color: #269abc}
+.html-embed-wrapper .btn-info.active.focus, .html-embed-wrapper .btn-info.active:focus, .html-embed-wrapper .btn-info.active:hover, .html-embed-wrapper .btn-info:active.focus, .html-embed-wrapper .btn-info:active:focus, .html-embed-wrapper .btn-info:active:hover, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-info.focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-info:focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-info:hover {color: #fff;
+background-color: #269abc;
+border-color: #1b6d85}
+.html-embed-wrapper .btn-info.active, .html-embed-wrapper .btn-info:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-info {background-image: none}
+.html-embed-wrapper .btn-info.disabled, .html-embed-wrapper .btn-info.disabled.active, .html-embed-wrapper .btn-info.disabled.focus, .html-embed-wrapper .btn-info.disabled:active, .html-embed-wrapper .btn-info.disabled:focus, .html-embed-wrapper .btn-info.disabled:hover, .html-embed-wrapper .btn-info[disabled], .html-embed-wrapper .btn-info[disabled].active, .html-embed-wrapper .btn-info[disabled].focus, .html-embed-wrapper .btn-info[disabled]:active, .html-embed-wrapper .btn-info[disabled]:focus, .html-embed-wrapper .btn-info[disabled]:hover, .html-embed-wrapper fieldset[disabled] .btn-info, .html-embed-wrapper fieldset[disabled] .btn-info.active, .html-embed-wrapper fieldset[disabled] .btn-info.focus, .html-embed-wrapper fieldset[disabled] .btn-info:active, .html-embed-wrapper fieldset[disabled] .btn-info:focus, .html-embed-wrapper fieldset[disabled] .btn-info:hover {background-color: #5bc0de;
+border-color: #46b8da}
+.html-embed-wrapper .btn-info .badge {color: #5bc0de;
+background-color: #fff}
+.html-embed-wrapper .btn-warning {color: #fff;
+background-color: #f0ad4e;
+border-color: #eea236}
+.html-embed-wrapper .btn-warning.focus, .html-embed-wrapper .btn-warning:focus {color: #fff;
+background-color: #ec971f;
+border-color: #985f0d}
+.html-embed-wrapper .btn-warning:hover {color: #fff;
+background-color: #ec971f;
+border-color: #d58512}
+.html-embed-wrapper .btn-warning.active, .html-embed-wrapper .btn-warning:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-warning {color: #fff;
+background-color: #ec971f;
+border-color: #d58512}
+.html-embed-wrapper .btn-warning.active.focus, .html-embed-wrapper .btn-warning.active:focus, .html-embed-wrapper .btn-warning.active:hover, .html-embed-wrapper .btn-warning:active.focus, .html-embed-wrapper .btn-warning:active:focus, .html-embed-wrapper .btn-warning:active:hover, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-warning.focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-warning:focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-warning:hover {color: #fff;
+background-color: #d58512;
+border-color: #985f0d}
+.html-embed-wrapper .btn-warning.active, .html-embed-wrapper .btn-warning:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-warning {background-image: none}
+.html-embed-wrapper .btn-warning.disabled, .html-embed-wrapper .btn-warning.disabled.active, .html-embed-wrapper .btn-warning.disabled.focus, .html-embed-wrapper .btn-warning.disabled:active, .html-embed-wrapper .btn-warning.disabled:focus, .html-embed-wrapper .btn-warning.disabled:hover, .html-embed-wrapper .btn-warning[disabled], .html-embed-wrapper .btn-warning[disabled].active, .html-embed-wrapper .btn-warning[disabled].focus, .html-embed-wrapper .btn-warning[disabled]:active, .html-embed-wrapper .btn-warning[disabled]:focus, .html-embed-wrapper .btn-warning[disabled]:hover, .html-embed-wrapper fieldset[disabled] .btn-warning, .html-embed-wrapper fieldset[disabled] .btn-warning.active, .html-embed-wrapper fieldset[disabled] .btn-warning.focus, .html-embed-wrapper fieldset[disabled] .btn-warning:active, .html-embed-wrapper fieldset[disabled] .btn-warning:focus, .html-embed-wrapper fieldset[disabled] .btn-warning:hover {background-color: #f0ad4e;
+border-color: #eea236}
+.html-embed-wrapper .btn-warning .badge {color: #f0ad4e;
+background-color: #fff}
+.html-embed-wrapper .btn-danger {color: #fff;
+background-color: #d9534f;
+border-color: #d43f3a}
+.html-embed-wrapper .btn-danger.focus, .html-embed-wrapper .btn-danger:focus {color: #fff;
+background-color: #c9302c;
+border-color: #761c19}
+.html-embed-wrapper .btn-danger:hover {color: #fff;
+background-color: #c9302c;
+border-color: #ac2925}
+.html-embed-wrapper .btn-danger.active, .html-embed-wrapper .btn-danger:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-danger {color: #fff;
+background-color: #c9302c;
+border-color: #ac2925}
+.html-embed-wrapper .btn-danger.active.focus, .html-embed-wrapper .btn-danger.active:focus, .html-embed-wrapper .btn-danger.active:hover, .html-embed-wrapper .btn-danger:active.focus, .html-embed-wrapper .btn-danger:active:focus, .html-embed-wrapper .btn-danger:active:hover, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-danger.focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-danger:focus, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-danger:hover {color: #fff;
+background-color: #ac2925;
+border-color: #761c19}
+.html-embed-wrapper .btn-danger.active, .html-embed-wrapper .btn-danger:active, .html-embed-wrapper .open &gt; .dropdown-toggle.btn-danger {background-image: none}
+.html-embed-wrapper .btn-danger.disabled, .html-embed-wrapper .btn-danger.disabled.active, .html-embed-wrapper .btn-danger.disabled.focus, .html-embed-wrapper .btn-danger.disabled:active, .html-embed-wrapper .btn-danger.disabled:focus, .html-embed-wrapper .btn-danger.disabled:hover, .html-embed-wrapper .btn-danger[disabled], .html-embed-wrapper .btn-danger[disabled].active, .html-embed-wrapper .btn-danger[disabled].focus, .html-embed-wrapper .btn-danger[disabled]:active, .html-embed-wrapper .btn-danger[disabled]:focus, .html-embed-wrapper .btn-danger[disabled]:hover, .html-embed-wrapper fieldset[disabled] .btn-danger, .html-embed-wrapper fieldset[disabled] .btn-danger.active, .html-embed-wrapper fieldset[disabled] .btn-danger.focus, .html-embed-wrapper fieldset[disabled] .btn-danger:active, .html-embed-wrapper fieldset[disabled] .btn-danger:focus, .html-embed-wrapper fieldset[disabled] .btn-danger:hover {background-color: #d9534f;
+border-color: #d43f3a}
+.html-embed-wrapper .btn-danger .badge {color: #d9534f;
+background-color: #fff}
+.html-embed-wrapper .btn-link {color: #337ab7;
+font-weight: 400;
+border-radius: 0}
+.html-embed-wrapper .btn-link, .html-embed-wrapper .btn-link.active, .html-embed-wrapper .btn-link:active, .html-embed-wrapper .btn-link[disabled], .html-embed-wrapper fieldset[disabled] .btn-link {background-color: transparent;
+box-shadow: none}
+.html-embed-wrapper .btn-link, .html-embed-wrapper .btn-link:active, .html-embed-wrapper .btn-link:focus, .html-embed-wrapper .btn-link:hover {border-color: transparent}
+.html-embed-wrapper .btn-link:focus, .html-embed-wrapper .btn-link:hover {color: #23527c;
+text-decoration: underline;
+background-color: transparent}
+.html-embed-wrapper .btn-link[disabled]:focus, .html-embed-wrapper .btn-link[disabled]:hover, .html-embed-wrapper fieldset[disabled] .btn-link:focus, .html-embed-wrapper fieldset[disabled] .btn-link:hover {color: #777;
+text-decoration: none}
+.html-embed-wrapper .btn-group-lg &gt; .btn, .html-embed-wrapper .btn-lg {padding: 10px 16px;
+font-size: 18px;
+line-height: 1.333333;
+border-radius: 6px}
+.html-embed-wrapper .btn-group-sm &gt; .btn, .html-embed-wrapper .btn-sm {padding: 5px 10px;
+font-size: 12px;
+line-height: 1.5;
+border-radius: 3px}
+.html-embed-wrapper .btn-group-xs &gt; .btn, .html-embed-wrapper .btn-xs {padding: 1px 5px;
+font-size: 12px;
+line-height: 1.5;
+border-radius: 3px}
+.html-embed-wrapper .btn-block {display: block;
+width: 100%}
+.html-embed-wrapper .btn-block + .btn-block {margin-top: 5px}
+.html-embed-wrapper input[type=button].btn-block, .html-embed-wrapper input[type=reset].btn-block, .html-embed-wrapper input[type=submit].btn-block {width: 100%}
+.html-embed-wrapper .btn-group, .html-embed-wrapper .btn-group-vertical {position: relative;
+display: inline-block;
+vertical-align: middle}
+.html-embed-wrapper .btn-group-vertical &gt; .btn, .html-embed-wrapper .btn-group &gt; .btn {position: relative;
+float: left}
+.html-embed-wrapper .btn-group-vertical &gt; .btn.active, .html-embed-wrapper .btn-group-vertical &gt; .btn:active, .html-embed-wrapper .btn-group-vertical &gt; .btn:focus, .html-embed-wrapper .btn-group-vertical &gt; .btn:hover, .html-embed-wrapper .btn-group &gt; .btn.active, .html-embed-wrapper .btn-group &gt; .btn:active, .html-embed-wrapper .btn-group &gt; .btn:focus, .html-embed-wrapper .btn-group &gt; .btn:hover {z-index: 2}
+.html-embed-wrapper .btn-group .btn + .btn, .html-embed-wrapper .btn-group .btn + .btn-group, .html-embed-wrapper .btn-group .btn-group + .btn, .html-embed-wrapper .btn-group .btn-group + .btn-group {margin-left: -1px}
+.html-embed-wrapper .btn-toolbar {margin-left: -5px}
+.html-embed-wrapper .btn-toolbar .btn, .html-embed-wrapper .btn-toolbar .btn-group, .html-embed-wrapper .btn-toolbar .input-group {float: left}
+.html-embed-wrapper .btn-toolbar &gt; .btn, .html-embed-wrapper .btn-toolbar &gt; .btn-group, .html-embed-wrapper .btn-toolbar &gt; .input-group {margin-left: 5px}
+.html-embed-wrapper .btn-group &gt; .btn:not(:first-child):not(:last-child):not(.dropdown-toggle) {border-radius: 0}
+.html-embed-wrapper .btn-group &gt; .btn:first-child {margin-left: 0}
+.html-embed-wrapper .btn-group &gt; .btn:first-child:not(:last-child):not(.dropdown-toggle) {border-bottom-right-radius: 0;
+border-top-right-radius: 0}
+.html-embed-wrapper .btn-group &gt; .btn:last-child:not(:first-child), .html-embed-wrapper .btn-group &gt; .dropdown-toggle:not(:first-child) {border-bottom-left-radius: 0;
+border-top-left-radius: 0}
+.html-embed-wrapper .btn-group &gt; .btn-group {float: left}
+.html-embed-wrapper .btn-group &gt; .btn-group:not(:first-child):not(:last-child) &gt; .btn {border-radius: 0}
+.html-embed-wrapper .btn-group &gt; .btn-group:first-child:not(:last-child) &gt; .btn:last-child, .html-embed-wrapper .btn-group &gt; .btn-group:first-child:not(:last-child) &gt; .dropdown-toggle {border-bottom-right-radius: 0;
+border-top-right-radius: 0}
+.html-embed-wrapper .btn-group &gt; .btn-group:last-child:not(:first-child) &gt; .btn:first-child {border-bottom-left-radius: 0;
+border-top-left-radius: 0}
+.html-embed-wrapper .btn-group .dropdown-toggle:active, .html-embed-wrapper .btn-group.open .dropdown-toggle {outline: 0}
+.html-embed-wrapper .btn-group &gt; .btn + .dropdown-toggle {padding-left: 8px;
+padding-right: 8px}
+.html-embed-wrapper .btn-group &gt; .btn-lg + .dropdown-toggle {padding-left: 12px;
+padding-right: 12px}
+.html-embed-wrapper .btn-group.open .dropdown-toggle {box-shadow: inset 0 3px 5px rgba(0, 0, 0, 0.125)}
+.html-embed-wrapper .btn-group.open .dropdown-toggle.btn-link {box-shadow: none}
+.html-embed-wrapper .btn .caret {margin-left: 0}
+.html-embed-wrapper .btn-lg .caret {border-width: 5px 5px 0;
+border-bottom-width: 0}
+.html-embed-wrapper .dropup .btn-lg .caret {border-width: 0 5px 5px}
+.html-embed-wrapper .btn-group-vertical &gt; .btn, .html-embed-wrapper .btn-group-vertical &gt; .btn-group, .html-embed-wrapper .btn-group-vertical &gt; .btn-group &gt; .btn {display: block;
+float: none;
+width: 100%;
+max-width: 100%}
+.html-embed-wrapper .btn-group-vertical &gt; .btn-group &gt; .btn {float: none}
+.html-embed-wrapper .btn-group-vertical &gt; .btn + .btn, .html-embed-wrapper .btn-group-vertical &gt; .btn + .btn-group, .html-embed-wrapper .btn-group-vertical &gt; .btn-group + .btn, .html-embed-wrapper .btn-group-vertical &gt; .btn-group + .btn-group {margin-top: -1px;
+margin-left: 0}
+.html-embed-wrapper .btn-group-vertical &gt; .btn:not(:first-child):not(:last-child) {border-radius: 0}
+.html-embed-wrapper .btn-group-vertical &gt; .btn:first-child:not(:last-child) {border-top-right-radius: 4px;
+border-bottom-right-radius: 0;
+border-bottom-left-radius: 0}
+.html-embed-wrapper .btn-group-vertical &gt; .btn:last-child:not(:first-child) {border-bottom-left-radius: 4px;
+border-top-right-radius: 0;
+border-top-left-radius: 0}
+.html-embed-wrapper .btn-group-vertical &gt; .btn-group:not(:first-child):not(:last-child) &gt; .btn {border-radius: 0}
+.html-embed-wrapper .btn-group-vertical &gt; .btn-group:first-child:not(:last-child) &gt; .btn:last-child, .html-embed-wrapper .btn-group-vertical &gt; .btn-group:first-child:not(:last-child) &gt; .dropdown-toggle {border-bottom-right-radius: 0;
+border-bottom-left-radius: 0}
+.html-embed-wrapper .btn-group-vertical &gt; .btn-group:last-child:not(:first-child) &gt; .btn:first-child {border-top-right-radius: 0;
+border-top-left-radius: 0}
+.html-embed-wrapper .btn-group-justified {display: table;
+width: 100%;
+table-layout: fixed;
+border-collapse: separate}
+.html-embed-wrapper .btn-group-justified &gt; .btn, .html-embed-wrapper .btn-group-justified &gt; .btn-group {float: none;
+display: table-cell;
+width: 1%}
+.html-embed-wrapper .btn-group-justified &gt; .btn-group .btn {width: 100%}
+.html-embed-wrapper .btn-group-justified &gt; .btn-group .dropdown-menu {left: auto}
+.html-embed-wrapper [data-toggle=buttons] &gt; .btn input[type=checkbox], .html-embed-wrapper [data-toggle=buttons] &gt; .btn input[type=radio], .html-embed-wrapper [data-toggle=buttons] &gt; .btn-group &gt; .btn input[type=checkbox], .html-embed-wrapper [data-toggle=buttons] &gt; .btn-group &gt; .btn input[type=radio] {position: absolute;
+clip: rect(0, 0, 0, 0);
+pointer-events: none}
+.html-embed-wrapper .input-group-lg &gt; .form-control, .html-embed-wrapper .input-group-lg &gt; .input-group-addon, .html-embed-wrapper .input-group-lg &gt; .input-group-btn &gt; .btn {height: 46px;
+padding: 10px 16px;
+font-size: 18px;
+line-height: 1.333333;
+border-radius: 6px}
+.html-embed-wrapper select.input-group-lg &gt; .form-control, .html-embed-wrapper select.input-group-lg &gt; .input-group-addon, .html-embed-wrapper select.input-group-lg &gt; .input-group-btn &gt; .btn {height: 46px;
+line-height: 46px}
+.html-embed-wrapper select[multiple].input-group-lg &gt; .form-control, .html-embed-wrapper select[multiple].input-group-lg &gt; .input-group-addon, .html-embed-wrapper select[multiple].input-group-lg &gt; .input-group-btn &gt; .btn, .html-embed-wrapper textarea.input-group-lg &gt; .form-control, .html-embed-wrapper textarea.input-group-lg &gt; .input-group-addon, .html-embed-wrapper textarea.input-group-lg &gt; .input-group-btn &gt; .btn {height: auto}
+.html-embed-wrapper .input-group-sm &gt; .form-control, .html-embed-wrapper .input-group-sm &gt; .input-group-addon, .html-embed-wrapper .input-group-sm &gt; .input-group-btn &gt; .btn {height: 30px;
+padding: 5px 10px;
+font-size: 12px;
+line-height: 1.5;
+border-radius: 3px}
+.html-embed-wrapper select.input-group-sm &gt; .form-control, .html-embed-wrapper select.input-group-sm &gt; .input-group-addon, .html-embed-wrapper select.input-group-sm &gt; .input-group-btn &gt; .btn {height: 30px;
+line-height: 30px}
+.html-embed-wrapper select[multiple].input-group-sm &gt; .form-control, .html-embed-wrapper select[multiple].input-group-sm &gt; .input-group-addon, .html-embed-wrapper select[multiple].input-group-sm &gt; .input-group-btn &gt; .btn, .html-embed-wrapper textarea.input-group-sm &gt; .form-control, .html-embed-wrapper textarea.input-group-sm &gt; .input-group-addon, .html-embed-wrapper textarea.input-group-sm &gt; .input-group-btn &gt; .btn {height: auto}
+.html-embed-wrapper .input-group .form-control:first-child, .html-embed-wrapper .input-group-addon:first-child, .html-embed-wrapper .input-group-btn:first-child &gt; .btn, .html-embed-wrapper .input-group-btn:first-child &gt; .btn-group &gt; .btn, .html-embed-wrapper .input-group-btn:first-child &gt; .dropdown-toggle, .html-embed-wrapper .input-group-btn:last-child &gt; .btn-group:not(:last-child) &gt; .btn, .html-embed-wrapper .input-group-btn:last-child &gt; .btn:not(:last-child):not(.dropdown-toggle) {border-bottom-right-radius: 0;
+border-top-right-radius: 0}
+.html-embed-wrapper .input-group .form-control:last-child, .html-embed-wrapper .input-group-addon:last-child, .html-embed-wrapper .input-group-btn:first-child &gt; .btn-group:not(:first-child) &gt; .btn, .html-embed-wrapper .input-group-btn:first-child &gt; .btn:not(:first-child), .html-embed-wrapper .input-group-btn:last-child &gt; .btn, .html-embed-wrapper .input-group-btn:last-child &gt; .btn-group &gt; .btn, .html-embed-wrapper .input-group-btn:last-child &gt; .dropdown-toggle {border-bottom-left-radius: 0;
+border-top-left-radius: 0}
+.html-embed-wrapper .input-group-btn &gt; .btn {position: relative}
+.html-embed-wrapper .input-group-btn &gt; .btn + .btn {margin-left: -1px}
+.html-embed-wrapper .input-group-btn &gt; .btn:active, .html-embed-wrapper .input-group-btn &gt; .btn:focus, .html-embed-wrapper .input-group-btn &gt; .btn:hover {z-index: 2}
+.html-embed-wrapper .input-group-btn:first-child &gt; .btn, .html-embed-wrapper .input-group-btn:first-child &gt; .btn-group {margin-right: -1px}
+.html-embed-wrapper .input-group-btn:last-child &gt; .btn, .html-embed-wrapper .input-group-btn:last-child &gt; .btn-group {z-index: 2;
+margin-left: -1px}
+.html-embed-wrapper .navbar-btn.btn-sm {margin-top: 10px;
+margin-bottom: 10px}
+.html-embed-wrapper .navbar-btn.btn-xs {margin-top: 14px;
+margin-bottom: 14px}
+.html-embed-wrapper .navbar-default .btn-link {color: #777}
+.html-embed-wrapper .navbar-default .btn-link:focus, .html-embed-wrapper .navbar-default .btn-link:hover {color: #333}
+.html-embed-wrapper .navbar-default .btn-link[disabled]:focus, .html-embed-wrapper .navbar-default .btn-link[disabled]:hover, .html-embed-wrapper fieldset[disabled] .navbar-default .btn-link:focus, .html-embed-wrapper fieldset[disabled] .navbar-default .btn-link:hover {color: #ccc}
+.html-embed-wrapper .navbar-inverse .btn-link {color: #9d9d9d}
+.html-embed-wrapper .navbar-inverse .btn-link:focus, .html-embed-wrapper .navbar-inverse .btn-link:hover {color: #fff}
+.html-embed-wrapper .navbar-inverse .btn-link[disabled]:focus, .html-embed-wrapper .navbar-inverse .btn-link[disabled]:hover, .html-embed-wrapper fieldset[disabled] .navbar-inverse .btn-link:focus, .html-embed-wrapper fieldset[disabled] .navbar-inverse .btn-link:hover {color: #444}
+.html-embed-wrapper .btn .label {position: relative;
+top: -1px}
+.html-embed-wrapper .btn .badge {position: relative;
+top: -1px}
+.html-embed-wrapper .btn-group-xs &gt; .btn .badge, .html-embed-wrapper .btn-xs .badge {top: 0;
+padding: 1px 5px}
+.html-embed-wrapper .modal-footer .btn + .btn {margin-left: 5px;
+margin-bottom: 0}
+.html-embed-wrapper .modal-footer .btn-group .btn + .btn {margin-left: -1px}
+.html-embed-wrapper .modal-footer .btn-block + .btn-block {margin-left: 0}
+.html-embed-wrapper .carousel-caption .btn {text-shadow: none}
+.html-embed-wrapper .btn-group-vertical &gt; .btn-group:after, .html-embed-wrapper .btn-group-vertical &gt; .btn-group:before, .html-embed-wrapper .btn-toolbar:after, .html-embed-wrapper .btn-toolbar:before, .html-embed-wrapper .clearfix:after, .html-embed-wrapper .clearfix:before, .html-embed-wrapper .container-fluid:after, .html-embed-wrapper .container-fluid:before, .html-embed-wrapper .container:after, .html-embed-wrapper .container:before, .html-embed-wrapper .dl-horizontal dd:after, .html-embed-wrapper .dl-horizontal dd:before, .html-embed-wrapper .form-horizontal .form-group:after, .html-embed-wrapper .form-horizontal .form-group:before, .html-embed-wrapper .modal-footer:after, .html-embed-wrapper .modal-footer:before, .html-embed-wrapper .nav:after, .html-embed-wrapper .nav:before, .html-embed-wrapper .navbar-collapse:after, .html-embed-wrapper .navbar-collapse:before, .html-embed-wrapper .navbar-header:after, .html-embed-wrapper .navbar-header:before, .html-embed-wrapper .navbar:after, .html-embed-wrapper .navbar:before, .html-embed-wrapper .pager:after, .html-embed-wrapper .pager:before, .html-embed-wrapper .panel-body:after, .html-embed-wrapper .panel-body:before, .html-embed-wrapper .row:after, .html-embed-wrapper .row:before {content: " ";
+display: table}
+.html-embed-wrapper .btn-group-vertical &gt; .btn-group:after, .html-embed-wrapper .btn-toolbar:after, .html-embed-wrapper .clearfix:after, .html-embed-wrapper .container-fluid:after, .html-embed-wrapper .container:after, .html-embed-wrapper .dl-horizontal dd:after, .html-embed-wrapper .form-horizontal .form-group:after, .html-embed-wrapper .modal-footer:after, .html-embed-wrapper .nav:after, .html-embed-wrapper .navbar-collapse:after, .html-embed-wrapper .navbar-header:after, .html-embed-wrapper .navbar:after, .html-embed-wrapper .pager:after, .html-embed-wrapper .panel-body:after, .html-embed-wrapper .row:after {clear: both}
+@media (min-width: 992px) {
+.html-embed-wrapper header[role=banner] #global-CTA .collapse.in a.btn-outline, .html-embed-wrapper header[role=banner] #global-CTA .collapsing a.btn-outline {display: block;
+border-radius: 0;
+height: auto;
+line-height: 3.6rem !important;
+padding-top: 0 !important;
+padding-bottom: 0 !important;
+color: #fff;
+width: auto}
+.html-embed-wrapper header[role=banner] #global-CTA .collapse.in a.btn-outline + a.btn-outline, .html-embed-wrapper header[role=banner] #global-CTA .collapsing a.btn-outline + a.btn-outline {margin-top: 20px}
+}
+.html-embed-wrapper header.tier-2 ul.tier-2-cta .collapse.in a.btn-outline, .html-embed-wrapper header.tier-2 ul.tier-2-cta .collapsing a.btn-outline {display: block;
+border-radius: 0;
+height: auto;
+line-height: 3.6rem !important;
+padding-top: 0 !important;
+padding-bottom: 0 !important;
+color: #fff;
+width: auto}
+.html-embed-wrapper header.tier-2 ul.tier-2-cta .collapse.in a.btn-outline + a.btn-outline, .html-embed-wrapper header.tier-2 ul.tier-2-cta .collapsing a.btn-outline + a.btn-outline {margin-top: 20px}
+.html-embed-wrapper header.tier-2 ul.tier-2-cta .collapse.in a.btn-outline:visited, .html-embed-wrapper header.tier-2 ul.tier-2-cta .collapsing a.btn-outline:visited {color: #fff}
+.html-embed-wrapper header.tier-2 ul.tier-2-cta .collapse.in a.btn-outline:focus, .html-embed-wrapper header.tier-2 ul.tier-2-cta .collapse.in a.btn-outline:hover, .html-embed-wrapper header.tier-2 ul.tier-2-cta .collapsing a.btn-outline:focus, .html-embed-wrapper header.tier-2 ul.tier-2-cta .collapsing a.btn-outline:hover {background: #fff !important;
+color: #4d4037 !important}
+@media (max-width: 992px) {
+.html-embed-wrapper #main-container &gt; .tier-3-cta.fixed-bottom li a.btn {display: inline-block;
+width: 100%;
+height: 30px;
+padding: 0 20px;
+margin: 0;
+font-size: 1.5rem;
+line-height: 30px}
+}
+.html-embed-wrapper #new-mobile-nav #new-mobile-search form#new-search-form #new-submit-search.btn.btn-primary, .html-embed-wrapper #new-mobile-nav #new-search form#new-search-form #new-submit-search.btn.btn-primary, .html-embed-wrapper #new-mobile-search #new-mobile-search form#new-search-form #new-submit-search.btn.btn-primary, .html-embed-wrapper #new-mobile-search #new-search form#new-search-form #new-submit-search.btn.btn-primary, .html-embed-wrapper #new-nav #new-mobile-search form#new-search-form #new-submit-search.btn.btn-primary, .html-embed-wrapper #new-nav #new-search form#new-search-form #new-submit-search.btn.btn-primary, .html-embed-wrapper #new-search #new-mobile-search form#new-search-form #new-submit-search.btn.btn-primary, .html-embed-wrapper #new-search #new-search form#new-search-form #new-submit-search.btn.btn-primary {background: #182449}
+.html-embed-wrapper #new-mobile-nav #new-mobile-search form#new-people-form #new-submit-people.btn.btn-primary, .html-embed-wrapper #new-mobile-nav #new-search form#new-people-form #new-submit-people.btn.btn-primary, .html-embed-wrapper #new-mobile-search #new-mobile-search form#new-people-form #new-submit-people.btn.btn-primary, .html-embed-wrapper #new-mobile-search #new-search form#new-people-form #new-submit-people.btn.btn-primary, .html-embed-wrapper #new-nav #new-mobile-search form#new-people-form #new-submit-people.btn.btn-primary, .html-embed-wrapper #new-nav #new-search form#new-people-form #new-submit-people.btn.btn-primary, .html-embed-wrapper #new-search #new-mobile-search form#new-people-form #new-submit-people.btn.btn-primary, .html-embed-wrapper #new-search #new-search form#new-people-form #new-submit-</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/centers/antiracism/thinking-freedom-series</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>cs_control_5674958-collapse</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>cs_control_5674958-collapse</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+.html-embed-wrapper p.lead, .html-embed-wrapper p.lede {font-size: 1.8rem;
+font-family: "GT Walsheim", Arial, sans-serif;
+font-weight: 600}
+.html-embed-wrapper p.lead.extra, .html-embed-wrapper p.lede.extra {font-size: 160%;
+line-height: 140%;
+font-family: "GT Walsheim", Arial, sans-serif}
+.html-embed-wrapper blockquote p.lede.extra {font-size: 125%;
+font-family: "GT Walsheim", Arial, sans-serif}
+.html-embed-wrapper figure.correct figcaption, .html-embed-wrapper figure.correct p.lede, .html-embed-wrapper figure.incorrect figcaption, .html-embed-wrapper figure.incorrect p.lede, .html-embed-wrapper figure.maybe figcaption, .html-embed-wrapper figure.maybe p.lede {font-weight: 700;
+font-size: 1.8rem}
+.html-embed-wrapper figure.correct figcaption, .html-embed-wrapper figure.correct p.lede {color: #526a3e}
+.html-embed-wrapper figure.correct figcaption:before, .html-embed-wrapper figure.correct p.lede:before {font-family: Font;
+color: #526a3e;
+content: " "}
+.html-embed-wrapper figure.incorrect figcaption, .html-embed-wrapper figure.incorrect p.lede {color: #961e28}
+.html-embed-wrapper figure.incorrect figcaption:before, .html-embed-wrapper figure.incorrect p.lede:before {font-family: Font;
+color: #961e28;
+content: " "}
+.html-embed-wrapper figure.maybe figcaption, .html-embed-wrapper figure.maybe p.lede {color: #bb7b0f}
+.html-embed-wrapper figure.maybe figcaption:before, .html-embed-wrapper figure.maybe p.lede:before {font-family: Font;
+color: #bb7b0f;
+content: " "}
+.html-embed-wrapper #au-alerts-listing .au-alert-incident .lede {margin-bottom: 10px}
+&lt;/style&gt;&lt;div class="collapse col-xs-12" id="collapse-5674958"&gt;
+ &lt;p class="lede"&gt;
+  April 7 | 11:00 a.m.-12:15 p.m. EST
+  &lt;br/&gt;
+  Location: Zoom Webinar
+ &lt;/p&gt;
+ &lt;p&gt;
+  Fanon insisted that any liberation struggle must make space for critical reflection. This simple but crucial point is especially challenging when the political moment is marked by fragmentation, deteriorating conditions, and unhopeful prospects. In this final installment of the
+  &lt;i&gt;
+   Thinking Freedom from the Global South Series
+  &lt;/i&gt;
+  , Palestinian intellectual activists Calis, Tabar, and Salaita came together in a collective act of critical pause, of as Biko put it, ‘thinking from where we are’ on the Palestinian dream deferred. In other words, to grapple with Palestinian liberation beyond the idea of it, and instead, grounded in a dialogue with the sobering reality of the present, the intellectual traditions of the past, toward alternative liberatory praxis for the future. The discussion situated Palestinian liberation in a broader conversation with the global South, and in doing so, prompts a radical re-imagining of emancipatory possibilities.
+ &lt;/p&gt;
+ &lt;h2&gt;
+  About Irene Calis
+ &lt;/h2&gt;
+ &lt;p&gt;
+  &lt;img alt="Irene Calis" data-render="1|0|0|1|200|200|0|0|5" height="200" id="||CPIMAGE:5674959|0|" src="/centers/antiracism/images/Irene-Calis.jpg" style="float:right;margin-left:5px;margin-right:5px;" title="" width="200"/&gt;
+  Irene Calis is a decolonial scholar, educator, and organizer based in the Department of Critical Race, Gender &amp;amp; Culture Studies at American University. Her research focuses on emancipatory politics from the perspective of those living their struggle, which currently brings together comparative lessons from South Africa, Indigenous North America, and Palestine to explore how anti-colonial struggles imagine, collectivize their visions, and work to build their preferred futures. She has taught in South Africa, the Arab World, Oceania, and the UK and engages academic and wider forums on issues that address the workings of power in society and how those on the underside of history are actively contesting and shaping the terms of their existence.
+ &lt;/p&gt;
+ &lt;h2&gt;
+  About Linda Tabar
+ &lt;/h2&gt;
+ &lt;p&gt;
+  Linda Tabar
+  &lt;b&gt;
+  &lt;/b&gt;
+  is a Palestinian scholar. Situated in the field of Middle East Politics, International Studies and Transnational Feminist studies, her research focuses on violence, dispossession, spatial politics, social movements, feminist and decolonizing struggles. She is currently working on a book entitled
+  &lt;em&gt;
+   Palestine, Memory, Decolonization: Indigenous Encounters and Imaginaries of Liberation
+  &lt;/em&gt;
+  &lt;i&gt;
+   .
+  &lt;/i&gt;
+  Her articles have appeared in a variety of journals including:
+  &lt;em&gt;
+   Decolonization: Indigeneity, Education &amp;amp; Society, Third World Quarterly, Upping the Anti, Journal of Palestine Studies, Critical Arts: Journal of South -North Media and Cultural Studies,
+  &lt;/em&gt;
+  and
+  &lt;em&gt;
+   Comparative Studies of South Asia, Africa and the Middle East.
+  &lt;/em&gt;
+ &lt;/p&gt;
+ &lt;h2&gt;
+  About Steven Salaita
+ &lt;/h2&gt;
+ &lt;p&gt;
+  Steven Salaita is author of eight books, most
+  &lt;i&gt;
+   recently
+  &lt;/i&gt;
+  &lt;em&gt;
+   Inter/Nationalism: Decolonizing Native America and Palestine
+  &lt;/em&gt;
+  . Learn more and read his writing at his
+  &lt;a href="http://www.stevesalaita.com"&gt;
+   Salaita's website
+  &lt;/a&gt;
+  .
+ &lt;/p&gt;
+&lt;/div&gt;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/about/strategic-plan/2019/team</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>txt-5433017</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>txt-5433017</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+.html-embed-wrapper .col-lg-1, .html-embed-wrapper .col-lg-10, .html-embed-wrapper .col-lg-11, .html-embed-wrapper .col-lg-12, .html-embed-wrapper .col-lg-2, .html-embed-wrapper .col-lg-3, .html-embed-wrapper .col-lg-4, .html-embed-wrapper .col-lg-5, .html-embed-wrapper .col-lg-6, .html-embed-wrapper .col-lg-7, .html-embed-wrapper .col-lg-8, .html-embed-wrapper .col-lg-9, .html-embed-wrapper .col-md-1, .html-embed-wrapper .col-md-10, .html-embed-wrapper .col-md-11, .html-embed-wrapper .col-md-12, .html-embed-wrapper .col-md-2, .html-embed-wrapper .col-md-3, .html-embed-wrapper .col-md-4, .html-embed-wrapper .col-md-5, .html-embed-wrapper .col-md-6, .html-embed-wrapper .col-md-7, .html-embed-wrapper .col-md-8, .html-embed-wrapper .col-md-9, .html-embed-wrapper .col-sm-1, .html-embed-wrapper .col-sm-10, .html-embed-wrapper .col-sm-11, .html-embed-wrapper .col-sm-12, .html-embed-wrapper .col-sm-2, .html-embed-wrapper .col-sm-3, .html-embed-wrapper .col-sm-4, .html-embed-wrapper .col-sm-5, .html-embed-wrapper .col-sm-6, .html-embed-wrapper .col-sm-7, .html-embed-wrapper .col-sm-8, .html-embed-wrapper .col-sm-9, .html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {position: relative;
+min-height: 1px;
+padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {float: left}
+.html-embed-wrapper .col-xs-12 {width: 100%}
+.html-embed-wrapper .media {margin-top: 15px}
+.html-embed-wrapper .media:first-child {margin-top: 0}
+.html-embed-wrapper .media, .html-embed-wrapper .media-body {zoom: 1;
+overflow: hidden}
+.html-embed-wrapper .media, .html-embed-wrapper .media-body {zoom: 1;
+overflow: hidden}
+.html-embed-wrapper .media-body {width: 10000px}
+.html-embed-wrapper .media-body {width: 10000px}
+.html-embed-wrapper .media-object {display: block}
+.html-embed-wrapper .media-object.img-thumbnail {max-width: none}
+.html-embed-wrapper .media-right, .html-embed-wrapper .media &gt; .pull-right {padding-left: 10px}
+.html-embed-wrapper .media-left, .html-embed-wrapper .media &gt; .pull-left {padding-right: 10px}
+.html-embed-wrapper .media-left, .html-embed-wrapper .media &gt; .pull-left {padding-right: 10px}
+.html-embed-wrapper .media-body, .html-embed-wrapper .media-left, .html-embed-wrapper .media-right {display: table-cell;
+vertical-align: top}
+.html-embed-wrapper .media-body, .html-embed-wrapper .media-left, .html-embed-wrapper .media-right {display: table-cell;
+vertical-align: top}
+.html-embed-wrapper .media-middle {vertical-align: middle}
+.html-embed-wrapper .media-bottom {vertical-align: bottom}
+.html-embed-wrapper .media-heading {margin-top: 0;
+margin-bottom: 5px}
+.html-embed-wrapper .media-list {padding-left: 0;
+list-style: none}
+.html-embed-wrapper .pull-left {float: left !important}
+.html-embed-wrapper address.pull-left + address, .html-embed-wrapper address.pull-left + blockquote, .html-embed-wrapper address.pull-left + dl, .html-embed-wrapper address.pull-left + figure, .html-embed-wrapper address.pull-left + ol, .html-embed-wrapper address.pull-left + p, .html-embed-wrapper address.pull-left + pre, .html-embed-wrapper address.pull-left + ul, .html-embed-wrapper address.pull-right + address, .html-embed-wrapper address.pull-right + blockquote, .html-embed-wrapper address.pull-right + dl, .html-embed-wrapper address.pull-right + figure, .html-embed-wrapper address.pull-right + ol, .html-embed-wrapper address.pull-right + p, .html-embed-wrapper address.pull-right + pre, .html-embed-wrapper address.pull-right + ul, .html-embed-wrapper blockquote.pull-left + address, .html-embed-wrapper blockquote.pull-left + blockquote, .html-embed-wrapper blockquote.pull-left + dl, .html-embed-wrapper blockquote.pull-left + figure, .html-embed-wrapper blockquote.pull-left + ol, .html-embed-wrapper blockquote.pull-left + p, .html-embed-wrapper blockquote.pull-left + pre, .html-embed-wrapper blockquote.pull-left + ul, .html-embed-wrapper blockquote.pull-right + address, .html-embed-wrapper blockquote.pull-right + blockquote, .html-embed-wrapper blockquote.pull-right + dl, .html-embed-wrapper blockquote.pull-right + figure, .html-embed-wrapper blockquote.pull-right + ol, .html-embed-wrapper blockquote.pull-right + p, .html-embed-wrapper blockquote.pull-right + pre, .html-embed-wrapper blockquote.pull-right + ul, .html-embed-wrapper figcaption.pull-left + address, .html-embed-wrapper figcaption.pull-left + blockquote, .html-embed-wrapper figcaption.pull-left + dl, .html-embed-wrapper figcaption.pull-left + figure, .html-embed-wrapper figcaption.pull-left + ol, .html-embed-wrapper figcaption.pull-left + p, .html-embed-wrapper figcaption.pull-left + pre, .html-embed-wrapper figcaption.pull-left + ul, .html-embed-wrapper figcaption.pull-right + address, .html-embed-wrapper figcaption.pull-right + blockquote, .html-embed-wrapper figcaption.pull-right + dl, .html-embed-wrapper figcaption.pull-right + figure, .html-embed-wrapper figcaption.pull-right + ol, .html-embed-wrapper figcaption.pull-right + p, .html-embed-wrapper figcaption.pull-right + pre, .html-embed-wrapper figcaption.pull-right + ul, .html-embed-wrapper figure.pull-left + address, .html-embed-wrapper figure.pull-left + blockquote, .html-embed-wrapper figure.pull-left + dl, .html-embed-wrapper figure.pull-left + figure, .html-embed-wrapper figure.pull-left + ol, .html-embed-wrapper figure.pull-left + p, .html-embed-wrapper figure.pull-left + pre, .html-embed-wrapper figure.pull-left + ul, .html-embed-wrapper figure.pull-right + address, .html-embed-wrapper figure.pull-right + blockquote, .html-embed-wrapper figure.pull-right + dl, .html-embed-wrapper figure.pull-right + figure, .html-embed-wrapper figure.pull-right + ol, .html-embed-wrapper figure.pull-right + p, .html-embed-wrapper figure.pull-right + pre, .html-embed-wrapper figure.pull-right + ul, .html-embed-wrapper p.pull-left + address, .html-embed-wrapper p.pull-left + blockquote, .html-embed-wrapper p.pull-left + dl, .html-embed-wrapper p.pull-left + figure, .html-embed-wrapper p.pull-left + ol, .html-embed-wrapper p.pull-left + p, .html-embed-wrapper p.pull-left + pre, .html-embed-wrapper p.pull-left + ul, .html-embed-wrapper p.pull-right + address, .html-embed-wrapper p.pull-right + blockquote, .html-embed-wrapper p.pull-right + dl, .html-embed-wrapper p.pull-right + figure, .html-embed-wrapper p.pull-right + ol, .html-embed-wrapper p.pull-right + p, .html-embed-wrapper p.pull-right + pre, .html-embed-wrapper p.pull-right + ul, .html-embed-wrapper q.pull-left + address, .html-embed-wrapper q.pull-left + blockquote, .html-embed-wrapper q.pull-left + dl, .html-embed-wrapper q.pull-left + figure, .html-embed-wrapper q.pull-left + ol, .html-embed-wrapper q.pull-left + p, .html-embed-wrapper q.pull-left + pre, .html-embed-wrapper q.pull-left + ul, .html-embed-wrapper q.pull-right + address, .html-embed-wrapper q.pull-right + blockquote, .html-embed-wrapper q.pull-right + dl, .html-embed-wrapper q.pull-right + figure, .html-embed-wrapper q.pull-right + ol, .html-embed-wrapper q.pull-right + p, .html-embed-wrapper q.pull-right + pre, .html-embed-wrapper q.pull-right + ul {margin-top: 0}
+.html-embed-wrapper img.pull-left {margin: 0 15px 15px 0}
+.html-embed-wrapper .text-block aside.full-width blockquote, .html-embed-wrapper .text-block aside.pull-left blockquote, .html-embed-wrapper .text-block aside.pull-right blockquote {margin: 25px 0 15px}
+.html-embed-wrapper .text-block aside.full-width blockquote + cite, .html-embed-wrapper .text-block aside.pull-left blockquote + cite, .html-embed-wrapper .text-block aside.pull-right blockquote + cite {margin-bottom: 25px}
+@media (min-width: 768px) {
+.html-embed-wrapper .text-block aside.pull-left, .html-embed-wrapper .text-block figure.pull-left {width: 46%;
+margin-right: 4%;
+margin-left: 0;
+padding-top: 0.7rem}
+.html-embed-wrapper .text-block aside.pull-left + h2, .html-embed-wrapper .text-block aside.pull-left + p, .html-embed-wrapper .text-block figure.pull-left + h2, .html-embed-wrapper .text-block figure.pull-left + p {margin-top: 0}
+.html-embed-wrapper .text-block aside.pull-left.one-third, .html-embed-wrapper .text-block figure.pull-left.one-third {width: 29%;
+margin-right: 4%}
+}
+.html-embed-wrapper ol.subtle-collapsible-list.col-xs-12, .html-embed-wrapper ul.subtle-collapsible-list.col-xs-12 {padding: 0 15px 0 0}
+.html-embed-wrapper .profile-block .pull-left img {border-radius: 50%}
+.html-embed-wrapper .profile-block .media-body {display: -ms-flexbox;
+display: flex;
+width: auto;
+-ms-flex-direction: column;
+flex-direction: column;
+width: 100%}
+.html-embed-wrapper .profile-block .media-body {display: -ms-flexbox;
+display: flex;
+width: auto;
+-ms-flex-direction: column;
+flex-direction: column;
+width: 100%}
+.html-embed-wrapper .profile-block .media-body h2 {color: #1a1c21;
+font-family: "GT Walsheim", Arial, sans-serif;
+font-size: 24px;
+margin-bottom: 5px;
+line-height: 3.5rem}
+.html-embed-wrapper .profile-block .media-body h2 {color: #1a1c21;
+font-family: "GT Walsheim", Arial, sans-serif;
+font-size: 24px;
+margin-bottom: 5px;
+line-height: 3.5rem}
+.html-embed-wrapper .profile-block .media-body span a {text-decoration: underline;
+font-weight: 700;
+line-height: 1}
+.html-embed-wrapper .profile-block .media-body span a {text-decoration: underline;
+font-weight: 700;
+line-height: 1}
+.html-embed-wrapper .profile-block .media-body address {line-height: 1.4em;
+font-size: 0.9em;
+margin-bottom: 5px;
+margin-top: 15px;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body address {line-height: 1.4em;
+font-size: 0.9em;
+margin-bottom: 5px;
+margin-top: 15px;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body address strong {margin-bottom: 10px;
+font-weight: 400}
+.html-embed-wrapper .profile-block .media-body address strong {margin-bottom: 10px;
+font-weight: 400}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-family: Arial, Helvetica, sans-serif;
+background-image: none !important;
+text-transform: uppercase;
+padding: 12px 24px;
+line-height: 1em;
+height: auto;
+border-radius: 25px;
+letter-spacing: 1px;
+font-size: 12px;
+background-color: #1a1c21 !important}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-family: Arial, Helvetica, sans-serif;
+background-image: none !important;
+text-transform: uppercase;
+padding: 12px 24px;
+line-height: 1em;
+height: auto;
+border-radius: 25px;
+letter-spacing: 1px;
+font-size: 12px;
+background-color: #1a1c21 !important}
+.html-embed-wrapper .profile-block .media-body .content {width: 100%;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .content {width: 100%;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .contact {font-family: Arial, Helvetica, sans-serif;
+width: 100%;
+display: -ms-flexbox;
+display: flex;
+-ms-flex-direction: column;
+flex-direction: column;
+-ms-flex-pack: center;
+justify-content: center}
+.html-embed-wrapper .profile-block .media-body .contact {font-family: Arial, Helvetica, sans-serif;
+width: 100%;
+display: -ms-flexbox;
+display: flex;
+-ms-flex-direction: column;
+flex-direction: column;
+-ms-flex-pack: center;
+justify-content: center}
+.html-embed-wrapper .profile-block .media-body .contact a {font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .contact a {font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .contact i.fa-envelope, .html-embed-wrapper .profile-block .media-body .contact i.fa-phone {color: #005099 !important}
+.html-embed-wrapper .profile-block .media-body .contact i.fa-envelope, .html-embed-wrapper .profile-block .media-body .contact i.fa-phone {color: #005099 !important}
+@media (min-width: 992px) {
+.html-embed-wrapper .profile-block .media-body {-ms-flex-direction: initial;
+flex-direction: initial;
+padding-left: 12px}
+.html-embed-wrapper .profile-block .media-body {-ms-flex-direction: initial;
+flex-direction: initial;
+padding-left: 12px}
+.html-embed-wrapper .profile-block .media-body h2 {font-size: 42px}
+.html-embed-wrapper .profile-block .media-body h2 {font-size: 42px}
+.html-embed-wrapper .profile-block .media-body span {font-size: 16px}
+.html-embed-wrapper .profile-block .media-body span {font-size: 16px}
+.html-embed-wrapper .profile-block .media-body address {margin-bottom: 0}
+.html-embed-wrapper .profile-block .media-body address {margin-bottom: 0}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-size: 13px;
+padding: 12px 24px}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-size: 13px;
+padding: 12px 24px}
+.html-embed-wrapper .profile-block .media-body .content {width: 61%}
+.html-embed-wrapper .profile-block .media-body .content {width: 61%}
+.html-embed-wrapper .profile-block .media-body .contact {width: 39%;
+border-left: 1px solid #707070;
+margin-left: 20px;
+padding-left: 20px}
+.html-embed-wrapper .profile-block .media-body .contact {width: 39%;
+border-left: 1px solid #707070;
+margin-left: 20px;
+padding-left: 20px}
+}
+&lt;/style&gt;&lt;section class="text-block clearfix" data-element="2016 Text Block" id="txt-5433017"&gt;
+ &lt;div class="col-xs-12"&gt;
+  &lt;div class="media"&gt;
+   &lt;div class="pull-left"&gt;
+    &lt;img alt="Photograph of Wendy Boland" height="175px" src="https://www.american.edu/uploads/profiles/large/wendyboland300x300.png" title="Photograph of Wendy Boland" width="175px"/&gt;
+   &lt;/div&gt;
+   &lt;div class="media-body"&gt;
+    &lt;h3&gt;
+     Wendy Boland
+     &lt;small&gt;
+      Dean, Graduate and Professional Studies
+     &lt;/small&gt;
+    &lt;/h3&gt;
+    &lt;p&gt;
+     &lt;a href="/profiles/faculty/boland"&gt;
+      Wendy's Profile
+     &lt;/a&gt;
+    &lt;/p&gt;
+   &lt;/div&gt;
+  &lt;/div&gt;
+  &lt;hr/&gt;
+  &lt;div class="media"&gt;
+   &lt;div class="pull-left"&gt;
+    &lt;img alt="Bronte Burleigh-Jones" height="175px" src="https://www.american.edu/uploads/profiles/large/jonesbro.jpg" title="Bronte Burleigh-Jones" width="175px"/&gt;
+   &lt;/div&gt;
+   &lt;div class="media-body"&gt;
+    &lt;h3&gt;
+     Bronté Burleigh-Jones
+     &lt;small&gt;
+      CFO, Vice President and Treasurer
+     &lt;/small&gt;
+    &lt;/h3&gt;
+    &lt;p&gt;
+     &lt;a href="https://www.american.edu/profiles/staff/jonesbro"&gt;
+      Bronté's Profile
+     &lt;/a&gt;
+    &lt;/p&gt;
+   &lt;/div&gt;
+  &lt;/div&gt;
+  &lt;hr/&gt;
+  &lt;div class="media"&gt;
+   &lt;div class="pull-left"&gt;
+    &lt;img alt="Seth Grossman" height="175px" src="https://www.american.edu/uploads/profiles/large/SSGPic4_1.jpg" title="Seth Grossman" width="175px"/&gt;
+   &lt;/div&gt;
+   &lt;div class="media-body"&gt;
+    &lt;h3&gt;
+     Seth Grossman
+     &lt;small&gt;
+      VP, People &amp;amp; External Affairs &amp;amp; Counselor to the President, Office of People &amp;amp; External Affairs
+     &lt;/small&gt;
+    &lt;/h3&gt;
+    &lt;p&gt;
+     &lt;a href="https://www.american.edu/profiles/staff/sethg"&gt;
+      Seth's Profile
+     &lt;/a&gt;
+    &lt;/p&gt;
+   &lt;/div&gt;
+  &lt;/div&gt;
+  &lt;hr/&gt;
+  &lt;div class="media"&gt;
+   &lt;div class="pull-left"&gt;
+    &lt;img alt="Photograph of Raymond Ou" src="https://www.american.edu/uploads/profiles/large/Raymond_Ou_012ar_300x300smallereyes.jpg" title="Photograph of Raymond Ou" width="175px"/&gt;
+   &lt;/div&gt;
+   &lt;div class="media-body"&gt;
+    &lt;h3&gt;
+     Raymond Ou
+     &lt;small&gt;
+      VP for Student Affairs
+     &lt;/small&gt;
+    &lt;/h3&gt;
+    &lt;div class="media-body"&gt;
+     &lt;p&gt;
+      &lt;a href="/profiles/staff/rou"&gt;
+       Raymond's Profile
+      &lt;/a&gt;
+     &lt;/p&gt;
+    &lt;/div&gt;
+   &lt;/div&gt;
+  &lt;/div&gt;
+  &lt;hr/&gt;
+  &lt;div class="media"&gt;
+   &lt;div class="pull-left"&gt;
+    &lt;img height="173" src="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAJYAAACWCAYAAAA8AXHiAAAgAElEQVR4Xu19Z1sjSdJtygsrC0L47h67e+9z9///iPfbO7tj2mCEcAJhhJC/50RUVpWEhEAS0OxU7TPb3SBVZWWejIiMOBER+vLH//RMcAUzMOMZCAXAmvGMBreTGQiAFQDhRWYgANaLTGtw0wBYAQZeZAYCYL3ItAY3DYAVYOBFZiAA1otMa3DT6YEVapteL2RCJoI/eyYSCsmfcuT0/T2Y6u9zBmSNurpW3ZCOEX81PdPB/4UnHvTUwOqZlgmHoxgcBtbtygBDYQWW/ffEowu++CozIEIBQAqHw7KO9qJ8IMgmuaYHFp7OAXW7PROLJ10pRYAF1/c/A91e20QiEdNo3JlwqAdgUfNYQHENJwvMTA0sK5mALlNc2zHziymZTasOpxGn3/+yvP8RUrt0Ok1TPvpqmgAX1ysUogqcDFB2RqYGFgdGlQe5ZdY3Ppm5eQVWcL2TGRD8dMzh/p+m2byFrRx1Bv7GwCK2OzT0QhFTXP8YAOud4KlvmL2OKe3/btrNuulCQGAxHYn1hqowgoG0YcBTYhFY8wvp9zi1f+sx97pNc3Twl2lBFYYgIHAEe3tgqcRqicRaK35ygdXDLuAgg+v7ngExYuBvILCa9zV1O7hDfkOJZVXhSBsLAOOZlca8nBMdsMEyw78n95O83nJxmnEMx//LCSoE1wrfxTn1qnVp7RHvffyfeb2xPv4kHRPH2j/v3W7blEVi3ZqerM/kgLIjmNp4HwssLggmnuK202o7opbSDP4unECmMxFffslCIaj5LscZNolE4uGi4AV63Y5pd+7xCWwggZn6hIBE+fdbXiGMhYercCRuotG4uyH8Y3qnwFLBenNTMaflI/hKuBussH3bSX/KgofCbSxM1Cyl8iaXXxVnMC+r6ikFGvd3plz6Alh18HMe1ymhIanfGFQcZxcWMN0Hmey6SaXzCnj3Umn8LoGlCxAytesKfCV7JhbxHKe0wXQBvt+L9mPPJJyDydJDsFBiQUUelf409/Vr+LAjjlRgFCL25u/Xhv3URcgtt7JusgBX//WOgWVf5Prq3Jyf7LuiGO8KVTi9Ln9pSHZ7TZNMZs3G1q5jH0LVPbCxQubq6sSc4f3CDrDo36MKndbROO37QR6ZVqdnMitFk8tt9N3Ovse7lFiDwOK/KZoFU7BBvvfQTwcSNYsFyebWXBUuQXfXeIc9BTC1W3emdPgZdmTLF9Z6e1VP8PAdhkssXZ13CiyIW9gdt9fn5hQ7muwHCmDLhPCOttPuzZf5fihC/9wnk0guunZVv42CN0B8DWd2c4KwyF3tWiwr+45vv3Fg+QFYGWyM/zKJpXqcqvDs9MAxZ3XH98jX+M6v+cUFU1j7hJ1A8OhgvSAtz7ukl9CgD5n6XRW21hfZPPx3D0d7Od2/8dXGqTWbf6gK7bDer8SywDrew7GXK/P2KsJba3uY6OeQhcJ6TM8XfjHLy8sOoDzVPcxPxZ/t7//HtO6vhDEQ7sbAcXp7ZAXAepOd3X+AoCTtdPQkG4vFzMbOP5Wn5BjsfkANA9flZdlUzg5NFMAKdWA6B8CabFXHO0h9qvA7lFiD4BC2BrQbR51Jr5jc6oYyZG30wPfn4IzxXq0mjfi/cCIEAZKuiO8grBVIrMmwPYNv+Wy+EENNEdMBk3J765OJzc27wBIPtutgdEI9PteD2F8Ij5ydHJob+O2oTiH3ZjC+6W4RAGu6+Zv422qMq0okGDrwP80ll01xYxcGO2QyfSOOo9fGOlWmPbQVKbXualVzXP4GUMH1EABrsnV576pQ39oz4KkK23AorhQ2TSq1IrE+/rZxf2taraZZXMo69tbDYK57yuo0zNEhGJlCnHt7hkcgsSbD9sy+RWnD/6KxpFnf3AWHf8EF0cXZkanXa2Zj+0dHUsHVMGB7uQOBdLusHJsL/Ncfm5vZUJ91owBYz5qul/kwk0KWUzlILMTVJNZHC5wMyz9No3VvtrZ/MfHE3BBnqY7HUlNa4DYdHnwW9frWVwCsN1oBa2NBCQoM1jd+AsVafVe0pWq1S3NS2he/FhkOmTxjbuqCEEXqZiR5Dl86TkulQ9O4vVCKUN9pUlUvHcSv4ZkPgPVGwGLsUhJCsNDxZNJsbv0MI94mFRhzcvLVXFfPxNZKzi0CeD/C0avSbDgwCLCuubq+MhcIYz0EYL9T9qVfOwDWS8/wmPt3AJQVSKNUpsD4uBwIW62GORS/FPngiHN2NGlkfmFcNhKYUO22Ke39R/4Mh/15lgGwxi71ez8VqrQCQY+sT7Ast7Z/AtMSNhRdDwBS9fJUYpzRGH7SIbcpYpaWVxE/9BynwyZJpVTXXMALX72sCLDequRAILHGwvglPkBiHqQLkjbpXlgpbLu8fKrH8uGfpnZ3Y+JR5brTNUE1WNzYMbHoPNxaj8c9Sf4rHXzF1zoITnt22Uu8yah7BsB6zdl2nhWGy6DLgDP+XCt+MAvI5LZuhPr9jTna+0P4YzZeyK8JRwtsgWyGJ0e90Sh7iwzZw8MvkqggnHix91/3pBgA6y2AhWe2QS1OwtNeKO5C5dEop9rqmdPzA3N9fgZQkUKtJzipUwFgxJMLZnMdPq0+22n4C1xcHJmL87JILCE5unSh12HQBsB6E2BBDQJY2ew2yHBFSC6NB3Y6LbN/8G9Y7zwtMuajjAdSfnpQnV141DdwOpybW3h01KT0t9q3UhuBNpqq00BijV3q92e895/IepKFA+kDTnsyGcfCR0HO65na7TnAAMarY0NZw9u6DvhnNpsFl3zHVZ3DJ0sZtGcnB+aqeiI8Le8KJNZIgH3/wPIWz7ODlL0q3CvTNEvzRVNYp9EOSQQcsJwP07lqd8i6kcor/TaUDf0oX+tXkXD+rO9+zhYZDhE4WRmYZooY2ROzKbwxdtc7HwhU4VNn6lmf8yTUIEmPt6G9VCzAaF9GcNlRUZZTRZVF9eV3gvqdnfx7bm3bpJZZr4IAHH1CJJ2mdPgHgtk1AJdUGnwWybCvwaYNgPUswDz1w056v88/6aU9dRFonjObCCzT024BdI6AcxVMUNGCPhr1IKj47+RiGrbWNiRgv9Tyj87GD6sISp9XSrgvK+fx8099h+k+FwBruvkb+e0+ScXkB1xC5gMFOYUkzpVVpnaptOnCaCflpQFXQ5RZ8k5MsD/W5z0KVVfN+ta2SSbAhICKGx3iCWvG9NGf4Hs18C3ac6JkX+itvdsGwHrxKeYyKrBYa5NuhPXtX0087tU0qN1WzckxSXqwjfCZniNWBo13C6AOVGU2t2KyyDTuwSv/GLAYJyqffAO79BgZ4XEn2eLlM8EDYL0AsB44LmGgU72RHrO0lDKryBn0X+XyV1n4eBQFQNoA1iOOdTHiAcAEfFrrGx8lJOS3s4Y5TQnc8tFnUbNh5CO+RrJFAKwXAJbe0qOp2EdQDRWLG2Z+qeB6z1vIYt7f/40ZgnA5wCnaSYqBPWi8W+kl/i4kTVAdFtc/IDC97J4OB0Fl/91pNxHi+QvAvheJ+BqZlQGwXgBYNitZEkjpYpCaClCDsUUY7dtI0wJ4nIuMz8vzksOfUg/5OL5UqNeCg7UL6VeA5/6DA1I/H977uwXX2Rl8WghuW1fGsNd+SLWZfHICYE0+dyO/ObhABAonOpVZNSsrZCiQxQDpRHcAJMl9/VacmNawHgcsAS6bKCBpgjwusktHJVrYQTIwTU88nWbD1KX92Wi+1/MmKgDW8+brSZ/WxdGqL5adwPgeOe3JZBo/1Uya+/qN5APS6/6cctQMYvcibdNsofBGfhv1EYriaB3l0xIHbFhLM9bBmrCceLsB/MHuJ73gEz4UAOsJk/Tcj/iBxe9ykhdB0pPULgCKxjel0unJEepLUD1Zv9fTnEwuOwL3iUeXXJ8Yn9Vfh9XmIaq2vL45NafHrGWhPK2X5GoFwHouap78ec/73oE9VChum6VFpnapFOuizOPh/hdDw1oliPUtPSOWx3AQpFdh7QOAmxGBZaWhDtOTYuR5dZEitn/wJ2LbrAKoz9MOH55dF6hClkgc2UDg+0ixl2Qb4bQnzMYmOeusJ6quh6vrMoLEKGMpDk6qQu0DRNnyHO84QUtpyOrR4v/iibIvYVXPgJaWc3ZWMtcXp0p5xvP6A9RP3jVjPxhIrLFT9PwP+A1hLh4LqGXzm6KPRKKgvmip/Jdp3F3B9CJLVJbetceeDiyVbuEo6DQAbjT2MEWMqtEeFviU+j2M+H3YdZbn5ZNWz3/T0d8IgDXL2XTv5ahB8KkonTax6LHEomNbd2G01yWE0+3qadD0nFoLzufHDUlTx/gplW7tXgOFZDeHFDnj57SelpViDO2coApgrVaTyjYv1S0tANa4VRzy+3F2SAjBXhTLlvILybmM8K5sTiAlxeXZN3NxcSF3tkZ0/2Mej+WJoieLlGk9Ts/GWCKK5/wAnxnV7eNX9fLMnJwemniMJW6or20REeXXj7/GxRrpXmmiVOSmyWSKjl+u/9QaFF4bP8sPPsGTPznt9I6vFnaQYaMUFzHaUbi29O131FhoTmzfuPaRsEvZTJI1P7tmY33XzC3kxmKjjfSyA9BpeuKJ18qA1jHrScMJXtwnsdvw0Q2rQeqxPN5lA4G3Nd6jOGm1WKsqnDRbOz+ZCLJtrI/pGrXnKzjy8xoVghm/pLTH9EQn94CPqo2T3nK6YFZXQR58wnV8/AU1Wi8Bd1sjfrzH37vtOKmG/O6gVOQTVuGZH7GF1JYzayYPBoJb4wqhmKPygbm7vnA87YPp8s98kANOVlujfIxG5mDEf4CKmx97o3r9EozVPUedzraSNJ0nbRwK0nkWt4XzdggZMVCFY5fo4QfY/4bSamPrI0h9WkSNnu9GA6ldB4fI5dIM50kdlDbkI0wH2lpkTgBYBPDqagGho60xo8an8dnD/c+oBgh2qdOt1krQEMY/zUU+GTO8s7l1bCyPd+a/ZwCsCWZYPO1LK2AfbAmo5PQGmXKDYh3VShWShR1GnQwc/tbxvD/3Ua5LVbptqNRKJGJmbe3jmFsBOKDPXFTK5vJSA+DJxBJUNik46hJ59BpTKFjfJ2IWlpZgX8JxG0is5y7t8M+3YUyT0764lHGcnk6RPhi0AjQfkU8W0lfoY9yJc/CJ6kpQYMmCMm0/pAAZfamTtglpdVT6S9LOaPgn0ffROlIf//6YCtS2p48bqvKyhALjfUKMceKiqB6ztfmD1LrSxR7ezm5y471Pqfj+8fSS4/JsuETKpW/mtnaFQ8YPEiCf1SX5sWwkDpDZJlP9IabgVDhkrr1kCZe9IMmlqCXaYXOij3BY5uV7XdKSwcVi35teu2US8UWEeBZhe0GqSBKqln9kBW2GdtTQ98oZDVtoqUozUDyGzbvpwmg279EC5Q521gpCSKTTuALSvZWOmafACEol3aAAyReTzxaElcpnh+MRcO/h25JNYSWhxAbke2y34r8k8E3JKypPnbZ0q2gT8eHU6cDGGrGF1ZfkyzB26Mf0pLNOe9Qt6AFbHYHmw4PfUUuhISe3MKrIJBPzJi2LCY+8c/l9SKPUo8QfAUB2KGQSRq12a+qQOA30Vm7iPwVNBEHvLRABVzRn0e1u0d+MgI/VFDH41e4xtmhM/GEhvEM8njTziaRZSmfw86TYTKrC+6WvjlM3BC8eBJqNOjKDTlBIbtGkUfRkWFJIAKxHdYNDP5b+fFrHKp3JoE77jvctrPPNFTzdKKQWg5jpwSHZDTewENzNCek3Q+lmk09H2Vjezynj2pA0V6Z6dWHaDTg5pfE6CXyoLiMKLoK8w6xUsSH7YbAmqT+WyWNF9XIfDQhQ5E2C2GRM6LGAWIkBVGn0HExnARBIs/7xDTJVO1CrN6aC4HoduYwrhY3A3fAofkb+UhWAzcJBAMdsotRQfJ49Bu2lBLv7e5wGQf6DkMECoXMXTl6UJCzDnV/ZBSCpOj0VNfhIFwwIlVSYg1itynMt1ZiAslSYNsARi8UR4vkRJz2PBu1JRo+iQxXcaoJwWDpwKDx+6YPECzJOIR+XET1gVWd/1UHL/SIAKbWYvnaMaoLt+3tpIJVHI4RUCvx+xwnrf6dAYg0FlQMoH6epA9/Pwnxa6CucVDld4b97+K7IEhXrA58XMDkuCIZR+FdmKbP2FW2cx5uld835OUB1fuJyuPw+Lf27SlHCYQ2VbBYWM+M9/HDc0oiv3aIfT5S6VsM8qtogDxG4puTLo9VdGrG/wWo3qsK75gwRBTYxIHGRkQfWTR3s/uVut/fZE/rlQzquPSS2FXY2FpLgmJ9D2jzT2Ds4EQJE56ffoLIqMIahAsUOURqyW1ZIqsyADy/hmE3XWPafoKxkIJX5AF1VI06ajQ3pPFSfzMSB5xs23KiF9e8X3p9tjtndIiwMC6vyHAIi+PUCMiSBbGwiRBVLPAhVix2Jul6GIMQ2CkI6k+lAidWpTQIeA8oOUTKsI5wixf+dru1kbNJP1KjDDpI6VY5N5pQtovEvthn+F0Xa/Q5KRvq7UHg13dVXVWFGz+WeZDTbQLTaT0ra85IwGJRum8TcMig7YDw82ltHN2G7VUdiB4q14QDApFpLyyFo2fm45zQ5yK9sYROoQe6/mLt4LO3tUEkH5EUeAqRQHLK+H0pV2m+Bu+Eh9BwpZQPAbLBUKOyaRdRqV3tLQXSLskQn5W8Dx3PnOC6gIibUhumB8Le59UHcEXr5DWN1WRyWvsJWO4Gtpm6EwcvaWHJP9udBWGkbNeLZSX70RaOfLPgWbDcA98Ipe8R74JkhjCuEF2SgG84U1I1ImfWibWjgKjZTASv1AuzUOD5HYAUSawKJ5VeDyHYHiY8q4qO4EsT+ZgwPi3CMdCuxW6Q+ldpl/Zf1/nAxWJ7oJznmDwUNFr609xmnwNux3b0iCNe0w/cMS4MPD8CjZcro9DAHwBhao35lDo9+B5DIz3KkaV+TKD1hbn34h+trU0drCPwuZHOj8WgIIOVnAmBNACzrlxF+FRaAvKMMy2nL6YjTzIBzXQziTgcZztIM3J8wYR/6MsAKs2dhtAkqTcisUnXB1noMWKJyRZ02UE/rK/xiGpge3AxUt/R1rW//jFNnP6GwXAYr9eZCpDPnIADWBMCSSUdTpTaMXhb/X9/4JMd614jGKevqqqr9qKWBoNYBVYnll1wvAyxJMcTprtVGJ3kcCvJwE/Rf/VnTbiNzDO8WgfJTcLVUDVq70JO0BE2RSbKQrH47q4RDRR2F3gJgTQAo+xVpXo7dC2zBB1VE+KSokKGRK6qhK9RfprRHYflqN67XU4VqAjLdy6C2Q9oUN/uLkDxqn+GXZ0j0uLm59koDaO9j+RrBtM7ePgCWu5FgLx6UUOAN2dYR2GS8Aok1AcCsn4Z+p+L6D7ChGPfzWAqsyHeI6i460Y8Fhl9IYjksB0odKfK284sLiuGv289HbyJbuoQSkz2oRjIlbBaRAissqtBvC8r7MmTVqjmbKADWBLCS6RUXwVphC5yjFceX6Gv5BknBHdyEJ3pYPVHvoS8ELHHQaiESCyxPbfWDSMfiOMZswTe838X5IU56x/C/qbSl383aXcOAdYCG5+32HWQzfXoBsCYCFtmRC/NIEl3fcUMcfU5KzOzJGZssqWP04WnQPvZlgKWUPzwVAF9YWIRNpBJr/OWBjj64MrqP3SHAHUXeonVlaOG40RIrANb4WR79CYQ5iiielpxbksCvSgOfysOqXt8cw4cF4104Wf1AemmJJVQdSh+oqEwma3KFh4zSxwiF1tNfv7sVlwnraom0InMU774BoFpVKICjjRVILP8i8++a8aLggKsSR+8OVAmzVyQFnZYwvMmM7/XgH2JKF9kLGbAY7C4e9ELLEwC44+MSMmFwBBfmAb4ppYrwPNpjtPzZRAl/8Bl0kA5KAj+yyfIsI9HU82MpZ57NnvTEqTYe3yFKJyWG3UZoRugzDj34MTD5n6XZ0+qzusH4T06xQSSDm89EwTeUA++zseBF3/v6H3yn4Za6/Bsb72o38LLtRXTibfkhDcBKqMQpnEZQpbOrkjI/jGNkF8d1KoCJcFk9N1V4pUnE433EPQSA+utBRshnwr03d3994B+y95QQCIDVgt1mEyjU889TqANYH8WZdUrJ9SqiurKm3j8vE8eJr4u0vb66lPYpTLyIRDs4DPxrKLBEskkXjb+1H8tjKNigsGUHWEkk0sVZEBb0SGVy4E/lsJBeQ8phC6ZyAwspJ/SuEN+usPNr4Cq1WV0GqoPuLSaaSjMmfhp/8vQmzNIRyQeMxTVx0uz5Yn9C/HNBo5QXboAEirHlUZmZpSRH9pEeoez1ntx0yjLlvLD68mWFPKtrxER/lfu7Gwmg30cSLp3Bf3tg9QPCA1kXO45OTfk9qsEmkL41j5a6SXCskuhhY8M5Lj9qiCRQG4c0GS/wTGu63W6geXgdtRvOwSZtot9zU1moBBrqcK9v/ty3YIPqicBiIREBlo3lQb3agDT/jMWiAFMO/KmUxAjVv+YlW4zAUt+PvYC2d1rUTYeWwrfXktLGqs/2EmYD+lcHwOqbxn7++tJyTuotxMD7jse1hrqS27SyqB9QAh6XseCpGsoMDZJYu8f7nLvLgT32KyRHvdWANKieQm39hISGUcmmXWEP3MO7TXus02mjROS8WV3bEhq0bYEizAofkDT9zD9OL+3sMZB579nPYhhmT1KasQMGSP1/d3eD5wWnBCL70vYP3ER4JgFXgvXt6AT3Jw8MLsgo+2WomnRIcV6REEqslvmy9xtSsH4ZKbE4HgKrfou0eHK7cKCIIuOZ3VmVakOOl3r/+yXd82wrF/gjbLJhG4uqng5SUqSpCv/Gfqx+YEk4DyEQngXZmHIeTFBmCivfiqfBhxXvrB02TGrZUpD8Xd/nbHaLEz90GwtARX5DQsN68eexEovAYsMlboQEkkzXEa6xamqYbeYHijvWMQmneiggUJXgZw8q7t8dWpAFmV9iafgqcJBy2mCuwKZibA1qI55ImURUKcOeEU9OpNZHF9XoY7+MsrVEHQ6ID8/JyL42rBIj0WIEtEFZaVbhcP0VvQiHc638EssCKxKOY7xLctJkupUsKhmgVMKSQeSAwifFOAa+y6NqUPIBuSscG9Hx1cl3IS3T+a0+G4sSi6qwB8kbAOuRmbWpTI/O/lS/tBJTSX9SeQExucf4WJABcFbCxoLxbE+F/tPrVMMZ+eWHgXOeYukW8fux6miFx84XBqyOMGnN+AzLGJFBGnDeX2ZlRtzVA5Y4ZSXy+DjRj8Aqlz4LsHCEfKXRDgfWoCPXD6wI3oOZhwGwXmmJ+h/zfGDRG36C8AptrO8ZWIHEehNA2Yc+H1i0sQgsEvFYEHfY9WiIaaL3fZrEYqCanVwDVTjRJM/yS5MACwS84z1zfX06ElizHKHe62nAur25RFu8r5I6RokVqMLZr8QT7zghsE5Ro716KCGloYFvHuSeGRN8fMBPA9Y18ibPTvcEWCEG6gPj/Yk4mPnHJgUWWqRU0bLkkfpXbwGsKwTaCawIWBUBsGYOlufccDJgnZ5QYh1gAceX3H7OaEZ/9mkSi+W9CSxWKgxU4WxmfuK7+Ck6T3I3wGF5DmBVq2hILnmKr3E9AqwYG3bqGNhzsQIqswCrmxDHb+BueI31GfkMXbgnAQufZHmgy8uj7w5YFXC1Li8wLqjCAFhvCij7cA9Y9Lyvb/84MhOa3yCwLqpHToLDa7zA0yRW5fRA2Blez2nGCgPP+2us0Ihn9AOriJYlfgLd4JdoY11BFWrmzGtcw4FV3Pqpb5ziBkF6PYelzcwDYL3G6gx9ht/GCjGdBgb5U4B1fXU8Jldxlq80HliMCJyWUSD3pioukAgVewCsWS7C0+/luQSchYPaCKH21GPA4nfkVAhgfU8Si8AqH/wBZqw2RdD8AbY8CVTh0xExo08OAxYl1hq4VXOgP4+6vkdVyCSP0h6SVZsNSaKweQMBsGYElsluoxKLqpDsBgJrHpWGBy8LxLNTlInEqfCtJdbmrlcVmpWbD779hnQ2eN0jrAQorLVAYk0GiOm+5SZkOF0lJIUdGGOV4cVFVlAeTsRjfc/j4z9ReC0h6sbfz/mBFJxuiO79maAo9a5AJKRjJEI6NIvmRrTHYR3JHUegTEvSnC+c9DfOK5xy5qf4+mCGEP9NRharEmuVYb0G2alSzvHwT8nwscmvVvX0D8dHcZ14nF69BkojlorsAGSLy+gRVNxx6sejt3X1zJyfoXbpwHMCYE088dN/UbnkCqAO1GE2X0DNTpS8fkBptuUnYcAjbZ+SSw1l7VfousAVjtMPTO5AIxyHCkmIZWFe1FrFf6xXsbycx+9IWwbj4uxAEnLZo9F/BcCa0TI89zaeu0HBwFzEeRTIXVtjcsSA/JGmR4RPBEmvVaGokHf/UPI9p5nl6BHrfcn50ucy95FZ4cyztE3NbQLHEejSddTSklbCvisA1nMRMbPPe+1yJYUf4IlGF7Fwv4AgOmhjOYmjTnbNGbpcsCvFoJSY2dAcGKv007F0wWdfTqHbBfoEaQMzduJoIO0LiaotdjXrB3UArNmuxhPvZoGjaktihVI9GY0EUMiNPWj6Ly8jmT9nDYWjw338iXpUjKPM+LKZ1SIlnXKR7N9DNTiHZF573SPdX5sj8H36GRsBsGa8KM+9nSTMYk2YgMoKzOls0eTzrBk6rECap/6krvrRnqR7cWEVDE6J7+cOYsznmbWUQYHcLIr4euo3jC4Zh7Cvyk7d0f4aqwGwZrwIz7+d08IXWTht5OUxT3B785+wZxRYg7UitJmJZjmyVd0ZAtOSXi82l1eO6fnj8H/DkT5sdwI/1cLCEsp6f0IskBk4yB2kSkbc5tv+7/Bf3cnfGcqhN85W6/kvBZZOEgOjbDkiKfROhu6gLTDdAsz22zYZIre6i+4PWYGQrQEx6klkb15USrB37tFdDFVw0PSpy6xuPW7qCcM3s8QAABT7SURBVNOxzUaxS91m6KL68HnW7gJS2TB8DsVQCkWvFJKqx5C5gZuBHc3iUMUozowfos6FIJuVdZ067+i9k0Nu4bDrXXamsBMoPhaUxB6sWe7UyZgtKmZwNwssOiE3pa5V0vUXeXUZbK1T61YIo3pNDfWrTvDnFdwDSItHQoO1k+xc2OJs/cP0XBMWXOJTQy8gFpljcZTC2oZbIdmCqtmoSRnJNhpusrYXE2gHpSUlFuvfs+WJvfzAfpfAsvaJSKyTA+f47p3CZoCBF7mFBRb74OSy6GPIAm9Io9fLX4DWFv/Qyn3cODyZVdEX8a52IQ0A6ECVcgAjvPj+xbaAkdpaQEg0HjPL6JeTSa+qJPIdUvm8s+PPUowtjtMr7+91M3O6sToOX+2l81/axZ4S66F3elZOxNnjS0I1ERryUbNa2EGXVPRplmoyvsKzAibv2dz9FkSddhvgOkP+4S367txrITaqRN8r+0svaetgHCAARP63hM7zi0sF1NliJhB8WdSkjkqVpNnTsqlVtd+OHYI8Q9Dn1MGAbeYFoakK1ZHrB/m7lFgcNItXUGKxy4J0NmVbj2cWIJs9bEbf0UorXWXAiBQt1L3K5tfE020NeQlaD5FCg+Ef3qbdbKHYSA0AQ0tfGOE0xFuobKOltZEMH0V7OLQwiaJOfQK1tlhYzt+N1Y6Jz2vDhjtHA05WJowBQ6yOzMs+l5WkeUmjFNpneEYuVzTpHFWh3yWiG+SdAksDp7SxTo6/CcnfduSiYel1RH1N6Dz9WWydawPMPQAgiz497MAqYRyKEFRiHna54PL0nPxNDXhBgf6GEoahGmvYO15ze1iQpuLibVdAsEzRBZgVdzXW5gIwYLBLQTfnUKAOXk8kUrJRiuXQYVVtrIeZ2+8SWLac9O3NlbQd4b9lPjEXLE31vV8d+LTCTu1PLiAN4UXUEs0AXJQuVgJ46sVWGlQjWk5mvB5U83NUotT98mahg1NgBM40WyJS1LEPVNXKOQ4Gt7CppF6SaePUyTR/C6ZBNUdt0YSEk17StNNG1FQto6Vxy+1m9pCt+tx1Cn3543+mWl7uI/bOoz+HDZLmpAKfd/UMa0XFxbBlPQEJ9rrFwsAbGlN47LkvNMvPixRBUTUWe+NF9U0Jxn9ag1wwM2Cz9L2/T3rYn2tzTq/mV7869WygQZXK7q/SxJwpZ3JfJtBrcV8dnyK0T5XTpgqDZoPPjMqB/E4lFkO29JlEtQLfQsoX1ZrlMgf3eqkZ6KFUOZuws/6q1vtSiSVxyAnFzswkFk9LxfWPDyTWS01GcN/ZzQCa3pmjPXLL7iADtXKglg+e/JoaWOy+1Yavh8DeQMpUMokjeXC9qxnwA8tWKBQTR8JSk73K1MAiG4Cq0NpYSTTVHucInGyowbdeagZot5VQG54tXCixeEkfyCGlk546hhkACw5EiaLFhSbLBti8nhJbe+ogg8+97AwwCUNauIiN5YkoL3T1/OdPDSw2TWIsi57hdGbFJKTSMNHuhRSeP6zgG681A+zhyAYI1coJQlH3Bq2r5ZrUaLfjnhpYdHD2+VEmVcqvNZPBc/pmgFEFcZ2wfLej/tRd4TXJmmTKpgaWZK7Rj0N/D30sQvxX2NNf0+9TmWSIL/2dcazPac5GLz326e9PM4Zee/pbGUlouWsnKygAm+SaGlie29gZgMMB4mC8I6szQOd34vizHSHcoGp/3E2dg7atnHqfx4HUdVQ63m42I+iI19wT7bIJAHh74JB+X/IzzqOCiA0FdGNojuHDZAmd6v734xIwAK0hK3+rOv/CaDbQkMXyzdsg7UUH4+PaOz0XadfSmuX/NLykXn9OrW1KxfFLcwSfI9rOE5Nz/d3LJgHQqO/MAFjerYd5oKXliNPDz06q/09ZSEyEl/DpTKJLiPP1KuxrFu4R2fwv5/dWK5tTkyP0pOqASBiWfCgWmVnDuC9BIeAFOU9BTCuREpj2oifV+t/RcST6NkFffMbZ7YPvbcfrbR79ie3ZSNVEL/vg6dp+XgiSvlYttgOFAJYsCNEcjHCQ6eBtzv77WYBP1t9nHAhnDCx9nKWNDMa77MT1D2qYo8QLUUirt5Esgv4whhfS0CwVKxhsrI3g4Q7vADzpTFH6B95dn6D68S1u1JLfqRTQ3jW2f6F2C2Rsz+NUqcbwAsQqhfrf5eFG83ou+n9nv2ulshL9/KczK731mX5pLrABeCw5MF/YxU86poJAtTT8HNiM3nNt+MeGqyZ0WI1A2AyAZVvB2YE5dpW02WWvG6eVLSUXPbqs5Mt4G1RGn3rzi/ohul1iXZQcznHFmQ5dXAfMbgKDK/q1jYn+nKqCAXACy4Diuwu+04q5qhwi0ROcJm50Sh5HulKtqCToX2AmW/Bz9lje47Okja7oUnc8MiiCw+mjw9+5kkbwoRx6jr9fzXvz6Ko/5/MhbAhJ2CCZ0NGmlL2W3MeWdls7/xdBkLb59hnFQdAMMyL9oznnbH2sXxotgUegZIIfTw0s0emiOlSU6wJy8QgsZ9KlYRFar3FndZxmkQ6Pm7Czot9KFhYNs6Q47QitOzLmlOUhuEg14c+i7A8t6k6bFqkkobTBZGIh2ghXRMg/p/LDv6NkApBuQnoJKvdFMOZWG21ubSMA1uyEGuIL2abeBDSP5XxeF02jpL8PFott28CqEj4Vfx/i++Oz5D+J3UNVjENNt8MwiaphSsIo+1EDjGHcg1NjJbmoXvyu2eIJzTbV5MSi9yDeISKUF6pB1hVVKSqBfaadcV7x3Y8f/wUsN8w++kLzTyl+yQQLGZ+qewKRySKcL/7cbsxxNuxz8DU1sNydSOlEaiwWJZlckK7y0XhCDMk2mJRsM1u/uzEx2g+YlcT8gllYTJsb0GmoepaXUmBrIjEABfDv6vhcLG6W4GyNRecx0Q2ksp/DdGjKu7EIRhP3TMwlcZ+MmUvGTQuLUQMN+L52i/soB2kBY2BeINmbjUYDRT6WRbpUkVGTmIubuYUs2u/eoZ4U2sM5QAxH0WoXJLvFJB29YXMHTnkd6V3ybAIllpD+zolEwgFbz9zf4TN3KHbGEthcfpD2FvE+dZQTaoHYl0rlAKYY7lWXhueikqVlMDaFEB/t5iQce+C1JzAfeYApbhrtFu5/ifHfCCg4n03MH4mHC0iumMM7kl3C5/D9tz/8Q2q8731h1s69mV9OozPtksxrq1VTiYx1YoN2Ss1rJNu+RCOs2QHLaQLO3b1S2MIL6cBFVVGCAXDnpNKCqsvdml/ZNMuZVSGukT0ZwUSp6O+iOGsFIFhEZ1WWutYd1QQH6ejoL5FG7VYY3eBz0mc5HJ2TNm6688JQayjhKLyvnsmCg5SDzXHLLl34N6m+tVrF7O3/hYD5jsmk1s3VxQmqDJdEojHOmVspYFMgSdU5GVKdNRHqOC5/FXCS+57Pa06fqFZIHW6oq4szU6kcyCZiMZEC7k9AU/Jxo+kJpYcNUkWa2KFIIR7xVY3pryldCJS19Q1J75LejABTF3N3iWrITDETdQ3plUHOYya74swxVXzH3N3dydj5Lodf/zRdMFRX1j9gLrOY+318vywbKBxOmq3dDwBu0hzu/RudZWmLfXc2lhWQzsBgwCwsL8nOq6MVLlViOp0x+eyOadTvTan0vzL52dyuLCLDCRUsShO7e2lp2aQISEwwwcDU9ViyZ3KpDSHVnZSROIA2I4xHrhU/AYxJc4EEDX6W0mt1pYjSPiFTkjqcN2B7riGzZUuotwTKbe0a/52ZG3yeiai57Kq5REbNOcBIXnlxfRf3SZkqpONl9RiYAkiWdwF8VvDbk7EmQRuOx+cgoRqyWWJLqP63+oHKUvoEUjIvLGUlvEXGx81NBWPG+CDhstmcuAXKpUORcBHcH8pcTngqtZJmG2WJyAo9ARBqdxcmTqDlP0odrmO8P99hGfdf29iFBOphI+0BwHdmHuNiJk40jmwijFNUYffO5As/AegZ1H7HhrtCJRqofNb/2tr+ZOKxBVQA/E16Y9sD13PU3WOfnVpiSeU465bBDpaQNJIPYpAkUWzJCLJH7ptt1EH4ID8r7f2vvEh2VdORmItHaQANJC/K/nu0xw7Qib2NCRPJA6mTxu68qpwiK+UraLY7kgl8cXFurrAAEXS1Z0f6ZSxcfnUb1YxPzTGAkEOX+wLrGwBYUvQVi0xVQNCzmkwut2UuLlG++mhPayFs/oQG3lroo9NtYPpBUMTsceG7iHVIljQ2SgQgjEIdCukPGyIFCZbGhjg/+YZibOeQ1lmzDpC2sLH4HmrrRAHcT1CRGckBvEEOQAjSjmn5zASiyMqk1jAvW+YSGT6sfkyV3ujEsbHySOYoovx3GdWay7j3j3hGypxjnFIhGeYFbdcFSPm1jR/wrKbZ/+sv/KyOPtWQWNjYp0imvb1EzVRQw7uhpNlwqkJzPSiJrZ313QBLxbiNC3IRMBFIM1qAjcGXUOooxLlTXfgYbXFraNaYR/2pdBrggIhnXfKweCEj5sOP/xI/zLcv/4bmaEoqVWZtV9LKL5BAwB26Dt7XUrogzcGpjkQrOb4wdou/vUUBsvK+yWFCc1ioOlQEiWwRdmuF5NLMYAdYiJFdEqxYuHR+B+NhjSly8wEkNjkSFUt/EBQMpHE2zTQqcN6lWAjfj0F4GNZQXRV0hKhAAqYwNqrC+t2tOS2hUAcMfAJLMn2gws/P90W1RcCXt6dVAndlZUs2B+3FsHOa7ITZ0DIpaWD3SCcrYxNs7vxswshzPNr/N8BbV1XKEyPU9odP/09cJ/uf/8DQCCyAOZ2DxDpCRg+kML1b2IhFVCxkA82j/d9EZfsTN2YBrqkllh2EnngMslhWpRpeDYY6c+u6rSYmZQGqr2ASMMhLaIRdgzjPr1FibULqoF46it7TDRmDatvcxXEZdhRFOY3PXjtksmsoggaO+RWkwSmyqQurH7EAK1ALlwBRTXw+VDFC3WVyORiRd0i5SmOn5wvbatdAYjGBVNr0OhIrk9kAqE+gTr9BjayZ1MqOSNDK2Rex2SKdGCDB4z0kAsCYnJ8HqH+VDJuLShm2Xl1aDGeg0hdwGKEdcwGpury8BjtpV97zHOqrh5NbByqogA2yCDVGYFWh/l2vv5PYurKyLdKFRnijpgVqQ6E6TqmUsjTL9Odr2/8Q1c9NyoOOSBtRqVGz8/GfeEdIrK9+YEGaHpch8UtIvKU1hkafuz9BQ8wLsKhBZt1hYybAEokh/h1jVqGKRPSeHsKYPZPF5Mlue+cT/oybQ9QYUFW4ZnIZBVYFkogSK4qdxJqa/LsrseCwyUDq0FClgUw1Qkm3AtuphtKIx5BETKfi6Soem5MjdBOnH+7A1BLa1SJ7+Kp6gQU/gGpoys/buKdtZctODlVUwZtbWESl5J8EnMc4JNRxWIBzArZXFCodJzosIFPtVwofJUGU7XHpqghFF0xhY0sSLAjeK2ymucWc2QD/v1a7MWeoACPuASy9BdYJ1PQVet6w5zRtuy6O/vegrMwnc1BlH8Vm5EGl072H4o7JCZkLz8o2IR58Vj+JZLtBTuEpiq2pxoiYPDZvKrvh2lj0Y62ufMAhKSv3ZKluuhzmoE0KMOpNLyY2Fo3+/qqE08usmQCL+4XAYn2BdGoVL14QcX55iQ6kuNLpNE54SbF1ykd/4kVwuspvYCLWAJYSxDR60jCTFwu58+n/CEL3aZtgYjuo+5Rb+QGe8lWREpUK1RQMdagVnnbu7q8kIZRyKAXbhsA5Ov5LFjWf/YjT5xrqnl9I6hmNcS4AHaRZ1DLI4vkXUIUXABalw8oaK+SlMf</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/about/strategic-plan/2019/team</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>txt-5433019</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>txt-5433019</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+.html-embed-wrapper .col-lg-1, .html-embed-wrapper .col-lg-10, .html-embed-wrapper .col-lg-11, .html-embed-wrapper .col-lg-12, .html-embed-wrapper .col-lg-2, .html-embed-wrapper .col-lg-3, .html-embed-wrapper .col-lg-4, .html-embed-wrapper .col-lg-5, .html-embed-wrapper .col-lg-6, .html-embed-wrapper .col-lg-7, .html-embed-wrapper .col-lg-8, .html-embed-wrapper .col-lg-9, .html-embed-wrapper .col-md-1, .html-embed-wrapper .col-md-10, .html-embed-wrapper .col-md-11, .html-embed-wrapper .col-md-12, .html-embed-wrapper .col-md-2, .html-embed-wrapper .col-md-3, .html-embed-wrapper .col-md-4, .html-embed-wrapper .col-md-5, .html-embed-wrapper .col-md-6, .html-embed-wrapper .col-md-7, .html-embed-wrapper .col-md-8, .html-embed-wrapper .col-md-9, .html-embed-wrapper .col-sm-1, .html-embed-wrapper .col-sm-10, .html-embed-wrapper .col-sm-11, .html-embed-wrapper .col-sm-12, .html-embed-wrapper .col-sm-2, .html-embed-wrapper .col-sm-3, .html-embed-wrapper .col-sm-4, .html-embed-wrapper .col-sm-5, .html-embed-wrapper .col-sm-6, .html-embed-wrapper .col-sm-7, .html-embed-wrapper .col-sm-8, .html-embed-wrapper .col-sm-9, .html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {position: relative;
+min-height: 1px;
+padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {float: left}
+.html-embed-wrapper .col-xs-12 {width: 100%}
+.html-embed-wrapper .media {margin-top: 15px}
+.html-embed-wrapper .media:first-child {margin-top: 0}
+.html-embed-wrapper .media, .html-embed-wrapper .media-body {zoom: 1;
+overflow: hidden}
+.html-embed-wrapper .media, .html-embed-wrapper .media-body {zoom: 1;
+overflow: hidden}
+.html-embed-wrapper .media-body {width: 10000px}
+.html-embed-wrapper .media-body {width: 10000px}
+.html-embed-wrapper .media-object {display: block}
+.html-embed-wrapper .media-object.img-thumbnail {max-width: none}
+.html-embed-wrapper .media-right, .html-embed-wrapper .media &gt; .pull-right {padding-left: 10px}
+.html-embed-wrapper .media-left, .html-embed-wrapper .media &gt; .pull-left {padding-right: 10px}
+.html-embed-wrapper .media-left, .html-embed-wrapper .media &gt; .pull-left {padding-right: 10px}
+.html-embed-wrapper .media-body, .html-embed-wrapper .media-left, .html-embed-wrapper .media-right {display: table-cell;
+vertical-align: top}
+.html-embed-wrapper .media-body, .html-embed-wrapper .media-left, .html-embed-wrapper .media-right {display: table-cell;
+vertical-align: top}
+.html-embed-wrapper .media-middle {vertical-align: middle}
+.html-embed-wrapper .media-bottom {vertical-align: bottom}
+.html-embed-wrapper .media-heading {margin-top: 0;
+margin-bottom: 5px}
+.html-embed-wrapper .media-list {padding-left: 0;
+list-style: none}
+.html-embed-wrapper .pull-left {float: left !important}
+.html-embed-wrapper address.pull-left + address, .html-embed-wrapper address.pull-left + blockquote, .html-embed-wrapper address.pull-left + dl, .html-embed-wrapper address.pull-left + figure, .html-embed-wrapper address.pull-left + ol, .html-embed-wrapper address.pull-left + p, .html-embed-wrapper address.pull-left + pre, .html-embed-wrapper address.pull-left + ul, .html-embed-wrapper address.pull-right + address, .html-embed-wrapper address.pull-right + blockquote, .html-embed-wrapper address.pull-right + dl, .html-embed-wrapper address.pull-right + figure, .html-embed-wrapper address.pull-right + ol, .html-embed-wrapper address.pull-right + p, .html-embed-wrapper address.pull-right + pre, .html-embed-wrapper address.pull-right + ul, .html-embed-wrapper blockquote.pull-left + address, .html-embed-wrapper blockquote.pull-left + blockquote, .html-embed-wrapper blockquote.pull-left + dl, .html-embed-wrapper blockquote.pull-left + figure, .html-embed-wrapper blockquote.pull-left + ol, .html-embed-wrapper blockquote.pull-left + p, .html-embed-wrapper blockquote.pull-left + pre, .html-embed-wrapper blockquote.pull-left + ul, .html-embed-wrapper blockquote.pull-right + address, .html-embed-wrapper blockquote.pull-right + blockquote, .html-embed-wrapper blockquote.pull-right + dl, .html-embed-wrapper blockquote.pull-right + figure, .html-embed-wrapper blockquote.pull-right + ol, .html-embed-wrapper blockquote.pull-right + p, .html-embed-wrapper blockquote.pull-right + pre, .html-embed-wrapper blockquote.pull-right + ul, .html-embed-wrapper figcaption.pull-left + address, .html-embed-wrapper figcaption.pull-left + blockquote, .html-embed-wrapper figcaption.pull-left + dl, .html-embed-wrapper figcaption.pull-left + figure, .html-embed-wrapper figcaption.pull-left + ol, .html-embed-wrapper figcaption.pull-left + p, .html-embed-wrapper figcaption.pull-left + pre, .html-embed-wrapper figcaption.pull-left + ul, .html-embed-wrapper figcaption.pull-right + address, .html-embed-wrapper figcaption.pull-right + blockquote, .html-embed-wrapper figcaption.pull-right + dl, .html-embed-wrapper figcaption.pull-right + figure, .html-embed-wrapper figcaption.pull-right + ol, .html-embed-wrapper figcaption.pull-right + p, .html-embed-wrapper figcaption.pull-right + pre, .html-embed-wrapper figcaption.pull-right + ul, .html-embed-wrapper figure.pull-left + address, .html-embed-wrapper figure.pull-left + blockquote, .html-embed-wrapper figure.pull-left + dl, .html-embed-wrapper figure.pull-left + figure, .html-embed-wrapper figure.pull-left + ol, .html-embed-wrapper figure.pull-left + p, .html-embed-wrapper figure.pull-left + pre, .html-embed-wrapper figure.pull-left + ul, .html-embed-wrapper figure.pull-right + address, .html-embed-wrapper figure.pull-right + blockquote, .html-embed-wrapper figure.pull-right + dl, .html-embed-wrapper figure.pull-right + figure, .html-embed-wrapper figure.pull-right + ol, .html-embed-wrapper figure.pull-right + p, .html-embed-wrapper figure.pull-right + pre, .html-embed-wrapper figure.pull-right + ul, .html-embed-wrapper p.pull-left + address, .html-embed-wrapper p.pull-left + blockquote, .html-embed-wrapper p.pull-left + dl, .html-embed-wrapper p.pull-left + figure, .html-embed-wrapper p.pull-left + ol, .html-embed-wrapper p.pull-left + p, .html-embed-wrapper p.pull-left + pre, .html-embed-wrapper p.pull-left + ul, .html-embed-wrapper p.pull-right + address, .html-embed-wrapper p.pull-right + blockquote, .html-embed-wrapper p.pull-right + dl, .html-embed-wrapper p.pull-right + figure, .html-embed-wrapper p.pull-right + ol, .html-embed-wrapper p.pull-right + p, .html-embed-wrapper p.pull-right + pre, .html-embed-wrapper p.pull-right + ul, .html-embed-wrapper q.pull-left + address, .html-embed-wrapper q.pull-left + blockquote, .html-embed-wrapper q.pull-left + dl, .html-embed-wrapper q.pull-left + figure, .html-embed-wrapper q.pull-left + ol, .html-embed-wrapper q.pull-left + p, .html-embed-wrapper q.pull-left + pre, .html-embed-wrapper q.pull-left + ul, .html-embed-wrapper q.pull-right + address, .html-embed-wrapper q.pull-right + blockquote, .html-embed-wrapper q.pull-right + dl, .html-embed-wrapper q.pull-right + figure, .html-embed-wrapper q.pull-right + ol, .html-embed-wrapper q.pull-right + p, .html-embed-wrapper q.pull-right + pre, .html-embed-wrapper q.pull-right + ul {margin-top: 0}
+.html-embed-wrapper img.pull-left {margin: 0 15px 15px 0}
+.html-embed-wrapper .text-block aside.full-width blockquote, .html-embed-wrapper .text-block aside.pull-left blockquote, .html-embed-wrapper .text-block aside.pull-right blockquote {margin: 25px 0 15px}
+.html-embed-wrapper .text-block aside.full-width blockquote + cite, .html-embed-wrapper .text-block aside.pull-left blockquote + cite, .html-embed-wrapper .text-block aside.pull-right blockquote + cite {margin-bottom: 25px}
+@media (min-width: 768px) {
+.html-embed-wrapper .text-block aside.pull-left, .html-embed-wrapper .text-block figure.pull-left {width: 46%;
+margin-right: 4%;
+margin-left: 0;
+padding-top: 0.7rem}
+.html-embed-wrapper .text-block aside.pull-left + h2, .html-embed-wrapper .text-block aside.pull-left + p, .html-embed-wrapper .text-block figure.pull-left + h2, .html-embed-wrapper .text-block figure.pull-left + p {margin-top: 0}
+.html-embed-wrapper .text-block aside.pull-left.one-third, .html-embed-wrapper .text-block figure.pull-left.one-third {width: 29%;
+margin-right: 4%}
+}
+.html-embed-wrapper ol.subtle-collapsible-list.col-xs-12, .html-embed-wrapper ul.subtle-collapsible-list.col-xs-12 {padding: 0 15px 0 0}
+.html-embed-wrapper .profile-block .pull-left img {border-radius: 50%}
+.html-embed-wrapper .profile-block .media-body {display: -ms-flexbox;
+display: flex;
+width: auto;
+-ms-flex-direction: column;
+flex-direction: column;
+width: 100%}
+.html-embed-wrapper .profile-block .media-body {display: -ms-flexbox;
+display: flex;
+width: auto;
+-ms-flex-direction: column;
+flex-direction: column;
+width: 100%}
+.html-embed-wrapper .profile-block .media-body h2 {color: #1a1c21;
+font-family: "GT Walsheim", Arial, sans-serif;
+font-size: 24px;
+margin-bottom: 5px;
+line-height: 3.5rem}
+.html-embed-wrapper .profile-block .media-body h2 {color: #1a1c21;
+font-family: "GT Walsheim", Arial, sans-serif;
+font-size: 24px;
+margin-bottom: 5px;
+line-height: 3.5rem}
+.html-embed-wrapper .profile-block .media-body span a {text-decoration: underline;
+font-weight: 700;
+line-height: 1}
+.html-embed-wrapper .profile-block .media-body span a {text-decoration: underline;
+font-weight: 700;
+line-height: 1}
+.html-embed-wrapper .profile-block .media-body address {line-height: 1.4em;
+font-size: 0.9em;
+margin-bottom: 5px;
+margin-top: 15px;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body address {line-height: 1.4em;
+font-size: 0.9em;
+margin-bottom: 5px;
+margin-top: 15px;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body address strong {margin-bottom: 10px;
+font-weight: 400}
+.html-embed-wrapper .profile-block .media-body address strong {margin-bottom: 10px;
+font-weight: 400}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-family: Arial, Helvetica, sans-serif;
+background-image: none !important;
+text-transform: uppercase;
+padding: 12px 24px;
+line-height: 1em;
+height: auto;
+border-radius: 25px;
+letter-spacing: 1px;
+font-size: 12px;
+background-color: #1a1c21 !important}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-family: Arial, Helvetica, sans-serif;
+background-image: none !important;
+text-transform: uppercase;
+padding: 12px 24px;
+line-height: 1em;
+height: auto;
+border-radius: 25px;
+letter-spacing: 1px;
+font-size: 12px;
+background-color: #1a1c21 !important}
+.html-embed-wrapper .profile-block .media-body .content {width: 100%;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .content {width: 100%;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .contact {font-family: Arial, Helvetica, sans-serif;
+width: 100%;
+display: -ms-flexbox;
+display: flex;
+-ms-flex-direction: column;
+flex-direction: column;
+-ms-flex-pack: center;
+justify-content: center}
+.html-embed-wrapper .profile-block .media-body .contact {font-family: Arial, Helvetica, sans-serif;
+width: 100%;
+display: -ms-flexbox;
+display: flex;
+-ms-flex-direction: column;
+flex-direction: column;
+-ms-flex-pack: center;
+justify-content: center}
+.html-embed-wrapper .profile-block .media-body .contact a {font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .contact a {font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .contact i.fa-envelope, .html-embed-wrapper .profile-block .media-body .contact i.fa-phone {color: #005099 !important}
+.html-embed-wrapper .profile-block .media-body .contact i.fa-envelope, .html-embed-wrapper .profile-block .media-body .contact i.fa-phone {color: #005099 !important}
+@media (min-width: 992px) {
+.html-embed-wrapper .profile-block .media-body {-ms-flex-direction: initial;
+flex-direction: initial;
+padding-left: 12px}
+.html-embed-wrapper .profile-block .media-body {-ms-flex-direction: initial;
+flex-direction: initial;
+padding-left: 12px}
+.html-embed-wrapper .profile-block .media-body h2 {font-size: 42px}
+.html-embed-wrapper .profile-block .media-body h2 {font-size: 42px}
+.html-embed-wrapper .profile-block .media-body span {font-size: 16px}
+.html-embed-wrapper .profile-block .media-body span {font-size: 16px}
+.html-embed-wrapper .profile-block .media-body address {margin-bottom: 0}
+.html-embed-wrapper .profile-block .media-body address {margin-bottom: 0}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-size: 13px;
+padding: 12px 24px}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-size: 13px;
+padding: 12px 24px}
+.html-embed-wrapper .profile-block .media-body .content {width: 61%}
+.html-embed-wrapper .profile-block .media-body .content {width: 61%}
+.html-embed-wrapper .profile-block .media-body .contact {width: 39%;
+border-left: 1px solid #707070;
+margin-left: 20px;
+padding-left: 20px}
+.html-embed-wrapper .profile-block .media-body .contact {width: 39%;
+border-left: 1px solid #707070;
+margin-left: 20px;
+padding-left: 20px}
+}
+&lt;/style&gt;&lt;section class="text-block clearfix" data-element="2016 Text Block" id="txt-5433019"&gt;
+ &lt;div class="col-xs-12"&gt;
+  &lt;div class="media"&gt;
+   &lt;div class="pull-left"&gt;
+    &lt;img alt="Geralynn Franceschini" height="175px" src="https://www.american.edu/uploads/profiles/large/Geralynn_Franceschini_012arw.JPG" title="Geralynn Franceschini" width="175px"/&gt;
+   &lt;/div&gt;
+   &lt;div class="media-body"&gt;
+    &lt;h3&gt;
+     Geralynn Franceschini
+     &lt;small&gt;
+      Executive Director of Strategic Implementation, Office of People &amp;amp; External Affairs
+     &lt;/small&gt;
+    &lt;/h3&gt;
+    &lt;p&gt;
+     &lt;a href="https://www.american.edu/profiles/staff/geralynn"&gt;
+      Geralynn's Profile
+     &lt;/a&gt;
+    &lt;/p&gt;
+   &lt;/div&gt;
+  &lt;/div&gt;
+  &lt;hr/&gt;
+  &lt;div class="media"&gt;
+   &lt;div class="pull-left"&gt;
+    &lt;img alt="Kate Van Order" height="175px" src="https://www.american.edu/uploads/profiles/medium/Kate_Van_Order_006arw.JPG" title="Kate Van Order" width="175px"/&gt;
+   &lt;/div&gt;
+   &lt;div class="media-body"&gt;
+    &lt;h3&gt;
+     Kate Van Order
+     &lt;small&gt;
+      Project Manager, Office of People &amp;amp; External Affairs
+     &lt;/small&gt;
+    &lt;/h3&gt;
+    &lt;p&gt;
+     &lt;a href="https://www.american.edu/profiles/staff/kate"&gt;
+      Kate's Profile
+     &lt;/a&gt;
+    &lt;/p&gt;
+   &lt;/div&gt;
+  &lt;/div&gt;
+  &lt;hr/&gt;
+ &lt;/div&gt;
+&lt;/section&gt;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/about/strategic-plan/2019/team</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>txt-5433021</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>txt-5433021</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+.html-embed-wrapper .col-lg-1, .html-embed-wrapper .col-lg-10, .html-embed-wrapper .col-lg-11, .html-embed-wrapper .col-lg-12, .html-embed-wrapper .col-lg-2, .html-embed-wrapper .col-lg-3, .html-embed-wrapper .col-lg-4, .html-embed-wrapper .col-lg-5, .html-embed-wrapper .col-lg-6, .html-embed-wrapper .col-lg-7, .html-embed-wrapper .col-lg-8, .html-embed-wrapper .col-lg-9, .html-embed-wrapper .col-md-1, .html-embed-wrapper .col-md-10, .html-embed-wrapper .col-md-11, .html-embed-wrapper .col-md-12, .html-embed-wrapper .col-md-2, .html-embed-wrapper .col-md-3, .html-embed-wrapper .col-md-4, .html-embed-wrapper .col-md-5, .html-embed-wrapper .col-md-6, .html-embed-wrapper .col-md-7, .html-embed-wrapper .col-md-8, .html-embed-wrapper .col-md-9, .html-embed-wrapper .col-sm-1, .html-embed-wrapper .col-sm-10, .html-embed-wrapper .col-sm-11, .html-embed-wrapper .col-sm-12, .html-embed-wrapper .col-sm-2, .html-embed-wrapper .col-sm-3, .html-embed-wrapper .col-sm-4, .html-embed-wrapper .col-sm-5, .html-embed-wrapper .col-sm-6, .html-embed-wrapper .col-sm-7, .html-embed-wrapper .col-sm-8, .html-embed-wrapper .col-sm-9, .html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {position: relative;
+min-height: 1px;
+padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {float: left}
+.html-embed-wrapper .col-xs-12 {width: 100%}
+.html-embed-wrapper .media {margin-top: 15px}
+.html-embed-wrapper .media:first-child {margin-top: 0}
+.html-embed-wrapper .media, .html-embed-wrapper .media-body {zoom: 1;
+overflow: hidden}
+.html-embed-wrapper .media, .html-embed-wrapper .media-body {zoom: 1;
+overflow: hidden}
+.html-embed-wrapper .media-body {width: 10000px}
+.html-embed-wrapper .media-body {width: 10000px}
+.html-embed-wrapper .media-object {display: block}
+.html-embed-wrapper .media-object.img-thumbnail {max-width: none}
+.html-embed-wrapper .media-right, .html-embed-wrapper .media &gt; .pull-right {padding-left: 10px}
+.html-embed-wrapper .media-left, .html-embed-wrapper .media &gt; .pull-left {padding-right: 10px}
+.html-embed-wrapper .media-left, .html-embed-wrapper .media &gt; .pull-left {padding-right: 10px}
+.html-embed-wrapper .media-body, .html-embed-wrapper .media-left, .html-embed-wrapper .media-right {display: table-cell;
+vertical-align: top}
+.html-embed-wrapper .media-body, .html-embed-wrapper .media-left, .html-embed-wrapper .media-right {display: table-cell;
+vertical-align: top}
+.html-embed-wrapper .media-middle {vertical-align: middle}
+.html-embed-wrapper .media-bottom {vertical-align: bottom}
+.html-embed-wrapper .media-heading {margin-top: 0;
+margin-bottom: 5px}
+.html-embed-wrapper .media-list {padding-left: 0;
+list-style: none}
+.html-embed-wrapper .pull-left {float: left !important}
+.html-embed-wrapper address.pull-left + address, .html-embed-wrapper address.pull-left + blockquote, .html-embed-wrapper address.pull-left + dl, .html-embed-wrapper address.pull-left + figure, .html-embed-wrapper address.pull-left + ol, .html-embed-wrapper address.pull-left + p, .html-embed-wrapper address.pull-left + pre, .html-embed-wrapper address.pull-left + ul, .html-embed-wrapper address.pull-right + address, .html-embed-wrapper address.pull-right + blockquote, .html-embed-wrapper address.pull-right + dl, .html-embed-wrapper address.pull-right + figure, .html-embed-wrapper address.pull-right + ol, .html-embed-wrapper address.pull-right + p, .html-embed-wrapper address.pull-right + pre, .html-embed-wrapper address.pull-right + ul, .html-embed-wrapper blockquote.pull-left + address, .html-embed-wrapper blockquote.pull-left + blockquote, .html-embed-wrapper blockquote.pull-left + dl, .html-embed-wrapper blockquote.pull-left + figure, .html-embed-wrapper blockquote.pull-left + ol, .html-embed-wrapper blockquote.pull-left + p, .html-embed-wrapper blockquote.pull-left + pre, .html-embed-wrapper blockquote.pull-left + ul, .html-embed-wrapper blockquote.pull-right + address, .html-embed-wrapper blockquote.pull-right + blockquote, .html-embed-wrapper blockquote.pull-right + dl, .html-embed-wrapper blockquote.pull-right + figure, .html-embed-wrapper blockquote.pull-right + ol, .html-embed-wrapper blockquote.pull-right + p, .html-embed-wrapper blockquote.pull-right + pre, .html-embed-wrapper blockquote.pull-right + ul, .html-embed-wrapper figcaption.pull-left + address, .html-embed-wrapper figcaption.pull-left + blockquote, .html-embed-wrapper figcaption.pull-left + dl, .html-embed-wrapper figcaption.pull-left + figure, .html-embed-wrapper figcaption.pull-left + ol, .html-embed-wrapper figcaption.pull-left + p, .html-embed-wrapper figcaption.pull-left + pre, .html-embed-wrapper figcaption.pull-left + ul, .html-embed-wrapper figcaption.pull-right + address, .html-embed-wrapper figcaption.pull-right + blockquote, .html-embed-wrapper figcaption.pull-right + dl, .html-embed-wrapper figcaption.pull-right + figure, .html-embed-wrapper figcaption.pull-right + ol, .html-embed-wrapper figcaption.pull-right + p, .html-embed-wrapper figcaption.pull-right + pre, .html-embed-wrapper figcaption.pull-right + ul, .html-embed-wrapper figure.pull-left + address, .html-embed-wrapper figure.pull-left + blockquote, .html-embed-wrapper figure.pull-left + dl, .html-embed-wrapper figure.pull-left + figure, .html-embed-wrapper figure.pull-left + ol, .html-embed-wrapper figure.pull-left + p, .html-embed-wrapper figure.pull-left + pre, .html-embed-wrapper figure.pull-left + ul, .html-embed-wrapper figure.pull-right + address, .html-embed-wrapper figure.pull-right + blockquote, .html-embed-wrapper figure.pull-right + dl, .html-embed-wrapper figure.pull-right + figure, .html-embed-wrapper figure.pull-right + ol, .html-embed-wrapper figure.pull-right + p, .html-embed-wrapper figure.pull-right + pre, .html-embed-wrapper figure.pull-right + ul, .html-embed-wrapper p.pull-left + address, .html-embed-wrapper p.pull-left + blockquote, .html-embed-wrapper p.pull-left + dl, .html-embed-wrapper p.pull-left + figure, .html-embed-wrapper p.pull-left + ol, .html-embed-wrapper p.pull-left + p, .html-embed-wrapper p.pull-left + pre, .html-embed-wrapper p.pull-left + ul, .html-embed-wrapper p.pull-right + address, .html-embed-wrapper p.pull-right + blockquote, .html-embed-wrapper p.pull-right + dl, .html-embed-wrapper p.pull-right + figure, .html-embed-wrapper p.pull-right + ol, .html-embed-wrapper p.pull-right + p, .html-embed-wrapper p.pull-right + pre, .html-embed-wrapper p.pull-right + ul, .html-embed-wrapper q.pull-left + address, .html-embed-wrapper q.pull-left + blockquote, .html-embed-wrapper q.pull-left + dl, .html-embed-wrapper q.pull-left + figure, .html-embed-wrapper q.pull-left + ol, .html-embed-wrapper q.pull-left + p, .html-embed-wrapper q.pull-left + pre, .html-embed-wrapper q.pull-left + ul, .html-embed-wrapper q.pull-right + address, .html-embed-wrapper q.pull-right + blockquote, .html-embed-wrapper q.pull-right + dl, .html-embed-wrapper q.pull-right + figure, .html-embed-wrapper q.pull-right + ol, .html-embed-wrapper q.pull-right + p, .html-embed-wrapper q.pull-right + pre, .html-embed-wrapper q.pull-right + ul {margin-top: 0}
+.html-embed-wrapper img.pull-left {margin: 0 15px 15px 0}
+.html-embed-wrapper .text-block aside.full-width blockquote, .html-embed-wrapper .text-block aside.pull-left blockquote, .html-embed-wrapper .text-block aside.pull-right blockquote {margin: 25px 0 15px}
+.html-embed-wrapper .text-block aside.full-width blockquote + cite, .html-embed-wrapper .text-block aside.pull-left blockquote + cite, .html-embed-wrapper .text-block aside.pull-right blockquote + cite {margin-bottom: 25px}
+@media (min-width: 768px) {
+.html-embed-wrapper .text-block aside.pull-left, .html-embed-wrapper .text-block figure.pull-left {width: 46%;
+margin-right: 4%;
+margin-left: 0;
+padding-top: 0.7rem}
+.html-embed-wrapper .text-block aside.pull-left + h2, .html-embed-wrapper .text-block aside.pull-left + p, .html-embed-wrapper .text-block figure.pull-left + h2, .html-embed-wrapper .text-block figure.pull-left + p {margin-top: 0}
+.html-embed-wrapper .text-block aside.pull-left.one-third, .html-embed-wrapper .text-block figure.pull-left.one-third {width: 29%;
+margin-right: 4%}
+}
+.html-embed-wrapper ol.subtle-collapsible-list.col-xs-12, .html-embed-wrapper ul.subtle-collapsible-list.col-xs-12 {padding: 0 15px 0 0}
+.html-embed-wrapper .profile-block .pull-left img {border-radius: 50%}
+.html-embed-wrapper .profile-block .media-body {display: -ms-flexbox;
+display: flex;
+width: auto;
+-ms-flex-direction: column;
+flex-direction: column;
+width: 100%}
+.html-embed-wrapper .profile-block .media-body {display: -ms-flexbox;
+display: flex;
+width: auto;
+-ms-flex-direction: column;
+flex-direction: column;
+width: 100%}
+.html-embed-wrapper .profile-block .media-body h2 {color: #1a1c21;
+font-family: "GT Walsheim", Arial, sans-serif;
+font-size: 24px;
+margin-bottom: 5px;
+line-height: 3.5rem}
+.html-embed-wrapper .profile-block .media-body h2 {color: #1a1c21;
+font-family: "GT Walsheim", Arial, sans-serif;
+font-size: 24px;
+margin-bottom: 5px;
+line-height: 3.5rem}
+.html-embed-wrapper .profile-block .media-body span a {text-decoration: underline;
+font-weight: 700;
+line-height: 1}
+.html-embed-wrapper .profile-block .media-body span a {text-decoration: underline;
+font-weight: 700;
+line-height: 1}
+.html-embed-wrapper .profile-block .media-body address {line-height: 1.4em;
+font-size: 0.9em;
+margin-bottom: 5px;
+margin-top: 15px;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body address {line-height: 1.4em;
+font-size: 0.9em;
+margin-bottom: 5px;
+margin-top: 15px;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body address strong {margin-bottom: 10px;
+font-weight: 400}
+.html-embed-wrapper .profile-block .media-body address strong {margin-bottom: 10px;
+font-weight: 400}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-family: Arial, Helvetica, sans-serif;
+background-image: none !important;
+text-transform: uppercase;
+padding: 12px 24px;
+line-height: 1em;
+height: auto;
+border-radius: 25px;
+letter-spacing: 1px;
+font-size: 12px;
+background-color: #1a1c21 !important}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-family: Arial, Helvetica, sans-serif;
+background-image: none !important;
+text-transform: uppercase;
+padding: 12px 24px;
+line-height: 1em;
+height: auto;
+border-radius: 25px;
+letter-spacing: 1px;
+font-size: 12px;
+background-color: #1a1c21 !important}
+.html-embed-wrapper .profile-block .media-body .content {width: 100%;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .content {width: 100%;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .contact {font-family: Arial, Helvetica, sans-serif;
+width: 100%;
+display: -ms-flexbox;
+display: flex;
+-ms-flex-direction: column;
+flex-direction: column;
+-ms-flex-pack: center;
+justify-content: center}
+.html-embed-wrapper .profile-block .media-body .contact {font-family: Arial, Helvetica, sans-serif;
+width: 100%;
+display: -ms-flexbox;
+display: flex;
+-ms-flex-direction: column;
+flex-direction: column;
+-ms-flex-pack: center;
+justify-content: center}
+.html-embed-wrapper .profile-block .media-body .contact a {font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .contact a {font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .contact i.fa-envelope, .html-embed-wrapper .profile-block .media-body .contact i.fa-phone {color: #005099 !important}
+.html-embed-wrapper .profile-block .media-body .contact i.fa-envelope, .html-embed-wrapper .profile-block .media-body .contact i.fa-phone {color: #005099 !important}
+@media (min-width: 992px) {
+.html-embed-wrapper .profile-block .media-body {-ms-flex-direction: initial;
+flex-direction: initial;
+padding-left: 12px}
+.html-embed-wrapper .profile-block .media-body {-ms-flex-direction: initial;
+flex-direction: initial;
+padding-left: 12px}
+.html-embed-wrapper .profile-block .media-body h2 {font-size: 42px}
+.html-embed-wrapper .profile-block .media-body h2 {font-size: 42px}
+.html-embed-wrapper .profile-block .media-body span {font-size: 16px}
+.html-embed-wrapper .profile-block .media-body span {font-size: 16px}
+.html-embed-wrapper .profile-block .media-body address {margin-bottom: 0}
+.html-embed-wrapper .profile-block .media-body address {margin-bottom: 0}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-size: 13px;
+padding: 12px 24px}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-size: 13px;
+padding: 12px 24px}
+.html-embed-wrapper .profile-block .media-body .content {width: 61%}
+.html-embed-wrapper .profile-block .media-body .content {width: 61%}
+.html-embed-wrapper .profile-block .media-body .contact {width: 39%;
+border-left: 1px solid #707070;
+margin-left: 20px;
+padding-left: 20px}
+.html-embed-wrapper .profile-block .media-body .contact {width: 39%;
+border-left: 1px solid #707070;
+margin-left: 20px;
+padding-left: 20px}
+}
+&lt;/style&gt;&lt;section class="text-block clearfix" data-element="2016 Text Block" id="txt-5433021"&gt;
+ &lt;div class="col-xs-12"&gt;
+  &lt;div class="media"&gt;
+   &lt;div class="pull-left"&gt;
+    &lt;img alt="Brendan McNickle" height="175px" src="https://www.american.edu/uploads/profiles/large/BrendanProfilePicold_1.jpg" title="Brendan McNickle" width="175px"/&gt;
+   &lt;/div&gt;
+   &lt;div class="media-body"&gt;
+    &lt;h3&gt;
+     Brendan McNickle
+     &lt;small&gt;
+      Project Manager, Office of People &amp;amp; External Affairs
+     &lt;/small&gt;
+    &lt;/h3&gt;
+    &lt;p&gt;
+     &lt;a href="https://www.american.edu/profiles/staff/brendan"&gt;
+      Brendan's Profile
+     &lt;/a&gt;
+    &lt;/p&gt;
+   &lt;/div&gt;
+  &lt;/div&gt;
+  &lt;hr/&gt;
+  &lt;div class="media"&gt;
+   &lt;div class="pull-left"&gt;
+    &lt;img alt="Photograph of Sarah Ferris" src="https://www.american.edu/uploads/profiles/large/Sarah_Ferris_005arw.jpg" title="Photograph of Sarah Ferris" width="175px"/&gt;
+   &lt;/div&gt;
+   &lt;div class="media-body"&gt;
+    &lt;h3&gt;
+     Sarah Ferris
+     &lt;small&gt;
+      Project Manager, Strategy
+      &lt;br&gt;
+       Office of People &amp;amp; External Affairs
+      &lt;/br&gt;
+     &lt;/small&gt;
+    &lt;/h3&gt;
+    &lt;p&gt;
+     &lt;a href="/profiles/staff/sarahf"&gt;
+      Sarah's Profile
+     &lt;/a&gt;
+    &lt;/p&gt;
+   &lt;/div&gt;
+  &lt;/div&gt;
+  &lt;hr/&gt;
+ &lt;/div&gt;
+&lt;/section&gt;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/about/strategic-plan/2019/team</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>txt-5429100</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>txt-5429100</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+.html-embed-wrapper .col-lg-1, .html-embed-wrapper .col-lg-10, .html-embed-wrapper .col-lg-11, .html-embed-wrapper .col-lg-12, .html-embed-wrapper .col-lg-2, .html-embed-wrapper .col-lg-3, .html-embed-wrapper .col-lg-4, .html-embed-wrapper .col-lg-5, .html-embed-wrapper .col-lg-6, .html-embed-wrapper .col-lg-7, .html-embed-wrapper .col-lg-8, .html-embed-wrapper .col-lg-9, .html-embed-wrapper .col-md-1, .html-embed-wrapper .col-md-10, .html-embed-wrapper .col-md-11, .html-embed-wrapper .col-md-12, .html-embed-wrapper .col-md-2, .html-embed-wrapper .col-md-3, .html-embed-wrapper .col-md-4, .html-embed-wrapper .col-md-5, .html-embed-wrapper .col-md-6, .html-embed-wrapper .col-md-7, .html-embed-wrapper .col-md-8, .html-embed-wrapper .col-md-9, .html-embed-wrapper .col-sm-1, .html-embed-wrapper .col-sm-10, .html-embed-wrapper .col-sm-11, .html-embed-wrapper .col-sm-12, .html-embed-wrapper .col-sm-2, .html-embed-wrapper .col-sm-3, .html-embed-wrapper .col-sm-4, .html-embed-wrapper .col-sm-5, .html-embed-wrapper .col-sm-6, .html-embed-wrapper .col-sm-7, .html-embed-wrapper .col-sm-8, .html-embed-wrapper .col-sm-9, .html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {position: relative;
+min-height: 1px;
+padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {float: left}
+.html-embed-wrapper .col-xs-12 {width: 100%}
+.html-embed-wrapper .media {margin-top: 15px}
+.html-embed-wrapper .media:first-child {margin-top: 0}
+.html-embed-wrapper .media, .html-embed-wrapper .media-body {zoom: 1;
+overflow: hidden}
+.html-embed-wrapper .media, .html-embed-wrapper .media-body {zoom: 1;
+overflow: hidden}
+.html-embed-wrapper .media-body {width: 10000px}
+.html-embed-wrapper .media-body {width: 10000px}
+.html-embed-wrapper .media-object {display: block}
+.html-embed-wrapper .media-object.img-thumbnail {max-width: none}
+.html-embed-wrapper .media-right, .html-embed-wrapper .media &gt; .pull-right {padding-left: 10px}
+.html-embed-wrapper .media-left, .html-embed-wrapper .media &gt; .pull-left {padding-right: 10px}
+.html-embed-wrapper .media-left, .html-embed-wrapper .media &gt; .pull-left {padding-right: 10px}
+.html-embed-wrapper .media-body, .html-embed-wrapper .media-left, .html-embed-wrapper .media-right {display: table-cell;
+vertical-align: top}
+.html-embed-wrapper .media-body, .html-embed-wrapper .media-left, .html-embed-wrapper .media-right {display: table-cell;
+vertical-align: top}
+.html-embed-wrapper .media-middle {vertical-align: middle}
+.html-embed-wrapper .media-bottom {vertical-align: bottom}
+.html-embed-wrapper .media-heading {margin-top: 0;
+margin-bottom: 5px}
+.html-embed-wrapper .media-list {padding-left: 0;
+list-style: none}
+.html-embed-wrapper .pull-left {float: left !important}
+.html-embed-wrapper address.pull-left + address, .html-embed-wrapper address.pull-left + blockquote, .html-embed-wrapper address.pull-left + dl, .html-embed-wrapper address.pull-left + figure, .html-embed-wrapper address.pull-left + ol, .html-embed-wrapper address.pull-left + p, .html-embed-wrapper address.pull-left + pre, .html-embed-wrapper address.pull-left + ul, .html-embed-wrapper address.pull-right + address, .html-embed-wrapper address.pull-right + blockquote, .html-embed-wrapper address.pull-right + dl, .html-embed-wrapper address.pull-right + figure, .html-embed-wrapper address.pull-right + ol, .html-embed-wrapper address.pull-right + p, .html-embed-wrapper address.pull-right + pre, .html-embed-wrapper address.pull-right + ul, .html-embed-wrapper blockquote.pull-left + address, .html-embed-wrapper blockquote.pull-left + blockquote, .html-embed-wrapper blockquote.pull-left + dl, .html-embed-wrapper blockquote.pull-left + figure, .html-embed-wrapper blockquote.pull-left + ol, .html-embed-wrapper blockquote.pull-left + p, .html-embed-wrapper blockquote.pull-left + pre, .html-embed-wrapper blockquote.pull-left + ul, .html-embed-wrapper blockquote.pull-right + address, .html-embed-wrapper blockquote.pull-right + blockquote, .html-embed-wrapper blockquote.pull-right + dl, .html-embed-wrapper blockquote.pull-right + figure, .html-embed-wrapper blockquote.pull-right + ol, .html-embed-wrapper blockquote.pull-right + p, .html-embed-wrapper blockquote.pull-right + pre, .html-embed-wrapper blockquote.pull-right + ul, .html-embed-wrapper figcaption.pull-left + address, .html-embed-wrapper figcaption.pull-left + blockquote, .html-embed-wrapper figcaption.pull-left + dl, .html-embed-wrapper figcaption.pull-left + figure, .html-embed-wrapper figcaption.pull-left + ol, .html-embed-wrapper figcaption.pull-left + p, .html-embed-wrapper figcaption.pull-left + pre, .html-embed-wrapper figcaption.pull-left + ul, .html-embed-wrapper figcaption.pull-right + address, .html-embed-wrapper figcaption.pull-right + blockquote, .html-embed-wrapper figcaption.pull-right + dl, .html-embed-wrapper figcaption.pull-right + figure, .html-embed-wrapper figcaption.pull-right + ol, .html-embed-wrapper figcaption.pull-right + p, .html-embed-wrapper figcaption.pull-right + pre, .html-embed-wrapper figcaption.pull-right + ul, .html-embed-wrapper figure.pull-left + address, .html-embed-wrapper figure.pull-left + blockquote, .html-embed-wrapper figure.pull-left + dl, .html-embed-wrapper figure.pull-left + figure, .html-embed-wrapper figure.pull-left + ol, .html-embed-wrapper figure.pull-left + p, .html-embed-wrapper figure.pull-left + pre, .html-embed-wrapper figure.pull-left + ul, .html-embed-wrapper figure.pull-right + address, .html-embed-wrapper figure.pull-right + blockquote, .html-embed-wrapper figure.pull-right + dl, .html-embed-wrapper figure.pull-right + figure, .html-embed-wrapper figure.pull-right + ol, .html-embed-wrapper figure.pull-right + p, .html-embed-wrapper figure.pull-right + pre, .html-embed-wrapper figure.pull-right + ul, .html-embed-wrapper p.pull-left + address, .html-embed-wrapper p.pull-left + blockquote, .html-embed-wrapper p.pull-left + dl, .html-embed-wrapper p.pull-left + figure, .html-embed-wrapper p.pull-left + ol, .html-embed-wrapper p.pull-left + p, .html-embed-wrapper p.pull-left + pre, .html-embed-wrapper p.pull-left + ul, .html-embed-wrapper p.pull-right + address, .html-embed-wrapper p.pull-right + blockquote, .html-embed-wrapper p.pull-right + dl, .html-embed-wrapper p.pull-right + figure, .html-embed-wrapper p.pull-right + ol, .html-embed-wrapper p.pull-right + p, .html-embed-wrapper p.pull-right + pre, .html-embed-wrapper p.pull-right + ul, .html-embed-wrapper q.pull-left + address, .html-embed-wrapper q.pull-left + blockquote, .html-embed-wrapper q.pull-left + dl, .html-embed-wrapper q.pull-left + figure, .html-embed-wrapper q.pull-left + ol, .html-embed-wrapper q.pull-left + p, .html-embed-wrapper q.pull-left + pre, .html-embed-wrapper q.pull-left + ul, .html-embed-wrapper q.pull-right + address, .html-embed-wrapper q.pull-right + blockquote, .html-embed-wrapper q.pull-right + dl, .html-embed-wrapper q.pull-right + figure, .html-embed-wrapper q.pull-right + ol, .html-embed-wrapper q.pull-right + p, .html-embed-wrapper q.pull-right + pre, .html-embed-wrapper q.pull-right + ul {margin-top: 0}
+.html-embed-wrapper img.pull-left {margin: 0 15px 15px 0}
+.html-embed-wrapper .text-block aside.full-width blockquote, .html-embed-wrapper .text-block aside.pull-left blockquote, .html-embed-wrapper .text-block aside.pull-right blockquote {margin: 25px 0 15px}
+.html-embed-wrapper .text-block aside.full-width blockquote + cite, .html-embed-wrapper .text-block aside.pull-left blockquote + cite, .html-embed-wrapper .text-block aside.pull-right blockquote + cite {margin-bottom: 25px}
+@media (min-width: 768px) {
+.html-embed-wrapper .text-block aside.pull-left, .html-embed-wrapper .text-block figure.pull-left {width: 46%;
+margin-right: 4%;
+margin-left: 0;
+padding-top: 0.7rem}
+.html-embed-wrapper .text-block aside.pull-left + h2, .html-embed-wrapper .text-block aside.pull-left + p, .html-embed-wrapper .text-block figure.pull-left + h2, .html-embed-wrapper .text-block figure.pull-left + p {margin-top: 0}
+.html-embed-wrapper .text-block aside.pull-left.one-third, .html-embed-wrapper .text-block figure.pull-left.one-third {width: 29%;
+margin-right: 4%}
+}
+.html-embed-wrapper ol.subtle-collapsible-list.col-xs-12, .html-embed-wrapper ul.subtle-collapsible-list.col-xs-12 {padding: 0 15px 0 0}
+.html-embed-wrapper .profile-block .pull-left img {border-radius: 50%}
+.html-embed-wrapper .profile-block .media-body {display: -ms-flexbox;
+display: flex;
+width: auto;
+-ms-flex-direction: column;
+flex-direction: column;
+width: 100%}
+.html-embed-wrapper .profile-block .media-body {display: -ms-flexbox;
+display: flex;
+width: auto;
+-ms-flex-direction: column;
+flex-direction: column;
+width: 100%}
+.html-embed-wrapper .profile-block .media-body h2 {color: #1a1c21;
+font-family: "GT Walsheim", Arial, sans-serif;
+font-size: 24px;
+margin-bottom: 5px;
+line-height: 3.5rem}
+.html-embed-wrapper .profile-block .media-body h2 {color: #1a1c21;
+font-family: "GT Walsheim", Arial, sans-serif;
+font-size: 24px;
+margin-bottom: 5px;
+line-height: 3.5rem}
+.html-embed-wrapper .profile-block .media-body span a {text-decoration: underline;
+font-weight: 700;
+line-height: 1}
+.html-embed-wrapper .profile-block .media-body span a {text-decoration: underline;
+font-weight: 700;
+line-height: 1}
+.html-embed-wrapper .profile-block .media-body address {line-height: 1.4em;
+font-size: 0.9em;
+margin-bottom: 5px;
+margin-top: 15px;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body address {line-height: 1.4em;
+font-size: 0.9em;
+margin-bottom: 5px;
+margin-top: 15px;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body address strong {margin-bottom: 10px;
+font-weight: 400}
+.html-embed-wrapper .profile-block .media-body address strong {margin-bottom: 10px;
+font-weight: 400}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-family: Arial, Helvetica, sans-serif;
+background-image: none !important;
+text-transform: uppercase;
+padding: 12px 24px;
+line-height: 1em;
+height: auto;
+border-radius: 25px;
+letter-spacing: 1px;
+font-size: 12px;
+background-color: #1a1c21 !important}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-family: Arial, Helvetica, sans-serif;
+background-image: none !important;
+text-transform: uppercase;
+padding: 12px 24px;
+line-height: 1em;
+height: auto;
+border-radius: 25px;
+letter-spacing: 1px;
+font-size: 12px;
+background-color: #1a1c21 !important}
+.html-embed-wrapper .profile-block .media-body .content {width: 100%;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .content {width: 100%;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .contact {font-family: Arial, Helvetica, sans-serif;
+width: 100%;
+display: -ms-flexbox;
+display: flex;
+-ms-flex-direction: column;
+flex-direction: column;
+-ms-flex-pack: center;
+justify-content: center}
+.html-embed-wrapper .profile-block .media-body .contact {font-family: Arial, Helvetica, sans-serif;
+width: 100%;
+display: -ms-flexbox;
+display: flex;
+-ms-flex-direction: column;
+flex-direction: column;
+-ms-flex-pack: center;
+justify-content: center}
+.html-embed-wrapper .profile-block .media-body .contact a {font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .contact a {font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .contact i.fa-envelope, .html-embed-wrapper .profile-block .media-body .contact i.fa-phone {color: #005099 !important}
+.html-embed-wrapper .profile-block .media-body .contact i.fa-envelope, .html-embed-wrapper .profile-block .media-body .contact i.fa-phone {color: #005099 !important}
+@media (min-width: 992px) {
+.html-embed-wrapper .profile-block .media-body {-ms-flex-direction: initial;
+flex-direction: initial;
+padding-left: 12px}
+.html-embed-wrapper .profile-block .media-body {-ms-flex-direction: initial;
+flex-direction: initial;
+padding-left: 12px}
+.html-embed-wrapper .profile-block .media-body h2 {font-size: 42px}
+.html-embed-wrapper .profile-block .media-body h2 {font-size: 42px}
+.html-embed-wrapper .profile-block .media-body span {font-size: 16px}
+.html-embed-wrapper .profile-block .media-body span {font-size: 16px}
+.html-embed-wrapper .profile-block .media-body address {margin-bottom: 0}
+.html-embed-wrapper .profile-block .media-body address {margin-bottom: 0}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-size: 13px;
+padding: 12px 24px}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-size: 13px;
+padding: 12px 24px}
+.html-embed-wrapper .profile-block .media-body .content {width: 61%}
+.html-embed-wrapper .profile-block .media-body .content {width: 61%}
+.html-embed-wrapper .profile-block .media-body .contact {width: 39%;
+border-left: 1px solid #707070;
+margin-left: 20px;
+padding-left: 20px}
+.html-embed-wrapper .profile-block .media-body .contact {width: 39%;
+border-left: 1px solid #707070;
+margin-left: 20px;
+padding-left: 20px}
+}
+&lt;/style&gt;&lt;section class="text-block clearfix" data-element="2016 Text Block" id="txt-5429100"&gt;
+ &lt;div class="col-xs-12"&gt;
+  &lt;div class="media"&gt;
+   &lt;div class="pull-left"&gt;
+    &lt;img alt="Diana Burley" height="175px" src="https://www.american.edu/uploads/profiles/large/diana-burley-profile.jpg" title="Diana Burley" width="175px"/&gt;
+   &lt;/div&gt;
+   &lt;div class="media-body"&gt;
+    &lt;h3&gt;
+     Diana Burley
+     &lt;small&gt;
+      Vice Provost for Research
+     &lt;/small&gt;
+    &lt;/h3&gt;
+    &lt;p&gt;
+     &lt;em&gt;
+      Imperatives 1 &amp;amp; 2: Areas of Strategic Focus, Research
+     &lt;/em&gt;
+    &lt;/p&gt;
+    &lt;p&gt;
+     &lt;strong&gt;
+      &lt;a href="https://www.american.edu/spa/faculty/dburley"&gt;
+       Diana's Profile
+      &lt;/a&gt;
+     &lt;/strong&gt;
+    &lt;/p&gt;
+   &lt;/div&gt;
+   &lt;hr/&gt;
+   &lt;div class="media"&gt;
+    &lt;div class="pull-left"&gt;
+     &lt;img height="173" src="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAJYAAACWCAYAAAA8AXHiAAAgAElEQVR4Xu19Z1sjSdJtygsrC0L47h67e+9z9///iPfbO7tj2mCEcAJhhJC/50RUVpWEhEAS0OxU7TPb3SBVZWWejIiMOBER+vLH//RMcAUzMOMZCAXAmvGMBreTGQiAFQDhRWYgANaLTGtw0wBYAQZeZAYCYL3ItAY3DYAVYOBFZiAA1otMa3DT6YEVapteL2RCJoI/eyYSCsmfcuT0/T2Y6u9zBmSNurpW3ZCOEX81PdPB/4UnHvTUwOqZlgmHoxgcBtbtygBDYQWW/ffEowu++CozIEIBQAqHw7KO9qJ8IMgmuaYHFp7OAXW7PROLJ10pRYAF1/c/A91e20QiEdNo3JlwqAdgUfNYQHENJwvMTA0sK5mALlNc2zHziymZTasOpxGn3/+yvP8RUrt0Ok1TPvpqmgAX1ysUogqcDFB2RqYGFgdGlQe5ZdY3Ppm5eQVWcL2TGRD8dMzh/p+m2byFrRx1Bv7GwCK2OzT0QhFTXP8YAOud4KlvmL2OKe3/btrNuulCQGAxHYn1hqowgoG0YcBTYhFY8wvp9zi1f+sx97pNc3Twl2lBFYYgIHAEe3tgqcRqicRaK35ygdXDLuAgg+v7ngExYuBvILCa9zV1O7hDfkOJZVXhSBsLAOOZlca8nBMdsMEyw78n95O83nJxmnEMx//LCSoE1wrfxTn1qnVp7RHvffyfeb2xPv4kHRPH2j/v3W7blEVi3ZqerM/kgLIjmNp4HwssLggmnuK202o7opbSDP4unECmMxFffslCIaj5LscZNolE4uGi4AV63Y5pd+7xCWwggZn6hIBE+fdbXiGMhYercCRuotG4uyH8Y3qnwFLBenNTMaflI/hKuBussH3bSX/KgofCbSxM1Cyl8iaXXxVnMC+r6ikFGvd3plz6Alh18HMe1ymhIanfGFQcZxcWMN0Hmey6SaXzCnj3Umn8LoGlCxAytesKfCV7JhbxHKe0wXQBvt+L9mPPJJyDydJDsFBiQUUelf409/Vr+LAjjlRgFCL25u/Xhv3URcgtt7JusgBX//WOgWVf5Prq3Jyf7LuiGO8KVTi9Ln9pSHZ7TZNMZs3G1q5jH0LVPbCxQubq6sSc4f3CDrDo36MKndbROO37QR6ZVqdnMitFk8tt9N3Ovse7lFiDwOK/KZoFU7BBvvfQTwcSNYsFyebWXBUuQXfXeIc9BTC1W3emdPgZdmTLF9Z6e1VP8PAdhkssXZ13CiyIW9gdt9fn5hQ7muwHCmDLhPCOttPuzZf5fihC/9wnk0guunZVv42CN0B8DWd2c4KwyF3tWiwr+45vv3Fg+QFYGWyM/zKJpXqcqvDs9MAxZ3XH98jX+M6v+cUFU1j7hJ1A8OhgvSAtz7ukl9CgD5n6XRW21hfZPPx3D0d7Od2/8dXGqTWbf6gK7bDer8SywDrew7GXK/P2KsJba3uY6OeQhcJ6TM8XfjHLy8sOoDzVPcxPxZ/t7//HtO6vhDEQ7sbAcXp7ZAXAepOd3X+AoCTtdPQkG4vFzMbOP5Wn5BjsfkANA9flZdlUzg5NFMAKdWA6B8CabFXHO0h9qvA7lFiD4BC2BrQbR51Jr5jc6oYyZG30wPfn4IzxXq0mjfi/cCIEAZKuiO8grBVIrMmwPYNv+Wy+EENNEdMBk3J765OJzc27wBIPtutgdEI9PteD2F8Ij5ydHJob+O2oTiH3ZjC+6W4RAGu6+Zv422qMq0okGDrwP80ll01xYxcGO2QyfSOOo9fGOlWmPbQVKbXualVzXP4GUMH1EABrsnV576pQ39oz4KkK23AorhQ2TSq1IrE+/rZxf2taraZZXMo69tbDYK57yuo0zNEhGJlCnHt7hkcgsSbD9sy+RWnD/6KxpFnf3AWHf8EF0cXZkanXa2Zj+0dHUsHVMGB7uQOBdLusHJsL/Ncfm5vZUJ91owBYz5qul/kwk0KWUzlILMTVJNZHC5wMyz9No3VvtrZ/MfHE3BBnqY7HUlNa4DYdHnwW9frWVwCsN1oBa2NBCQoM1jd+AsVafVe0pWq1S3NS2he/FhkOmTxjbuqCEEXqZiR5Dl86TkulQ9O4vVCKUN9pUlUvHcSv4ZkPgPVGwGLsUhJCsNDxZNJsbv0MI94mFRhzcvLVXFfPxNZKzi0CeD/C0avSbDgwCLCuubq+MhcIYz0EYL9T9qVfOwDWS8/wmPt3AJQVSKNUpsD4uBwIW62GORS/FPngiHN2NGlkfmFcNhKYUO22Ke39R/4Mh/15lgGwxi71ez8VqrQCQY+sT7Ast7Z/AtMSNhRdDwBS9fJUYpzRGH7SIbcpYpaWVxE/9BynwyZJpVTXXMALX72sCLDequRAILHGwvglPkBiHqQLkjbpXlgpbLu8fKrH8uGfpnZ3Y+JR5brTNUE1WNzYMbHoPNxaj8c9Sf4rHXzF1zoITnt22Uu8yah7BsB6zdl2nhWGy6DLgDP+XCt+MAvI5LZuhPr9jTna+0P4YzZeyK8JRwtsgWyGJ0e90Sh7iwzZw8MvkqggnHix91/3pBgA6y2AhWe2QS1OwtNeKO5C5dEop9rqmdPzA3N9fgZQkUKtJzipUwFgxJMLZnMdPq0+22n4C1xcHJmL87JILCE5unSh12HQBsB6E2BBDQJY2ew2yHBFSC6NB3Y6LbN/8G9Y7zwtMuajjAdSfnpQnV141DdwOpybW3h01KT0t9q3UhuBNpqq00BijV3q92e895/IepKFA+kDTnsyGcfCR0HO65na7TnAAMarY0NZw9u6DvhnNpsFl3zHVZ3DJ0sZtGcnB+aqeiI8Le8KJNZIgH3/wPIWz7ODlL0q3CvTNEvzRVNYp9EOSQQcsJwP07lqd8i6kcor/TaUDf0oX+tXkXD+rO9+zhYZDhE4WRmYZooY2ROzKbwxdtc7HwhU4VNn6lmf8yTUIEmPt6G9VCzAaF9GcNlRUZZTRZVF9eV3gvqdnfx7bm3bpJZZr4IAHH1CJJ2mdPgHgtk1AJdUGnwWybCvwaYNgPUswDz1w056v88/6aU9dRFonjObCCzT024BdI6AcxVMUNGCPhr1IKj47+RiGrbWNiRgv9Tyj87GD6sISp9XSrgvK+fx8099h+k+FwBruvkb+e0+ScXkB1xC5gMFOYUkzpVVpnaptOnCaCflpQFXQ5RZ8k5MsD/W5z0KVVfN+ta2SSbAhICKGx3iCWvG9NGf4Hs18C3ac6JkX+itvdsGwHrxKeYyKrBYa5NuhPXtX0087tU0qN1WzckxSXqwjfCZniNWBo13C6AOVGU2t2KyyDTuwSv/GLAYJyqffAO79BgZ4XEn2eLlM8EDYL0AsB44LmGgU72RHrO0lDKryBn0X+XyV1n4eBQFQNoA1iOOdTHiAcAEfFrrGx8lJOS3s4Y5TQnc8tFnUbNh5CO+RrJFAKwXAJbe0qOp2EdQDRWLG2Z+qeB6z1vIYt7f/40ZgnA5wCnaSYqBPWi8W+kl/i4kTVAdFtc/IDC97J4OB0Fl/91pNxHi+QvAvheJ+BqZlQGwXgBYNitZEkjpYpCaClCDsUUY7dtI0wJ4nIuMz8vzksOfUg/5OL5UqNeCg7UL6VeA5/6DA1I/H977uwXX2Rl8WghuW1fGsNd+SLWZfHICYE0+dyO/ObhABAonOpVZNSsrZCiQxQDpRHcAJMl9/VacmNawHgcsAS6bKCBpgjwusktHJVrYQTIwTU88nWbD1KX92Wi+1/MmKgDW8+brSZ/WxdGqL5adwPgeOe3JZBo/1Uya+/qN5APS6/6cctQMYvcibdNsofBGfhv1EYriaB3l0xIHbFhLM9bBmrCceLsB/MHuJ73gEz4UAOsJk/Tcj/iBxe9ykhdB0pPULgCKxjel0unJEepLUD1Zv9fTnEwuOwL3iUeXXJ8Yn9Vfh9XmIaq2vL45NafHrGWhPK2X5GoFwHouap78ec/73oE9VChum6VFpnapFOuizOPh/hdDw1oliPUtPSOWx3AQpFdh7QOAmxGBZaWhDtOTYuR5dZEitn/wJ2LbrAKoz9MOH55dF6hClkgc2UDg+0ixl2Qb4bQnzMYmOeusJ6quh6vrMoLEKGMpDk6qQu0DRNnyHO84QUtpyOrR4v/iibIvYVXPgJaWc3ZWMtcXp0p5xvP6A9RP3jVjPxhIrLFT9PwP+A1hLh4LqGXzm6KPRKKgvmip/Jdp3F3B9CJLVJbetceeDiyVbuEo6DQAbjT2MEWMqtEeFviU+j2M+H3YdZbn5ZNWz3/T0d8IgDXL2XTv5ahB8KkonTax6LHEomNbd2G01yWE0+3qadD0nFoLzufHDUlTx/gplW7tXgOFZDeHFDnj57SelpViDO2coApgrVaTyjYv1S0tANa4VRzy+3F2SAjBXhTLlvILybmM8K5sTiAlxeXZN3NxcSF3tkZ0/2Mej+WJoieLlGk9Ts/GWCKK5/wAnxnV7eNX9fLMnJwemniMJW6or20REeXXj7/GxRrpXmmiVOSmyWSKjl+u/9QaFF4bP8sPPsGTPznt9I6vFnaQYaMUFzHaUbi29O131FhoTmzfuPaRsEvZTJI1P7tmY33XzC3kxmKjjfSyA9BpeuKJ18qA1jHrScMJXtwnsdvw0Q2rQeqxPN5lA4G3Nd6jOGm1WKsqnDRbOz+ZCLJtrI/pGrXnKzjy8xoVghm/pLTH9EQn94CPqo2T3nK6YFZXQR58wnV8/AU1Wi8Bd1sjfrzH37vtOKmG/O6gVOQTVuGZH7GF1JYzayYPBoJb4wqhmKPygbm7vnA87YPp8s98kANOVlujfIxG5mDEf4CKmx97o3r9EozVPUedzraSNJ0nbRwK0nkWt4XzdggZMVCFY5fo4QfY/4bSamPrI0h9WkSNnu9GA6ldB4fI5dIM50kdlDbkI0wH2lpkTgBYBPDqagGho60xo8an8dnD/c+oBgh2qdOt1krQEMY/zUU+GTO8s7l1bCyPd+a/ZwCsCWZYPO1LK2AfbAmo5PQGmXKDYh3VShWShR1GnQwc/tbxvD/3Ua5LVbptqNRKJGJmbe3jmFsBOKDPXFTK5vJSA+DJxBJUNik46hJ59BpTKFjfJ2IWlpZgX8JxG0is5y7t8M+3YUyT0764lHGcnk6RPhi0AjQfkU8W0lfoY9yJc/CJ6kpQYMmCMm0/pAAZfamTtglpdVT6S9LOaPgn0ffROlIf//6YCtS2p48bqvKyhALjfUKMceKiqB6ztfmD1LrSxR7ezm5y471Pqfj+8fSS4/JsuETKpW/mtnaFQ8YPEiCf1SX5sWwkDpDZJlP9IabgVDhkrr1kCZe9IMmlqCXaYXOij3BY5uV7XdKSwcVi35teu2US8UWEeBZhe0GqSBKqln9kBW2GdtTQ98oZDVtoqUozUDyGzbvpwmg279EC5Q521gpCSKTTuALSvZWOmafACEol3aAAyReTzxaElcpnh+MRcO/h25JNYSWhxAbke2y34r8k8E3JKypPnbZ0q2gT8eHU6cDGGrGF1ZfkyzB26Mf0pLNOe9Qt6AFbHYHmw4PfUUuhISe3MKrIJBPzJi2LCY+8c/l9SKPUo8QfAUB2KGQSRq12a+qQOA30Vm7iPwVNBEHvLRABVzRn0e1u0d+MgI/VFDH41e4xtmhM/GEhvEM8njTziaRZSmfw86TYTKrC+6WvjlM3BC8eBJqNOjKDTlBIbtGkUfRkWFJIAKxHdYNDP5b+fFrHKp3JoE77jvctrPPNFTzdKKQWg5jpwSHZDTewENzNCek3Q+lmk09H2Vjezynj2pA0V6Z6dWHaDTg5pfE6CXyoLiMKLoK8w6xUsSH7YbAmqT+WyWNF9XIfDQhQ5E2C2GRM6LGAWIkBVGn0HExnARBIs/7xDTJVO1CrN6aC4HoduYwrhY3A3fAofkb+UhWAzcJBAMdsotRQfJ49Bu2lBLv7e5wGQf6DkMECoXMXTl6UJCzDnV/ZBSCpOj0VNfhIFwwIlVSYg1itynMt1ZiAslSYNsARi8UR4vkRJz2PBu1JRo+iQxXcaoJwWDpwKDx+6YPECzJOIR+XET1gVWd/1UHL/SIAKbWYvnaMaoLt+3tpIJVHI4RUCvx+xwnrf6dAYg0FlQMoH6epA9/Pwnxa6CucVDld4b97+K7IEhXrA58XMDkuCIZR+FdmKbP2FW2cx5uld835OUB1fuJyuPw+Lf27SlHCYQ2VbBYWM+M9/HDc0oiv3aIfT5S6VsM8qtogDxG4puTLo9VdGrG/wWo3qsK75gwRBTYxIHGRkQfWTR3s/uVut/fZE/rlQzquPSS2FXY2FpLgmJ9D2jzT2Ds4EQJE56ffoLIqMIahAsUOURqyW1ZIqsyADy/hmE3XWPafoKxkIJX5AF1VI06ajQ3pPFSfzMSB5xs23KiF9e8X3p9tjtndIiwMC6vyHAIi+PUCMiSBbGwiRBVLPAhVix2Jul6GIMQ2CkI6k+lAidWpTQIeA8oOUTKsI5wixf+dru1kbNJP1KjDDpI6VY5N5pQtovEvthn+F0Xa/Q5KRvq7UHg13dVXVWFGz+WeZDTbQLTaT0ra85IwGJRum8TcMig7YDw82ltHN2G7VUdiB4q14QDApFpLyyFo2fm45zQ5yK9sYROoQe6/mLt4LO3tUEkH5EUeAqRQHLK+H0pV2m+Bu+Eh9BwpZQPAbLBUKOyaRdRqV3tLQXSLskQn5W8Dx3PnOC6gIibUhumB8Le59UHcEXr5DWN1WRyWvsJWO4Gtpm6EwcvaWHJP9udBWGkbNeLZSX70RaOfLPgWbDcA98Ipe8R74JkhjCuEF2SgG84U1I1ImfWibWjgKjZTASv1AuzUOD5HYAUSawKJ5VeDyHYHiY8q4qO4EsT+ZgwPi3CMdCuxW6Q+ldpl/Zf1/nAxWJ7oJznmDwUNFr609xmnwNux3b0iCNe0w/cMS4MPD8CjZcro9DAHwBhao35lDo9+B5DIz3KkaV+TKD1hbn34h+trU0drCPwuZHOj8WgIIOVnAmBNACzrlxF+FRaAvKMMy2nL6YjTzIBzXQziTgcZztIM3J8wYR/6MsAKs2dhtAkqTcisUnXB1noMWKJyRZ02UE/rK/xiGpge3AxUt/R1rW//jFNnP6GwXAYr9eZCpDPnIADWBMCSSUdTpTaMXhb/X9/4JMd614jGKevqqqr9qKWBoNYBVYnll1wvAyxJMcTprtVGJ3kcCvJwE/Rf/VnTbiNzDO8WgfJTcLVUDVq70JO0BE2RSbKQrH47q4RDRR2F3gJgTQAo+xVpXo7dC2zBB1VE+KSokKGRK6qhK9RfprRHYflqN67XU4VqAjLdy6C2Q9oUN/uLkDxqn+GXZ0j0uLm59koDaO9j+RrBtM7ePgCWu5FgLx6UUOAN2dYR2GS8Aok1AcCsn4Z+p+L6D7ChGPfzWAqsyHeI6i460Y8Fhl9IYjksB0odKfK284sLiuGv289HbyJbuoQSkz2oRjIlbBaRAissqtBvC8r7MmTVqjmbKADWBLCS6RUXwVphC5yjFceX6Gv5BknBHdyEJ3pYPVHvoS8ELHHQaiESCyxPbfWDSMfiOMZswTe838X5IU56x/C/qbSl383aXcOAdYCG5+32HWQzfXoBsCYCFtmRC/NIEl3fcUMcfU5KzOzJGZssqWP04WnQPvZlgKWUPzwVAF9YWIRNpBJr/OWBjj64MrqP3SHAHUXeonVlaOG40RIrANb4WR79CYQ5iiielpxbksCvSgOfysOqXt8cw4cF4104Wf1AemmJJVQdSh+oqEwma3KFh4zSxwiF1tNfv7sVlwnraom0InMU774BoFpVKICjjRVILP8i8++a8aLggKsSR+8OVAmzVyQFnZYwvMmM7/XgH2JKF9kLGbAY7C4e9ELLEwC44+MSMmFwBBfmAb4ppYrwPNpjtPzZRAl/8Bl0kA5KAj+yyfIsI9HU82MpZ57NnvTEqTYe3yFKJyWG3UZoRugzDj34MTD5n6XZ0+qzusH4T06xQSSDm89EwTeUA++zseBF3/v6H3yn4Za6/Bsb72o38LLtRXTibfkhDcBKqMQpnEZQpbOrkjI/jGNkF8d1KoCJcFk9N1V4pUnE433EPQSA+utBRshnwr03d3994B+y95QQCIDVgt1mEyjU889TqANYH8WZdUrJ9SqiurKm3j8vE8eJr4u0vb66lPYpTLyIRDs4DPxrKLBEskkXjb+1H8tjKNigsGUHWEkk0sVZEBb0SGVy4E/lsJBeQ8phC6ZyAwspJ/SuEN+usPNr4Cq1WV0GqoPuLSaaSjMmfhp/8vQmzNIRyQeMxTVx0uz5Yn9C/HNBo5QXboAEirHlUZmZpSRH9pEeoez1ntx0yjLlvLD68mWFPKtrxER/lfu7Gwmg30cSLp3Bf3tg9QPCA1kXO45OTfk9qsEmkL41j5a6SXCskuhhY8M5Lj9qiCRQG4c0GS/wTGu63W6geXgdtRvOwSZtot9zU1moBBrqcK9v/ty3YIPqicBiIREBlo3lQb3agDT/jMWiAFMO/KmUxAjVv+YlW4zAUt+PvYC2d1rUTYeWwrfXktLGqs/2EmYD+lcHwOqbxn7++tJyTuotxMD7jse1hrqS27SyqB9QAh6XseCpGsoMDZJYu8f7nLvLgT32KyRHvdWANKieQm39hISGUcmmXWEP3MO7TXus02mjROS8WV3bEhq0bYEizAofkDT9zD9OL+3sMZB579nPYhhmT1KasQMGSP1/d3eD5wWnBCL70vYP3ER4JgFXgvXt6AT3Jw8MLsgo+2WomnRIcV6REEqslvmy9xtSsH4ZKbE4HgKrfou0eHK7cKCIIuOZ3VmVakOOl3r/+yXd82wrF/gjbLJhG4uqng5SUqSpCv/Gfqx+YEk4DyEQngXZmHIeTFBmCivfiqfBhxXvrB02TGrZUpD8Xd/nbHaLEz90GwtARX5DQsN68eexEovAYsMlboQEkkzXEa6xamqYbeYHijvWMQmneiggUJXgZw8q7t8dWpAFmV9iafgqcJBy2mCuwKZibA1qI55ImURUKcOeEU9OpNZHF9XoY7+MsrVEHQ6ID8/JyL42rBIj0WIEtEFZaVbhcP0VvQiHc638EssCKxKOY7xLctJkupUsKhmgVMKSQeSAwifFOAa+y6NqUPIBuSscG9Hx1cl3IS3T+a0+G4sSi6qwB8kbAOuRmbWpTI/O/lS/tBJTSX9SeQExucf4WJABcFbCxoLxbE+F/tPrVMMZ+eWHgXOeYukW8fux6miFx84XBqyOMGnN+AzLGJFBGnDeX2ZlRtzVA5Y4ZSXy+DjRj8Aqlz4LsHCEfKXRDgfWoCPXD6wI3oOZhwGwXmmJ+h/zfGDRG36C8AptrO8ZWIHEehNA2Yc+H1i0sQgsEvFYEHfY9WiIaaL3fZrEYqCanVwDVTjRJM/yS5MACwS84z1zfX06ElizHKHe62nAur25RFu8r5I6RokVqMLZr8QT7zghsE5Ro716KCGloYFvHuSeGRN8fMBPA9Y18ibPTvcEWCEG6gPj/Yk4mPnHJgUWWqRU0bLkkfpXbwGsKwTaCawIWBUBsGYOlufccDJgnZ5QYh1gAceX3H7OaEZ/9mkSi+W9CSxWKgxU4WxmfuK7+Ck6T3I3wGF5DmBVq2hILnmKr3E9AqwYG3bqGNhzsQIqswCrmxDHb+BueI31GfkMXbgnAQufZHmgy8uj7w5YFXC1Li8wLqjCAFhvCij7cA9Y9Lyvb/84MhOa3yCwLqpHToLDa7zA0yRW5fRA2Blez2nGCgPP+2us0Ihn9AOriJYlfgLd4JdoY11BFWrmzGtcw4FV3Pqpb5ziBkF6PYelzcwDYL3G6gx9ht/GCjGdBgb5U4B1fXU8Jldxlq80HliMCJyWUSD3pioukAgVewCsWS7C0+/luQSchYPaCKH21GPA4nfkVAhgfU8Si8AqH/wBZqw2RdD8AbY8CVTh0xExo08OAxYl1hq4VXOgP4+6vkdVyCSP0h6SVZsNSaKweQMBsGYElsluoxKLqpDsBgJrHpWGBy8LxLNTlInEqfCtJdbmrlcVmpWbD779hnQ2eN0jrAQorLVAYk0GiOm+5SZkOF0lJIUdGGOV4cVFVlAeTsRjfc/j4z9ReC0h6sbfz/mBFJxuiO79maAo9a5AJKRjJEI6NIvmRrTHYR3JHUegTEvSnC+c9DfOK5xy5qf4+mCGEP9NRharEmuVYb0G2alSzvHwT8nwscmvVvX0D8dHcZ14nF69BkojlorsAGSLy+gRVNxx6sejt3X1zJyfoXbpwHMCYE088dN/UbnkCqAO1GE2X0DNTpS8fkBptuUnYcAjbZ+SSw1l7VfousAVjtMPTO5AIxyHCkmIZWFe1FrFf6xXsbycx+9IWwbj4uxAEnLZo9F/BcCa0TI89zaeu0HBwFzEeRTIXVtjcsSA/JGmR4RPBEmvVaGokHf/UPI9p5nl6BHrfcn50ucy95FZ4cyztE3NbQLHEejSddTSklbCvisA1nMRMbPPe+1yJYUf4IlGF7Fwv4AgOmhjOYmjTnbNGbpcsCvFoJSY2dAcGKv007F0wWdfTqHbBfoEaQMzduJoIO0LiaotdjXrB3UArNmuxhPvZoGjaktihVI9GY0EUMiNPWj6Ly8jmT9nDYWjw338iXpUjKPM+LKZ1SIlnXKR7N9DNTiHZF573SPdX5sj8H36GRsBsGa8KM+9nSTMYk2YgMoKzOls0eTzrBk6rECap/6krvrRnqR7cWEVDE6J7+cOYsznmbWUQYHcLIr4euo3jC4Zh7Cvyk7d0f4aqwGwZrwIz7+d08IXWTht5OUxT3B785+wZxRYg7UitJmJZjmyVd0ZAtOSXi82l1eO6fnj8H/DkT5sdwI/1cLCEsp6f0IskBk4yB2kSkbc5tv+7/Bf3cnfGcqhN85W6/kvBZZOEgOjbDkiKfROhu6gLTDdAsz22zYZIre6i+4PWYGQrQEx6klkb15USrB37tFdDFVw0PSpy6xuPW7qCcM3s8QAABT7SURBVNOxzUaxS91m6KL68HnW7gJS2TB8DsVQCkWvFJKqx5C5gZuBHc3iUMUozowfos6FIJuVdZ067+i9k0Nu4bDrXXamsBMoPhaUxB6sWe7UyZgtKmZwNwssOiE3pa5V0vUXeXUZbK1T61YIo3pNDfWrTvDnFdwDSItHQoO1k+xc2OJs/cP0XBMWXOJTQy8gFpljcZTC2oZbIdmCqtmoSRnJNhpusrYXE2gHpSUlFuvfs+WJvfzAfpfAsvaJSKyTA+f47p3CZoCBF7mFBRb74OSy6GPIAm9Io9fLX4DWFv/Qyn3cODyZVdEX8a52IQ0A6ECVcgAjvPj+xbaAkdpaQEg0HjPL6JeTSa+qJPIdUvm8s+PPUowtjtMr7+91M3O6sToOX+2l81/axZ4S66F3elZOxNnjS0I1ERryUbNa2EGXVPRplmoyvsKzAibv2dz9FkSddhvgOkP+4S367txrITaqRN8r+0svaetgHCAARP63hM7zi0sF1NliJhB8WdSkjkqVpNnTsqlVtd+OHYI8Q9Dn1MGAbeYFoakK1ZHrB/m7lFgcNItXUGKxy4J0NmVbj2cWIJs9bEbf0UorXWXAiBQt1L3K5tfE020NeQlaD5FCg+Ef3qbdbKHYSA0AQ0tfGOE0xFuobKOltZEMH0V7OLQwiaJOfQK1tlhYzt+N1Y6Jz2vDhjtHA05WJowBQ6yOzMs+l5WkeUmjFNpneEYuVzTpHFWh3yWiG+SdAksDp7SxTo6/CcnfduSiYel1RH1N6Dz9WWydawPMPQAgiz497MAqYRyKEFRiHna54PL0nPxNDXhBgf6GEoahGmvYO15ze1iQpuLibVdAsEzRBZgVdzXW5gIwYLBLQTfnUKAOXk8kUrJRiuXQYVVtrIeZ2+8SWLac9O3NlbQd4b9lPjEXLE31vV8d+LTCTu1PLiAN4UXUEs0AXJQuVgJ46sVWGlQjWk5mvB5U83NUotT98mahg1NgBM40WyJS1LEPVNXKOQ4Gt7CppF6SaePUyTR/C6ZBNUdt0YSEk17StNNG1FQto6Vxy+1m9pCt+tx1Cn3543+mWl7uI/bOoz+HDZLmpAKfd/UMa0XFxbBlPQEJ9rrFwsAbGlN47LkvNMvPixRBUTUWe+NF9U0Jxn9ag1wwM2Cz9L2/T3rYn2tzTq/mV7869WygQZXK7q/SxJwpZ3JfJtBrcV8dnyK0T5XTpgqDZoPPjMqB/E4lFkO29JlEtQLfQsoX1ZrlMgf3eqkZ6KFUOZuws/6q1vtSiSVxyAnFzswkFk9LxfWPDyTWS01GcN/ZzQCa3pmjPXLL7iADtXKglg+e/JoaWOy+1Yavh8DeQMpUMokjeXC9qxnwA8tWKBQTR8JSk73K1MAiG4Cq0NpYSTTVHucInGyowbdeagZot5VQG54tXCixeEkfyCGlk546hhkACw5EiaLFhSbLBti8nhJbe+ogg8+97AwwCUNauIiN5YkoL3T1/OdPDSw2TWIsi57hdGbFJKTSMNHuhRSeP6zgG681A+zhyAYI1coJQlH3Bq2r5ZrUaLfjnhpYdHD2+VEmVcqvNZPBc/pmgFEFcZ2wfLej/tRd4TXJmmTKpgaWZK7Rj0N/D30sQvxX2NNf0+9TmWSIL/2dcazPac5GLz326e9PM4Zee/pbGUlouWsnKygAm+SaGlie29gZgMMB4mC8I6szQOd34vizHSHcoGp/3E2dg7atnHqfx4HUdVQ63m42I+iI19wT7bIJAHh74JB+X/IzzqOCiA0FdGNojuHDZAmd6v734xIwAK0hK3+rOv/CaDbQkMXyzdsg7UUH4+PaOz0XadfSmuX/NLykXn9OrW1KxfFLcwSfI9rOE5Nz/d3LJgHQqO/MAFjerYd5oKXliNPDz06q/09ZSEyEl/DpTKJLiPP1KuxrFu4R2fwv5/dWK5tTkyP0pOqASBiWfCgWmVnDuC9BIeAFOU9BTCuREpj2oifV+t/RcST6NkFffMbZ7YPvbcfrbR79ie3ZSNVEL/vg6dp+XgiSvlYttgOFAJYsCNEcjHCQ6eBtzv77WYBP1t9nHAhnDCx9nKWNDMa77MT1D2qYo8QLUUirt5Esgv4whhfS0CwVKxhsrI3g4Q7vADzpTFH6B95dn6D68S1u1JLfqRTQ3jW2f6F2C2Rsz+NUqcbwAsQqhfrf5eFG83ou+n9nv2ulshL9/KczK731mX5pLrABeCw5MF/YxU86poJAtTT8HNiM3nNt+MeGqyZ0WI1A2AyAZVvB2YE5dpW02WWvG6eVLSUXPbqs5Mt4G1RGn3rzi/ohul1iXZQcznHFmQ5dXAfMbgKDK/q1jYn+nKqCAXACy4Diuwu+04q5qhwi0ROcJm50Sh5HulKtqCToX2AmW/Bz9lje47Okja7oUnc8MiiCw+mjw9+5kkbwoRx6jr9fzXvz6Ko/5/MhbAhJ2CCZ0NGmlL2W3MeWdls7/xdBkLb59hnFQdAMMyL9oznnbH2sXxotgUegZIIfTw0s0emiOlSU6wJy8QgsZ9KlYRFar3FndZxmkQ6Pm7Czot9KFhYNs6Q47QitOzLmlOUhuEg14c+i7A8t6k6bFqkkobTBZGIh2ghXRMg/p/LDv6NkApBuQnoJKvdFMOZWG21ubSMA1uyEGuIL2abeBDSP5XxeF02jpL8PFott28CqEj4Vfx/i++Oz5D+J3UNVjENNt8MwiaphSsIo+1EDjGHcg1NjJbmoXvyu2eIJzTbV5MSi9yDeISKUF6pB1hVVKSqBfaadcV7x3Y8f/wUsN8w++kLzTyl+yQQLGZ+qewKRySKcL/7cbsxxNuxz8DU1sNydSOlEaiwWJZlckK7y0XhCDMk2mJRsM1u/uzEx2g+YlcT8gllYTJsb0GmoepaXUmBrIjEABfDv6vhcLG6W4GyNRecx0Q2ksp/DdGjKu7EIRhP3TMwlcZ+MmUvGTQuLUQMN+L52i/soB2kBY2BeINmbjUYDRT6WRbpUkVGTmIubuYUs2u/eoZ4U2sM5QAxH0WoXJLvFJB29YXMHTnkd6V3ybAIllpD+zolEwgFbz9zf4TN3KHbGEthcfpD2FvE+dZQTaoHYl0rlAKYY7lWXhueikqVlMDaFEB/t5iQce+C1JzAfeYApbhrtFu5/ifHfCCg4n03MH4mHC0iumMM7kl3C5/D9tz/8Q2q8731h1s69mV9OozPtksxrq1VTiYx1YoN2Ss1rJNu+RCOs2QHLaQLO3b1S2MIL6cBFVVGCAXDnpNKCqsvdml/ZNMuZVSGukT0ZwUSp6O+iOGsFIFhEZ1WWutYd1QQH6ejoL5FG7VYY3eBz0mc5HJ2TNm6688JQayjhKLyvnsmCg5SDzXHLLl34N6m+tVrF7O3/hYD5jsmk1s3VxQmqDJdEojHOmVspYFMgSdU5GVKdNRHqOC5/FXCS+57Pa06fqFZIHW6oq4szU6kcyCZiMZEC7k9AU/Jxo+kJpYcNUkWa2KFIIR7xVY3pryldCJS19Q1J75LejABTF3N3iWrITDETdQ3plUHOYya74swxVXzH3N3dydj5Lodf/zRdMFRX1j9gLrOY+318vywbKBxOmq3dDwBu0hzu/RudZWmLfXc2lhWQzsBgwCwsL8nOq6MVLlViOp0x+eyOadTvTan0vzL52dyuLCLDCRUsShO7e2lp2aQISEwwwcDU9ViyZ3KpDSHVnZSROIA2I4xHrhU/AYxJc4EEDX6W0mt1pYjSPiFTkjqcN2B7riGzZUuotwTKbe0a/52ZG3yeiai57Kq5REbNOcBIXnlxfRf3SZkqpONl9RiYAkiWdwF8VvDbk7EmQRuOx+cgoRqyWWJLqP63+oHKUvoEUjIvLGUlvEXGx81NBWPG+CDhstmcuAXKpUORcBHcH8pcTngqtZJmG2WJyAo9ARBqdxcmTqDlP0odrmO8P99hGfdf29iFBOphI+0BwHdmHuNiJk40jmwijFNUYffO5As/AegZ1H7HhrtCJRqofNb/2tr+ZOKxBVQA/E16Y9sD13PU3WOfnVpiSeU465bBDpaQNJIPYpAkUWzJCLJH7ptt1EH4ID8r7f2vvEh2VdORmItHaQANJC/K/nu0xw7Qib2NCRPJA6mTxu68qpwiK+UraLY7kgl8cXFurrAAEXS1Z0f6ZSxcfnUb1YxPzTGAkEOX+wLrGwBYUvQVi0xVQNCzmkwut2UuLlG++mhPayFs/oQG3lroo9NtYPpBUMTsceG7iHVIljQ2SgQgjEIdCukPGyIFCZbGhjg/+YZibOeQ1lmzDpC2sLH4HmrrRAHcT1CRGckBvEEOQAjSjmn5zASiyMqk1jAvW+YSGT6sfkyV3ujEsbHySOYoovx3GdWay7j3j3hGypxjnFIhGeYFbdcFSPm1jR/wrKbZ/+sv/KyOPtWQWNjYp0imvb1EzVRQw7uhpNlwqkJzPSiJrZ313QBLxbiNC3IRMBFIM1qAjcGXUOooxLlTXfgYbXFraNaYR/2pdBrggIhnXfKweCEj5sOP/xI/zLcv/4bmaEoqVWZtV9LKL5BAwB26Dt7XUrogzcGpjkQrOb4wdou/vUUBsvK+yWFCc1ioOlQEiWwRdmuF5NLMYAdYiJFdEqxYuHR+B+NhjSly8wEkNjkSFUt/EBQMpHE2zTQqcN6lWAjfj0F4GNZQXRV0hKhAAqYwNqrC+t2tOS2hUAcMfAJLMn2gws/P90W1RcCXt6dVAndlZUs2B+3FsHOa7ITZ0DIpaWD3SCcrYxNs7vxswshzPNr/N8BbV1XKEyPU9odP/09cJ/uf/8DQCCyAOZ2DxDpCRg+kML1b2IhFVCxkA82j/d9EZfsTN2YBrqkllh2EnngMslhWpRpeDYY6c+u6rSYmZQGqr2ASMMhLaIRdgzjPr1FibULqoF46it7TDRmDatvcxXEZdhRFOY3PXjtksmsoggaO+RWkwSmyqQurH7EAK1ALlwBRTXw+VDFC3WVyORiRd0i5SmOn5wvbatdAYjGBVNr0OhIrk9kAqE+gTr9BjayZ1MqOSNDK2Rex2SKdGCDB4z0kAsCYnJ8HqH+VDJuLShm2Xl1aDGeg0hdwGKEdcwGpury8BjtpV97zHOqrh5NbByqogA2yCDVGYFWh/l2vv5PYurKyLdKFRnijpgVqQ6E6TqmUsjTL9Odr2/8Q1c9NyoOOSBtRqVGz8/GfeEdIrK9+YEGaHpch8UtIvKU1hkafuz9BQ8wLsKhBZt1hYybAEokh/h1jVqGKRPSeHsKYPZPF5Mlue+cT/oybQ9QYUFW4ZnIZBVYFkogSK4qdxJqa/LsrseCwyUDq0FClgUw1Qkm3AtuphtKIx5BETKfi6Soem5MjdBOnH+7A1BLa1SJ7+Kp6gQU/gGpoys/buKdtZctODlVUwZtbWESl5J8EnMc4JNRxWIBzArZXFCodJzosIFPtVwofJUGU7XHpqghFF0xhY0sSLAjeK2ymucWc2QD/v1a7MWeoACPuASy9BdYJ1PQVet6w5zRtuy6O/vegrMwnc1BlH8Vm5EGl072H4o7JCZkLz8o2IR58Vj+JZLtBTuEpiq2pxoiYPDZvKrvh2lj0Y62ufMAhKSv3ZKluuhzmoE0KMOpNLyY2Fo3+/qqE08usmQCL+4XAYn2BdGoVL14QcX55iQ6kuNLpNE54SbF1ykd/4kVwuspvYCLWAJYSxDR60jCTFwu58+n/CEL3aZtgYjuo+5Rb+QGe8lWREpUK1RQMdagVnnbu7q8kIZRyKAXbhsA5Ov5LFjWf/YjT5xrqnl9I6hmNcS4AHaRZ1DLI4vkXUIUXABalw8oaK+SlMfaGGNxUdYs49segQg/3P8u9i5swrnFVYSP18I6UYgso0sbvn+O0xzGmcBrlwnHBTkqQHJBYVPMra9uSl3h6Rol1isMFJCpqQ9xBupcBJEpdjoF22B3Gfw17j/7NDOw/PruE5putBupCQLKv4f5xHAjqtXscGGow3qEuE3FxdXQA1MO9P2B33kGSplGoFyDC3N5j3kMYSywJN5AkZJDg94erCgcjBcNCdE+F3NTAsvVW9IF0jkaQGJmX0x1VCLk+tzwVzc3jpSNysruvN7Gz2Pw6Dx4QmgpBstGI5eJQRHOCD/Y+i4Rh7YJUahP2B4AF+4UGLA1wOgMJDgJBO8ZDFcK/c3V5Yq5uSyJ5UosAb2FNjPYK6rKHkSpFk0/UF0DFHEGW/rmEJOTVhXtkhWoNO5oLxOM/1R59PTdQkZQsS3ivFKQFF1dOrygVSUcrfUpsjkRVOo+KMMWNHYD7DlLiq7hRaAPlcWpdhr1zjhPaJQ4emUxO8v3u4Ac7Owa4SfHGq+TgillagB0n9bbg4sUB4RpNAa4gKelCoD3JbKglfH8JkpYboImDzvn5udiulPglbIQ2PhvBaXoJG245m5WTtZzCKxVUrVmAhEygWBuSKLBBxE6zTuGnoueRz00NLH8Yg8BowqFHsUq1xhBDGxKn04KdAuOW4Z0wgEIAwFOq8TyID40pkg4LCwnfo0gRYixUjfKuVSKKZHS82y1IP55Ik5gcPodqmP6YFk44EbgHJN5HZyUmswdAUF3a0AkfH0EMh2Pi+GjTKSOBtgwcALgfgcPweRdeeRawZdSAK+qeCmE8t3GjdodOxyTGpx5yIpfOUKkuRLCS58RFo6cdG412ECWxvDtOz6wYKD4xzBFVZhcHng7sSp6Q6TqghGnAQO/CRcPLVg7kOEjK4zzzXowecAgRSixsqihDUvh5FxPYwkh4klUHNmzhNqysOO1GzrG+k71m5c+aCbCEGSBJk4J73f041YgojbKFrIZUhPfDU5ywC2wtTyy87BSCRo1cgo0TKGsl0ghTw1R92BsCL6IMLgCmcBCsnS79MApURvVNh6EdAqHhnuqi4sh04pQM5LoOQd4fx208n0d2m52NpeJbaFiG9xaWLD+D/+QdNO4orAx+jyOVrqaa5xcCuIWagwWWYmwYu2UsRHDSE2pOD24SvDPvoXE8jQHyBMruXQI4hIN6lOZy8mW8le+AAwqlIBGLZ/NPetuFicHQEe7N1HvBC0NR3LAEPS7GDvl7eRe+gwD+YT2HaYXWDIA17RDe0/d9AeL3NOw3GGsArDeY9L/DIwNg/R1W+Q3eMQDW2Ekf4Fj1ff6x34298X/1BwJgjV3eAFhjp2jIBwJgTTJrwXfGzsD/B0VOBc6a8+mDAAAAAElFTkSuQmCC" title="" width="173"/&gt;
+    &lt;/div&gt;
+    &lt;div class="media-body"&gt;
+     &lt;h3&gt;
+  </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/about/strategic-plan/2019/team</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>txt-5429101</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>txt-5429101</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+.html-embed-wrapper .col-lg-1, .html-embed-wrapper .col-lg-10, .html-embed-wrapper .col-lg-11, .html-embed-wrapper .col-lg-12, .html-embed-wrapper .col-lg-2, .html-embed-wrapper .col-lg-3, .html-embed-wrapper .col-lg-4, .html-embed-wrapper .col-lg-5, .html-embed-wrapper .col-lg-6, .html-embed-wrapper .col-lg-7, .html-embed-wrapper .col-lg-8, .html-embed-wrapper .col-lg-9, .html-embed-wrapper .col-md-1, .html-embed-wrapper .col-md-10, .html-embed-wrapper .col-md-11, .html-embed-wrapper .col-md-12, .html-embed-wrapper .col-md-2, .html-embed-wrapper .col-md-3, .html-embed-wrapper .col-md-4, .html-embed-wrapper .col-md-5, .html-embed-wrapper .col-md-6, .html-embed-wrapper .col-md-7, .html-embed-wrapper .col-md-8, .html-embed-wrapper .col-md-9, .html-embed-wrapper .col-sm-1, .html-embed-wrapper .col-sm-10, .html-embed-wrapper .col-sm-11, .html-embed-wrapper .col-sm-12, .html-embed-wrapper .col-sm-2, .html-embed-wrapper .col-sm-3, .html-embed-wrapper .col-sm-4, .html-embed-wrapper .col-sm-5, .html-embed-wrapper .col-sm-6, .html-embed-wrapper .col-sm-7, .html-embed-wrapper .col-sm-8, .html-embed-wrapper .col-sm-9, .html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {position: relative;
+min-height: 1px;
+padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {float: left}
+.html-embed-wrapper .col-xs-12 {width: 100%}
+.html-embed-wrapper .media {margin-top: 15px}
+.html-embed-wrapper .media:first-child {margin-top: 0}
+.html-embed-wrapper .media, .html-embed-wrapper .media-body {zoom: 1;
+overflow: hidden}
+.html-embed-wrapper .media, .html-embed-wrapper .media-body {zoom: 1;
+overflow: hidden}
+.html-embed-wrapper .media-body {width: 10000px}
+.html-embed-wrapper .media-body {width: 10000px}
+.html-embed-wrapper .media-object {display: block}
+.html-embed-wrapper .media-object.img-thumbnail {max-width: none}
+.html-embed-wrapper .media-right, .html-embed-wrapper .media &gt; .pull-right {padding-left: 10px}
+.html-embed-wrapper .media-left, .html-embed-wrapper .media &gt; .pull-left {padding-right: 10px}
+.html-embed-wrapper .media-left, .html-embed-wrapper .media &gt; .pull-left {padding-right: 10px}
+.html-embed-wrapper .media-body, .html-embed-wrapper .media-left, .html-embed-wrapper .media-right {display: table-cell;
+vertical-align: top}
+.html-embed-wrapper .media-body, .html-embed-wrapper .media-left, .html-embed-wrapper .media-right {display: table-cell;
+vertical-align: top}
+.html-embed-wrapper .media-middle {vertical-align: middle}
+.html-embed-wrapper .media-bottom {vertical-align: bottom}
+.html-embed-wrapper .media-heading {margin-top: 0;
+margin-bottom: 5px}
+.html-embed-wrapper .media-list {padding-left: 0;
+list-style: none}
+.html-embed-wrapper .pull-left {float: left !important}
+.html-embed-wrapper address.pull-left + address, .html-embed-wrapper address.pull-left + blockquote, .html-embed-wrapper address.pull-left + dl, .html-embed-wrapper address.pull-left + figure, .html-embed-wrapper address.pull-left + ol, .html-embed-wrapper address.pull-left + p, .html-embed-wrapper address.pull-left + pre, .html-embed-wrapper address.pull-left + ul, .html-embed-wrapper address.pull-right + address, .html-embed-wrapper address.pull-right + blockquote, .html-embed-wrapper address.pull-right + dl, .html-embed-wrapper address.pull-right + figure, .html-embed-wrapper address.pull-right + ol, .html-embed-wrapper address.pull-right + p, .html-embed-wrapper address.pull-right + pre, .html-embed-wrapper address.pull-right + ul, .html-embed-wrapper blockquote.pull-left + address, .html-embed-wrapper blockquote.pull-left + blockquote, .html-embed-wrapper blockquote.pull-left + dl, .html-embed-wrapper blockquote.pull-left + figure, .html-embed-wrapper blockquote.pull-left + ol, .html-embed-wrapper blockquote.pull-left + p, .html-embed-wrapper blockquote.pull-left + pre, .html-embed-wrapper blockquote.pull-left + ul, .html-embed-wrapper blockquote.pull-right + address, .html-embed-wrapper blockquote.pull-right + blockquote, .html-embed-wrapper blockquote.pull-right + dl, .html-embed-wrapper blockquote.pull-right + figure, .html-embed-wrapper blockquote.pull-right + ol, .html-embed-wrapper blockquote.pull-right + p, .html-embed-wrapper blockquote.pull-right + pre, .html-embed-wrapper blockquote.pull-right + ul, .html-embed-wrapper figcaption.pull-left + address, .html-embed-wrapper figcaption.pull-left + blockquote, .html-embed-wrapper figcaption.pull-left + dl, .html-embed-wrapper figcaption.pull-left + figure, .html-embed-wrapper figcaption.pull-left + ol, .html-embed-wrapper figcaption.pull-left + p, .html-embed-wrapper figcaption.pull-left + pre, .html-embed-wrapper figcaption.pull-left + ul, .html-embed-wrapper figcaption.pull-right + address, .html-embed-wrapper figcaption.pull-right + blockquote, .html-embed-wrapper figcaption.pull-right + dl, .html-embed-wrapper figcaption.pull-right + figure, .html-embed-wrapper figcaption.pull-right + ol, .html-embed-wrapper figcaption.pull-right + p, .html-embed-wrapper figcaption.pull-right + pre, .html-embed-wrapper figcaption.pull-right + ul, .html-embed-wrapper figure.pull-left + address, .html-embed-wrapper figure.pull-left + blockquote, .html-embed-wrapper figure.pull-left + dl, .html-embed-wrapper figure.pull-left + figure, .html-embed-wrapper figure.pull-left + ol, .html-embed-wrapper figure.pull-left + p, .html-embed-wrapper figure.pull-left + pre, .html-embed-wrapper figure.pull-left + ul, .html-embed-wrapper figure.pull-right + address, .html-embed-wrapper figure.pull-right + blockquote, .html-embed-wrapper figure.pull-right + dl, .html-embed-wrapper figure.pull-right + figure, .html-embed-wrapper figure.pull-right + ol, .html-embed-wrapper figure.pull-right + p, .html-embed-wrapper figure.pull-right + pre, .html-embed-wrapper figure.pull-right + ul, .html-embed-wrapper p.pull-left + address, .html-embed-wrapper p.pull-left + blockquote, .html-embed-wrapper p.pull-left + dl, .html-embed-wrapper p.pull-left + figure, .html-embed-wrapper p.pull-left + ol, .html-embed-wrapper p.pull-left + p, .html-embed-wrapper p.pull-left + pre, .html-embed-wrapper p.pull-left + ul, .html-embed-wrapper p.pull-right + address, .html-embed-wrapper p.pull-right + blockquote, .html-embed-wrapper p.pull-right + dl, .html-embed-wrapper p.pull-right + figure, .html-embed-wrapper p.pull-right + ol, .html-embed-wrapper p.pull-right + p, .html-embed-wrapper p.pull-right + pre, .html-embed-wrapper p.pull-right + ul, .html-embed-wrapper q.pull-left + address, .html-embed-wrapper q.pull-left + blockquote, .html-embed-wrapper q.pull-left + dl, .html-embed-wrapper q.pull-left + figure, .html-embed-wrapper q.pull-left + ol, .html-embed-wrapper q.pull-left + p, .html-embed-wrapper q.pull-left + pre, .html-embed-wrapper q.pull-left + ul, .html-embed-wrapper q.pull-right + address, .html-embed-wrapper q.pull-right + blockquote, .html-embed-wrapper q.pull-right + dl, .html-embed-wrapper q.pull-right + figure, .html-embed-wrapper q.pull-right + ol, .html-embed-wrapper q.pull-right + p, .html-embed-wrapper q.pull-right + pre, .html-embed-wrapper q.pull-right + ul {margin-top: 0}
+.html-embed-wrapper img.pull-left {margin: 0 15px 15px 0}
+.html-embed-wrapper .text-block aside.full-width blockquote, .html-embed-wrapper .text-block aside.pull-left blockquote, .html-embed-wrapper .text-block aside.pull-right blockquote {margin: 25px 0 15px}
+.html-embed-wrapper .text-block aside.full-width blockquote + cite, .html-embed-wrapper .text-block aside.pull-left blockquote + cite, .html-embed-wrapper .text-block aside.pull-right blockquote + cite {margin-bottom: 25px}
+@media (min-width: 768px) {
+.html-embed-wrapper .text-block aside.pull-left, .html-embed-wrapper .text-block figure.pull-left {width: 46%;
+margin-right: 4%;
+margin-left: 0;
+padding-top: 0.7rem}
+.html-embed-wrapper .text-block aside.pull-left + h2, .html-embed-wrapper .text-block aside.pull-left + p, .html-embed-wrapper .text-block figure.pull-left + h2, .html-embed-wrapper .text-block figure.pull-left + p {margin-top: 0}
+.html-embed-wrapper .text-block aside.pull-left.one-third, .html-embed-wrapper .text-block figure.pull-left.one-third {width: 29%;
+margin-right: 4%}
+}
+.html-embed-wrapper ol.subtle-collapsible-list.col-xs-12, .html-embed-wrapper ul.subtle-collapsible-list.col-xs-12 {padding: 0 15px 0 0}
+.html-embed-wrapper .profile-block .pull-left img {border-radius: 50%}
+.html-embed-wrapper .profile-block .media-body {display: -ms-flexbox;
+display: flex;
+width: auto;
+-ms-flex-direction: column;
+flex-direction: column;
+width: 100%}
+.html-embed-wrapper .profile-block .media-body {display: -ms-flexbox;
+display: flex;
+width: auto;
+-ms-flex-direction: column;
+flex-direction: column;
+width: 100%}
+.html-embed-wrapper .profile-block .media-body h2 {color: #1a1c21;
+font-family: "GT Walsheim", Arial, sans-serif;
+font-size: 24px;
+margin-bottom: 5px;
+line-height: 3.5rem}
+.html-embed-wrapper .profile-block .media-body h2 {color: #1a1c21;
+font-family: "GT Walsheim", Arial, sans-serif;
+font-size: 24px;
+margin-bottom: 5px;
+line-height: 3.5rem}
+.html-embed-wrapper .profile-block .media-body span a {text-decoration: underline;
+font-weight: 700;
+line-height: 1}
+.html-embed-wrapper .profile-block .media-body span a {text-decoration: underline;
+font-weight: 700;
+line-height: 1}
+.html-embed-wrapper .profile-block .media-body address {line-height: 1.4em;
+font-size: 0.9em;
+margin-bottom: 5px;
+margin-top: 15px;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body address {line-height: 1.4em;
+font-size: 0.9em;
+margin-bottom: 5px;
+margin-top: 15px;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body address strong {margin-bottom: 10px;
+font-weight: 400}
+.html-embed-wrapper .profile-block .media-body address strong {margin-bottom: 10px;
+font-weight: 400}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-family: Arial, Helvetica, sans-serif;
+background-image: none !important;
+text-transform: uppercase;
+padding: 12px 24px;
+line-height: 1em;
+height: auto;
+border-radius: 25px;
+letter-spacing: 1px;
+font-size: 12px;
+background-color: #1a1c21 !important}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-family: Arial, Helvetica, sans-serif;
+background-image: none !important;
+text-transform: uppercase;
+padding: 12px 24px;
+line-height: 1em;
+height: auto;
+border-radius: 25px;
+letter-spacing: 1px;
+font-size: 12px;
+background-color: #1a1c21 !important}
+.html-embed-wrapper .profile-block .media-body .content {width: 100%;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .content {width: 100%;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .contact {font-family: Arial, Helvetica, sans-serif;
+width: 100%;
+display: -ms-flexbox;
+display: flex;
+-ms-flex-direction: column;
+flex-direction: column;
+-ms-flex-pack: center;
+justify-content: center}
+.html-embed-wrapper .profile-block .media-body .contact {font-family: Arial, Helvetica, sans-serif;
+width: 100%;
+display: -ms-flexbox;
+display: flex;
+-ms-flex-direction: column;
+flex-direction: column;
+-ms-flex-pack: center;
+justify-content: center}
+.html-embed-wrapper .profile-block .media-body .contact a {font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .contact a {font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .contact i.fa-envelope, .html-embed-wrapper .profile-block .media-body .contact i.fa-phone {color: #005099 !important}
+.html-embed-wrapper .profile-block .media-body .contact i.fa-envelope, .html-embed-wrapper .profile-block .media-body .contact i.fa-phone {color: #005099 !important}
+@media (min-width: 992px) {
+.html-embed-wrapper .profile-block .media-body {-ms-flex-direction: initial;
+flex-direction: initial;
+padding-left: 12px}
+.html-embed-wrapper .profile-block .media-body {-ms-flex-direction: initial;
+flex-direction: initial;
+padding-left: 12px}
+.html-embed-wrapper .profile-block .media-body h2 {font-size: 42px}
+.html-embed-wrapper .profile-block .media-body h2 {font-size: 42px}
+.html-embed-wrapper .profile-block .media-body span {font-size: 16px}
+.html-embed-wrapper .profile-block .media-body span {font-size: 16px}
+.html-embed-wrapper .profile-block .media-body address {margin-bottom: 0}
+.html-embed-wrapper .profile-block .media-body address {margin-bottom: 0}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-size: 13px;
+padding: 12px 24px}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-size: 13px;
+padding: 12px 24px}
+.html-embed-wrapper .profile-block .media-body .content {width: 61%}
+.html-embed-wrapper .profile-block .media-body .content {width: 61%}
+.html-embed-wrapper .profile-block .media-body .contact {width: 39%;
+border-left: 1px solid #707070;
+margin-left: 20px;
+padding-left: 20px}
+.html-embed-wrapper .profile-block .media-body .contact {width: 39%;
+border-left: 1px solid #707070;
+margin-left: 20px;
+padding-left: 20px}
+}
+&lt;/style&gt;&lt;section class="text-block clearfix" data-element="2016 Text Block" id="txt-5429101"&gt;
+ &lt;div class="col-xs-12"&gt;
+  &lt;div class="media"&gt;
+   &lt;div class="pull-left"&gt;
+    &lt;img alt="Wendy Boland" height="175px" src="https://www.american.edu/uploads/profiles/large/Boland_Wendy_01.jpg" title="Wendy Boland" width="175px"/&gt;
+   &lt;/div&gt;
+   &lt;div class="media-body"&gt;
+    &lt;h3&gt;
+     Wendy Boland
+     &lt;small&gt;
+      Dean of Graduate and Professional Studies
+     &lt;/small&gt;
+    &lt;/h3&gt;
+    &lt;p&gt;
+     &lt;em&gt;
+      Imperative 5: Lifelong Learning
+     &lt;/em&gt;
+    &lt;/p&gt;
+    &lt;p&gt;
+     &lt;strong&gt;
+      &lt;a href="https://www.american.edu/kogod/faculty/boland"&gt;
+       Wendy's Profile
+      &lt;/a&gt;
+     &lt;/strong&gt;
+    &lt;/p&gt;
+   &lt;/div&gt;
+   &lt;hr/&gt;
+   &lt;div class="media"&gt;
+    &lt;div class="pull-left"&gt;
+     &lt;img alt="Amanda Taylor" height="175px" src="https://www.american.edu/uploads/profiles/large/SIS%20Amanda%20Taylor_1.jpg" title="Amanda Taylor" width="175px"/&gt;
+    &lt;/div&gt;
+    &lt;div class="media-body"&gt;
+     &lt;h3&gt;
+      Amanda Taylor
+      &lt;small&gt;
+       Assistant Vice President, Diversity, Equity, and Inclusion
+      &lt;/small&gt;
+     &lt;/h3&gt;
+     &lt;p&gt;
+      &lt;em&gt;
+       Imperative 6: Inclusive Excellence
+      &lt;/em&gt;
+     &lt;/p&gt;
+     &lt;p&gt;
+      &lt;strong&gt;
+       &lt;a href="https://www.american.edu/profiles/staff/ataylor"&gt;
+        Amanda's Profile
+       &lt;/a&gt;
+      &lt;/strong&gt;
+     &lt;/p&gt;
+    &lt;/div&gt;
+    &lt;hr/&gt;
+    &lt;div class="media"&gt;
+     &lt;div class="pull-left"&gt;
+      &lt;img height="173" src="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAJYAAACWCAYAAAA8AXHiAAAgAElEQVR4Xu19Z1sjSdJtygsrC0L47h67e+9z9///iPfbO7tj2mCEcAJhhJC/50RUVpWEhEAS0OxU7TPb3SBVZWWejIiMOBER+vLH//RMcAUzMOMZCAXAmvGMBreTGQiAFQDhRWYgANaLTGtw0wBYAQZeZAYCYL3ItAY3DYAVYOBFZiAA1otMa3DT6YEVapteL2RCJoI/eyYSCsmfcuT0/T2Y6u9zBmSNurpW3ZCOEX81PdPB/4UnHvTUwOqZlgmHoxgcBtbtygBDYQWW/ffEowu++CozIEIBQAqHw7KO9qJ8IMgmuaYHFp7OAXW7PROLJ10pRYAF1/c/A91e20QiEdNo3JlwqAdgUfNYQHENJwvMTA0sK5mALlNc2zHziymZTasOpxGn3/+yvP8RUrt0Ok1TPvpqmgAX1ysUogqcDFB2RqYGFgdGlQe5ZdY3Ppm5eQVWcL2TGRD8dMzh/p+m2byFrRx1Bv7GwCK2OzT0QhFTXP8YAOud4KlvmL2OKe3/btrNuulCQGAxHYn1hqowgoG0YcBTYhFY8wvp9zi1f+sx97pNc3Twl2lBFYYgIHAEe3tgqcRqicRaK35ygdXDLuAgg+v7ngExYuBvILCa9zV1O7hDfkOJZVXhSBsLAOOZlca8nBMdsMEyw78n95O83nJxmnEMx//LCSoE1wrfxTn1qnVp7RHvffyfeb2xPv4kHRPH2j/v3W7blEVi3ZqerM/kgLIjmNp4HwssLggmnuK202o7opbSDP4unECmMxFffslCIaj5LscZNolE4uGi4AV63Y5pd+7xCWwggZn6hIBE+fdbXiGMhYercCRuotG4uyH8Y3qnwFLBenNTMaflI/hKuBussH3bSX/KgofCbSxM1Cyl8iaXXxVnMC+r6ikFGvd3plz6Alh18HMe1ymhIanfGFQcZxcWMN0Hmey6SaXzCnj3Umn8LoGlCxAytesKfCV7JhbxHKe0wXQBvt+L9mPPJJyDydJDsFBiQUUelf409/Vr+LAjjlRgFCL25u/Xhv3URcgtt7JusgBX//WOgWVf5Prq3Jyf7LuiGO8KVTi9Ln9pSHZ7TZNMZs3G1q5jH0LVPbCxQubq6sSc4f3CDrDo36MKndbROO37QR6ZVqdnMitFk8tt9N3Ovse7lFiDwOK/KZoFU7BBvvfQTwcSNYsFyebWXBUuQXfXeIc9BTC1W3emdPgZdmTLF9Z6e1VP8PAdhkssXZ13CiyIW9gdt9fn5hQ7muwHCmDLhPCOttPuzZf5fihC/9wnk0guunZVv42CN0B8DWd2c4KwyF3tWiwr+45vv3Fg+QFYGWyM/zKJpXqcqvDs9MAxZ3XH98jX+M6v+cUFU1j7hJ1A8OhgvSAtz7ukl9CgD5n6XRW21hfZPPx3D0d7Od2/8dXGqTWbf6gK7bDer8SywDrew7GXK/P2KsJba3uY6OeQhcJ6TM8XfjHLy8sOoDzVPcxPxZ/t7//HtO6vhDEQ7sbAcXp7ZAXAepOd3X+AoCTtdPQkG4vFzMbOP5Wn5BjsfkANA9flZdlUzg5NFMAKdWA6B8CabFXHO0h9qvA7lFiD4BC2BrQbR51Jr5jc6oYyZG30wPfn4IzxXq0mjfi/cCIEAZKuiO8grBVIrMmwPYNv+Wy+EENNEdMBk3J765OJzc27wBIPtutgdEI9PteD2F8Ij5ydHJob+O2oTiH3ZjC+6W4RAGu6+Zv422qMq0okGDrwP80ll01xYxcGO2QyfSOOo9fGOlWmPbQVKbXualVzXP4GUMH1EABrsnV576pQ39oz4KkK23AorhQ2TSq1IrE+/rZxf2taraZZXMo69tbDYK57yuo0zNEhGJlCnHt7hkcgsSbD9sy+RWnD/6KxpFnf3AWHf8EF0cXZkanXa2Zj+0dHUsHVMGB7uQOBdLusHJsL/Ncfm5vZUJ91owBYz5qul/kwk0KWUzlILMTVJNZHC5wMyz9No3VvtrZ/MfHE3BBnqY7HUlNa4DYdHnwW9frWVwCsN1oBa2NBCQoM1jd+AsVafVe0pWq1S3NS2he/FhkOmTxjbuqCEEXqZiR5Dl86TkulQ9O4vVCKUN9pUlUvHcSv4ZkPgPVGwGLsUhJCsNDxZNJsbv0MI94mFRhzcvLVXFfPxNZKzi0CeD/C0avSbDgwCLCuubq+MhcIYz0EYL9T9qVfOwDWS8/wmPt3AJQVSKNUpsD4uBwIW62GORS/FPngiHN2NGlkfmFcNhKYUO22Ke39R/4Mh/15lgGwxi71ez8VqrQCQY+sT7Ast7Z/AtMSNhRdDwBS9fJUYpzRGH7SIbcpYpaWVxE/9BynwyZJpVTXXMALX72sCLDequRAILHGwvglPkBiHqQLkjbpXlgpbLu8fKrH8uGfpnZ3Y+JR5brTNUE1WNzYMbHoPNxaj8c9Sf4rHXzF1zoITnt22Uu8yah7BsB6zdl2nhWGy6DLgDP+XCt+MAvI5LZuhPr9jTna+0P4YzZeyK8JRwtsgWyGJ0e90Sh7iwzZw8MvkqggnHix91/3pBgA6y2AhWe2QS1OwtNeKO5C5dEop9rqmdPzA3N9fgZQkUKtJzipUwFgxJMLZnMdPq0+22n4C1xcHJmL87JILCE5unSh12HQBsB6E2BBDQJY2ew2yHBFSC6NB3Y6LbN/8G9Y7zwtMuajjAdSfnpQnV141DdwOpybW3h01KT0t9q3UhuBNpqq00BijV3q92e895/IepKFA+kDTnsyGcfCR0HO65na7TnAAMarY0NZw9u6DvhnNpsFl3zHVZ3DJ0sZtGcnB+aqeiI8Le8KJNZIgH3/wPIWz7ODlL0q3CvTNEvzRVNYp9EOSQQcsJwP07lqd8i6kcor/TaUDf0oX+tXkXD+rO9+zhYZDhE4WRmYZooY2ROzKbwxdtc7HwhU4VNn6lmf8yTUIEmPt6G9VCzAaF9GcNlRUZZTRZVF9eV3gvqdnfx7bm3bpJZZr4IAHH1CJJ2mdPgHgtk1AJdUGnwWybCvwaYNgPUswDz1w056v88/6aU9dRFonjObCCzT024BdI6AcxVMUNGCPhr1IKj47+RiGrbWNiRgv9Tyj87GD6sISp9XSrgvK+fx8099h+k+FwBruvkb+e0+ScXkB1xC5gMFOYUkzpVVpnaptOnCaCflpQFXQ5RZ8k5MsD/W5z0KVVfN+ta2SSbAhICKGx3iCWvG9NGf4Hs18C3ac6JkX+itvdsGwHrxKeYyKrBYa5NuhPXtX0087tU0qN1WzckxSXqwjfCZniNWBo13C6AOVGU2t2KyyDTuwSv/GLAYJyqffAO79BgZ4XEn2eLlM8EDYL0AsB44LmGgU72RHrO0lDKryBn0X+XyV1n4eBQFQNoA1iOOdTHiAcAEfFrrGx8lJOS3s4Y5TQnc8tFnUbNh5CO+RrJFAKwXAJbe0qOp2EdQDRWLG2Z+qeB6z1vIYt7f/40ZgnA5wCnaSYqBPWi8W+kl/i4kTVAdFtc/IDC97J4OB0Fl/91pNxHi+QvAvheJ+BqZlQGwXgBYNitZEkjpYpCaClCDsUUY7dtI0wJ4nIuMz8vzksOfUg/5OL5UqNeCg7UL6VeA5/6DA1I/H977uwXX2Rl8WghuW1fGsNd+SLWZfHICYE0+dyO/ObhABAonOpVZNSsrZCiQxQDpRHcAJMl9/VacmNawHgcsAS6bKCBpgjwusktHJVrYQTIwTU88nWbD1KX92Wi+1/MmKgDW8+brSZ/WxdGqL5adwPgeOe3JZBo/1Uya+/qN5APS6/6cctQMYvcibdNsofBGfhv1EYriaB3l0xIHbFhLM9bBmrCceLsB/MHuJ73gEz4UAOsJk/Tcj/iBxe9ykhdB0pPULgCKxjel0unJEepLUD1Zv9fTnEwuOwL3iUeXXJ8Yn9Vfh9XmIaq2vL45NafHrGWhPK2X5GoFwHouap78ec/73oE9VChum6VFpnapFOuizOPh/hdDw1oliPUtPSOWx3AQpFdh7QOAmxGBZaWhDtOTYuR5dZEitn/wJ2LbrAKoz9MOH55dF6hClkgc2UDg+0ixl2Qb4bQnzMYmOeusJ6quh6vrMoLEKGMpDk6qQu0DRNnyHO84QUtpyOrR4v/iibIvYVXPgJaWc3ZWMtcXp0p5xvP6A9RP3jVjPxhIrLFT9PwP+A1hLh4LqGXzm6KPRKKgvmip/Jdp3F3B9CJLVJbetceeDiyVbuEo6DQAbjT2MEWMqtEeFviU+j2M+H3YdZbn5ZNWz3/T0d8IgDXL2XTv5ahB8KkonTax6LHEomNbd2G01yWE0+3qadD0nFoLzufHDUlTx/gplW7tXgOFZDeHFDnj57SelpViDO2coApgrVaTyjYv1S0tANa4VRzy+3F2SAjBXhTLlvILybmM8K5sTiAlxeXZN3NxcSF3tkZ0/2Mej+WJoieLlGk9Ts/GWCKK5/wAnxnV7eNX9fLMnJwemniMJW6or20REeXXj7/GxRrpXmmiVOSmyWSKjl+u/9QaFF4bP8sPPsGTPznt9I6vFnaQYaMUFzHaUbi29O131FhoTmzfuPaRsEvZTJI1P7tmY33XzC3kxmKjjfSyA9BpeuKJ18qA1jHrScMJXtwnsdvw0Q2rQeqxPN5lA4G3Nd6jOGm1WKsqnDRbOz+ZCLJtrI/pGrXnKzjy8xoVghm/pLTH9EQn94CPqo2T3nK6YFZXQR58wnV8/AU1Wi8Bd1sjfrzH37vtOKmG/O6gVOQTVuGZH7GF1JYzayYPBoJb4wqhmKPygbm7vnA87YPp8s98kANOVlujfIxG5mDEf4CKmx97o3r9EozVPUedzraSNJ0nbRwK0nkWt4XzdggZMVCFY5fo4QfY/4bSamPrI0h9WkSNnu9GA6ldB4fI5dIM50kdlDbkI0wH2lpkTgBYBPDqagGho60xo8an8dnD/c+oBgh2qdOt1krQEMY/zUU+GTO8s7l1bCyPd+a/ZwCsCWZYPO1LK2AfbAmo5PQGmXKDYh3VShWShR1GnQwc/tbxvD/3Ua5LVbptqNRKJGJmbe3jmFsBOKDPXFTK5vJSA+DJxBJUNik46hJ59BpTKFjfJ2IWlpZgX8JxG0is5y7t8M+3YUyT0764lHGcnk6RPhi0AjQfkU8W0lfoY9yJc/CJ6kpQYMmCMm0/pAAZfamTtglpdVT6S9LOaPgn0ffROlIf//6YCtS2p48bqvKyhALjfUKMceKiqB6ztfmD1LrSxR7ezm5y471Pqfj+8fSS4/JsuETKpW/mtnaFQ8YPEiCf1SX5sWwkDpDZJlP9IabgVDhkrr1kCZe9IMmlqCXaYXOij3BY5uV7XdKSwcVi35teu2US8UWEeBZhe0GqSBKqln9kBW2GdtTQ98oZDVtoqUozUDyGzbvpwmg279EC5Q521gpCSKTTuALSvZWOmafACEol3aAAyReTzxaElcpnh+MRcO/h25JNYSWhxAbke2y34r8k8E3JKypPnbZ0q2gT8eHU6cDGGrGF1ZfkyzB26Mf0pLNOe9Qt6AFbHYHmw4PfUUuhISe3MKrIJBPzJi2LCY+8c/l9SKPUo8QfAUB2KGQSRq12a+qQOA30Vm7iPwVNBEHvLRABVzRn0e1u0d+MgI/VFDH41e4xtmhM/GEhvEM8njTziaRZSmfw86TYTKrC+6WvjlM3BC8eBJqNOjKDTlBIbtGkUfRkWFJIAKxHdYNDP5b+fFrHKp3JoE77jvctrPPNFTzdKKQWg5jpwSHZDTewENzNCek3Q+lmk09H2Vjezynj2pA0V6Z6dWHaDTg5pfE6CXyoLiMKLoK8w6xUsSH7YbAmqT+WyWNF9XIfDQhQ5E2C2GRM6LGAWIkBVGn0HExnARBIs/7xDTJVO1CrN6aC4HoduYwrhY3A3fAofkb+UhWAzcJBAMdsotRQfJ49Bu2lBLv7e5wGQf6DkMECoXMXTl6UJCzDnV/ZBSCpOj0VNfhIFwwIlVSYg1itynMt1ZiAslSYNsARi8UR4vkRJz2PBu1JRo+iQxXcaoJwWDpwKDx+6YPECzJOIR+XET1gVWd/1UHL/SIAKbWYvnaMaoLt+3tpIJVHI4RUCvx+xwnrf6dAYg0FlQMoH6epA9/Pwnxa6CucVDld4b97+K7IEhXrA58XMDkuCIZR+FdmKbP2FW2cx5uld835OUB1fuJyuPw+Lf27SlHCYQ2VbBYWM+M9/HDc0oiv3aIfT5S6VsM8qtogDxG4puTLo9VdGrG/wWo3qsK75gwRBTYxIHGRkQfWTR3s/uVut/fZE/rlQzquPSS2FXY2FpLgmJ9D2jzT2Ds4EQJE56ffoLIqMIahAsUOURqyW1ZIqsyADy/hmE3XWPafoKxkIJX5AF1VI06ajQ3pPFSfzMSB5xs23KiF9e8X3p9tjtndIiwMC6vyHAIi+PUCMiSBbGwiRBVLPAhVix2Jul6GIMQ2CkI6k+lAidWpTQIeA8oOUTKsI5wixf+dru1kbNJP1KjDDpI6VY5N5pQtovEvthn+F0Xa/Q5KRvq7UHg13dVXVWFGz+WeZDTbQLTaT0ra85IwGJRum8TcMig7YDw82ltHN2G7VUdiB4q14QDApFpLyyFo2fm45zQ5yK9sYROoQe6/mLt4LO3tUEkH5EUeAqRQHLK+H0pV2m+Bu+Eh9BwpZQPAbLBUKOyaRdRqV3tLQXSLskQn5W8Dx3PnOC6gIibUhumB8Le59UHcEXr5DWN1WRyWvsJWO4Gtpm6EwcvaWHJP9udBWGkbNeLZSX70RaOfLPgWbDcA98Ipe8R74JkhjCuEF2SgG84U1I1ImfWibWjgKjZTASv1AuzUOD5HYAUSawKJ5VeDyHYHiY8q4qO4EsT+ZgwPi3CMdCuxW6Q+ldpl/Zf1/nAxWJ7oJznmDwUNFr609xmnwNux3b0iCNe0w/cMS4MPD8CjZcro9DAHwBhao35lDo9+B5DIz3KkaV+TKD1hbn34h+trU0drCPwuZHOj8WgIIOVnAmBNACzrlxF+FRaAvKMMy2nL6YjTzIBzXQziTgcZztIM3J8wYR/6MsAKs2dhtAkqTcisUnXB1noMWKJyRZ02UE/rK/xiGpge3AxUt/R1rW//jFNnP6GwXAYr9eZCpDPnIADWBMCSSUdTpTaMXhb/X9/4JMd614jGKevqqqr9qKWBoNYBVYnll1wvAyxJMcTprtVGJ3kcCvJwE/Rf/VnTbiNzDO8WgfJTcLVUDVq70JO0BE2RSbKQrH47q4RDRR2F3gJgTQAo+xVpXo7dC2zBB1VE+KSokKGRK6qhK9RfprRHYflqN67XU4VqAjLdy6C2Q9oUN/uLkDxqn+GXZ0j0uLm59koDaO9j+RrBtM7ePgCWu5FgLx6UUOAN2dYR2GS8Aok1AcCsn4Z+p+L6D7ChGPfzWAqsyHeI6i460Y8Fhl9IYjksB0odKfK284sLiuGv289HbyJbuoQSkz2oRjIlbBaRAissqtBvC8r7MmTVqjmbKADWBLCS6RUXwVphC5yjFceX6Gv5BknBHdyEJ3pYPVHvoS8ELHHQaiESCyxPbfWDSMfiOMZswTe838X5IU56x/C/qbSl383aXcOAdYCG5+32HWQzfXoBsCYCFtmRC/NIEl3fcUMcfU5KzOzJGZssqWP04WnQPvZlgKWUPzwVAF9YWIRNpBJr/OWBjj64MrqP3SHAHUXeonVlaOG40RIrANb4WR79CYQ5iiielpxbksCvSgOfysOqXt8cw4cF4104Wf1AemmJJVQdSh+oqEwma3KFh4zSxwiF1tNfv7sVlwnraom0InMU774BoFpVKICjjRVILP8i8++a8aLggKsSR+8OVAmzVyQFnZYwvMmM7/XgH2JKF9kLGbAY7C4e9ELLEwC44+MSMmFwBBfmAb4ppYrwPNpjtPzZRAl/8Bl0kA5KAj+yyfIsI9HU82MpZ57NnvTEqTYe3yFKJyWG3UZoRugzDj34MTD5n6XZ0+qzusH4T06xQSSDm89EwTeUA++zseBF3/v6H3yn4Za6/Bsb72o38LLtRXTibfkhDcBKqMQpnEZQpbOrkjI/jGNkF8d1KoCJcFk9N1V4pUnE433EPQSA+utBRshnwr03d3994B+y95QQCIDVgt1mEyjU889TqANYH8WZdUrJ9SqiurKm3j8vE8eJr4u0vb66lPYpTLyIRDs4DPxrKLBEskkXjb+1H8tjKNigsGUHWEkk0sVZEBb0SGVy4E/lsJBeQ8phC6ZyAwspJ/SuEN+usPNr4Cq1WV0GqoPuLSaaSjMmfhp/8vQmzNIRyQeMxTVx0uz5Yn9C/HNBo5QXboAEirHlUZmZpSRH9pEeoez1ntx0yjLlvLD68mWFPKtrxER/lfu7Gwmg30cSLp3Bf3tg9QPCA1kXO45OTfk9qsEmkL41j5a6SXCskuhhY8M5Lj9qiCRQG4c0GS/wTGu63W6geXgdtRvOwSZtot9zU1moBBrqcK9v/ty3YIPqicBiIREBlo3lQb3agDT/jMWiAFMO/KmUxAjVv+YlW4zAUt+PvYC2d1rUTYeWwrfXktLGqs/2EmYD+lcHwOqbxn7++tJyTuotxMD7jse1hrqS27SyqB9QAh6XseCpGsoMDZJYu8f7nLvLgT32KyRHvdWANKieQm39hISGUcmmXWEP3MO7TXus02mjROS8WV3bEhq0bYEizAofkDT9zD9OL+3sMZB579nPYhhmT1KasQMGSP1/d3eD5wWnBCL70vYP3ER4JgFXgvXt6AT3Jw8MLsgo+2WomnRIcV6REEqslvmy9xtSsH4ZKbE4HgKrfou0eHK7cKCIIuOZ3VmVakOOl3r/+yXd82wrF/gjbLJhG4uqng5SUqSpCv/Gfqx+YEk4DyEQngXZmHIeTFBmCivfiqfBhxXvrB02TGrZUpD8Xd/nbHaLEz90GwtARX5DQsN68eexEovAYsMlboQEkkzXEa6xamqYbeYHijvWMQmneiggUJXgZw8q7t8dWpAFmV9iafgqcJBy2mCuwKZibA1qI55ImURUKcOeEU9OpNZHF9XoY7+MsrVEHQ6ID8/JyL42rBIj0WIEtEFZaVbhcP0VvQiHc638EssCKxKOY7xLctJkupUsKhmgVMKSQeSAwifFOAa+y6NqUPIBuSscG9Hx1cl3IS3T+a0+G4sSi6qwB8kbAOuRmbWpTI/O/lS/tBJTSX9SeQExucf4WJABcFbCxoLxbE+F/tPrVMMZ+eWHgXOeYukW8fux6miFx84XBqyOMGnN+AzLGJFBGnDeX2ZlRtzVA5Y4ZSXy+DjRj8Aqlz4LsHCEfKXRDgfWoCPXD6wI3oOZhwGwXmmJ+h/zfGDRG36C8AptrO8ZWIHEehNA2Yc+H1i0sQgsEvFYEHfY9WiIaaL3fZrEYqCanVwDVTjRJM/yS5MACwS84z1zfX06ElizHKHe62nAur25RFu8r5I6RokVqMLZr8QT7zghsE5Ro716KCGloYFvHuSeGRN8fMBPA9Y18ibPTvcEWCEG6gPj/Yk4mPnHJgUWWqRU0bLkkfpXbwGsKwTaCawIWBUBsGYOlufccDJgnZ5QYh1gAceX3H7OaEZ/9mkSi+W9CSxWKgxU4WxmfuK7+Ck6T3I3wGF5DmBVq2hILnmKr3E9AqwYG3bqGNhzsQIqswCrmxDHb+BueI31GfkMXbgnAQufZHmgy8uj7w5YFXC1Li8wLqjCAFhvCij7cA9Y9Lyvb/84MhOa3yCwLqpHToLDa7zA0yRW5fRA2Blez2nGCgPP+2us0Ihn9AOriJYlfgLd4JdoY11BFWrmzGtcw4FV3Pqpb5ziBkF6PYelzcwDYL3G6gx9ht/GCjGdBgb5U4B1fXU8Jldxlq80HliMCJyWUSD3pioukAgVewCsWS7C0+/luQSchYPaCKH21GPA4nfkVAhgfU8Si8AqH/wBZqw2RdD8AbY8CVTh0xExo08OAxYl1hq4VXOgP4+6vkdVyCSP0h6SVZsNSaKweQMBsGYElsluoxKLqpDsBgJrHpWGBy8LxLNTlInEqfCtJdbmrlcVmpWbD779hnQ2eN0jrAQorLVAYk0GiOm+5SZkOF0lJIUdGGOV4cVFVlAeTsRjfc/j4z9ReC0h6sbfz/mBFJxuiO79maAo9a5AJKRjJEI6NIvmRrTHYR3JHUegTEvSnC+c9DfOK5xy5qf4+mCGEP9NRharEmuVYb0G2alSzvHwT8nwscmvVvX0D8dHcZ14nF69BkojlorsAGSLy+gRVNxx6sejt3X1zJyfoXbpwHMCYE088dN/UbnkCqAO1GE2X0DNTpS8fkBptuUnYcAjbZ+SSw1l7VfousAVjtMPTO5AIxyHCkmIZWFe1FrFf6xXsbycx+9IWwbj4uxAEnLZo9F/BcCa0TI89zaeu0HBwFzEeRTIXVtjcsSA/JGmR4RPBEmvVaGokHf/UPI9p5nl6BHrfcn50ucy95FZ4cyztE3NbQLHEejSddTSklbCvisA1nMRMbPPe+1yJYUf4IlGF7Fwv4AgOmhjOYmjTnbNGbpcsCvFoJSY2dAcGKv007F0wWdfTqHbBfoEaQMzduJoIO0LiaotdjXrB3UArNmuxhPvZoGjaktihVI9GY0EUMiNPWj6Ly8jmT9nDYWjw338iXpUjKPM+LKZ1SIlnXKR7N9DNTiHZF573SPdX5sj8H36GRsBsGa8KM+9nSTMYk2YgMoKzOls0eTzrBk6rECap/6krvrRnqR7cWEVDE6J7+cOYsznmbWUQYHcLIr4euo3jC4Zh7Cvyk7d0f4aqwGwZrwIz7+d08IXWTht5OUxT3B785+wZxRYg7UitJmJZjmyVd0ZAtOSXi82l1eO6fnj8H/DkT5sdwI/1cLCEsp6f0IskBk4yB2kSkbc5tv+7/Bf3cnfGcqhN85W6/kvBZZOEgOjbDkiKfROhu6gLTDdAsz22zYZIre6i+4PWYGQrQEx6klkb15USrB37tFdDFVw0PSpy6xuPW7qCcM3s8QAABT7SURBVNOxzUaxS91m6KL68HnW7gJS2TB8DsVQCkWvFJKqx5C5gZuBHc3iUMUozowfos6FIJuVdZ067+i9k0Nu4bDrXXamsBMoPhaUxB6sWe7UyZgtKmZwNwssOiE3pa5V0vUXeXUZbK1T61YIo3pNDfWrTvDnFdwDSItHQoO1k+xc2OJs/cP0XBMWXOJTQy8gFpljcZTC2oZbIdmCqtmoSRnJNhpusrYXE2gHpSUlFuvfs+WJvfzAfpfAsvaJSKyTA+f47p3CZoCBF7mFBRb74OSy6GPIAm9Io9fLX4DWFv/Qyn3cODyZVdEX8a52IQ0A6ECVcgAjvPj+xbaAkdpaQEg0HjPL6JeTSa+qJPIdUvm8s+PPUowtjtMr7+91M3O6sToOX+2l81/axZ4S66F3elZOxNnjS0I1ERryUbNa2EGXVPRplmoyvsKzAibv2dz9FkSddhvgOkP+4S367txrITaqRN8r+0svaetgHCAARP63hM7zi0sF1NliJhB8WdSkjkqVpNnTsqlVtd+OHYI8Q9Dn1MGAbeYFoakK1ZHrB/m7lFgcNItXUGKxy4J0NmVbj2cWIJs9bEbf0UorXWXAiBQt1L3K5tfE020NeQlaD5FCg+Ef3qbdbKHYSA0AQ0tfGOE0xFuobKOltZEMH0V7OLQwiaJOfQK1tlhYzt+N1Y6Jz2vDhjtHA05WJowBQ6yOzMs+l5WkeUmjFNpneEYuVzTpHFWh3yWiG+SdAksDp7SxTo6/CcnfduSiYel1RH1N6Dz9WWydawPMPQAgiz497MAqYRyKEFRiHna54PL0nPxNDXhBgf6GEoahGmvYO15ze1iQpuLibVdAsEzRBZgVdzXW5gIwYLBLQTfnUKAOXk8kUrJRiuXQYVVtrIeZ2+8SWLac9O3NlbQd4b9lPjEXLE31vV8d+LTCTu1PLiAN4UXUEs0AXJQuVgJ46sVWGlQjWk5mvB5U83NUotT98mahg1NgBM40WyJS1LEPVNXKOQ4Gt7CppF6SaePUyTR/C6ZBNUdt0YSEk17StNNG1FQto6Vxy+1m9pCt+tx1Cn3543+mWl7uI/bOoz+HDZLmpAKfd/UMa0XFxbBlPQEJ9rrFwsAbGlN47LkvNMvPixRBUTUWe+NF9U0Jxn9ag1wwM2Cz9L2/T3rYn2tzTq/mV7869WygQZXK7q/SxJwpZ3JfJtBrcV8dnyK0T5XTpgqDZoPPjMqB/E4lFkO29JlEtQLfQsoX1ZrlMgf3eqkZ6KFUOZuws/6q1vtSiSVxyAnFzswkFk9LxfWPDyTWS01GcN/ZzQCa3pmjPXLL7iADtXKglg+e/JoaWOy+1Yavh8DeQMpUMokjeXC9qxnwA8tWKBQTR8JSk73K1MAiG4Cq0NpYSTTVHucInGyowbdeagZot5VQG54tXCixeEkfyCGlk546hhkACw5EiaLFhSbLBti8nhJbe+ogg8+97AwwCUNauIiN5YkoL3T1/OdPDSw2TWIsi57hdGbFJKTSMNHuhRSeP6zgG681A+zhyAYI1coJQlH3Bq2r5ZrUaLfjnhpYdHD2+VEmVcqvNZPBc/pmgFEFcZ2wfLej/tRd4TXJmmTKpgaWZK7Rj0N/D30sQvxX2NNf0+9TmWSIL/2dcazPac5GLz326e9PM4Zee/pbGUlouWsnKygAm+SaGlie29gZgMMB4mC8I6szQOd34vizHSHcoGp/3E2dg7atnHqfx4HUdVQ63m42I+iI19wT7bIJAHh74JB+X/IzzqOCiA0FdGNojuHDZAmd6v734xIwAK0hK3+rOv/CaDbQkMXyzdsg7UUH4+PaOz0XadfSmuX/NLykXn9OrW1KxfFLcwSfI9rOE5Nz/d3LJgHQqO/MAFjerYd5oKXliNPDz06q/09ZSEyEl/DpTKJLiPP1KuxrFu4R2fwv5/dWK5tTkyP0pOqASBiWfCgWmVnDuC9BIeAFOU9BTCuREpj2oifV+t/RcST6NkFffMbZ7YPvbcfrbR79ie3ZSNVEL/vg6dp+XgiSvlYttgOFAJYsCNEcjHCQ6eBtzv77WYBP1t9nHAhnDCx9nKWNDMa77MT1D2qYo8QLUUirt5Esgv4whhfS0CwVKxhsrI3g4Q7vADzpTFH6B95dn6D68S1u1JLfqRTQ3jW2f6F2C2Rsz+NUqcbwAsQqhfrf5eFG83ou+n9nv2ulshL9/KczK731mX5pLrABeCw5MF/YxU86poJAtTT8HNiM3nNt+MeGqyZ0WI1A2AyAZVvB2YE5dpW02WWvG6eVLSUXPbqs5Mt4G1RGn3rzi/ohul1iXZQcznHFmQ5dXAfMbgKDK/q1jYn+nKqCAXACy4Diuwu+04q5qhwi0ROcJm50Sh5HulKtqCToX2AmW/Bz9lje47Okja7oUnc8MiiCw+mjw9+5kkbwoRx6jr9fzXvz6Ko/5/MhbAhJ2CCZ0NGmlL2W3MeWdls7/xdBkLb59hnFQdAMMyL9oznnbH2sXxotgUegZIIfTw0s0emiOlSU6wJy8QgsZ9KlYRFar3FndZxmkQ6Pm7Czot9KFhYNs6Q47QitOzLmlOUhuEg14c+i7A8t6k6bFqkkobTBZGIh2ghXRMg/p/LDv6NkApBuQnoJKvdFMOZWG21ubSMA1uyEGuIL2abeBDSP5XxeF02jpL8PFott28CqEj4Vfx/i++Oz5D+J3UNVjENNt8MwiaphSsIo+1EDjGHcg1NjJbmoXvyu2eIJzTbV5MSi9yDeISKUF6pB1hVVKSqBfaadcV7x3Y8f/wUsN8w++kLzTyl+yQQLGZ+qewKRySKcL/7cbsxxNuxz8DU1sNydSOlEaiwWJZlckK7y0XhCDMk2mJRsM1u/uzEx2g+YlcT8gllYTJsb0GmoepaXUmBrIjEABfDv6vhcLG6W4GyNRecx0Q2ksp/DdGjKu7EIRhP3TMwlcZ+MmUvGTQuLUQMN+L52i/soB2kBY2BeINmbjUYDRT6WRbpUkVGTmIubuYUs2u/eoZ4U2sM5QAxH0WoXJLvFJB29YXMHTnkd6V3ybAIllpD+zolEwgFbz9zf4TN3KHbGEthcfpD2FvE+dZQTaoHYl0rlAKYY7lWXhueikqVlMDaFEB/t5iQce+C1JzAfeYApbhrtFu5/ifHfCCg4n03MH4mHC0iumMM7kl3C5/D9tz/8Q2q8731h1s69mV9OozPtksxrq1VTiYx1YoN2Ss1rJNu+RCOs2QHLaQLO3b1S2MIL6cBFVVGCAXDnpNKCqsvdml/ZNMuZVSGukT0ZwUSp6O+iOGsFIFhEZ1WWutYd1QQH6ejoL5FG7VYY3eBz0mc5HJ2TNm6688JQayjhKLyvnsmCg5SDzXHLLl34N6m+tVrF7O3/hYD5jsmk1s3VxQmqDJdEojHOmVspYFMgSdU5GVKdNRHqOC5/FXCS+57Pa06fqFZIHW6oq4szU6kcyCZiMZEC7k9AU/Jxo+kJpYcNUkWa2KFIIR7xVY3pryldCJS19Q1J75LejABTF3N3iWrITDETdQ3plUHOYya74swxVXzH3N3dydj5Lodf/zRdMFRX1j9gLrOY+318vywbKBxOmq3dDwBu0hzu/RudZWmLfXc2lhWQzsBgwCwsL8nOq6MVLlViOp0x+eyOadTvTan0vzL52dyuLCLDCRUsShO7e2lp2aQISEwwwcDU9ViyZ3KpDSHVnZSROIA2I4xHrhU/AYxJc4EEDX6W0mt1pYjSPiFTkjqcN2B7riGzZUuotwTKbe0a/52ZG3yeiai57Kq5REbNOcBIXnlxfRf3SZkqpONl9RiYAkiWdwF8VvDbk7EmQRuOx+cgoRqyWWJLqP63+oHKUvoEUjIvLGUlvEXGx81NBWPG+CDhstmcuAXKpUORcBHcH8pcTngqtZJmG2WJyAo9ARBqdxcmTqDlP0odrmO8P99hGfdf29iFBOphI+0BwHdmHuNiJk40jmwijFNUYffO5As/AegZ1H7HhrtCJRqofNb/2tr+ZOKxBVQA/E16Y9sD13PU3WOfnVpiSeU465bBDpaQNJIPYpAkUWzJCLJH7ptt1EH4ID8r7f2vvEh2VdORmItHaQANJC/K/nu0xw7Qib2NCRPJA6mTxu68qpwiK+UraLY7kgl8cXFurrAAEXS1Z0f6ZSxcfnUb1YxPzTGAkEOX+wLrGwBYUvQVi0xVQNCzmkwut2UuLlG++mhPayFs/oQG3lroo9NtYPpBUMTsceG7iHVIljQ2SgQgjEIdCukPGyIFCZbGhjg/+YZibOeQ1lmzDpC2sLH4HmrrRAHcT1CRGckBvEEOQAjSjmn5zASiyMqk1jAvW+YSGT6sfkyV3ujEsbHySOYoovx3GdWay7j3j3hGypxjnFIhGeYFbdcFSPm1jR/wrKbZ/+sv/KyOPtWQWNjYp0imvb1EzVRQw7uhpNlwqkJzPSiJrZ313QBLxbiNC3IRMBFIM1qAjcGXUOooxLlTXfgYbXFraNaYR/2pdBrggIhnXfKweCEj5sOP/xI/zLcv/4bmaEoqVWZtV9LKL5BAwB26Dt7XUrogzcGpjkQrOb4wdou/vUUBsvK+yWFCc1ioOlQEiWwRdmuF5NLMYAdYiJFdEqxYuHR+B+NhjSly8wEkNjkSFUt/EBQMpHE2zTQqcN6lWAjfj0F4GNZQXRV0hKhAAqYwNqrC+t2tOS2hUAcMfAJLMn2gws/P90W1RcCXt6dVAndlZUs2B+3FsHOa7ITZ0DIpaWD3SCcrYxNs7vxswshzPNr/N8BbV1XKEyPU9odP/09cJ/uf/8DQCCyAOZ2DxDpCRg+kML1b2IhFVCxkA82j/d9EZfsTN2YBrqkllh2EnngMslhWpRpeDYY6c+u6rSYmZQGqr2ASMMhLaIRdgzjPr1FibULqoF46it7TDRmDatvcxXEZdhRFOY3PXjtksmsoggaO+RWkwSmyqQurH7EAK1ALlwBRTXw+VDFC3WVyORiRd0i5SmOn5wvbatdAYjGBVNr0OhIrk9kAqE+gTr9BjayZ1MqOSNDK2Rex2SKdGCDB4z0kAsCYnJ8HqH+VDJuLShm2Xl1aDGeg0hdwGKEdcwGpury8BjtpV97zHOqrh5NbByqogA2yCDVGYFWh/l2vv5PYurKyLdKFRnijpgVqQ6E6TqmUsjTL9Odr2/8Q1c9NyoOOSBtRqVGz8/GfeEdIrK9+YEGaHpch8UtIvKU1hkafuz9BQ8wLsKhBZt1hYybAEokh/h1jVqGKRPSeHsKYPZPF5Mlue+cT/oybQ9QYUFW4ZnIZBVYFkogSK4qdxJqa/LsrseCwyUDq0FClgUw1Qkm3AtuphtKIx5BETKfi6Soem5MjdBOnH+7A1BLa1SJ7+Kp6gQU/gGpoys/buKdtZctODlVUwZtbWESl5J8EnMc4JNRxWIBzArZXFCodJzosIFPtVwofJUGU7XHpqghFF0xhY0sSLAjeK2ymucWc2QD/v1a7MWeoACPuASy9BdYJ1PQVet6w5zRtuy6O/vegrMwnc1BlH8Vm5EGl072H4o7JCZkLz8o2IR58Vj+JZLtBTuEpiq2pxoiYPDZvKrvh2lj0Y62ufMAhKSv3ZKluuhzmoE0KMOpNLyY2Fo3+/qqE08usmQCL+4XAYn2BdGoVL14QcX55iQ6kuNLpNE54SbF1ykd/4kVwuspvYCLWAJYSxDR60jCTFwu58+n/CEL3aZtgYjuo+5Rb+QGe8lWREpUK1RQMdagVnnbu7q8kIZRyKAXbhsA5Ov5LFjWf/YjT5xrqnl9I6hmNcS4AHaRZ1DLI4vkXUIUXABalw8oaK+SlMfaGGNxUdYs49segQg/3P8u9i5swrnFVYSP18I6UYgso0sbvn+O0xzGmcBrlwnHBTkqQHJBYVPMra9uSl3h6Rol1isMFJCpqQ9xBupcBJEpdjoF22B3Gfw17j/7NDOw/PruE5putBupCQLKv4f5xHAjqtXscGGow3qEuE3FxdXQA1MO9P2B33kGSplGoFyDC3N5j3kMYSywJN5AkZJDg94erCgcjBcNCdE+F3NTAsvVW9IF0jkaQGJmX0x1VCLk+tzwVzc3jpSNysruvN7Gz2Pw6Dx4QmgpBstGI5eJQRHOCD/Y+i4Rh7YJUahP2B4AF+4UGLA1wOgMJDgJBO8ZDFcK/c3V5Yq5uSyJ5UosAb2FNjPYK6rKHkSpFk0/UF0DFHEGW/rmEJOTVhXtkhWoNO5oLxOM/1R59PTdQkZQsS3ivFKQFF1dOrygVSUcrfUpsjkRVOo+KMMWNHYD7DlLiq7hRaAPlcWpdhr1zjhPaJQ4emUxO8v3u4Ac7Owa4SfHGq+TgillagB0n9bbg4sUB4RpNAa4gKelCoD3JbKglfH8JkpYboImDzvn5udiulPglbIQ2PhvBaXoJG245m5WTtZzCKxVUrVmAhEygWBuSKLBBxE6zTuGnoueRz00NLH8Yg8BowqFHsUq1xhBDGxKn04KdAuOW4Z0wgEIAwFOq8TyID40pkg4LCwnfo0gRYixUjfKuVSKKZHS82y1IP55Ik5gcPodqmP6YFk44EbgHJN5HZyUmswdAUF3a0AkfH0EMh2Pi+GjTKSOBtgwcALgfgcPweRdeeRawZdSAK+qeCmE8t3GjdodOxyTGpx5yIpfOUK</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/about/sustainability/campus-greening/waste</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>txt-4704895</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>txt-4704895</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+.html-embed-wrapper .col-lg-1, .html-embed-wrapper .col-lg-10, .html-embed-wrapper .col-lg-11, .html-embed-wrapper .col-lg-12, .html-embed-wrapper .col-lg-2, .html-embed-wrapper .col-lg-3, .html-embed-wrapper .col-lg-4, .html-embed-wrapper .col-lg-5, .html-embed-wrapper .col-lg-6, .html-embed-wrapper .col-lg-7, .html-embed-wrapper .col-lg-8, .html-embed-wrapper .col-lg-9, .html-embed-wrapper .col-md-1, .html-embed-wrapper .col-md-10, .html-embed-wrapper .col-md-11, .html-embed-wrapper .col-md-12, .html-embed-wrapper .col-md-2, .html-embed-wrapper .col-md-3, .html-embed-wrapper .col-md-4, .html-embed-wrapper .col-md-5, .html-embed-wrapper .col-md-6, .html-embed-wrapper .col-md-7, .html-embed-wrapper .col-md-8, .html-embed-wrapper .col-md-9, .html-embed-wrapper .col-sm-1, .html-embed-wrapper .col-sm-10, .html-embed-wrapper .col-sm-11, .html-embed-wrapper .col-sm-12, .html-embed-wrapper .col-sm-2, .html-embed-wrapper .col-sm-3, .html-embed-wrapper .col-sm-4, .html-embed-wrapper .col-sm-5, .html-embed-wrapper .col-sm-6, .html-embed-wrapper .col-sm-7, .html-embed-wrapper .col-sm-8, .html-embed-wrapper .col-sm-9, .html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {position: relative;
+min-height: 1px;
+padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {float: left}
+.html-embed-wrapper .col-xs-12 {width: 100%}
+.html-embed-wrapper ol.subtle-collapsible-list.col-xs-12, .html-embed-wrapper ul.subtle-collapsible-list.col-xs-12 {padding: 0 15px 0 0}
+&lt;/style&gt;&lt;section class="text-block clearfix" data-element="2016 Text Block" id="txt-4704895"&gt;
+ &lt;div class="col-xs-12"&gt;
+  &lt;dl&gt;
+   &lt;dt&gt;
+    &lt;strong&gt;
+     YES
+    &lt;/strong&gt;
+   &lt;/dt&gt;
+   &lt;dd&gt;
+    Surgical and Latex Gloves
+    &lt;br&gt;
+     Disposable Face Masks
+    &lt;/br&gt;
+   &lt;/dd&gt;
+   &lt;dd&gt;
+    Styrofoam
+    &lt;br&gt;
+     Chip Bags
+     &lt;br/&gt;
+     Candy Wrappers
+     &lt;br/&gt;
+     Plastic Bags &amp;amp; Wrap
+     &lt;br/&gt;
+     Plastic Cutlery
+     &lt;br/&gt;
+     Condiment Packages
+     &lt;br/&gt;
+     Straws
+     &lt;br/&gt;
+     K-Cups
+    &lt;/br&gt;
+   &lt;/dd&gt;
+   &lt;dd&gt;
+    Waxy Paper Cups
+   &lt;/dd&gt;
+  &lt;/dl&gt;
+ &lt;/div&gt;
+&lt;/section&gt;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/about/sustainability/campus-greening/waste</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>txt-4704949</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>txt-4704949</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+.html-embed-wrapper .col-lg-1, .html-embed-wrapper .col-lg-10, .html-embed-wrapper .col-lg-11, .html-embed-wrapper .col-lg-12, .html-embed-wrapper .col-lg-2, .html-embed-wrapper .col-lg-3, .html-embed-wrapper .col-lg-4, .html-embed-wrapper .col-lg-5, .html-embed-wrapper .col-lg-6, .html-embed-wrapper .col-lg-7, .html-embed-wrapper .col-lg-8, .html-embed-wrapper .col-lg-9, .html-embed-wrapper .col-md-1, .html-embed-wrapper .col-md-10, .html-embed-wrapper .col-md-11, .html-embed-wrapper .col-md-12, .html-embed-wrapper .col-md-2, .html-embed-wrapper .col-md-3, .html-embed-wrapper .col-md-4, .html-embed-wrapper .col-md-5, .html-embed-wrapper .col-md-6, .html-embed-wrapper .col-md-7, .html-embed-wrapper .col-md-8, .html-embed-wrapper .col-md-9, .html-embed-wrapper .col-sm-1, .html-embed-wrapper .col-sm-10, .html-embed-wrapper .col-sm-11, .html-embed-wrapper .col-sm-12, .html-embed-wrapper .col-sm-2, .html-embed-wrapper .col-sm-3, .html-embed-wrapper .col-sm-4, .html-embed-wrapper .col-sm-5, .html-embed-wrapper .col-sm-6, .html-embed-wrapper .col-sm-7, .html-embed-wrapper .col-sm-8, .html-embed-wrapper .col-sm-9, .html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {position: relative;
+min-height: 1px;
+padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {float: left}
+.html-embed-wrapper .col-xs-12 {width: 100%}
+.html-embed-wrapper ol.subtle-collapsible-list.col-xs-12, .html-embed-wrapper ul.subtle-collapsible-list.col-xs-12 {padding: 0 15px 0 0}
+&lt;/style&gt;&lt;section class="text-block clearfix" data-element="2016 Text Block" id="txt-4704949"&gt;
+ &lt;div class="col-xs-12"&gt;
+  &lt;dl&gt;
+   &lt;dd&gt;
+    &lt;strong&gt;
+     These items are collected in special bins placed across campus and should not be placed in the landfill, recycling, or organics bins.
+    &lt;/strong&gt;
+   &lt;/dd&gt;
+  &lt;/dl&gt;
+  &lt;p&gt;
+   Batteries – Battery recycling tubes are located in central areas in most buildings on campus. Look for tall clear tubes near entrances and exits.
+   &lt;br/&gt;
+   &lt;br/&gt;
+   Ink Cartridges – Recycling locations are in the Mary Graydon Center, Library, and lobbies of residence halls.
+   &lt;br/&gt;
+   &lt;br/&gt;
+   Plastic Bags and Wraps (the plastic on things like paper towels and water bottle packages) – Recycling locations are in the Library, Mary Graydon Center, and Spring Valley Building.
+  &lt;/p&gt;
+  &lt;p&gt;
+   Cell Phones - Recycling locations are in the Mary Graydon Center, Library, and lobbies of residence halls.
+  &lt;/p&gt;
+  &lt;p&gt;
+   E- Waste: Laptops, printers, and any other electronics – Faculty and staff, contact the Helpdesk. For students, E-Waste collection takes place in the fall and spring at special events.
+  &lt;/p&gt;
+  &lt;dl&gt;
+  &lt;/dl&gt;
+ &lt;/div&gt;
+&lt;/section&gt;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/about/sustainability/campus-greening/waste</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>cs_control_5524591-collapse</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>cs_control_5524591-collapse</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+&lt;/style&gt;&lt;div class="collapse col-xs-12" id="collapse-5524591"&gt;
+ &lt;dl&gt;
+  &lt;dd&gt;
+   &lt;strong&gt;
+    Certain items are collected in special bins across campus and should not be placed in the landfill, recycling, or compost bins.
+   &lt;/strong&gt;
+  &lt;/dd&gt;
+ &lt;/dl&gt;
+ &lt;p&gt;
+  &lt;strong&gt;
+   Batteries:
+  &lt;/strong&gt;
+  Battery recycling boxes are located in central areas in most buildings on campus. Look for cardboard boxes that say "Call2Recycle" near entrances and exits.
+  &lt;br/&gt;
+  &lt;br/&gt;
+  &lt;strong&gt;
+   Ink Cartridges:
+  &lt;/strong&gt;
+  Recycling locations are in the Mary Graydon Center, Bender Library, and lobbies of residence halls.
+  &lt;br/&gt;
+  &lt;br/&gt;
+  &lt;strong&gt;
+   Plastic Film, Bags, and Wraps:
+  &lt;/strong&gt;
+  Recycling locations are in Bender Library, Mary Graydon Center, and Spring Valley Building. Includes plastic wrapping on things like paper towels and water bottle packages.
+ &lt;/p&gt;
+ &lt;p&gt;
+  &lt;strong&gt;
+   Cell Phones:
+  &lt;/strong&gt;
+  Recycling locations are in the Mary Graydon Center, Bender Library, and lobbies of residence halls.
+ &lt;/p&gt;
+ &lt;p&gt;
+  &lt;strong&gt;
+   E-Waste:
+  &lt;/strong&gt;
+  Recycling location is in the basement of Bender Library. Includes laptops, printers, and any other electronics. Faculty and staff should
+  &lt;a href="/cdn-cgi/l/email-protection#390b5f50417958545c4b505a5857175c5d4c"&gt;
+   contact 2FIX
+  &lt;/a&gt;
+  . Community members can participate in periodic campus e-waste drives.
+ &lt;/p&gt;
+ &lt;p&gt;
+  &lt;strong&gt;
+   Furniture:
+  &lt;/strong&gt;
+  Faculty and staff members looking to dispose of old or excess furniture should
+  &lt;a href="/cdn-cgi/l/email-protection#0331656a7b43626e66716a60626d2d666776"&gt;
+   contact 2FIX
+  &lt;/a&gt;
+  . To replace furniture with new-to-you furniture, use the
+  &lt;a href="https://myau.american.edu/services/AUSurplus/SitePages/Home.aspx"&gt;
+   Surplus Furniture Portal
+  &lt;/a&gt;
+  . Students can donate during Project Move Out at the end of spring semester.
+ &lt;/p&gt;
+&lt;/div&gt;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/about/sustainability/milestones</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>txt-5734209</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>txt-5734209</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+.html-embed-wrapper .blockquote-reverse, .html-embed-wrapper blockquote.pull-right {padding-right: 15px;
+padding-left: 0;
+border-right: 5px solid #eee;
+border-left: 0;
+text-align: right}
+.html-embed-wrapper .blockquote-reverse .small:before, .html-embed-wrapper .blockquote-reverse footer:before, .html-embed-wrapper .blockquote-reverse small:before, .html-embed-wrapper blockquote.pull-right .small:before, .html-embed-wrapper blockquote.pull-right footer:before, .html-embed-wrapper blockquote.pull-right small:before {content: ""}
+.html-embed-wrapper .blockquote-reverse .small:after, .html-embed-wrapper .blockquote-reverse footer:after, .html-embed-wrapper .blockquote-reverse small:after, .html-embed-wrapper blockquote.pull-right .small:after, .html-embed-wrapper blockquote.pull-right footer:after, .html-embed-wrapper blockquote.pull-right small:after {content: " —"}
+.html-embed-wrapper .col-lg-1, .html-embed-wrapper .col-lg-10, .html-embed-wrapper .col-lg-11, .html-embed-wrapper .col-lg-12, .html-embed-wrapper .col-lg-2, .html-embed-wrapper .col-lg-3, .html-embed-wrapper .col-lg-4, .html-embed-wrapper .col-lg-5, .html-embed-wrapper .col-lg-6, .html-embed-wrapper .col-lg-7, .html-embed-wrapper .col-lg-8, .html-embed-wrapper .col-lg-9, .html-embed-wrapper .col-md-1, .html-embed-wrapper .col-md-10, .html-embed-wrapper .col-md-11, .html-embed-wrapper .col-md-12, .html-embed-wrapper .col-md-2, .html-embed-wrapper .col-md-3, .html-embed-wrapper .col-md-4, .html-embed-wrapper .col-md-5, .html-embed-wrapper .col-md-6, .html-embed-wrapper .col-md-7, .html-embed-wrapper .col-md-8, .html-embed-wrapper .col-md-9, .html-embed-wrapper .col-sm-1, .html-embed-wrapper .col-sm-10, .html-embed-wrapper .col-sm-11, .html-embed-wrapper .col-sm-12, .html-embed-wrapper .col-sm-2, .html-embed-wrapper .col-sm-3, .html-embed-wrapper .col-sm-4, .html-embed-wrapper .col-sm-5, .html-embed-wrapper .col-sm-6, .html-embed-wrapper .col-sm-7, .html-embed-wrapper .col-sm-8, .html-embed-wrapper .col-sm-9, .html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {position: relative;
+min-height: 1px;
+padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {float: left}
+.html-embed-wrapper .col-xs-12 {width: 100%}
+.html-embed-wrapper .dropdown-menu.pull-right {right: 0;
+left: auto}
+.html-embed-wrapper .pull-right &gt; .dropdown-menu {right: 0;
+left: auto}
+.html-embed-wrapper .media {margin-top: 15px}
+.html-embed-wrapper .media:first-child {margin-top: 0}
+.html-embed-wrapper .media, .html-embed-wrapper .media-body {zoom: 1;
+overflow: hidden}
+.html-embed-wrapper .media, .html-embed-wrapper .media-body {zoom: 1;
+overflow: hidden}
+.html-embed-wrapper .media-body {width: 10000px}
+.html-embed-wrapper .media-body {width: 10000px}
+.html-embed-wrapper .media-object {display: block}
+.html-embed-wrapper .media-object.img-thumbnail {max-width: none}
+.html-embed-wrapper .media-right, .html-embed-wrapper .media &gt; .pull-right {padding-left: 10px}
+.html-embed-wrapper .media-right, .html-embed-wrapper .media &gt; .pull-right {padding-left: 10px}
+.html-embed-wrapper .media-left, .html-embed-wrapper .media &gt; .pull-left {padding-right: 10px}
+.html-embed-wrapper .media-left, .html-embed-wrapper .media &gt; .pull-left {padding-right: 10px}
+.html-embed-wrapper .media-body, .html-embed-wrapper .media-left, .html-embed-wrapper .media-right {display: table-cell;
+vertical-align: top}
+.html-embed-wrapper .media-body, .html-embed-wrapper .media-left, .html-embed-wrapper .media-right {display: table-cell;
+vertical-align: top}
+.html-embed-wrapper .media-middle {vertical-align: middle}
+.html-embed-wrapper .media-bottom {vertical-align: bottom}
+.html-embed-wrapper .media-heading {margin-top: 0;
+margin-bottom: 5px}
+.html-embed-wrapper .media-list {padding-left: 0;
+list-style: none}
+.html-embed-wrapper .pull-right {float: right !important}
+.html-embed-wrapper .pull-left {float: left !important}
+.html-embed-wrapper address.pull-left + address, .html-embed-wrapper address.pull-left + blockquote, .html-embed-wrapper address.pull-left + dl, .html-embed-wrapper address.pull-left + figure, .html-embed-wrapper address.pull-left + ol, .html-embed-wrapper address.pull-left + p, .html-embed-wrapper address.pull-left + pre, .html-embed-wrapper address.pull-left + ul, .html-embed-wrapper address.pull-right + address, .html-embed-wrapper address.pull-right + blockquote, .html-embed-wrapper address.pull-right + dl, .html-embed-wrapper address.pull-right + figure, .html-embed-wrapper address.pull-right + ol, .html-embed-wrapper address.pull-right + p, .html-embed-wrapper address.pull-right + pre, .html-embed-wrapper address.pull-right + ul, .html-embed-wrapper blockquote.pull-left + address, .html-embed-wrapper blockquote.pull-left + blockquote, .html-embed-wrapper blockquote.pull-left + dl, .html-embed-wrapper blockquote.pull-left + figure, .html-embed-wrapper blockquote.pull-left + ol, .html-embed-wrapper blockquote.pull-left + p, .html-embed-wrapper blockquote.pull-left + pre, .html-embed-wrapper blockquote.pull-left + ul, .html-embed-wrapper blockquote.pull-right + address, .html-embed-wrapper blockquote.pull-right + blockquote, .html-embed-wrapper blockquote.pull-right + dl, .html-embed-wrapper blockquote.pull-right + figure, .html-embed-wrapper blockquote.pull-right + ol, .html-embed-wrapper blockquote.pull-right + p, .html-embed-wrapper blockquote.pull-right + pre, .html-embed-wrapper blockquote.pull-right + ul, .html-embed-wrapper figcaption.pull-left + address, .html-embed-wrapper figcaption.pull-left + blockquote, .html-embed-wrapper figcaption.pull-left + dl, .html-embed-wrapper figcaption.pull-left + figure, .html-embed-wrapper figcaption.pull-left + ol, .html-embed-wrapper figcaption.pull-left + p, .html-embed-wrapper figcaption.pull-left + pre, .html-embed-wrapper figcaption.pull-left + ul, .html-embed-wrapper figcaption.pull-right + address, .html-embed-wrapper figcaption.pull-right + blockquote, .html-embed-wrapper figcaption.pull-right + dl, .html-embed-wrapper figcaption.pull-right + figure, .html-embed-wrapper figcaption.pull-right + ol, .html-embed-wrapper figcaption.pull-right + p, .html-embed-wrapper figcaption.pull-right + pre, .html-embed-wrapper figcaption.pull-right + ul, .html-embed-wrapper figure.pull-left + address, .html-embed-wrapper figure.pull-left + blockquote, .html-embed-wrapper figure.pull-left + dl, .html-embed-wrapper figure.pull-left + figure, .html-embed-wrapper figure.pull-left + ol, .html-embed-wrapper figure.pull-left + p, .html-embed-wrapper figure.pull-left + pre, .html-embed-wrapper figure.pull-left + ul, .html-embed-wrapper figure.pull-right + address, .html-embed-wrapper figure.pull-right + blockquote, .html-embed-wrapper figure.pull-right + dl, .html-embed-wrapper figure.pull-right + figure, .html-embed-wrapper figure.pull-right + ol, .html-embed-wrapper figure.pull-right + p, .html-embed-wrapper figure.pull-right + pre, .html-embed-wrapper figure.pull-right + ul, .html-embed-wrapper p.pull-left + address, .html-embed-wrapper p.pull-left + blockquote, .html-embed-wrapper p.pull-left + dl, .html-embed-wrapper p.pull-left + figure, .html-embed-wrapper p.pull-left + ol, .html-embed-wrapper p.pull-left + p, .html-embed-wrapper p.pull-left + pre, .html-embed-wrapper p.pull-left + ul, .html-embed-wrapper p.pull-right + address, .html-embed-wrapper p.pull-right + blockquote, .html-embed-wrapper p.pull-right + dl, .html-embed-wrapper p.pull-right + figure, .html-embed-wrapper p.pull-right + ol, .html-embed-wrapper p.pull-right + p, .html-embed-wrapper p.pull-right + pre, .html-embed-wrapper p.pull-right + ul, .html-embed-wrapper q.pull-left + address, .html-embed-wrapper q.pull-left + blockquote, .html-embed-wrapper q.pull-left + dl, .html-embed-wrapper q.pull-left + figure, .html-embed-wrapper q.pull-left + ol, .html-embed-wrapper q.pull-left + p, .html-embed-wrapper q.pull-left + pre, .html-embed-wrapper q.pull-left + ul, .html-embed-wrapper q.pull-right + address, .html-embed-wrapper q.pull-right + blockquote, .html-embed-wrapper q.pull-right + dl, .html-embed-wrapper q.pull-right + figure, .html-embed-wrapper q.pull-right + ol, .html-embed-wrapper q.pull-right + p, .html-embed-wrapper q.pull-right + pre, .html-embed-wrapper q.pull-right + ul {margin-top: 0}
+.html-embed-wrapper address.pull-left + address, .html-embed-wrapper address.pull-left + blockquote, .html-embed-wrapper address.pull-left + dl, .html-embed-wrapper address.pull-left + figure, .html-embed-wrapper address.pull-left + ol, .html-embed-wrapper address.pull-left + p, .html-embed-wrapper address.pull-left + pre, .html-embed-wrapper address.pull-left + ul, .html-embed-wrapper address.pull-right + address, .html-embed-wrapper address.pull-right + blockquote, .html-embed-wrapper address.pull-right + dl, .html-embed-wrapper address.pull-right + figure, .html-embed-wrapper address.pull-right + ol, .html-embed-wrapper address.pull-right + p, .html-embed-wrapper address.pull-right + pre, .html-embed-wrapper address.pull-right + ul, .html-embed-wrapper blockquote.pull-left + address, .html-embed-wrapper blockquote.pull-left + blockquote, .html-embed-wrapper blockquote.pull-left + dl, .html-embed-wrapper blockquote.pull-left + figure, .html-embed-wrapper blockquote.pull-left + ol, .html-embed-wrapper blockquote.pull-left + p, .html-embed-wrapper blockquote.pull-left + pre, .html-embed-wrapper blockquote.pull-left + ul, .html-embed-wrapper blockquote.pull-right + address, .html-embed-wrapper blockquote.pull-right + blockquote, .html-embed-wrapper blockquote.pull-right + dl, .html-embed-wrapper blockquote.pull-right + figure, .html-embed-wrapper blockquote.pull-right + ol, .html-embed-wrapper blockquote.pull-right + p, .html-embed-wrapper blockquote.pull-right + pre, .html-embed-wrapper blockquote.pull-right + ul, .html-embed-wrapper figcaption.pull-left + address, .html-embed-wrapper figcaption.pull-left + blockquote, .html-embed-wrapper figcaption.pull-left + dl, .html-embed-wrapper figcaption.pull-left + figure, .html-embed-wrapper figcaption.pull-left + ol, .html-embed-wrapper figcaption.pull-left + p, .html-embed-wrapper figcaption.pull-left + pre, .html-embed-wrapper figcaption.pull-left + ul, .html-embed-wrapper figcaption.pull-right + address, .html-embed-wrapper figcaption.pull-right + blockquote, .html-embed-wrapper figcaption.pull-right + dl, .html-embed-wrapper figcaption.pull-right + figure, .html-embed-wrapper figcaption.pull-right + ol, .html-embed-wrapper figcaption.pull-right + p, .html-embed-wrapper figcaption.pull-right + pre, .html-embed-wrapper figcaption.pull-right + ul, .html-embed-wrapper figure.pull-left + address, .html-embed-wrapper figure.pull-left + blockquote, .html-embed-wrapper figure.pull-left + dl, .html-embed-wrapper figure.pull-left + figure, .html-embed-wrapper figure.pull-left + ol, .html-embed-wrapper figure.pull-left + p, .html-embed-wrapper figure.pull-left + pre, .html-embed-wrapper figure.pull-left + ul, .html-embed-wrapper figure.pull-right + address, .html-embed-wrapper figure.pull-right + blockquote, .html-embed-wrapper figure.pull-right + dl, .html-embed-wrapper figure.pull-right + figure, .html-embed-wrapper figure.pull-right + ol, .html-embed-wrapper figure.pull-right + p, .html-embed-wrapper figure.pull-right + pre, .html-embed-wrapper figure.pull-right + ul, .html-embed-wrapper p.pull-left + address, .html-embed-wrapper p.pull-left + blockquote, .html-embed-wrapper p.pull-left + dl, .html-embed-wrapper p.pull-left + figure, .html-embed-wrapper p.pull-left + ol, .html-embed-wrapper p.pull-left + p, .html-embed-wrapper p.pull-left + pre, .html-embed-wrapper p.pull-left + ul, .html-embed-wrapper p.pull-right + address, .html-embed-wrapper p.pull-right + blockquote, .html-embed-wrapper p.pull-right + dl, .html-embed-wrapper p.pull-right + figure, .html-embed-wrapper p.pull-right + ol, .html-embed-wrapper p.pull-right + p, .html-embed-wrapper p.pull-right + pre, .html-embed-wrapper p.pull-right + ul, .html-embed-wrapper q.pull-left + address, .html-embed-wrapper q.pull-left + blockquote, .html-embed-wrapper q.pull-left + dl, .html-embed-wrapper q.pull-left + figure, .html-embed-wrapper q.pull-left + ol, .html-embed-wrapper q.pull-left + p, .html-embed-wrapper q.pull-left + pre, .html-embed-wrapper q.pull-left + ul, .html-embed-wrapper q.pull-right + address, .html-embed-wrapper q.pull-right + blockquote, .html-embed-wrapper q.pull-right + dl, .html-embed-wrapper q.pull-right + figure, .html-embed-wrapper q.pull-right + ol, .html-embed-wrapper q.pull-right + p, .html-embed-wrapper q.pull-right + pre, .html-embed-wrapper q.pull-right + ul {margin-top: 0}
+.html-embed-wrapper aside.full-width.diag-back.full-width .pull-right {margin-right: initial;
+margin-top: 25px;
+margin-left: initial;
+min-width: 100%}
+.html-embed-wrapper aside.full-width.diag-back.full-width .pull-right img {min-width: 100%}
+@media (min-width: 480px) {
+.html-embed-wrapper aside.full-width.diag-back.full-width .pull-right {margin-top: 25px;
+margin-left: 5px;
+min-width: initial}
+.html-embed-wrapper aside.full-width.diag-back.full-width .pull-right img {min-width: initial}
+}
+.html-embed-wrapper aside.full-width.ombre-std.full-width .pull-right {margin-right: initial;
+margin-top: 5px;
+margin-left: initial;
+min-width: 100%}
+.html-embed-wrapper aside.full-width.ombre-std.full-width .pull-right img {min-width: 100%}
+@media (min-width: 480px) {
+.html-embed-wrapper aside.full-width.ombre-std.full-width .pull-right {margin-top: 25px;
+margin-left: 5px;
+min-width: initial}
+.html-embed-wrapper aside.full-width.ombre-std.full-width .pull-right img {min-width: initial}
+}
+.html-embed-wrapper aside.full-width.has-image figure.pull-right {margin-right: initial !important;
+max-width: 190px;
+margin-top: 44px !important;
+border-radius: initial}
+.html-embed-wrapper aside.full-width.has-image figure.pull-right img {border-radius: 50%}
+@media (max-width: 1309px) {
+.html-embed-wrapper aside.full-width.has-image figure.pull-right {margin-right: calc(100vw - 220px - 830px)}
+}
+@media (max-width: 1200px) {
+.html-embed-wrapper aside.full-width.has-image figure.pull-right {margin-right: calc(100vw - 220px - 750px)}
+}
+@media (max-width: 768px) {
+.html-embed-wrapper aside.full-width.has-image figure.pull-right {width: 22.5vw;
+max-width: 100%;
+width: 100%;
+margin: 0;
+float: initial !important;
+padding: 6% 20% 0 20%}
+.html-embed-wrapper aside.full-width.has-image figure.pull-right img {width: 100%}
+}
+.html-embed-wrapper aside.full-width.has-image figure.pull-right img:last-child {margin-bottom: 0}
+.html-embed-wrapper img.pull-left {margin: 0 15px 15px 0}
+.html-embed-wrapper img.pull-right {margin: 0 0 15px 15px}
+.html-embed-wrapper .text-block aside.full-width blockquote, .html-embed-wrapper .text-block aside.pull-left blockquote, .html-embed-wrapper .text-block aside.pull-right blockquote {margin: 25px 0 15px}
+.html-embed-wrapper .text-block aside.full-width blockquote, .html-embed-wrapper .text-block aside.pull-left blockquote, .html-embed-wrapper .text-block aside.pull-right blockquote {margin: 25px 0 15px}
+.html-embed-wrapper .text-block aside.full-width blockquote + cite, .html-embed-wrapper .text-block aside.pull-left blockquote + cite, .html-embed-wrapper .text-block aside.pull-right blockquote + cite {margin-bottom: 25px}
+.html-embed-wrapper .text-block aside.full-width blockquote + cite, .html-embed-wrapper .text-block aside.pull-left blockquote + cite, .html-embed-wrapper .text-block aside.pull-right blockquote + cite {margin-bottom: 25px}
+@media (min-width: 768px) {
+.html-embed-wrapper .text-block aside.pull-left, .html-embed-wrapper .text-block figure.pull-left {width: 46%;
+margin-right: 4%;
+margin-left: 0;
+padding-top: 0.7rem}
+.html-embed-wrapper .text-block aside.pull-left + h2, .html-embed-wrapper .text-block aside.pull-left + p, .html-embed-wrapper .text-block figure.pull-left + h2, .html-embed-wrapper .text-block figure.pull-left + p {margin-top: 0}
+.html-embed-wrapper .text-block aside.pull-left.one-third, .html-embed-wrapper .text-block figure.pull-left.one-third {width: 29%;
+margin-right: 4%}
+.html-embed-wrapper .text-block aside.pull-right, .html-embed-wrapper .text-block figure.pull-right {width: 46%;
+margin-left: 4%;
+margin-right: 0;
+padding-top: 0.7rem}
+.html-embed-wrapper .text-block aside.pull-right + h2, .html-embed-wrapper .text-block aside.pull-right + p, .html-embed-wrapper .text-block figure.pull-right + h2, .html-embed-wrapper .text-block figure.pull-right + p {margin-top: 0}
+.html-embed-wrapper .text-block aside.pull-right.one-third, .html-embed-wrapper .text-block figure.pull-right.one-third {width: 29%;
+margin-right: 4%}
+}
+.html-embed-wrapper ol.subtle-collapsible-list.col-xs-12, .html-embed-wrapper ul.subtle-collapsible-list.col-xs-12 {padding: 0 15px 0 0}
+.html-embed-wrapper .template-INSTITUTE .full-width figure.pull-right {width: 100%;
+margin: 0 !important;
+margin-top: 10px !important;
+min-width: 100%}
+.html-embed-wrapper .template-INSTITUTE .full-width figure.pull-right img {width: 100%;
+min-width: 100%}
+@media (min-width: 480px) {
+.html-embed-wrapper .template-INSTITUTE .full-width figure.pull-right {width: initial !important;
+min-width: initial !important;
+margin: 0;
+margin-top: 47px !important}
+.html-embed-wrapper .template-INSTITUTE .full-width figure.pull-right img {width: initial;
+min-width: initial}
+}
+.html-embed-wrapper .profile-block .pull-left img {border-radius: 50%}
+.html-embed-wrapper .profile-block .media-body {display: -ms-flexbox;
+display: flex;
+width: auto;
+-ms-flex-direction: column;
+flex-direction: column;
+width: 100%}
+.html-embed-wrapper .profile-block .media-body {display: -ms-flexbox;
+display: flex;
+width: auto;
+-ms-flex-direction: column;
+flex-direction: column;
+width: 100%}
+.html-embed-wrapper .profile-block .media-body h2 {color: #1a1c21;
+font-family: "GT Walsheim", Arial, sans-serif;
+font-size: 24px;
+margin-bottom: 5px;
+line-height: 3.5rem}
+.html-embed-wrapper .profile-block .media-body h2 {color: #1a1c21;
+font-family: "GT Walsheim", Arial, sans-serif;
+font-size: 24px;
+margin-bottom: 5px;
+line-height: 3.5rem}
+.html-embed-wrapper .profile-block .media-body span a {text-decoration: underline;
+font-weight: 700;
+line-height: 1}
+.html-embed-wrapper .profile-block .media-body span a {text-decoration: underline;
+font-weight: 700;
+line-height: 1}
+.html-embed-wrapper .profile-block .media-body address {line-height: 1.4em;
+font-size: 0.9em;
+margin-bottom: 5px;
+margin-top: 15px;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body address {line-height: 1.4em;
+font-size: 0.9em;
+margin-bottom: 5px;
+margin-top: 15px;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body address strong {margin-bottom: 10px;
+font-weight: 400}
+.html-embed-wrapper .profile-block .media-body address strong {margin-bottom: 10px;
+font-weight: 400}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-family: Arial, Helvetica, sans-serif;
+background-image: none !important;
+text-transform: uppercase;
+padding: 12px 24px;
+line-height: 1em;
+height: auto;
+border-radius: 25px;
+letter-spacing: 1px;
+font-size: 12px;
+background-color: #1a1c21 !important}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-family: Arial, Helvetica, sans-serif;
+background-image: none !important;
+text-transform: uppercase;
+padding: 12px 24px;
+line-height: 1em;
+height: auto;
+border-radius: 25px;
+letter-spacing: 1px;
+font-size: 12px;
+background-color: #1a1c21 !important}
+.html-embed-wrapper .profile-block .media-body .content {width: 100%;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .content {width: 100%;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .contact {font-family: Arial, Helvetica, sans-serif;
+width: 100%;
+display: -ms-flexbox;
+display: flex;
+-ms-flex-direction: column;
+flex-direction: column;
+-ms-flex-pack: center;
+justify-content: center}
+.html-embed-wrapper .profile-block .media-body .contact {font-family: Arial, Helvetica, sans-serif;
+width: 100%;
+display: -ms-flexbox;
+display: flex;
+-ms-flex-direction: column;
+flex-direction: column;
+-ms-flex-pack: center;
+justify-content: center}
+.html-embed-wrapper .profile-block .media-body .contact a {font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .contact a {font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .contact i.fa-envelope, .html-embed-wrapper .profile-block .media-body .contact i.fa-phone {color: #005099 !important}
+.html-embed-wrapper .profile-block .media-body .contact i.fa-envelope, .html-embed-wrapper .profile-block .media-body .contact i.fa-phone {color: #005099 !important}
+@media (min-width: 992px) {
+.html-embed-wrapper .profile-block .media-body {-ms-flex-direction: initial;
+flex-direction: initial;
+padding-left: 12px}
+.html-embed-wrapper .profile-block .media-body {-ms-flex-direction: initial;
+flex-direction: initial;
+padding-left: 12px}
+.html-embed-wrapper .profile-block .media-body h2 {font-size: 42px}
+.html-embed-wrapper .profile-block .media-body h2 {font-size: 42px}
+.html-embed-wrapper .profile-block .media-body span {font-size: 16px}
+.html-embed-wrapper .profile-block .media-body span {font-size: 16px}
+.html-embed-wrapper .profile-block .media-body address {margin-bottom: 0}
+.html-embed-wrapper .profile-block .media-body address {margin-bottom: 0}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-size: 13px;
+padding: 12px 24px}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-size: 13px;
+padding: 12px 24px}
+.html-embed-wrapper .profile-block .media-body .content {width: 61%}
+.html-embed-wrapper .profile-block .media-body .content {width: 61%}
+.html-embed-wrapper .profile-block .media-body .contact {width: 39%;
+border-left: 1px solid #707070;
+margin-left: 20px;
+padding-left: 20px}
+.html-embed-wrapper .profile-block .media-body .contact {width: 39%;
+border-left: 1px solid #707070;
+margin-left: 20px;
+padding-left: 20px}
+}
+&lt;/style&gt;&lt;section class="text-block clearfix" data-element="2016 Text Block" id="txt-5734209"&gt;
+ &lt;div class="col-xs-12"&gt;
+  &lt;div class="media"&gt;
+   &lt;div class="pull-left"&gt;
+    &lt;p&gt;
+     &lt;img alt="milestone flag" height="60px" src="/about/sustainability/images/map_3.png" title="milestone flag" width="60px"/&gt;
+    &lt;/p&gt;
+   &lt;/div&gt;
+   &lt;div class="media-body"&gt;
+    &lt;div class="pull-right"&gt;
+     &lt;h2&gt;
+      &lt;small&gt;
+       &lt;strong&gt;
+        New Sustainability Plan
+       &lt;/strong&gt;
+      &lt;/small&gt;
+     &lt;/h2&gt;
+     &lt;p&gt;
+      AU released a new five-year
+      &lt;a href="/about/sustainability/sustainability-plan/"&gt;
+       sustainability plan
+      &lt;/a&gt;
+      , AU’s third campus sustainability action plan.
+     &lt;/p&gt;
+    &lt;/div&gt;
+   &lt;/div&gt;
+  &lt;/div&gt;
+ &lt;/div&gt;
+&lt;/section&gt;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/about/sustainability/milestones</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>txt-5507286</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>txt-5507286</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+.html-embed-wrapper .blockquote-reverse, .html-embed-wrapper blockquote.pull-right {padding-right: 15px;
+padding-left: 0;
+border-right: 5px solid #eee;
+border-left: 0;
+text-align: right}
+.html-embed-wrapper .blockquote-reverse .small:before, .html-embed-wrapper .blockquote-reverse footer:before, .html-embed-wrapper .blockquote-reverse small:before, .html-embed-wrapper blockquote.pull-right .small:before, .html-embed-wrapper blockquote.pull-right footer:before, .html-embed-wrapper blockquote.pull-right small:before {content: ""}
+.html-embed-wrapper .blockquote-reverse .small:after, .html-embed-wrapper .blockquote-reverse footer:after, .html-embed-wrapper .blockquote-reverse small:after, .html-embed-wrapper blockquote.pull-right .small:after, .html-embed-wrapper blockquote.pull-right footer:after, .html-embed-wrapper blockquote.pull-right small:after {content: " —"}
+.html-embed-wrapper .col-lg-1, .html-embed-wrapper .col-lg-10, .html-embed-wrapper .col-lg-11, .html-embed-wrapper .col-lg-12, .html-embed-wrapper .col-lg-2, .html-embed-wrapper .col-lg-3, .html-embed-wrapper .col-lg-4, .html-embed-wrapper .col-lg-5, .html-embed-wrapper .col-lg-6, .html-embed-wrapper .col-lg-7, .html-embed-wrapper .col-lg-8, .html-embed-wrapper .col-lg-9, .html-embed-wrapper .col-md-1, .html-embed-wrapper .col-md-10, .html-embed-wrapper .col-md-11, .html-embed-wrapper .col-md-12, .html-embed-wrapper .col-md-2, .html-embed-wrapper .col-md-3, .html-embed-wrapper .col-md-4, .html-embed-wrapper .col-md-5, .html-embed-wrapper .col-md-6, .html-embed-wrapper .col-md-7, .html-embed-wrapper .col-md-8, .html-embed-wrapper .col-md-9, .html-embed-wrapper .col-sm-1, .html-embed-wrapper .col-sm-10, .html-embed-wrapper .col-sm-11, .html-embed-wrapper .col-sm-12, .html-embed-wrapper .col-sm-2, .html-embed-wrapper .col-sm-3, .html-embed-wrapper .col-sm-4, .html-embed-wrapper .col-sm-5, .html-embed-wrapper .col-sm-6, .html-embed-wrapper .col-sm-7, .html-embed-wrapper .col-sm-8, .html-embed-wrapper .col-sm-9, .html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {position: relative;
+min-height: 1px;
+padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {float: left}
+.html-embed-wrapper .col-xs-12 {width: 100%}
+.html-embed-wrapper .dropdown-menu.pull-right {right: 0;
+left: auto}
+.html-embed-wrapper .pull-right &gt; .dropdown-menu {right: 0;
+left: auto}
+.html-embed-wrapper .media {margin-top: 15px}
+.html-embed-wrapper .media:first-child {margin-top: 0}
+.html-embed-wrapper .media, .html-embed-wrapper .media-body {zoom: 1;
+overflow: hidden}
+.html-embed-wrapper .media, .html-embed-wrapper .media-body {zoom: 1;
+overflow: hidden}
+.html-embed-wrapper .media-body {width: 10000px}
+.html-embed-wrapper .media-body {width: 10000px}
+.html-embed-wrapper .media-object {display: block}
+.html-embed-wrapper .media-object.img-thumbnail {max-width: none}
+.html-embed-wrapper .media-right, .html-embed-wrapper .media &gt; .pull-right {padding-left: 10px}
+.html-embed-wrapper .media-right, .html-embed-wrapper .media &gt; .pull-right {padding-left: 10px}
+.html-embed-wrapper .media-left, .html-embed-wrapper .media &gt; .pull-left {padding-right: 10px}
+.html-embed-wrapper .media-left, .html-embed-wrapper .media &gt; .pull-left {padding-right: 10px}
+.html-embed-wrapper .media-body, .html-embed-wrapper .media-left, .html-embed-wrapper .media-right {display: table-cell;
+vertical-align: top}
+.html-embed-wrapper .media-body, .html-embed-wrapper .media-left, .html-embed-wrapper .media-right {display: table-cell;
+vertical-align: top}
+.html-embed-wrapper .media-middle {vertical-align: middle}
+.html-embed-wrapper .media-bottom {vertical-align: bottom}
+.html-embed-wrapper .media-heading {margin-top: 0;
+margin-bottom: 5px}
+.html-embed-wrapper .media-list {padding-left: 0;
+list-style: none}
+.html-embed-wrapper .pull-right {float: right !important}
+.html-embed-wrapper .pull-left {float: left !important}
+.html-embed-wrapper address.pull-left + address, .html-embed-wrapper address.pull-left + blockquote, .html-embed-wrapper address.pull-left + dl, .html-embed-wrapper address.pull-left + figure, .html-embed-wrapper address.pull-left + ol, .html-embed-wrapper address.pull-left + p, .html-embed-wrapper address.pull-left + pre, .html-embed-wrapper address.pull-left + ul, .html-embed-wrapper address.pull-right + address, .html-embed-wrapper address.pull-right + blockquote, .html-embed-wrapper address.pull-right + dl, .html-embed-wrapper address.pull-right + figure, .html-embed-wrapper address.pull-right + ol, .html-embed-wrapper address.pull-right + p, .html-embed-wrapper address.pull-right + pre, .html-embed-wrapper address.pull-right + ul, .html-embed-wrapper blockquote.pull-left + address, .html-embed-wrapper blockquote.pull-left + blockquote, .html-embed-wrapper blockquote.pull-left + dl, .html-embed-wrapper blockquote.pull-left + figure, .html-embed-wrapper blockquote.pull-left + ol, .html-embed-wrapper blockquote.pull-left + p, .html-embed-wrapper blockquote.pull-left + pre, .html-embed-wrapper blockquote.pull-left + ul, .html-embed-wrapper blockquote.pull-right + address, .html-embed-wrapper blockquote.pull-right + blockquote, .html-embed-wrapper blockquote.pull-right + dl, .html-embed-wrapper blockquote.pull-right + figure, .html-embed-wrapper blockquote.pull-right + ol, .html-embed-wrapper blockquote.pull-right + p, .html-embed-wrapper blockquote.pull-right + pre, .html-embed-wrapper blockquote.pull-right + ul, .html-embed-wrapper figcaption.pull-left + address, .html-embed-wrapper figcaption.pull-left + blockquote, .html-embed-wrapper figcaption.pull-left + dl, .html-embed-wrapper figcaption.pull-left + figure, .html-embed-wrapper figcaption.pull-left + ol, .html-embed-wrapper figcaption.pull-left + p, .html-embed-wrapper figcaption.pull-left + pre, .html-embed-wrapper figcaption.pull-left + ul, .html-embed-wrapper figcaption.pull-right + address, .html-embed-wrapper figcaption.pull-right + blockquote, .html-embed-wrapper figcaption.pull-right + dl, .html-embed-wrapper figcaption.pull-right + figure, .html-embed-wrapper figcaption.pull-right + ol, .html-embed-wrapper figcaption.pull-right + p, .html-embed-wrapper figcaption.pull-right + pre, .html-embed-wrapper figcaption.pull-right + ul, .html-embed-wrapper figure.pull-left + address, .html-embed-wrapper figure.pull-left + blockquote, .html-embed-wrapper figure.pull-left + dl, .html-embed-wrapper figure.pull-left + figure, .html-embed-wrapper figure.pull-left + ol, .html-embed-wrapper figure.pull-left + p, .html-embed-wrapper figure.pull-left + pre, .html-embed-wrapper figure.pull-left + ul, .html-embed-wrapper figure.pull-right + address, .html-embed-wrapper figure.pull-right + blockquote, .html-embed-wrapper figure.pull-right + dl, .html-embed-wrapper figure.pull-right + figure, .html-embed-wrapper figure.pull-right + ol, .html-embed-wrapper figure.pull-right + p, .html-embed-wrapper figure.pull-right + pre, .html-embed-wrapper figure.pull-right + ul, .html-embed-wrapper p.pull-left + address, .html-embed-wrapper p.pull-left + blockquote, .html-embed-wrapper p.pull-left + dl, .html-embed-wrapper p.pull-left + figure, .html-embed-wrapper p.pull-left + ol, .html-embed-wrapper p.pull-left + p, .html-embed-wrapper p.pull-left + pre, .html-embed-wrapper p.pull-left + ul, .html-embed-wrapper p.pull-right + address, .html-embed-wrapper p.pull-right + blockquote, .html-embed-wrapper p.pull-right + dl, .html-embed-wrapper p.pull-right + figure, .html-embed-wrapper p.pull-right + ol, .html-embed-wrapper p.pull-right + p, .html-embed-wrapper p.pull-right + pre, .html-embed-wrapper p.pull-right + ul, .html-embed-wrapper q.pull-left + address, .html-embed-wrapper q.pull-left + blockquote, .html-embed-wrapper q.pull-left + dl, .html-embed-wrapper q.pull-left + figure, .html-embed-wrapper q.pull-left + ol, .html-embed-wrapper q.pull-left + p, .html-embed-wrapper q.pull-left + pre, .html-embed-wrapper q.pull-left + ul, .html-embed-wrapper q.pull-right + address, .html-embed-wrapper q.pull-right + blockquote, .html-embed-wrapper q.pull-right + dl, .html-embed-wrapper q.pull-right + figure, .html-embed-wrapper q.pull-right + ol, .html-embed-wrapper q.pull-right + p, .html-embed-wrapper q.pull-right + pre, .html-embed-wrapper q.pull-right + ul {margin-top: 0}
+.html-embed-wrapper address.pull-left + address, .html-embed-wrapper address.pull-left + blockquote, .html-embed-wrapper address.pull-left + dl, .html-embed-wrapper address.pull-left + figure, .html-embed-wrapper address.pull-left + ol, .html-embed-wrapper address.pull-left + p, .html-embed-wrapper address.pull-left + pre, .html-embed-wrapper address.pull-left + ul, .html-embed-wrapper address.pull-right + address, .html-embed-wrapper address.pull-right + blockquote, .html-embed-wrapper address.pull-right + dl, .html-embed-wrapper address.pull-right + figure, .html-embed-wrapper address.pull-right + ol, .html-embed-wrapper address.pull-right + p, .html-embed-wrapper address.pull-right + pre, .html-embed-wrapper address.pull-right + ul, .html-embed-wrapper blockquote.pull-left + address, .html-embed-wrapper blockquote.pull-left + blockquote, .html-embed-wrapper blockquote.pull-left + dl, .html-embed-wrapper blockquote.pull-left + figure, .html-embed-wrapper blockquote.pull-left + ol, .html-embed-wrapper blockquote.pull-left + p, .html-embed-wrapper blockquote.pull-left + pre, .html-embed-wrapper blockquote.pull-left + ul, .html-embed-wrapper blockquote.pull-right + address, .html-embed-wrapper blockquote.pull-right + blockquote, .html-embed-wrapper blockquote.pull-right + dl, .html-embed-wrapper blockquote.pull-right + figure, .html-embed-wrapper blockquote.pull-right + ol, .html-embed-wrapper blockquote.pull-right + p, .html-embed-wrapper blockquote.pull-right + pre, .html-embed-wrapper blockquote.pull-right + ul, .html-embed-wrapper figcaption.pull-left + address, .html-embed-wrapper figcaption.pull-left + blockquote, .html-embed-wrapper figcaption.pull-left + dl, .html-embed-wrapper figcaption.pull-left + figure, .html-embed-wrapper figcaption.pull-left + ol, .html-embed-wrapper figcaption.pull-left + p, .html-embed-wrapper figcaption.pull-left + pre, .html-embed-wrapper figcaption.pull-left + ul, .html-embed-wrapper figcaption.pull-right + address, .html-embed-wrapper figcaption.pull-right + blockquote, .html-embed-wrapper figcaption.pull-right + dl, .html-embed-wrapper figcaption.pull-right + figure, .html-embed-wrapper figcaption.pull-right + ol, .html-embed-wrapper figcaption.pull-right + p, .html-embed-wrapper figcaption.pull-right + pre, .html-embed-wrapper figcaption.pull-right + ul, .html-embed-wrapper figure.pull-left + address, .html-embed-wrapper figure.pull-left + blockquote, .html-embed-wrapper figure.pull-left + dl, .html-embed-wrapper figure.pull-left + figure, .html-embed-wrapper figure.pull-left + ol, .html-embed-wrapper figure.pull-left + p, .html-embed-wrapper figure.pull-left + pre, .html-embed-wrapper figure.pull-left + ul, .html-embed-wrapper figure.pull-right + address, .html-embed-wrapper figure.pull-right + blockquote, .html-embed-wrapper figure.pull-right + dl, .html-embed-wrapper figure.pull-right + figure, .html-embed-wrapper figure.pull-right + ol, .html-embed-wrapper figure.pull-right + p, .html-embed-wrapper figure.pull-right + pre, .html-embed-wrapper figure.pull-right + ul, .html-embed-wrapper p.pull-left + address, .html-embed-wrapper p.pull-left + blockquote, .html-embed-wrapper p.pull-left + dl, .html-embed-wrapper p.pull-left + figure, .html-embed-wrapper p.pull-left + ol, .html-embed-wrapper p.pull-left + p, .html-embed-wrapper p.pull-left + pre, .html-embed-wrapper p.pull-left + ul, .html-embed-wrapper p.pull-right + address, .html-embed-wrapper p.pull-right + blockquote, .html-embed-wrapper p.pull-right + dl, .html-embed-wrapper p.pull-right + figure, .html-embed-wrapper p.pull-right + ol, .html-embed-wrapper p.pull-right + p, .html-embed-wrapper p.pull-right + pre, .html-embed-wrapper p.pull-right + ul, .html-embed-wrapper q.pull-left + address, .html-embed-wrapper q.pull-left + blockquote, .html-embed-wrapper q.pull-left + dl, .html-embed-wrapper q.pull-left + figure, .html-embed-wrapper q.pull-left + ol, .html-embed-wrapper q.pull-left + p, .html-embed-wrapper q.pull-left + pre, .html-embed-wrapper q.pull-left + ul, .html-embed-wrapper q.pull-right + address, .html-embed-wrapper q.pull-right + blockquote, .html-embed-wrapper q.pull-right + dl, .html-embed-wrapper q.pull-right + figure, .html-embed-wrapper q.pull-right + ol, .html-embed-wrapper q.pull-right + p, .html-embed-wrapper q.pull-right + pre, .html-embed-wrapper q.pull-right + ul {margin-top: 0}
+.html-embed-wrapper aside.full-width.diag-back.full-width .pull-right {margin-right: initial;
+margin-top: 25px;
+margin-left: initial;
+min-width: 100%}
+.html-embed-wrapper aside.full-width.diag-back.full-width .pull-right img {min-width: 100%}
+@media (min-width: 480px) {
+.html-embed-wrapper aside.full-width.diag-back.full-width .pull-right {margin-top: 25px;
+margin-left: 5px;
+min-width: initial}
+.html-embed-wrapper aside.full-width.diag-back.full-width .pull-right img {min-width: initial}
+}
+.html-embed-wrapper aside.full-width.ombre-std.full-width .pull-right {margin-right: initial;
+margin-top: 5px;
+margin-left: initial;
+min-width: 100%}
+.html-embed-wrapper aside.full-width.ombre-std.full-width .pull-right img {min-width: 100%}
+@media (min-width: 480px) {
+.html-embed-wrapper aside.full-width.ombre-std.full-width .pull-right {margin-top: 25px;
+margin-left: 5px;
+min-width: initial}
+.html-embed-wrapper aside.full-width.ombre-std.full-width .pull-right img {min-width: initial}
+}
+.html-embed-wrapper aside.full-width.has-image figure.pull-right {margin-right: initial !important;
+max-width: 190px;
+margin-top: 44px !important;
+border-radius: initial}
+.html-embed-wrapper aside.full-width.has-image figure.pull-right img {border-radius: 50%}
+@media (max-width: 1309px) {
+.html-embed-wrapper aside.full-width.has-image figure.pull-right {margin-right: calc(100vw - 220px - 830px)}
+}
+@media (max-width: 1200px) {
+.html-embed-wrapper aside.full-width.has-image figure.pull-right {margin-right: calc(100vw - 220px - 750px)}
+}
+@media (max-width: 768px) {
+.html-embed-wrapper aside.full-width.has-image figure.pull-right {width: 22.5vw;
+max-width: 100%;
+width: 100%;
+margin: 0;
+float: initial !important;
+padding: 6% 20% 0 20%}
+.html-embed-wrapper aside.full-width.has-image figure.pull-right img {width: 100%}
+}
+.html-embed-wrapper aside.full-width.has-image figure.pull-right img:last-child {margin-bottom: 0}
+.html-embed-wrapper img.pull-left {margin: 0 15px 15px 0}
+.html-embed-wrapper img.pull-right {margin: 0 0 15px 15px}
+.html-embed-wrapper .text-block aside.full-width blockquote, .html-embed-wrapper .text-block aside.pull-left blockquote, .html-embed-wrapper .text-block aside.pull-right blockquote {margin: 25px 0 15px}
+.html-embed-wrapper .text-block aside.full-width blockquote, .html-embed-wrapper .text-block aside.pull-left blockquote, .html-embed-wrapper .text-block aside.pull-right blockquote {margin: 25px 0 15px}
+.html-embed-wrapper .text-block aside.full-width blockquote + cite, .html-embed-wrapper .text-block aside.pull-left blockquote + cite, .html-embed-wrapper .text-block aside.pull-right blockquote + cite {margin-bottom: 25px}
+.html-embed-wrapper .text-block aside.full-width blockquote + cite, .html-embed-wrapper .text-block aside.pull-left blockquote + cite, .html-embed-wrapper .text-block aside.pull-right blockquote + cite {margin-bottom: 25px}
+@media (min-width: 768px) {
+.html-embed-wrapper .text-block aside.pull-left, .html-embed-wrapper .text-block figure.pull-left {width: 46%;
+margin-right: 4%;
+margin-left: 0;
+padding-top: 0.7rem}
+.html-embed-wrapper .text-block aside.pull-left + h2, .html-embed-wrapper .text-block aside.pull-left + p, .html-embed-wrapper .text-block figure.pull-left + h2, .html-embed-wrapper .text-block figure.pull-left + p {margin-top: 0}
+.html-embed-wrapper .text-block aside.pull-left.one-third, .html-embed-wrapper .text-block figure.pull-left.one-third {width: 29%;
+margin-right: 4%}
+.html-embed-wrapper .text-block aside.pull-right, .html-embed-wrapper .text-block figure.pull-right {width: 46%;
+margin-left: 4%;
+margin-right: 0;
+padding-top: 0.7rem}
+.html-embed-wrapper .text-block aside.pull-right + h2, .html-embed-wrapper .text-block aside.pull-right + p, .html-embed-wrapper .text-block figure.pull-right + h2, .html-embed-wrapper .text-block figure.pull-right + p {margin-top: 0}
+.html-embed-wrapper .text-block aside.pull-right.one-third, .html-embed-wrapper .text-block figure.pull-right.one-third {width: 29%;
+margin-right: 4%}
+}
+.html-embed-wrapper ol.subtle-collapsible-list.col-xs-12, .html-embed-wrapper ul.subtle-collapsible-list.col-xs-12 {padding: 0 15px 0 0}
+.html-embed-wrapper .template-INSTITUTE .full-width figure.pull-right {width: 100%;
+margin: 0 !important;
+margin-top: 10px !important;
+min-width: 100%}
+.html-embed-wrapper .template-INSTITUTE .full-width figure.pull-right img {width: 100%;
+min-width: 100%}
+@media (min-width: 480px) {
+.html-embed-wrapper .template-INSTITUTE .full-width figure.pull-right {width: initial !important;
+min-width: initial !important;
+margin: 0;
+margin-top: 47px !important}
+.html-embed-wrapper .template-INSTITUTE .full-width figure.pull-right img {width: initial;
+min-width: initial}
+}
+.html-embed-wrapper .profile-block .pull-left img {border-radius: 50%}
+.html-embed-wrapper .profile-block .media-body {display: -ms-flexbox;
+display: flex;
+width: auto;
+-ms-flex-direction: column;
+flex-direction: column;
+width: 100%}
+.html-embed-wrapper .profile-block .media-body {display: -ms-flexbox;
+display: flex;
+width: auto;
+-ms-flex-direction: column;
+flex-direction: column;
+width: 100%}
+.html-embed-wrapper .profile-block .media-body h2 {color: #1a1c21;
+font-family: "GT Walsheim", Arial, sans-serif;
+font-size: 24px;
+margin-bottom: 5px;
+line-height: 3.5rem}
+.html-embed-wrapper .profile-block .media-body h2 {color: #1a1c21;
+font-family: "GT Walsheim", Arial, sans-serif;
+font-size: 24px;
+margin-bottom: 5px;
+line-height: 3.5rem}
+.html-embed-wrapper .profile-block .media-body span a {text-decoration: underline;
+font-weight: 700;
+line-height: 1}
+.html-embed-wrapper .profile-block .media-body span a {text-decoration: underline;
+font-weight: 700;
+line-height: 1}
+.html-embed-wrapper .profile-block .media-body address {line-height: 1.4em;
+font-size: 0.9em;
+margin-bottom: 5px;
+margin-top: 15px;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body address {line-height: 1.4em;
+font-size: 0.9em;
+margin-bottom: 5px;
+margin-top: 15px;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body address strong {margin-bottom: 10px;
+font-weight: 400}
+.html-embed-wrapper .profile-block .media-body address strong {margin-bottom: 10px;
+font-weight: 400}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-family: Arial, Helvetica, sans-serif;
+background-image: none !important;
+text-transform: uppercase;
+padding: 12px 24px;
+line-height: 1em;
+height: auto;
+border-radius: 25px;
+letter-spacing: 1px;
+font-size: 12px;
+background-color: #1a1c21 !important}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-family: Arial, Helvetica, sans-serif;
+background-image: none !important;
+text-transform: uppercase;
+padding: 12px 24px;
+line-height: 1em;
+height: auto;
+border-radius: 25px;
+letter-spacing: 1px;
+font-size: 12px;
+background-color: #1a1c21 !important}
+.html-embed-wrapper .profile-block .media-body .content {width: 100%;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .content {width: 100%;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .contact {font-family: Arial, Helvetica, sans-serif;
+width: 100%;
+display: -ms-flexbox;
+display: flex;
+-ms-flex-direction: column;
+flex-direction: column;
+-ms-flex-pack: center;
+justify-content: center}
+.html-embed-wrapper .profile-block .media-body .contact {font-family: Arial, Helvetica, sans-serif;
+width: 100%;
+display: -ms-flexbox;
+display: flex;
+-ms-flex-direction: column;
+flex-direction: column;
+-ms-flex-pack: center;
+justify-content: center}
+.html-embed-wrapper .profile-block .media-body .contact a {font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .contact a {font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .contact i.fa-envelope, .html-embed-wrapper .profile-block .media-body .contact i.fa-phone {color: #005099 !important}
+.html-embed-wrapper .profile-block .media-body .contact i.fa-envelope, .html-embed-wrapper .profile-block .media-body .contact i.fa-phone {color: #005099 !important}
+@media (min-width: 992px) {
+.html-embed-wrapper .profile-block .media-body {-ms-flex-direction: initial;
+flex-direction: initial;
+padding-left: 12px}
+.html-embed-wrapper .profile-block .media-body {-ms-flex-direction: initial;
+flex-direction: initial;
+padding-left: 12px}
+.html-embed-wrapper .profile-block .media-body h2 {font-size: 42px}
+.html-embed-wrapper .profile-block .media-body h2 {font-size: 42px}
+.html-embed-wrapper .profile-block .media-body span {font-size: 16px}
+.html-embed-wrapper .profile-block .media-body span {font-size: 16px}
+.html-embed-wrapper .profile-block .media-body address {margin-bottom: 0}
+.html-embed-wrapper .profile-block .media-body address {margin-bottom: 0}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-size: 13px;
+padding: 12px 24px}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-size: 13px;
+padding: 12px 24px}
+.html-embed-wrapper .profile-block .media-body .content {width: 61%}
+.html-embed-wrapper .profile-block .media-body .content {width: 61%}
+.html-embed-wrapper .profile-block .media-body .contact {width: 39%;
+border-left: 1px solid #707070;
+margin-left: 20px;
+padding-left: 20px}
+.html-embed-wrapper .profile-block .media-body .contact {width: 39%;
+border-left: 1px solid #707070;
+margin-left: 20px;
+padding-left: 20px}
+}
+&lt;/style&gt;&lt;section class="text-block clearfix" data-element="2016 Text Block" id="txt-5507286"&gt;
+ &lt;div class="col-xs-12"&gt;
+  &lt;div class="media"&gt;
+   &lt;div class="pull-left"&gt;
+    &lt;p&gt;
+     &lt;img alt="fuel pump" height="60px" src="https://www.american.edu/about/sustainability/images/gas_2.png" title="fuel pump" width="60px"/&gt;
+    &lt;/p&gt;
+   &lt;/div&gt;
+   &lt;div class="media-body"&gt;
+    &lt;div class="pull-right"&gt;
+     &lt;h2&gt;
+      &lt;small&gt;
+       &lt;strong&gt;
+        AU Divests From Fossil Fuels
+       &lt;/strong&gt;
+      &lt;/small&gt;
+     &lt;/h2&gt;
+     &lt;p&gt;
+      AU eliminated all public
+      &lt;a href="https://www.american.edu/media/news/20200422-divestment"&gt;
+       fossil fuel investments
+      &lt;/a&gt;
+      from its endowment.
+     &lt;/p&gt;
+    &lt;/div&gt;
+   &lt;/div&gt;
+  &lt;/div&gt;
+ &lt;/div&gt;
+&lt;/section&gt;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/about/sustainability/milestones</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>txt-5507289</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>txt-5507289</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+.html-embed-wrapper .blockquote-reverse, .html-embed-wrapper blockquote.pull-right {padding-right: 15px;
+padding-left: 0;
+border-right: 5px solid #eee;
+border-left: 0;
+text-align: right}
+.html-embed-wrapper .blockquote-reverse .small:before, .html-embed-wrapper .blockquote-reverse footer:before, .html-embed-wrapper .blockquote-reverse small:before, .html-embed-wrapper blockquote.pull-right .small:before, .html-embed-wrapper blockquote.pull-right footer:before, .html-embed-wrapper blockquote.pull-right small:before {content: ""}
+.html-embed-wrapper .blockquote-reverse .small:after, .html-embed-wrapper .blockquote-reverse footer:after, .html-embed-wrapper .blockquote-reverse small:after, .html-embed-wrapper blockquote.pull-right .small:after, .html-embed-wrapper blockquote.pull-right footer:after, .html-embed-wrapper blockquote.pull-right small:after {content: " —"}
+.html-embed-wrapper .col-lg-1, .html-embed-wrapper .col-lg-10, .html-embed-wrapper .col-lg-11, .html-embed-wrapper .col-lg-12, .html-embed-wrapper .col-lg-2, .html-embed-wrapper .col-lg-3, .html-embed-wrapper .col-lg-4, .html-embed-wrapper .col-lg-5, .html-embed-wrapper .col-lg-6, .html-embed-wrapper .col-lg-7, .html-embed-wrapper .col-lg-8, .html-embed-wrapper .col-lg-9, .html-embed-wrapper .col-md-1, .html-embed-wrapper .col-md-10, .html-embed-wrapper .col-md-11, .html-embed-wrapper .col-md-12, .html-embed-wrapper .col-md-2, .html-embed-wrapper .col-md-3, .html-embed-wrapper .col-md-4, .html-embed-wrapper .col-md-5, .html-embed-wrapper .col-md-6, .html-embed-wrapper .col-md-7, .html-embed-wrapper .col-md-8, .html-embed-wrapper .col-md-9, .html-embed-wrapper .col-sm-1, .html-embed-wrapper .col-sm-10, .html-embed-wrapper .col-sm-11, .html-embed-wrapper .col-sm-12, .html-embed-wrapper .col-sm-2, .html-embed-wrapper .col-sm-3, .html-embed-wrapper .col-sm-4, .html-embed-wrapper .col-sm-5, .html-embed-wrapper .col-sm-6, .html-embed-wrapper .col-sm-7, .html-embed-wrapper .col-sm-8, .html-embed-wrapper .col-sm-9, .html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {position: relative;
+min-height: 1px;
+padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {float: left}
+.html-embed-wrapper .col-xs-12 {width: 100%}
+.html-embed-wrapper .dropdown-menu.pull-right {right: 0;
+left: auto}
+.html-embed-wrapper .pull-right &gt; .dropdown-menu {right: 0;
+left: auto}
+.html-embed-wrapper .media {margin-top: 15px}
+.html-embed-wrapper .media:first-child {margin-top: 0}
+.html-embed-wrapper .media, .html-embed-wrapper .media-body {zoom: 1;
+overflow: hidden}
+.html-embed-wrapper .media, .html-embed-wrapper .media-body {zoom: 1;
+overflow: hidden}
+.html-embed-wrapper .media-body {width: 10000px}
+.html-embed-wrapper .media-body {width: 10000px}
+.html-embed-wrapper .media-object {display: block}
+.html-embed-wrapper .media-object.img-thumbnail {max-width: none}
+.html-embed-wrapper .media-right, .html-embed-wrapper .media &gt; .pull-right {padding-left: 10px}
+.html-embed-wrapper .media-right, .html-embed-wrapper .media &gt; .pull-right {padding-left: 10px}
+.html-embed-wrapper .media-left, .html-embed-wrapper .media &gt; .pull-left {padding-right: 10px}
+.html-embed-wrapper .media-left, .html-embed-wrapper .media &gt; .pull-left {padding-right: 10px}
+.html-embed-wrapper .media-body, .html-embed-wrapper .media-left, .html-embed-wrapper .media-right {display: table-cell;
+vertical-align: top}
+.html-embed-wrapper .media-body, .html-embed-wrapper .media-left, .html-embed-wrapper .media-right {display: table-cell;
+vertical-align: top}
+.html-embed-wrapper .media-middle {vertical-align: middle}
+.html-embed-wrapper .media-bottom {vertical-align: bottom}
+.html-embed-wrapper .media-heading {margin-top: 0;
+margin-bottom: 5px}
+.html-embed-wrapper .media-list {padding-left: 0;
+list-style: none}
+.html-embed-wrapper .pull-right {float: right !important}
+.html-embed-wrapper .pull-left {float: left !important}
+.html-embed-wrapper address.pull-left + address, .html-embed-wrapper address.pull-left + blockquote, .html-embed-wrapper address.pull-left + dl, .html-embed-wrapper address.pull-left + figure, .html-embed-wrapper address.pull-left + ol, .html-embed-wrapper address.pull-left + p, .html-embed-wrapper address.pull-left + pre, .html-embed-wrapper address.pull-left + ul, .html-embed-wrapper address.pull-right + address, .html-embed-wrapper address.pull-right + blockquote, .html-embed-wrapper address.pull-right + dl, .html-embed-wrapper address.pull-right + figure, .html-embed-wrapper address.pull-right + ol, .html-embed-wrapper address.pull-right + p, .html-embed-wrapper address.pull-right + pre, .html-embed-wrapper address.pull-right + ul, .html-embed-wrapper blockquote.pull-left + address, .html-embed-wrapper blockquote.pull-left + blockquote, .html-embed-wrapper blockquote.pull-left + dl, .html-embed-wrapper blockquote.pull-left + figure, .html-embed-wrapper blockquote.pull-left + ol, .html-embed-wrapper blockquote.pull-left + p, .html-embed-wrapper blockquote.pull-left + pre, .html-embed-wrapper blockquote.pull-left + ul, .html-embed-wrapper blockquote.pull-right + address, .html-embed-wrapper blockquote.pull-right + blockquote, .html-embed-wrapper blockquote.pull-right + dl, .html-embed-wrapper blockquote.pull-right + figure, .html-embed-wrapper blockquote.pull-right + ol, .html-embed-wrapper blockquote.pull-right + p, .html-embed-wrapper blockquote.pull-right + pre, .html-embed-wrapper blockquote.pull-right + ul, .html-embed-wrapper figcaption.pull-left + address, .html-embed-wrapper figcaption.pull-left + blockquote, .html-embed-wrapper figcaption.pull-left + dl, .html-embed-wrapper figcaption.pull-left + figure, .html-embed-wrapper figcaption.pull-left + ol, .html-embed-wrapper figcaption.pull-left + p, .html-embed-wrapper figcaption.pull-left + pre, .html-embed-wrapper figcaption.pull-left + ul, .html-embed-wrapper figcaption.pull-right + address, .html-embed-wrapper figcaption.pull-right + blockquote, .html-embed-wrapper figcaption.pull-right + dl, .html-embed-wrapper figcaption.pull-right + figure, .html-embed-wrapper figcaption.pull-right + ol, .html-embed-wrapper figcaption.pull-right + p, .html-embed-wrapper figcaption.pull-right + pre, .html-embed-wrapper figcaption.pull-right + ul, .html-embed-wrapper figure.pull-left + address, .html-embed-wrapper figure.pull-left + blockquote, .html-embed-wrapper figure.pull-left + dl, .html-embed-wrapper figure.pull-left + figure, .html-embed-wrapper figure.pull-left + ol, .html-embed-wrapper figure.pull-left + p, .html-embed-wrapper figure.pull-left + pre, .html-embed-wrapper figure.pull-left + ul, .html-embed-wrapper figure.pull-right + address, .html-embed-wrapper figure.pull-right + blockquote, .html-embed-wrapper figure.pull-right + dl, .html-embed-wrapper figure.pull-right + figure, .html-embed-wrapper figure.pull-right + ol, .html-embed-wrapper figure.pull-right + p, .html-embed-wrapper figure.pull-right + pre, .html-embed-wrapper figure.pull-right + ul, .html-embed-wrapper p.pull-left + address, .html-embed-wrapper p.pull-left + blockquote, .html-embed-wrapper p.pull-left + dl, .html-embed-wrapper p.pull-left + figure, .html-embed-wrapper p.pull-left + ol, .html-embed-wrapper p.pull-left + p, .html-embed-wrapper p.pull-left + pre, .html-embed-wrapper p.pull-left + ul, .html-embed-wrapper p.pull-right + address, .html-embed-wrapper p.pull-right + blockquote, .html-embed-wrapper p.pull-right + dl, .html-embed-wrapper p.pull-right + figure, .html-embed-wrapper p.pull-right + ol, .html-embed-wrapper p.pull-right + p, .html-embed-wrapper p.pull-right + pre, .html-embed-wrapper p.pull-right + ul, .html-embed-wrapper q.pull-left + address, .html-embed-wrapper q.pull-left + blockquote, .html-embed-wrapper q.pull-left + dl, .html-embed-wrapper q.pull-left + figure, .html-embed-wrapper q.pull-left + ol, .html-embed-wrapper q.pull-left + p, .html-embed-wrapper q.pull-left + pre, .html-embed-wrapper q.pull-left + ul, .html-embed-wrapper q.pull-right + address, .html-embed-wrapper q.pull-right + blockquote, .html-embed-wrapper q.pull-right + dl, .html-embed-wrapper q.pull-right + figure, .html-embed-wrapper q.pull-right + ol, .html-embed-wrapper q.pull-right + p, .html-embed-wrapper q.pull-right + pre, .html-embed-wrapper q.pull-right + ul {margin-top: 0}
+.html-embed-wrapper address.pull-left + address, .html-embed-wrapper address.pull-left + blockquote, .html-embed-wrapper address.pull-left + dl, .html-embed-wrapper address.pull-left + figure, .html-embed-wrapper address.pull-left + ol, .html-embed-wrapper address.pull-left + p, .html-embed-wrapper address.pull-left + pre, .html-embed-wrapper address.pull-left + ul, .html-embed-wrapper address.pull-right + address, .html-embed-wrapper address.pull-right + blockquote, .html-embed-wrapper address.pull-right + dl, .html-embed-wrapper address.pull-right + figure, .html-embed-wrapper address.pull-right + ol, .html-embed-wrapper address.pull-right + p, .html-embed-wrapper address.pull-right + pre, .html-embed-wrapper address.pull-right + ul, .html-embed-wrapper blockquote.pull-left + address, .html-embed-wrapper blockquote.pull-left + blockquote, .html-embed-wrapper blockquote.pull-left + dl, .html-embed-wrapper blockquote.pull-left + figure, .html-embed-wrapper blockquote.pull-left + ol, .html-embed-wrapper blockquote.pull-left + p, .html-embed-wrapper blockquote.pull-left + pre, .html-embed-wrapper blockquote.pull-left + ul, .html-embed-wrapper blockquote.pull-right + address, .html-embed-wrapper blockquote.pull-right + blockquote, .html-embed-wrapper blockquote.pull-right + dl, .html-embed-wrapper blockquote.pull-right + figure, .html-embed-wrapper blockquote.pull-right + ol, .html-embed-wrapper blockquote.pull-right + p, .html-embed-wrapper blockquote.pull-right + pre, .html-embed-wrapper blockquote.pull-right + ul, .html-embed-wrapper figcaption.pull-left + address, .html-embed-wrapper figcaption.pull-left + blockquote, .html-embed-wrapper figcaption.pull-left + dl, .html-embed-wrapper figcaption.pull-left + figure, .html-embed-wrapper figcaption.pull-left + ol, .html-embed-wrapper figcaption.pull-left + p, .html-embed-wrapper figcaption.pull-left + pre, .html-embed-wrapper figcaption.pull-left + ul, .html-embed-wrapper figcaption.pull-right + address, .html-embed-wrapper figcaption.pull-right + blockquote, .html-embed-wrapper figcaption.pull-right + dl, .html-embed-wrapper figcaption.pull-right + figure, .html-embed-wrapper figcaption.pull-right + ol, .html-embed-wrapper figcaption.pull-right + p, .html-embed-wrapper figcaption.pull-right + pre, .html-embed-wrapper figcaption.pull-right + ul, .html-embed-wrapper figure.pull-left + address, .html-embed-wrapper figure.pull-left + blockquote, .html-embed-wrapper figure.pull-left + dl, .html-embed-wrapper figure.pull-left + figure, .html-embed-wrapper figure.pull-left + ol, .html-embed-wrapper figure.pull-left + p, .html-embed-wrapper figure.pull-left + pre, .html-embed-wrapper figure.pull-left + ul, .html-embed-wrapper figure.pull-right + address, .html-embed-wrapper figure.pull-right + blockquote, .html-embed-wrapper figure.pull-right + dl, .html-embed-wrapper figure.pull-right + figure, .html-embed-wrapper figure.pull-right + ol, .html-embed-wrapper figure.pull-right + p, .html-embed-wrapper figure.pull-right + pre, .html-embed-wrapper figure.pull-right + ul, .html-embed-wrapper p.pull-left + address, .html-embed-wrapper p.pull-left + blockquote, .html-embed-wrapper p.pull-left + dl, .html-embed-wrapper p.pull-left + figure, .html-embed-wrapper p.pull-left + ol, .html-embed-wrapper p.pull-left + p, .html-embed-wrapper p.pull-left + pre, .html-embed-wrapper p.pull-left + ul, .html-embed-wrapper p.pull-right + address, .html-embed-wrapper p.pull-right + blockquote, .html-embed-wrapper p.pull-right + dl, .html-embed-wrapper p.pull-right + figure, .html-embed-wrapper p.pull-right + ol, .html-embed-wrapper p.pull-right + p, .html-embed-wrapper p.pull-right + pre, .html-embed-wrapper p.pull-right + ul, .html-embed-wrapper q.pull-left + address, .html-embed-wrapper q.pull-left + blockquote, .html-embed-wrapper q.pull-left + dl, .html-embed-wrapper q.pull-left + figure, .html-embed-wrapper q.pull-left + ol, .html-embed-wrapper q.pull-left + p, .html-embed-wrapper q.pull-left + pre, .html-embed-wrapper q.pull-left + ul, .html-embed-wrapper q.pull-right + address, .html-embed-wrapper q.pull-right + blockquote, .html-embed-wrapper q.pull-right + dl, .html-embed-wrapper q.pull-right + figure, .html-embed-wrapper q.pull-right + ol, .html-embed-wrapper q.pull-right + p, .html-embed-wrapper q.pull-right + pre, .html-embed-wrapper q.pull-right + ul {margin-top: 0}
+.html-embed-wrapper aside.full-width.diag-back.full-width .pull-right {margin-right: initial;
+margin-top: 25px;
+margin-left: initial;
+min-width: 100%}
+.html-embed-wrapper aside.full-width.diag-back.full-width .pull-right img {min-width: 100%}
+@media (min-width: 480px) {
+.html-embed-wrapper aside.full-width.diag-back.full-width .pull-right {margin-top: 25px;
+margin-left: 5px;
+min-width: initial}
+.html-embed-wrapper aside.full-width.diag-back.full-width .pull-right img {min-width: initial}
+}
+.html-embed-wrapper aside.full-width.ombre-std.full-width .pull-right {margin-right: initial;
+margin-top: 5px;
+margin-left: initial;
+min-width: 100%}
+.html-embed-wrapper aside.full-width.ombre-std.full-width .pull-right img {min-width: 100%}
+@media (min-width: 480px) {
+.html-embed-wrapper aside.full-width.ombre-std.full-width .pull-right {margin-top: 25px;
+margin-left: 5px;
+min-width: initial}
+.html-embed-wrapper aside.full-width.ombre-std.full-width .pull-right img {min-width: initial}
+}
+.html-embed-wrapper aside.full-width.has-image figure.pull-right {margin-right: initial !important;
+max-width: 190px;
+margin-top: 44px !important;
+border-radius: initial}
+.html-embed-wrapper aside.full-width.has-image figure.pull-right img {border-radius: 50%}
+@media (max-width: 1309px) {
+.html-embed-wrapper aside.full-width.has-image figure.pull-right {margin-right: calc(100vw - 220px - 830px)}
+}
+@media (max-width: 1200px) {
+.html-embed-wrapper aside.full-width.has-image figure.pull-right {margin-right: calc(100vw - 220px - 750px)}
+}
+@media (max-width: 768px) {
+.html-embed-wrapper aside.full-width.has-image figure.pull-right {width: 22.5vw;
+max-width: 100%;
+width: 100%;
+margin: 0;
+float: initial !important;
+padding: 6% 20% 0 20%}
+.html-embed-wrapper aside.full-width.has-image figure.pull-right img {width: 100%}
+}
+.html-embed-wrapper aside.full-width.has-image figure.pull-right img:last-child {margin-bottom: 0}
+.html-embed-wrapper img.pull-left {margin: 0 15px 15px 0}
+.html-embed-wrapper img.pull-right {margin: 0 0 15px 15px}
+.html-embed-wrapper .text-block aside.full-width blockquote, .html-embed-wrapper .text-block aside.pull-left blockquote, .html-embed-wrapper .text-block aside.pull-right blockquote {margin: 25px 0 15px}
+.html-embed-wrapper .text-block aside.full-width blockquote, .html-embed-wrapper .text-block aside.pull-left blockquote, .html-embed-wrapper .text-block aside.pull-right blockquote {margin: 25px 0 15px}
+.html-embed-wrapper .text-block aside.full-width blockquote + cite, .html-embed-wrapper .text-block aside.pull-left blockquote + cite, .html-embed-wrapper .text-block aside.pull-right blockquote + cite {margin-bottom: 25px}
+.html-embed-wrapper .text-block aside.full-width blockquote + cite, .html-embed-wrapper .text-block aside.pull-left blockquote + cite, .html-embed-wrapper .text-block aside.pull-right blockquote + cite {margin-bottom: 25px}
+@media (min-width: 768px) {
+.html-embed-wrapper .text-block aside.pull-left, .html-embed-wrapper .text-block figure.pull-left {width: 46%;
+margin-right: 4%;
+margin-left: 0;
+padding-top: 0.7rem}
+.html-embed-wrapper .text-block aside.pull-left + h2, .html-embed-wrapper .text-block aside.pull-left + p, .html-embed-wrapper .text-block figure.pull-left + h2, .html-embed-wrapper .text-block figure.pull-left + p {margin-top: 0}
+.html-embed-wrapper .text-block aside.pull-left.one-third, .html-embed-wrapper .text-block figure.pull-left.one-third {width: 29%;
+margin-right: 4%}
+.html-embed-wrapper .text-block aside.pull-right, .html-embed-wrapper .text-block figure.pull-right {width: 46%;
+margin-left: 4%;
+margin-right: 0;
+padding-top: 0.7rem}
+.html-embed-wrapper .text-block aside.pull-right + h2, .html-embed-wrapper .text-block aside.pull-right + p, .html-embed-wrapper .text-block figure.pull-right + h2, .html-embed-wrapper .text-block figure.pull-right + p {margin-top: 0}
+.html-embed-wrapper .text-block aside.pull-right.one-third, .html-embed-wrapper .text-block figure.pull-right.one-third {width: 29%;
+margin-right: 4%}
+}
+.html-embed-wrapper ol.subtle-collapsible-list.col-xs-12, .html-embed-wrapper ul.subtle-collapsible-list.col-xs-12 {padding: 0 15px 0 0}
+.html-embed-wrapper .template-INSTITUTE .full-width figure.pull-right {width: 100%;
+margin: 0 !important;
+margin-top: 10px !important;
+min-width: 100%}
+.html-embed-wrapper .template-INSTITUTE .full-width figure.pull-right img {width: 100%;
+min-width: 100%}
+@media (min-width: 480px) {
+.html-embed-wrapper .template-INSTITUTE .full-width figure.pull-right {width: initial !important;
+min-width: initial !important;
+margin: 0;
+margin-top: 47px !important}
+.html-embed-wrapper .template-INSTITUTE .full-width figure.pull-right img {width: initial;
+min-width: initial}
+}
+.html-embed-wrapper .profile-block .pull-left img {border-radius: 50%}
+.html-embed-wrapper .profile-block .media-body {display: -ms-flexbox;
+display: flex;
+width: auto;
+-ms-flex-direction: column;
+flex-direction: column;
+width: 100%}
+.html-embed-wrapper .profile-block .media-body {display: -ms-flexbox;
+display: flex;
+width: auto;
+-ms-flex-direction: column;
+flex-direction: column;
+width: 100%}
+.html-embed-wrapper .profile-block .media-body h2 {color: #1a1c21;
+font-family: "GT Walsheim", Arial, sans-serif;
+font-size: 24px;
+margin-bottom: 5px;
+line-height: 3.5rem}
+.html-embed-wrapper .profile-block .media-body h2 {color: #1a1c21;
+font-family: "GT Walsheim", Arial, sans-serif;
+font-size: 24px;
+margin-bottom: 5px;
+line-height: 3.5rem}
+.html-embed-wrapper .profile-block .media-body span a {text-decoration: underline;
+font-weight: 700;
+line-height: 1}
+.html-embed-wrapper .profile-block .media-body span a {text-decoration: underline;
+font-weight: 700;
+line-height: 1}
+.html-embed-wrapper .profile-block .media-body address {line-height: 1.4em;
+font-size: 0.9em;
+margin-bottom: 5px;
+margin-top: 15px;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body address {line-height: 1.4em;
+font-size: 0.9em;
+margin-bottom: 5px;
+margin-top: 15px;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body address strong {margin-bottom: 10px;
+font-weight: 400}
+.html-embed-wrapper .profile-block .media-body address strong {margin-bottom: 10px;
+font-weight: 400}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-family: Arial, Helvetica, sans-serif;
+background-image: none !important;
+text-transform: uppercase;
+padding: 12px 24px;
+line-height: 1em;
+height: auto;
+border-radius: 25px;
+letter-spacing: 1px;
+font-size: 12px;
+background-color: #1a1c21 !important}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-family: Arial, Helvetica, sans-serif;
+background-image: none !important;
+text-transform: uppercase;
+padding: 12px 24px;
+line-height: 1em;
+height: auto;
+border-radius: 25px;
+letter-spacing: 1px;
+font-size: 12px;
+background-color: #1a1c21 !important}
+.html-embed-wrapper .profile-block .media-body .content {width: 100%;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .content {width: 100%;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .contact {font-family: Arial, Helvetica, sans-serif;
+width: 100%;
+display: -ms-flexbox;
+display: flex;
+-ms-flex-direction: column;
+flex-direction: column;
+-ms-flex-pack: center;
+justify-content: center}
+.html-embed-wrapper .profile-block .media-body .contact {font-family: Arial, Helvetica, sans-serif;
+width: 100%;
+display: -ms-flexbox;
+display: flex;
+-ms-flex-direction: column;
+flex-direction: column;
+-ms-flex-pack: center;
+justify-content: center}
+.html-embed-wrapper .profile-block .media-body .contact a {font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .contact a {font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .contact i.fa-envelope, .html-embed-wrapper .profile-block .media-body .contact i.fa-phone {color: #005099 !important}
+.html-embed-wrapper .profile-block .media-body .contact i.fa-envelope, .html-embed-wrapper .profile-block .media-body .contact i.fa-phone {color: #005099 !important}
+@media (min-width: 992px) {
+.html-embed-wrapper .profile-block .media-body {-ms-flex-direction: initial;
+flex-direction: initial;
+padding-left: 12px}
+.html-embed-wrapper .profile-block .media-body {-ms-flex-direction: initial;
+flex-direction: initial;
+padding-left: 12px}
+.html-embed-wrapper .profile-block .media-body h2 {font-size: 42px}
+.html-embed-wrapper .profile-block .media-body h2 {font-size: 42px}
+.html-embed-wrapper .profile-block .media-body span {font-size: 16px}
+.html-embed-wrapper .profile-block .media-body span {font-size: 16px}
+.html-embed-wrapper .profile-block .media-body address {margin-bottom: 0}
+.html-embed-wrapper .profile-block .media-body address {margin-bottom: 0}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-size: 13px;
+padding: 12px 24px}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-size: 13px;
+padding: 12px 24px}
+.html-embed-wrapper .profile-block .media-body .content {width: 61%}
+.html-embed-wrapper .profile-block .media-body .content {width: 61%}
+.html-embed-wrapper .profile-block .media-body .contact {width: 39%;
+border-left: 1px solid #707070;
+margin-left: 20px;
+padding-left: 20px}
+.html-embed-wrapper .profile-block .media-body .contact {width: 39%;
+border-left: 1px solid #707070;
+margin-left: 20px;
+padding-left: 20px}
+}
+&lt;/style&gt;&lt;section class="text-block clearfix" data-element="2016 Text Block" id="txt-5507289"&gt;
+ &lt;div class="col-xs-12"&gt;
+  &lt;div class="media"&gt;
+   &lt;div class="pull-left"&gt;
+    &lt;p&gt;
+     &lt;img alt="milestone flag" height="60px" src="https://www.american.edu/about/sustainability/images/flag.png" title="milestone flag" width="60px"/&gt;
+    &lt;/p&gt;
+   &lt;/div&gt;
+   &lt;div class="media-body"&gt;
+    &lt;div class="pull-right"&gt;
+     &lt;h2&gt;
+      &lt;small&gt;
+       &lt;strong&gt;
+        Carbon Neutrality Achieved
+       &lt;/strong&gt;
+      &lt;/small&gt;
+     &lt;/h2&gt;
+     &lt;p&gt;
+      AU became the first US university, the first urban campus, and the first research university in the US to reach
+      &lt;a href="https://www.american.edu/about/sustainability/carbon-neutrality"&gt;
+       carbon neutrality
+      &lt;/a&gt;
+      . This goal was achieved two years ahead schedule by using innovative strategies to reduce our overall emissions, use renewable energy, and offset the small remainder.
+     &lt;/p&gt;
+    &lt;/div&gt;
+   &lt;/div&gt;
+  &lt;/div&gt;
+ &lt;/div&gt;
+&lt;/section&gt;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/about/sustainability/milestones</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>txt-5507290</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>txt-5507290</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+.html-embed-wrapper .blockquote-reverse, .html-embed-wrapper blockquote.pull-right {padding-right: 15px;
+padding-left: 0;
+border-right: 5px solid #eee;
+border-left: 0;
+text-align: right}
+.html-embed-wrapper .blockquote-reverse .small:before, .html-embed-wrapper .blockquote-reverse footer:before, .html-embed-wrapper .blockquote-reverse small:before, .html-embed-wrapper blockquote.pull-right .small:before, .html-embed-wrapper blockquote.pull-right footer:before, .html-embed-wrapper blockquote.pull-right small:before {content: ""}
+.html-embed-wrapper .blockquote-reverse .small:after, .html-embed-wrapper .blockquote-reverse footer:after, .html-embed-wrapper .blockquote-reverse small:after, .html-embed-wrapper blockquote.pull-right .small:after, .html-embed-wrapper blockquote.pull-right footer:after, .html-embed-wrapper blockquote.pull-right small:after {content: " —"}
+.html-embed-wrapper .col-lg-1, .html-embed-wrapper .col-lg-10, .html-embed-wrapper .col-lg-11, .html-embed-wrapper .col-lg-12, .html-embed-wrapper .col-lg-2, .html-embed-wrapper .col-lg-3, .html-embed-wrapper .col-lg-4, .html-embed-wrapper .col-lg-5, .html-embed-wrapper .col-lg-6, .html-embed-wrapper .col-lg-7, .html-embed-wrapper .col-lg-8, .html-embed-wrapper .col-lg-9, .html-embed-wrapper .col-md-1, .html-embed-wrapper .col-md-10, .html-embed-wrapper .col-md-11, .html-embed-wrapper .col-md-12, .html-embed-wrapper .col-md-2, .html-embed-wrapper .col-md-3, .html-embed-wrapper .col-md-4, .html-embed-wrapper .col-md-5, .html-embed-wrapper .col-md-6, .html-embed-wrapper .col-md-7, .html-embed-wrapper .col-md-8, .html-embed-wrapper .col-md-9, .html-embed-wrapper .col-sm-1, .html-embed-wrapper .col-sm-10, .html-embed-wrapper .col-sm-11, .html-embed-wrapper .col-sm-12, .html-embed-wrapper .col-sm-2, .html-embed-wrapper .col-sm-3, .html-embed-wrapper .col-sm-4, .html-embed-wrapper .col-sm-5, .html-embed-wrapper .col-sm-6, .html-embed-wrapper .col-sm-7, .html-embed-wrapper .col-sm-8, .html-embed-wrapper .col-sm-9, .html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {position: relative;
+min-height: 1px;
+padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {float: left}
+.html-embed-wrapper .col-xs-12 {width: 100%}
+.html-embed-wrapper .dropdown-menu.pull-right {right: 0;
+left: auto}
+.html-embed-wrapper .pull-right &gt; .dropdown-menu {right: 0;
+left: auto}
+.html-embed-wrapper .media {margin-top: 15px}
+.html-embed-wrapper .media:first-child {margin-top: 0}
+.html-embed-wrapper .media, .html-embed-wrapper .media-body {zoom: 1;
+overflow: hidden}
+.html-embed-wrapper .media, .html-embed-wrapper .media-body {zoom: 1;
+overflow: hidden}
+.html-embed-wrapper .media-body {width: 10000px}
+.html-embed-wrapper .media-body {width: 10000px}
+.html-embed-wrapper .media-object {display: block}
+.html-embed-wrapper .media-object.img-thumbnail {max-width: none}
+.html-embed-wrapper .media-right, .html-embed-wrapper .media &gt; .pull-right {padding-left: 10px}
+.html-embed-wrapper .media-right, .html-embed-wrapper .media &gt; .pull-right {padding-left: 10px}
+.html-embed-wrapper .media-left, .html-embed-wrapper .media &gt; .pull-left {padding-right: 10px}
+.html-embed-wrapper .media-left, .html-embed-wrapper .media &gt; .pull-left {padding-right: 10px}
+.html-embed-wrapper .media-body, .html-embed-wrapper .media-left, .html-embed-wrapper .media-right {display: table-cell;
+vertical-align: top}
+.html-embed-wrapper .media-body, .html-embed-wrapper .media-left, .html-embed-wrapper .media-right {display: table-cell;
+vertical-align: top}
+.html-embed-wrapper .media-middle {vertical-align: middle}
+.html-embed-wrapper .media-bottom {vertical-align: bottom}
+.html-embed-wrapper .media-heading {margin-top: 0;
+margin-bottom: 5px}
+.html-embed-wrapper .media-list {padding-left: 0;
+list-style: none}
+.html-embed-wrapper .pull-right {float: right !important}
+.html-embed-wrapper .pull-left {float: left !important}
+.html-embed-wrapper address.pull-left + address, .html-embed-wrapper address.pull-left + blockquote, .html-embed-wrapper address.pull-left + dl, .html-embed-wrapper address.pull-left + figure, .html-embed-wrapper address.pull-left + ol, .html-embed-wrapper address.pull-left + p, .html-embed-wrapper address.pull-left + pre, .html-embed-wrapper address.pull-left + ul, .html-embed-wrapper address.pull-right + address, .html-embed-wrapper address.pull-right + blockquote, .html-embed-wrapper address.pull-right + dl, .html-embed-wrapper address.pull-right + figure, .html-embed-wrapper address.pull-right + ol, .html-embed-wrapper address.pull-right + p, .html-embed-wrapper address.pull-right + pre, .html-embed-wrapper address.pull-right + ul, .html-embed-wrapper blockquote.pull-left + address, .html-embed-wrapper blockquote.pull-left + blockquote, .html-embed-wrapper blockquote.pull-left + dl, .html-embed-wrapper blockquote.pull-left + figure, .html-embed-wrapper blockquote.pull-left + ol, .html-embed-wrapper blockquote.pull-left + p, .html-embed-wrapper blockquote.pull-left + pre, .html-embed-wrapper blockquote.pull-left + ul, .html-embed-wrapper blockquote.pull-right + address, .html-embed-wrapper blockquote.pull-right + blockquote, .html-embed-wrapper blockquote.pull-right + dl, .html-embed-wrapper blockquote.pull-right + figure, .html-embed-wrapper blockquote.pull-right + ol, .html-embed-wrapper blockquote.pull-right + p, .html-embed-wrapper blockquote.pull-right + pre, .html-embed-wrapper blockquote.pull-right + ul, .html-embed-wrapper figcaption.pull-left + address, .html-embed-wrapper figcaption.pull-left + blockquote, .html-embed-wrapper figcaption.pull-left + dl, .html-embed-wrapper figcaption.pull-left + figure, .html-embed-wrapper figcaption.pull-left + ol, .html-embed-wrapper figcaption.pull-left + p, .html-embed-wrapper figcaption.pull-left + pre, .html-embed-wrapper figcaption.pull-left + ul, .html-embed-wrapper figcaption.pull-right + address, .html-embed-wrapper figcaption.pull-right + blockquote, .html-embed-wrapper figcaption.pull-right + dl, .html-embed-wrapper figcaption.pull-right + figure, .html-embed-wrapper figcaption.pull-right + ol, .html-embed-wrapper figcaption.pull-right + p, .html-embed-wrapper figcaption.pull-right + pre, .html-embed-wrapper figcaption.pull-right + ul, .html-embed-wrapper figure.pull-left + address, .html-embed-wrapper figure.pull-left + blockquote, .html-embed-wrapper figure.pull-left + dl, .html-embed-wrapper figure.pull-left + figure, .html-embed-wrapper figure.pull-left + ol, .html-embed-wrapper figure.pull-left + p, .html-embed-wrapper figure.pull-left + pre, .html-embed-wrapper figure.pull-left + ul, .html-embed-wrapper figure.pull-right + address, .html-embed-wrapper figure.pull-right + blockquote, .html-embed-wrapper figure.pull-right + dl, .html-embed-wrapper figure.pull-right + figure, .html-embed-wrapper figure.pull-right + ol, .html-embed-wrapper figure.pull-right + p, .html-embed-wrapper figure.pull-right + pre, .html-embed-wrapper figure.pull-right + ul, .html-embed-wrapper p.pull-left + address, .html-embed-wrapper p.pull-left + blockquote, .html-embed-wrapper p.pull-left + dl, .html-embed-wrapper p.pull-left + figure, .html-embed-wrapper p.pull-left + ol, .html-embed-wrapper p.pull-left + p, .html-embed-wrapper p.pull-left + pre, .html-embed-wrapper p.pull-left + ul, .html-embed-wrapper p.pull-right + address, .html-embed-wrapper p.pull-right + blockquote, .html-embed-wrapper p.pull-right + dl, .html-embed-wrapper p.pull-right + figure, .html-embed-wrapper p.pull-right + ol, .html-embed-wrapper p.pull-right + p, .html-embed-wrapper p.pull-right + pre, .html-embed-wrapper p.pull-right + ul, .html-embed-wrapper q.pull-left + address, .html-embed-wrapper q.pull-left + blockquote, .html-embed-wrapper q.pull-left + dl, .html-embed-wrapper q.pull-left + figure, .html-embed-wrapper q.pull-left + ol, .html-embed-wrapper q.pull-left + p, .html-embed-wrapper q.pull-left + pre, .html-embed-wrapper q.pull-left + ul, .html-embed-wrapper q.pull-right + address, .html-embed-wrapper q.pull-right + blockquote, .html-embed-wrapper q.pull-right + dl, .html-embed-wrapper q.pull-right + figure, .html-embed-wrapper q.pull-right + ol, .html-embed-wrapper q.pull-right + p, .html-embed-wrapper q.pull-right + pre, .html-embed-wrapper q.pull-right + ul {margin-top: 0}
+.html-embed-wrapper address.pull-left + address, .html-embed-wrapper address.pull-left + blockquote, .html-embed-wrapper address.pull-left + dl, .html-embed-wrapper address.pull-left + figure, .html-embed-wrapper address.pull-left + ol, .html-embed-wrapper address.pull-left + p, .html-embed-wrapper address.pull-left + pre, .html-embed-wrapper address.pull-left + ul, .html-embed-wrapper address.pull-right + address, .html-embed-wrapper address.pull-right + blockquote, .html-embed-wrapper address.pull-right + dl, .html-embed-wrapper address.pull-right + figure, .html-embed-wrapper address.pull-right + ol, .html-embed-wrapper address.pull-right + p, .html-embed-wrapper address.pull-right + pre, .html-embed-wrapper address.pull-right + ul, .html-embed-wrapper blockquote.pull-left + address, .html-embed-wrapper blockquote.pull-left + blockquote, .html-embed-wrapper blockquote.pull-left + dl, .html-embed-wrapper blockquote.pull-left + figure, .html-embed-wrapper blockquote.pull-left + ol, .html-embed-wrapper blockquote.pull-left + p, .html-embed-wrapper blockquote.pull-left + pre, .html-embed-wrapper blockquote.pull-left + ul, .html-embed-wrapper blockquote.pull-right + address, .html-embed-wrapper blockquote.pull-right + blockquote, .html-embed-wrapper blockquote.pull-right + dl, .html-embed-wrapper blockquote.pull-right + figure, .html-embed-wrapper blockquote.pull-right + ol, .html-embed-wrapper blockquote.pull-right + p, .html-embed-wrapper blockquote.pull-right + pre, .html-embed-wrapper blockquote.pull-right + ul, .html-embed-wrapper figcaption.pull-left + address, .html-embed-wrapper figcaption.pull-left + blockquote, .html-embed-wrapper figcaption.pull-left + dl, .html-embed-wrapper figcaption.pull-left + figure, .html-embed-wrapper figcaption.pull-left + ol, .html-embed-wrapper figcaption.pull-left + p, .html-embed-wrapper figcaption.pull-left + pre, .html-embed-wrapper figcaption.pull-left + ul, .html-embed-wrapper figcaption.pull-right + address, .html-embed-wrapper figcaption.pull-right + blockquote, .html-embed-wrapper figcaption.pull-right + dl, .html-embed-wrapper figcaption.pull-right + figure, .html-embed-wrapper figcaption.pull-right + ol, .html-embed-wrapper figcaption.pull-right + p, .html-embed-wrapper figcaption.pull-right + pre, .html-embed-wrapper figcaption.pull-right + ul, .html-embed-wrapper figure.pull-left + address, .html-embed-wrapper figure.pull-left + blockquote, .html-embed-wrapper figure.pull-left + dl, .html-embed-wrapper figure.pull-left + figure, .html-embed-wrapper figure.pull-left + ol, .html-embed-wrapper figure.pull-left + p, .html-embed-wrapper figure.pull-left + pre, .html-embed-wrapper figure.pull-left + ul, .html-embed-wrapper figure.pull-right + address, .html-embed-wrapper figure.pull-right + blockquote, .html-embed-wrapper figure.pull-right + dl, .html-embed-wrapper figure.pull-right + figure, .html-embed-wrapper figure.pull-right + ol, .html-embed-wrapper figure.pull-right + p, .html-embed-wrapper figure.pull-right + pre, .html-embed-wrapper figure.pull-right + ul, .html-embed-wrapper p.pull-left + address, .html-embed-wrapper p.pull-left + blockquote, .html-embed-wrapper p.pull-left + dl, .html-embed-wrapper p.pull-left + figure, .html-embed-wrapper p.pull-left + ol, .html-embed-wrapper p.pull-left + p, .html-embed-wrapper p.pull-left + pre, .html-embed-wrapper p.pull-left + ul, .html-embed-wrapper p.pull-right + address, .html-embed-wrapper p.pull-right + blockquote, .html-embed-wrapper p.pull-right + dl, .html-embed-wrapper p.pull-right + figure, .html-embed-wrapper p.pull-right + ol, .html-embed-wrapper p.pull-right + p, .html-embed-wrapper p.pull-right + pre, .html-embed-wrapper p.pull-right + ul, .html-embed-wrapper q.pull-left + address, .html-embed-wrapper q.pull-left + blockquote, .html-embed-wrapper q.pull-left + dl, .html-embed-wrapper q.pull-left + figure, .html-embed-wrapper q.pull-left + ol, .html-embed-wrapper q.pull-left + p, .html-embed-wrapper q.pull-left + pre, .html-embed-wrapper q.pull-left + ul, .html-embed-wrapper q.pull-right + address, .html-embed-wrapper q.pull-right + blockquote, .html-embed-wrapper q.pull-right + dl, .html-embed-wrapper q.pull-right + figure, .html-embed-wrapper q.pull-right + ol, .html-embed-wrapper q.pull-right + p, .html-embed-wrapper q.pull-right + pre, .html-embed-wrapper q.pull-right + ul {margin-top: 0}
+.html-embed-wrapper aside.full-width.diag-back.full-width .pull-right {margin-right: initial;
+margin-top: 25px;
+margin-left: initial;
+min-width: 100%}
+.html-embed-wrapper aside.full-width.diag-back.full-width .pull-right img {min-width: 100%}
+@media (min-width: 480px) {
+.html-embed-wrapper aside.full-width.diag-back.full-width .pull-right {margin-top: 25px;
+margin-left: 5px;
+min-width: initial}
+.html-embed-wrapper aside.full-width.diag-back.full-width .pull-right img {min-width: initial}
+}
+.html-embed-wrapper aside.full-width.ombre-std.full-width .pull-right {margin-right: initial;
+margin-top: 5px;
+margin-left: initial;
+min-width: 100%}
+.html-embed-wrapper aside.full-width.ombre-std.full-width .pull-right img {min-width: 100%}
+@media (min-width: 480px) {
+.html-embed-wrapper aside.full-width.ombre-std.full-width .pull-right {margin-top: 25px;
+margin-left: 5px;
+min-width: initial}
+.html-embed-wrapper aside.full-width.ombre-std.full-width .pull-right img {min-width: initial}
+}
+.html-embed-wrapper aside.full-width.has-image figure.pull-right {margin-right: initial !important;
+max-width: 190px;
+margin-top: 44px !important;
+border-radius: initial}
+.html-embed-wrapper aside.full-width.has-image figure.pull-right img {border-radius: 50%}
+@media (max-width: 1309px) {
+.html-embed-wrapper aside.full-width.has-image figure.pull-right {margin-right: calc(100vw - 220px - 830px)}
+}
+@media (max-width: 1200px) {
+.html-embed-wrapper aside.full-width.has-image figure.pull-right {margin-right: calc(100vw - 220px - 750px)}
+}
+@media (max-width: 768px) {
+.html-embed-wrapper aside.full-width.has-image figure.pull-right {width: 22.5vw;
+max-width: 100%;
+width: 100%;
+margin: 0;
+float: initial !important;
+padding: 6% 20% 0 20%}
+.html-embed-wrapper aside.full-width.has-image figure.pull-right img {width: 100%}
+}
+.html-embed-wrapper aside.full-width.has-image figure.pull-right img:last-child {margin-bottom: 0}
+.html-embed-wrapper img.pull-left {margin: 0 15px 15px 0}
+.html-embed-wrapper img.pull-right {margin: 0 0 15px 15px}
+.html-embed-wrapper .text-block aside.full-width blockquote, .html-embed-wrapper .text-block aside.pull-left blockquote, .html-embed-wrapper .text-block aside.pull-right blockquote {margin: 25px 0 15px}
+.html-embed-wrapper .text-block aside.full-width blockquote, .html-embed-wrapper .text-block aside.pull-left blockquote, .html-embed-wrapper .text-block aside.pull-right blockquote {margin: 25px 0 15px}
+.html-embed-wrapper .text-block aside.full-width blockquote + cite, .html-embed-wrapper .text-block aside.pull-left blockquote + cite, .html-embed-wrapper .text-block aside.pull-right blockquote + cite {margin-bottom: 25px}
+.html-embed-wrapper .text-block aside.full-width blockquote + cite, .html-embed-wrapper .text-block aside.pull-left blockquote + cite, .html-embed-wrapper .text-block aside.pull-right blockquote + cite {margin-bottom: 25px}
+@media (min-width: 768px) {
+.html-embed-wrapper .text-block aside.pull-left, .html-embed-wrapper .text-block figure.pull-left {width: 46%;
+margin-right: 4%;
+margin-left: 0;
+padding-top: 0.7rem}
+.html-embed-wrapper .text-block aside.pull-left + h2, .html-embed-wrapper .text-block aside.pull-left + p, .html-embed-wrapper .text-block figure.pull-left + h2, .html-embed-wrapper .text-block figure.pull-left + p {margin-top: 0}
+.html-embed-wrapper .text-block aside.pull-left.one-third, .html-embed-wrapper .text-block figure.pull-left.one-third {width: 29%;
+margin-right: 4%}
+.html-embed-wrapper .text-block aside.pull-right, .html-embed-wrapper .text-block figure.pull-right {width: 46%;
+margin-left: 4%;
+margin-right: 0;
+padding-top: 0.7rem}
+.html-embed-wrapper .text-block aside.pull-right + h2, .html-embed-wrapper .text-block aside.pull-right + p, .html-embed-wrapper .text-block figure.pull-right + h2, .html-embed-wrapper .text-block figure.pull-right + p {margin-top: 0}
+.html-embed-wrapper .text-block aside.pull-right.one-third, .html-embed-wrapper .text-block figure.pull-right.one-third {width: 29%;
+margin-right: 4%}
+}
+.html-embed-wrapper ol.subtle-collapsible-list.col-xs-12, .html-embed-wrapper ul.subtle-collapsible-list.col-xs-12 {padding: 0 15px 0 0}
+.html-embed-wrapper .template-INSTITUTE .full-width figure.pull-right {width: 100%;
+margin: 0 !important;
+margin-top: 10px !important;
+min-width: 100%}
+.html-embed-wrapper .template-INSTITUTE .full-width figure.pull-right img {width: 100%;
+min-width: 100%}
+@media (min-width: 480px) {
+.html-embed-wrapper .template-INSTITUTE .full-width figure.pull-right {width: initial !important;
+min-width: initial !important;
+margin: 0;
+margin-top: 47px !important}
+.html-embed-wrapper .template-INSTITUTE .full-width figure.pull-right img {width: initial;
+min-width: initial}
+}
+.html-embed-wrapper .profile-block .pull-left img {border-radius: 50%}
+.html-embed-wrapper .profile-block .media-body {display: -ms-flexbox;
+display: flex;
+width: auto;
+-ms-flex-direction: column;
+flex-direction: column;
+width: 100%}
+.html-embed-wrapper .profile-block .media-body {display: -ms-flexbox;
+display: flex;
+width: auto;
+-ms-flex-direction: column;
+flex-direction: column;
+width: 100%}
+.html-embed-wrapper .profile-block .media-body h2 {color: #1a1c21;
+font-family: "GT Walsheim", Arial, sans-serif;
+font-size: 24px;
+margin-bottom: 5px;
+line-height: 3.5rem}
+.html-embed-wrapper .profile-block .media-body h2 {color: #1a1c21;
+font-family: "GT Walsheim", Arial, sans-serif;
+font-size: 24px;
+margin-bottom: 5px;
+line-height: 3.5rem}
+.html-embed-wrapper .profile-block .media-body span a {text-decoration: underline;
+font-weight: 700;
+line-height: 1}
+.html-embed-wrapper .profile-block .media-body span a {text-decoration: underline;
+font-weight: 700;
+line-height: 1}
+.html-embed-wrapper .profile-block .media-body address {line-height: 1.4em;
+font-size: 0.9em;
+margin-bottom: 5px;
+margin-top: 15px;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body address {line-height: 1.4em;
+font-size: 0.9em;
+margin-bottom: 5px;
+margin-top: 15px;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body address strong {margin-bottom: 10px;
+font-weight: 400}
+.html-embed-wrapper .profile-block .media-body address strong {margin-bottom: 10px;
+font-weight: 400}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-family: Arial, Helvetica, sans-serif;
+background-image: none !important;
+text-transform: uppercase;
+padding: 12px 24px;
+line-height: 1em;
+height: auto;
+border-radius: 25px;
+letter-spacing: 1px;
+font-size: 12px;
+background-color: #1a1c21 !important}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-family: Arial, Helvetica, sans-serif;
+background-image: none !important;
+text-transform: uppercase;
+padding: 12px 24px;
+line-height: 1em;
+height: auto;
+border-radius: 25px;
+letter-spacing: 1px;
+font-size: 12px;
+background-color: #1a1c21 !important}
+.html-embed-wrapper .profile-block .media-body .content {width: 100%;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .content {width: 100%;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .contact {font-family: Arial, Helvetica, sans-serif;
+width: 100%;
+display: -ms-flexbox;
+display: flex;
+-ms-flex-direction: column;
+flex-direction: column;
+-ms-flex-pack: center;
+justify-content: center}
+.html-embed-wrapper .profile-block .media-body .contact {font-family: Arial, Helvetica, sans-serif;
+width: 100%;
+display: -ms-flexbox;
+display: flex;
+-ms-flex-direction: column;
+flex-direction: column;
+-ms-flex-pack: center;
+justify-content: center}
+.html-embed-wrapper .profile-block .media-body .contact a {font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .contact a {font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .contact i.fa-envelope, .html-embed-wrapper .profile-block .media-body .contact i.fa-phone {color: #005099 !important}
+.html-embed-wrapper .profile-block .media-body .contact i.fa-envelope, .html-embed-wrapper .profile-block .media-body .contact i.fa-phone {color: #005099 !important}
+@media (min-width: 992px) {
+.html-embed-wrapper .profile-block .media-body {-ms-flex-direction: initial;
+flex-direction: initial;
+padding-left: 12px}
+.html-embed-wrapper .profile-block .media-body {-ms-flex-direction: initial;
+flex-direction: initial;
+padding-left: 12px}
+.html-embed-wrapper .profile-block .media-body h2 {font-size: 42px}
+.html-embed-wrapper .profile-block .media-body h2 {font-size: 42px}
+.html-embed-wrapper .profile-block .media-body span {font-size: 16px}
+.html-embed-wrapper .profile-block .media-body span {font-size: 16px}
+.html-embed-wrapper .profile-block .media-body address {margin-bottom: 0}
+.html-embed-wrapper .profile-block .media-body address {margin-bottom: 0}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-size: 13px;
+padding: 12px 24px}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-size: 13px;
+padding: 12px 24px}
+.html-embed-wrapper .profile-block .media-body .content {width: 61%}
+.html-embed-wrapper .profile-block .media-body .content {width: 61%}
+.html-embed-wrapper .profile-block .media-body .contact {width: 39%;
+border-left: 1px solid #707070;
+margin-left: 20px;
+padding-left: 20px}
+.html-embed-wrapper .profile-block .media-body .contact {width: 39%;
+border-left: 1px solid #707070;
+margin-left: 20px;
+padding-left: 20px}
+}
+&lt;/style&gt;&lt;section class="text-block clearfix" data-element="2016 Text Block" id="txt-5507290"&gt;
+ &lt;div class="col-xs-12"&gt;
+  &lt;div class="media"&gt;
+   &lt;div class="pull-left"&gt;
+    &lt;p&gt;
+     &lt;img alt="helping hands" height="60px" src="https://www.american.edu/about/sustainability/images/hand-help.png" title="helping hands" width="60px"/&gt;
+    &lt;/p&gt;
+   &lt;/div&gt;
+   &lt;div class="media-body"&gt;
+    &lt;div class="pull-right"&gt;
+     &lt;h2&gt;
+      &lt;small&gt;
+       &lt;strong&gt;
+        "We Are Still In"
+       &lt;/strong&gt;
+      &lt;/small&gt;
+     &lt;/h2&gt;
+     &lt;p&gt;
+      AU joined more than 1,200 colleges, universities, elected officials, and businesses to declare our ongoing commitment to reducing carbon emissions under the Paris Agreement through the “
+      &lt;a href="https://www.wearestillin.com/"&gt;
+       We Are Still In
+      &lt;/a&gt;
+      ” declaration.
+     &lt;/p&gt;
+    &lt;/div&gt;
+   &lt;/div&gt;
+  &lt;/div&gt;
+ &lt;/div&gt;
+&lt;/section&gt;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/about/sustainability/milestones</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>txt-5515486</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>txt-5515486</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+.html-embed-wrapper .blockquote-reverse, .html-embed-wrapper blockquote.pull-right {padding-right: 15px;
+padding-left: 0;
+border-right: 5px solid #eee;
+border-left: 0;
+text-align: right}
+.html-embed-wrapper .blockquote-reverse .small:before, .html-embed-wrapper .blockquote-reverse footer:before, .html-embed-wrapper .blockquote-reverse small:before, .html-embed-wrapper blockquote.pull-right .small:before, .html-embed-wrapper blockquote.pull-right footer:before, .html-embed-wrapper blockquote.pull-right small:before {content: ""}
+.html-embed-wrapper .blockquote-reverse .small:after, .html-embed-wrapper .blockquote-reverse footer:after, .html-embed-wrapper .blockquote-reverse small:after, .html-embed-wrapper blockquote.pull-right .small:after, .html-embed-wrapper blockquote.pull-right footer:after, .html-embed-wrapper blockquote.pull-right small:after {content: " —"}
+.html-embed-wrapper .col-lg-1, .html-embed-wrapper .col-lg-10, .html-embed-wrapper .col-lg-11, .html-embed-wrapper .col-lg-12, .html-embed-wrapper .col-lg-2, .html-embed-wrapper .col-lg-3, .html-embed-wrapper .col-lg-4, .html-embed-wrapper .col-lg-5, .html-embed-wrapper .col-lg-6, .html-embed-wrapper .col-lg-7, .html-embed-wrapper .col-lg-8, .html-embed-wrapper .col-lg-9, .html-embed-wrapper .col-md-1, .html-embed-wrapper .col-md-10, .html-embed-wrapper .col-md-11, .html-embed-wrapper .col-md-12, .html-embed-wrapper .col-md-2, .html-embed-wrapper .col-md-3, .html-embed-wrapper .col-md-4, .html-embed-wrapper .col-md-5, .html-embed-wrapper .col-md-6, .html-embed-wrapper .col-md-7, .html-embed-wrapper .col-md-8, .html-embed-wrapper .col-md-9, .html-embed-wrapper .col-sm-1, .html-embed-wrapper .col-sm-10, .html-embed-wrapper .col-sm-11, .html-embed-wrapper .col-sm-12, .html-embed-wrapper .col-sm-2, .html-embed-wrapper .col-sm-3, .html-embed-wrapper .col-sm-4, .html-embed-wrapper .col-sm-5, .html-embed-wrapper .col-sm-6, .html-embed-wrapper .col-sm-7, .html-embed-wrapper .col-sm-8, .html-embed-wrapper .col-sm-9, .html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {position: relative;
+min-height: 1px;
+padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {float: left}
+.html-embed-wrapper .col-xs-12 {width: 100%}
+.html-embed-wrapper .dropdown-menu.pull-right {right: 0;
+left: auto}
+.html-embed-wrapper .pull-right &gt; .dropdown-menu {right: 0;
+left: auto}
+.html-embed-wrapper .media {margin-top: 15px}
+.html-embed-wrapper .media:first-child {margin-top: 0}
+.html-embed-wrapper .media, .html-embed-wrapper .media-body {zoom: 1;
+overflow: hidden}
+.html-embed-wrapper .media, .html-embed-wrapper .media-body {zoom: 1;
+overflow: hidden}
+.html-embed-wrapper .media-body {width: 10000px}
+.html-embed-wrapper .media-body {width: 10000px}
+.html-embed-wrapper .media-object {display: block}
+.html-embed-wrapper .media-object.img-thumbnail {max-width: none}
+.html-embed-wrapper .media-right, .html-embed-wrapper .media &gt; .pull-right {padding-left: 10px}
+.html-embed-wrapper .media-right, .html-embed-wrapper .media &gt; .pull-right {padding-left: 10px}
+.html-embed-wrapper .media-left, .html-embed-wrapper .media &gt; .pull-left {padding-right: 10px}
+.html-embed-wrapper .media-left, .html-embed-wrapper .media &gt; .pull-left {padding-right: 10px}
+.html-embed-wrapper .media-body, .html-embed-wrapper .media-left, .html-embed-wrapper .media-right {display: table-cell;
+vertical-align: top}
+.html-embed-wrapper .media-body, .html-embed-wrapper .media-left, .html-embed-wrapper .media-right {display: table-cell;
+vertical-align: top}
+.html-embed-wrapper .media-middle {vertical-align: middle}
+.html-embed-wrapper .media-bottom {vertical-align: bottom}
+.html-embed-wrapper .media-heading {margin-top: 0;
+margin-bottom: 5px}
+.html-embed-wrapper .media-list {padding-left: 0;
+list-style: none}
+.html-embed-wrapper .pull-right {float: right !important}
+.html-embed-wrapper .pull-left {float: left !important}
+.html-embed-wrapper address.pull-left + address, .html-embed-wrapper address.pull-left + blockquote, .html-embed-wrapper address.pull-left + dl, .html-embed-wrapper address.pull-left + figure, .html-embed-wrapper address.pull-left + ol, .html-embed-wrapper address.pull-left + p, .html-embed-wrapper address.pull-left + pre, .html-embed-wrapper address.pull-left + ul, .html-embed-wrapper address.pull-right + address, .html-embed-wrapper address.pull-right + blockquote, .html-embed-wrapper address.pull-right + dl, .html-embed-wrapper address.pull-right + figure, .html-embed-wrapper address.pull-right + ol, .html-embed-wrapper address.pull-right + p, .html-embed-wrapper address.pull-right + pre, .html-embed-wrapper address.pull-right + ul, .html-embed-wrapper blockquote.pull-left + address, .html-embed-wrapper blockquote.pull-left + blockquote, .html-embed-wrapper blockquote.pull-left + dl, .html-embed-wrapper blockquote.pull-left + figure, .html-embed-wrapper blockquote.pull-left + ol, .html-embed-wrapper blockquote.pull-left + p, .html-embed-wrapper blockquote.pull-left + pre, .html-embed-wrapper blockquote.pull-left + ul, .html-embed-wrapper blockquote.pull-right + address, .html-embed-wrapper blockquote.pull-right + blockquote, .html-embed-wrapper blockquote.pull-right + dl, .html-embed-wrapper blockquote.pull-right + figure, .html-embed-wrapper blockquote.pull-right + ol, .html-embed-wrapper blockquote.pull-right + p, .html-embed-wrapper blockquote.pull-right + pre, .html-embed-wrapper blockquote.pull-right + ul, .html-embed-wrapper figcaption.pull-left + address, .html-embed-wrapper figcaption.pull-left + blockquote, .html-embed-wrapper figcaption.pull-left + dl, .html-embed-wrapper figcaption.pull-left + figure, .html-embed-wrapper figcaption.pull-left + ol, .html-embed-wrapper figcaption.pull-left + p, .html-embed-wrapper figcaption.pull-left + pre, .html-embed-wrapper figcaption.pull-left + ul, .html-embed-wrapper figcaption.pull-right + address, .html-embed-wrapper figcaption.pull-right + blockquote, .html-embed-wrapper figcaption.pull-right + dl, .html-embed-wrapper figcaption.pull-right + figure, .html-embed-wrapper figcaption.pull-right + ol, .html-embed-wrapper figcaption.pull-right + p, .html-embed-wrapper figcaption.pull-right + pre, .html-embed-wrapper figcaption.pull-right + ul, .html-embed-wrapper figure.pull-left + address, .html-embed-wrapper figure.pull-left + blockquote, .html-embed-wrapper figure.pull-left + dl, .html-embed-wrapper figure.pull-left + figure, .html-embed-wrapper figure.pull-left + ol, .html-embed-wrapper figure.pull-left + p, .html-embed-wrapper figure.pull-left + pre, .html-embed-wrapper figure.pull-left + ul, .html-embed-wrapper figure.pull-right + address, .html-embed-wrapper figure.pull-right + blockquote, .html-embed-wrapper figure.pull-right + dl, .html-embed-wrapper figure.pull-right + figure, .html-embed-wrapper figure.pull-right + ol, .html-embed-wrapper figure.pull-right + p, .html-embed-wrapper figure.pull-right + pre, .html-embed-wrapper figure.pull-right + ul, .html-embed-wrapper p.pull-left + address, .html-embed-wrapper p.pull-left + blockquote, .html-embed-wrapper p.pull-left + dl, .html-embed-wrapper p.pull-left + figure, .html-embed-wrapper p.pull-left + ol, .html-embed-wrapper p.pull-left + p, .html-embed-wrapper p.pull-left + pre, .html-embed-wrapper p.pull-left + ul, .html-embed-wrapper p.pull-right + address, .html-embed-wrapper p.pull-right + blockquote, .html-embed-wrapper p.pull-right + dl, .html-embed-wrapper p.pull-right + figure, .html-embed-wrapper p.pull-right + ol, .html-embed-wrapper p.pull-right + p, .html-embed-wrapper p.pull-right + pre, .html-embed-wrapper p.pull-right + ul, .html-embed-wrapper q.pull-left + address, .html-embed-wrapper q.pull-left + blockquote, .html-embed-wrapper q.pull-left + dl, .html-embed-wrapper q.pull-left + figure, .html-embed-wrapper q.pull-left + ol, .html-embed-wrapper q.pull-left + p, .html-embed-wrapper q.pull-left + pre, .html-embed-wrapper q.pull-left + ul, .html-embed-wrapper q.pull-right + address, .html-embed-wrapper q.pull-right + blockquote, .html-embed-wrapper q.pull-right + dl, .html-embed-wrapper q.pull-right + figure, .html-embed-wrapper q.pull-right + ol, .html-embed-wrapper q.pull-right + p, .html-embed-wrapper q.pull-right + pre, .html-embed-wrapper q.pull-right + ul {margin-top: 0}
+.html-embed-wrapper address.pull-left + address, .html-embed-wrapper address.pull-left + blockquote, .html-embed-wrapper address.pull-left + dl, .html-embed-wrapper address.pull-left + figure, .html-embed-wrapper address.pull-left + ol, .html-embed-wrapper address.pull-left + p, .html-embed-wrapper address.pull-left + pre, .html-embed-wrapper address.pull-left + ul, .html-embed-wrapper address.pull-right + address, .html-embed-wrapper address.pull-right + blockquote, .html-embed-wrapper address.pull-right + dl, .html-embed-wrapper address.pull-right + figure, .html-embed-wrapper address.pull-right + ol, .html-embed-wrapper address.pull-right + p, .html-embed-wrapper address.pull-right + pre, .html-embed-wrapper address.pull-right + ul, .html-embed-wrapper blockquote.pull-left + address, .html-embed-wrapper blockquote.pull-left + blockquote, .html-embed-wrapper blockquote.pull-left + dl, .html-embed-wrapper blockquote.pull-left + figure, .html-embed-wrapper blockquote.pull-left + ol, .html-embed-wrapper blockquote.pull-left + p, .html-embed-wrapper blockquote.pull-left + pre, .html-embed-wrapper blockquote.pull-left + ul, .html-embed-wrapper blockquote.pull-right + address, .html-embed-wrapper blockquote.pull-right + blockquote, .html-embed-wrapper blockquote.pull-right + dl, .html-embed-wrapper blockquote.pull-right + figure, .html-embed-wrapper blockquote.pull-right + ol, .html-embed-wrapper blockquote.pull-right + p, .html-embed-wrapper blockquote.pull-right + pre, .html-embed-wrapper blockquote.pull-right + ul, .html-embed-wrapper figcaption.pull-left + address, .html-embed-wrapper figcaption.pull-left + blockquote, .html-embed-wrapper figcaption.pull-left + dl, .html-embed-wrapper figcaption.pull-left + figure, .html-embed-wrapper figcaption.pull-left + ol, .html-embed-wrapper figcaption.pull-left + p, .html-embed-wrapper figcaption.pull-left + pre, .html-embed-wrapper figcaption.pull-left + ul, .html-embed-wrapper figcaption.pull-right + address, .html-embed-wrapper figcaption.pull-right + blockquote, .html-embed-wrapper figcaption.pull-right + dl, .html-embed-wrapper figcaption.pull-right + figure, .html-embed-wrapper figcaption.pull-right + ol, .html-embed-wrapper figcaption.pull-right + p, .html-embed-wrapper figcaption.pull-right + pre, .html-embed-wrapper figcaption.pull-right + ul, .html-embed-wrapper figure.pull-left + address, .html-embed-wrapper figure.pull-left + blockquote, .html-embed-wrapper figure.pull-left + dl, .html-embed-wrapper figure.pull-left + figure, .html-embed-wrapper figure.pull-left + ol, .html-embed-wrapper figure.pull-left + p, .html-embed-wrapper figure.pull-left + pre, .html-embed-wrapper figure.pull-left + ul, .html-embed-wrapper figure.pull-right + address, .html-embed-wrapper figure.pull-right + blockquote, .html-embed-wrapper figure.pull-right + dl, .html-embed-wrapper figure.pull-right + figure, .html-embed-wrapper figure.pull-right + ol, .html-embed-wrapper figure.pull-right + p, .html-embed-wrapper figure.pull-right + pre, .html-embed-wrapper figure.pull-right + ul, .html-embed-wrapper p.pull-left + address, .html-embed-wrapper p.pull-left + blockquote, .html-embed-wrapper p.pull-left + dl, .html-embed-wrapper p.pull-left + figure, .html-embed-wrapper p.pull-left + ol, .html-embed-wrapper p.pull-left + p, .html-embed-wrapper p.pull-left + pre, .html-embed-wrapper p.pull-left + ul, .html-embed-wrapper p.pull-right + address, .html-embed-wrapper p.pull-right + blockquote, .html-embed-wrapper p.pull-right + dl, .html-embed-wrapper p.pull-right + figure, .html-embed-wrapper p.pull-right + ol, .html-embed-wrapper p.pull-right + p, .html-embed-wrapper p.pull-right + pre, .html-embed-wrapper p.pull-right + ul, .html-embed-wrapper q.pull-left + address, .html-embed-wrapper q.pull-left + blockquote, .html-embed-wrapper q.pull-left + dl, .html-embed-wrapper q.pull-left + figure, .html-embed-wrapper q.pull-left + ol, .html-embed-wrapper q.pull-left + p, .html-embed-wrapper q.pull-left + pre, .html-embed-wrapper q.pull-left + ul, .html-embed-wrapper q.pull-right + address, .html-embed-wrapper q.pull-right + blockquote, .html-embed-wrapper q.pull-right + dl, .html-embed-wrapper q.pull-right + figure, .html-embed-wrapper q.pull-right + ol, .html-embed-wrapper q.pull-right + p, .html-embed-wrapper q.pull-right + pre, .html-embed-wrapper q.pull-right + ul {margin-top: 0}
+.html-embed-wrapper aside.full-width.diag-back.full-width .pull-right {margin-right: initial;
+margin-top: 25px;
+margin-left: initial;
+min-width: 100%}
+.html-embed-wrapper aside.full-width.diag-back.full-width .pull-right img {min-width: 100%}
+@media (min-width: 480px) {
+.html-embed-wrapper aside.full-width.diag-back.full-width .pull-right {margin-top: 25px;
+margin-left: 5px;
+min-width: initial}
+.html-embed-wrapper aside.full-width.diag-back.full-width .pull-right img {min-width: initial}
+}
+.html-embed-wrapper aside.full-width.ombre-std.full-width .pull-right {margin-right: initial;
+margin-top: 5px;
+margin-left: initial;
+min-width: 100%}
+.html-embed-wrapper aside.full-width.ombre-std.full-width .pull-right img {min-width: 100%}
+@media (min-width: 480px) {
+.html-embed-wrapper aside.full-width.ombre-std.full-width .pull-right {margin-top: 25px;
+margin-left: 5px;
+min-width: initial}
+.html-embed-wrapper aside.full-width.ombre-std.full-width .pull-right img {min-width: initial}
+}
+.html-embed-wrapper aside.full-width.has-image figure.pull-right {margin-right: initial !important;
+max-width: 190px;
+margin-top: 44px !important;
+border-radius: initial}
+.html-embed-wrapper aside.full-width.has-image figure.pull-right img {border-radius: 50%}
+@media (max-width: 1309px) {
+.html-embed-wrapper aside.full-width.has-image figure.pull-right {margin-right: calc(100vw - 220px - 830px)}
+}
+@media (max-width: 1200px) {
+.html-embed-wrapper aside.full-width.has-image figure.pull-right {margin-right: calc(100vw - 220px - 750px)}
+}
+@media (max-width: 768px) {
+.html-embed-wrapper aside.full-width.has-image figure.pull-right {width: 22.5vw;
+max-width: 100%;
+width: 100%;
+margin: 0;
+float: initial !important;
+padding: 6% 20% 0 20%}
+.html-embed-wrapper aside.full-width.has-image figure.pull-right img {width: 100%}
+}
+.html-embed-wrapper aside.full-width.has-image figure.pull-right img:last-child {margin-bottom: 0}
+.html-embed-wrapper img.pull-left {margin: 0 15px 15px 0}
+.html-embed-wrapper img.pull-right {margin: 0 0 15px 15px}
+.html-embed-wrapper .text-block aside.full-width blockquote, .html-embed-wrapper .text-block aside.pull-left blockquote, .html-embed-wrapper .text-block aside.pull-right blockquote {margin: 25px 0 15px}
+.html-embed-wrapper .text-block aside.full-width blockquote, .html-embed-wrapper .text-block aside.pull-left blockquote, .html-embed-wrapper .text-block aside.pull-right blockquote {margin: 25px 0 15px}
+.html-embed-wrapper .text-block aside.full-width blockquote + cite, .html-embed-wrapper .text-block aside.pull-left blockquote + cite, .html-embed-wrapper .text-block aside.pull-right blockquote + cite {margin-bottom: 25px}
+.html-embed-wrapper .text-block aside.full-width blockquote + cite, .html-embed-wrapper .text-block aside.pull-left blockquote + cite, .html-embed-wrapper .text-block aside.pull-right blockquote + cite {margin-bottom: 25px}
+@media (min-width: 768px) {
+.html-embed-wrapper .text-block aside.pull-left, .html-embed-wrapper .text-block figure.pull-left {width: 46%;
+margin-right: 4%;
+margin-left: 0;
+padding-top: 0.7rem}
+.html-embed-wrapper .text-block aside.pull-left + h2, .html-embed-wrapper .text-block aside.pull-left + p, .html-embed-wrapper .text-block figure.pull-left + h2, .html-embed-wrapper .text-block figure.pull-left + p {margin-top: 0}
+.html-embed-wrapper .text-block aside.pull-left.one-third, .html-embed-wrapper .text-block figure.pull-left.one-third {width: 29%;
+margin-right: 4%}
+.html-embed-wrapper .text-block aside.pull-right, .html-embed-wrapper .text-block figure.pull-right {width: 46%;
+margin-left: 4%;
+margin-right: 0;
+padding-top: 0.7rem}
+.html-embed-wrapper .text-block aside.pull-right + h2, .html-embed-wrapper .text-block aside.pull-right + p, .html-embed-wrapper .text-block figure.pull-right + h2, .html-embed-wrapper .text-block figure.pull-right + p {margin-top: 0}
+.html-embed-wrapper .text-block aside.pull-right.one-third, .html-embed-wrapper .text-block figure.pull-right.one-third {width: 29%;
+margin-right: 4%}
+}
+.html-embed-wrapper ol.subtle-collapsible-list.col-xs-12, .html-embed-wrapper ul.subtle-collapsible-list.col-xs-12 {padding: 0 15px 0 0}
+.html-embed-wrapper .template-INSTITUTE .full-width figure.pull-right {width: 100%;
+margin: 0 !important;
+margin-top: 10px !important;
+min-width: 100%}
+.html-embed-wrapper .template-INSTITUTE .full-width figure.pull-right img {width: 100%;
+min-width: 100%}
+@media (min-width: 480px) {
+.html-embed-wrapper .template-INSTITUTE .full-width figure.pull-right {width: initial !important;
+min-width: initial !important;
+margin: 0;
+margin-top: 47px !important}
+.html-embed-wrapper .template-INSTITUTE .full-width figure.pull-right img {width: initial;
+min-width: initial}
+}
+.html-embed-wrapper .profile-block .pull-left img {border-radius: 50%}
+.html-embed-wrapper .profile-block .media-body {display: -ms-flexbox;
+display: flex;
+width: auto;
+-ms-flex-direction: column;
+flex-direction: column;
+width: 100%}
+.html-embed-wrapper .profile-block .media-body {display: -ms-flexbox;
+display: flex;
+width: auto;
+-ms-flex-direction: column;
+flex-direction: column;
+width: 100%}
+.html-embed-wrapper .profile-block .media-body h2 {color: #1a1c21;
+font-family: "GT Walsheim", Arial, sans-serif;
+font-size: 24px;
+margin-bottom: 5px;
+line-height: 3.5rem}
+.html-embed-wrapper .profile-block .media-body h2 {color: #1a1c21;
+font-family: "GT Walsheim", Arial, sans-serif;
+font-size: 24px;
+margin-bottom: 5px;
+line-height: 3.5rem}
+.html-embed-wrapper .profile-block .media-body span a {text-decoration: underline;
+font-weight: 700;
+line-height: 1}
+.html-embed-wrapper .profile-block .media-body span a {text-decoration: underline;
+font-weight: 700;
+line-height: 1}
+.html-embed-wrapper .profile-block .media-body address {line-height: 1.4em;
+font-size: 0.9em;
+margin-bottom: 5px;
+margin-top: 15px;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body address {line-height: 1.4em;
+font-size: 0.9em;
+margin-bottom: 5px;
+margin-top: 15px;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body address strong {margin-bottom: 10px;
+font-weight: 400}
+.html-embed-wrapper .profile-block .media-body address strong {margin-bottom: 10px;
+font-weight: 400}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-family: Arial, Helvetica, sans-serif;
+background-image: none !important;
+text-transform: uppercase;
+padding: 12px 24px;
+line-height: 1em;
+height: auto;
+border-radius: 25px;
+letter-spacing: 1px;
+font-size: 12px;
+background-color: #1a1c21 !important}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-family: Arial, Helvetica, sans-serif;
+background-image: none !important;
+text-transform: uppercase;
+padding: 12px 24px;
+line-height: 1em;
+height: auto;
+border-radius: 25px;
+letter-spacing: 1px;
+font-size: 12px;
+background-color: #1a1c21 !important}
+.html-embed-wrapper .profile-block .media-body .content {width: 100%;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .content {width: 100%;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .contact {font-family: Arial, Helvetica, sans-serif;
+width: 100%;
+display: -ms-flexbox;
+display: flex;
+-ms-flex-direction: column;
+flex-direction: column;
+-ms-flex-pack: center;
+justify-content: center}
+.html-embed-wrapper .profile-block .media-body .contact {font-family: Arial, Helvetica, sans-serif;
+width: 100%;
+display: -ms-flexbox;
+display: flex;
+-ms-flex-direction: column;
+flex-direction: column;
+-ms-flex-pack: center;
+justify-content: center}
+.html-embed-wrapper .profile-block .media-body .contact a {font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .contact a {font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .contact i.fa-envelope, .html-embed-wrapper .profile-block .media-body .contact i.fa-phone {color: #005099 !important}
+.html-embed-wrapper .profile-block .media-body .contact i.fa-envelope, .html-embed-wrapper .profile-block .media-body .contact i.fa-phone {color: #005099 !important}
+@media (min-width: 992px) {
+.html-embed-wrapper .profile-block .media-body {-ms-flex-direction: initial;
+flex-direction: initial;
+padding-left: 12px}
+.html-embed-wrapper .profile-block .media-body {-ms-flex-direction: initial;
+flex-direction: initial;
+padding-left: 12px}
+.html-embed-wrapper .profile-block .media-body h2 {font-size: 42px}
+.html-embed-wrapper .profile-block .media-body h2 {font-size: 42px}
+.html-embed-wrapper .profile-block .media-body span {font-size: 16px}
+.html-embed-wrapper .profile-block .media-body span {font-size: 16px}
+.html-embed-wrapper .profile-block .media-body address {margin-bottom: 0}
+.html-embed-wrapper .profile-block .media-body address {margin-bottom: 0}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-size: 13px;
+padding: 12px 24px}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-size: 13px;
+padding: 12px 24px}
+.html-embed-wrapper .profile-block .media-body .content {width: 61%}
+.html-embed-wrapper .profile-block .media-body .content {width: 61%}
+.html-embed-wrapper .profile-block .media-body .contact {width: 39%;
+border-left: 1px solid #707070;
+margin-left: 20px;
+padding-left: 20px}
+.html-embed-wrapper .profile-block .media-body .contact {width: 39%;
+border-left: 1px solid #707070;
+margin-left: 20px;
+padding-left: 20px}
+}
+&lt;/style&gt;&lt;section class="text-block clearfix" data-element="2016 Text Block" id="txt-5515486"&gt;
+ &lt;div class="col-xs-12"&gt;
+  &lt;div class="media"&gt;
+   &lt;div class="pull-left"&gt;
+    &lt;p&gt;
+     &lt;img alt="power outlet" height="60px" src="https://www.american.edu/about/sustainability/images/energy.png" title="power outlet" width="60px"/&gt;
+    &lt;/p&gt;
+   &lt;/div&gt;
+   &lt;div class="media-body"&gt;
+    &lt;div class="pull-right"&gt;
+     &lt;h2&gt;
+      &lt;small&gt;
+       &lt;strong&gt;
+        50% of Campus Power from Solar Energy
+       &lt;/strong&gt;
+      &lt;/small&gt;
+     &lt;/h2&gt;
+     &lt;p&gt;
+      AU entered a
+      &lt;a href="https://cms.american.edu/media/news/20160328-solar-energy-half-au-power"&gt;
+       20-year solar agreement
+      &lt;/a&gt;
+      with partners George Washington University and GWU Hospital. Solar panels at three sites in North Carolina supply the partners with emissions-free electricity. At the time, it was the largest non-utility solar PV power purchase agreement in the US and the largest solar PV project east of the Mississippi River.
+     &lt;/p&gt;
+    &lt;/div&gt;
+   &lt;/div&gt;
+  &lt;/div&gt;
+ &lt;/div&gt;
+&lt;/section&gt;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/about/sustainability/milestones</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>txt-5507353</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>txt-5507353</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+.html-embed-wrapper .blockquote-reverse, .html-embed-wrapper blockquote.pull-right {padding-right: 15px;
+padding-left: 0;
+border-right: 5px solid #eee;
+border-left: 0;
+text-align: right}
+.html-embed-wrapper .blockquote-reverse .small:before, .html-embed-wrapper .blockquote-reverse footer:before, .html-embed-wrapper .blockquote-reverse small:before, .html-embed-wrapper blockquote.pull-right .small:before, .html-embed-wrapper blockquote.pull-right footer:before, .html-embed-wrapper blockquote.pull-right small:before {content: ""}
+.html-embed-wrapper .blockquote-reverse .small:after, .html-embed-wrapper .blockquote-reverse footer:after, .html-embed-wrapper .blockquote-reverse small:after, .html-embed-wrapper blockquote.pull-right .small:after, .html-embed-wrapper blockquote.pull-right footer:after, .html-embed-wrapper blockquote.pull-right small:after {content: " —"}
+.html-embed-wrapper .col-lg-1, .html-embed-wrapper .col-lg-10, .html-embed-wrapper .col-lg-11, .html-embed-wrapper .col-lg-12, .html-embed-wrapper .col-lg-2, .html-embed-wrapper .col-lg-3, .html-embed-wrapper .col-lg-4, .html-embed-wrapper .col-lg-5, .html-embed-wrapper .col-lg-6, .html-embed-wrapper .col-lg-7, .html-embed-wrapper .col-lg-8, .html-embed-wrapper .col-lg-9, .html-embed-wrapper .col-md-1, .html-embed-wrapper .col-md-10, .html-embed-wrapper .col-md-11, .html-embed-wrapper .col-md-12, .html-embed-wrapper .col-md-2, .html-embed-wrapper .col-md-3, .html-embed-wrapper .col-md-4, .html-embed-wrapper .col-md-5, .html-embed-wrapper .col-md-6, .html-embed-wrapper .col-md-7, .html-embed-wrapper .col-md-8, .html-embed-wrapper .col-md-9, .html-embed-wrapper .col-sm-1, .html-embed-wrapper .col-sm-10, .html-embed-wrapper .col-sm-11, .html-embed-wrapper .col-sm-12, .html-embed-wrapper .col-sm-2, .html-embed-wrapper .col-sm-3, .html-embed-wrapper .col-sm-4, .html-embed-wrapper .col-sm-5, .html-embed-wrapper .col-sm-6, .html-embed-wrapper .col-sm-7, .html-embed-wrapper .col-sm-8, .html-embed-wrapper .col-sm-9, .html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {position: relative;
+min-height: 1px;
+padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {float: left}
+.html-embed-wrapper .col-xs-12 {width: 100%}
+.html-embed-wrapper .dropdown-menu.pull-right {right: 0;
+left: auto}
+.html-embed-wrapper .pull-right &gt; .dropdown-menu {right: 0;
+left: auto}
+.html-embed-wrapper .media {margin-top: 15px}
+.html-embed-wrapper .media:first-child {margin-top: 0}
+.html-embed-wrapper .media, .html-embed-wrapper .media-body {zoom: 1;
+overflow: hidden}
+.html-embed-wrapper .media, .html-embed-wrapper .media-body {zoom: 1;
+overflow: hidden}
+.html-embed-wrapper .media-body {width: 10000px}
+.html-embed-wrapper .media-body {width: 10000px}
+.html-embed-wrapper .media-object {display: block}
+.html-embed-wrapper .media-object.img-thumbnail {max-width: none}
+.html-embed-wrapper .media-right, .html-embed-wrapper .media &gt; .pull-right {padding-left: 10px}
+.html-embed-wrapper .media-right, .html-embed-wrapper .media &gt; .pull-right {padding-left: 10px}
+.html-embed-wrapper .media-left, .html-embed-wrapper .media &gt; .pull-left {padding-right: 10px}
+.html-embed-wrapper .media-left, .html-embed-wrapper .media &gt; .pull-left {padding-right: 10px}
+.html-embed-wrapper .media-body, .html-embed-wrapper .media-left, .html-embed-wrapper .media-right {display: table-cell;
+vertical-align: top}
+.html-embed-wrapper .media-body, .html-embed-wrapper .media-left, .html-embed-wrapper .media-right {display: table-cell;
+vertical-align: top}
+.html-embed-wrapper .media-middle {vertical-align: middle}
+.html-embed-wrapper .media-bottom {vertical-align: bottom}
+.html-embed-wrapper .media-heading {margin-top: 0;
+margin-bottom: 5px}
+.html-embed-wrapper .media-list {padding-left: 0;
+list-style: none}
+.html-embed-wrapper .pull-right {float: right !important}
+.html-embed-wrapper .pull-left {float: left !important}
+.html-embed-wrapper address.pull-left + address, .html-embed-wrapper address.pull-left + blockquote, .html-embed-wrapper address.pull-left + dl, .html-embed-wrapper address.pull-left + figure, .html-embed-wrapper address.pull-left + ol, .html-embed-wrapper address.pull-left + p, .html-embed-wrapper address.pull-left + pre, .html-embed-wrapper address.pull-left + ul, .html-embed-wrapper address.pull-right + address, .html-embed-wrapper address.pull-right + blockquote, .html-embed-wrapper address.pull-right + dl, .html-embed-wrapper address.pull-right + figure, .html-embed-wrapper address.pull-right + ol, .html-embed-wrapper address.pull-right + p, .html-embed-wrapper address.pull-right + pre, .html-embed-wrapper address.pull-right + ul, .html-embed-wrapper blockquote.pull-left + address, .html-embed-wrapper blockquote.pull-left + blockquote, .html-embed-wrapper blockquote.pull-left + dl, .html-embed-wrapper blockquote.pull-left + figure, .html-embed-wrapper blockquote.pull-left + ol, .html-embed-wrapper blockquote.pull-left + p, .html-embed-wrapper blockquote.pull-left + pre, .html-embed-wrapper blockquote.pull-left + ul, .html-embed-wrapper blockquote.pull-right + address, .html-embed-wrapper blockquote.pull-right + blockquote, .html-embed-wrapper blockquote.pull-right + dl, .html-embed-wrapper blockquote.pull-right + figure, .html-embed-wrapper blockquote.pull-right + ol, .html-embed-wrapper blockquote.pull-right + p, .html-embed-wrapper blockquote.pull-right + pre, .html-embed-wrapper blockquote.pull-right + ul, .html-embed-wrapper figcaption.pull-left + address, .html-embed-wrapper figcaption.pull-left + blockquote, .html-embed-wrapper figcaption.pull-left + dl, .html-embed-wrapper figcaption.pull-left + figure, .html-embed-wrapper figcaption.pull-left + ol, .html-embed-wrapper figcaption.pull-left + p, .html-embed-wrapper figcaption.pull-left + pre, .html-embed-wrapper figcaption.pull-left + ul, .html-embed-wrapper figcaption.pull-right + address, .html-embed-wrapper figcaption.pull-right + blockquote, .html-embed-wrapper figcaption.pull-right + dl, .html-embed-wrapper figcaption.pull-right + figure, .html-embed-wrapper figcaption.pull-right + ol, .html-embed-wrapper figcaption.pull-right + p, .html-embed-wrapper figcaption.pull-right + pre, .html-embed-wrapper figcaption.pull-right + ul, .html-embed-wrapper figure.pull-left + address, .html-embed-wrapper figure.pull-left + blockquote, .html-embed-wrapper figure.pull-left + dl, .html-embed-wrapper figure.pull-left + figure, .html-embed-wrapper figure.pull-left + ol, .html-embed-wrapper figure.pull-left + p, .html-embed-wrapper figure.pull-left + pre, .html-embed-wrapper figure.pull-left + ul, .html-embed-wrapper figure.pull-right + address, .html-embed-wrapper figure.pull-right + blockquote, .html-embed-wrapper figure.pull-right + dl, .html-embed-wrapper figure.pull-right + figure, .html-embed-wrapper figure.pull-right + ol, .html-embed-wrapper figure.pull-right + p, .html-embed-wrapper figure.pull-right + pre, .html-embed-wrapper figure.pull-right + ul, .html-embed-wrapper p.pull-left + address, .html-embed-wrapper p.pull-left + blockquote, .html-embed-wrapper p.pull-left + dl, .html-embed-wrapper p.pull-left + figure, .html-embed-wrapper p.pull-left + ol, .html-embed-wrapper p.pull-left + p, .html-embed-wrapper p.pull-left + pre, .html-embed-wrapper p.pull-left + ul, .html-embed-wrapper p.pull-right + address, .html-embed-wrapper p.pull-right + blockquote, .html-embed-wrapper p.pull-right + dl, .html-embed-wrapper p.pull-right + figure, .html-embed-wrapper p.pull-right + ol, .html-embed-wrapper p.pull-right + p, .html-embed-wrapper p.pull-right + pre, .html-embed-wrapper p.pull-right + ul, .html-embed-wrapper q.pull-left + address, .html-embed-wrapper q.pull-left + blockquote, .html-embed-wrapper q.pull-left + dl, .html-embed-wrapper q.pull-left + figure, .html-embed-wrapper q.pull-left + ol, .html-embed-wrapper q.pull-left + p, .html-embed-wrapper q.pull-left + pre, .html-embed-wrapper q.pull-left + ul, .html-embed-wrapper q.pull-right + address, .html-embed-wrapper q.pull-right + blockquote, .html-embed-wrapper q.pull-right + dl, .html-embed-wrapper q.pull-right + figure, .html-embed-wrapper q.pull-right + ol, .html-embed-wrapper q.pull-right + p, .html-embed-wrapper q.pull-right + pre, .html-embed-wrapper q.pull-right + ul {margin-top: 0}
+.html-embed-wrapper address.pull-left + address, .html-embed-wrapper address.pull-left + blockquote, .html-embed-wrapper address.pull-left + dl, .html-embed-wrapper address.pull-left + figure, .html-embed-wrapper address.pull-left + ol, .html-embed-wrapper address.pull-left + p, .html-embed-wrapper address.pull-left + pre, .html-embed-wrapper address.pull-left + ul, .html-embed-wrapper address.pull-right + address, .html-embed-wrapper address.pull-right + blockquote, .html-embed-wrapper address.pull-right + dl, .html-embed-wrapper address.pull-right + figure, .html-embed-wrapper address.pull-right + ol, .html-embed-wrapper address.pull-right + p, .html-embed-wrapper address.pull-right + pre, .html-embed-wrapper address.pull-right + ul, .html-embed-wrapper blockquote.pull-left + address, .html-embed-wrapper blockquote.pull-left + blockquote, .html-embed-wrapper blockquote.pull-left + dl, .html-embed-wrapper blockquote.pull-left + figure, .html-embed-wrapper blockquote.pull-left + ol, .html-embed-wrapper blockquote.pull-left + p, .html-embed-wrapper blockquote.pull-left + pre, .html-embed-wrapper blockquote.pull-left + ul, .html-embed-wrapper blockquote.pull-right + address, .html-embed-wrapper blockquote.pull-right + blockquote, .html-embed-wrapper blockquote.pull-right + dl, .html-embed-wrapper blockquote.pull-right + figure, .html-embed-wrapper blockquote.pull-right + ol, .html-embed-wrapper blockquote.pull-right + p, .html-embed-wrapper blockquote.pull-right + pre, .html-embed-wrapper blockquote.pull-right + ul, .html-embed-wrapper figcaption.pull-left + address, .html-embed-wrapper figcaption.pull-left + blockquote, .html-embed-wrapper figcaption.pull-left + dl, .html-embed-wrapper figcaption.pull-left + figure, .html-embed-wrapper figcaption.pull-left + ol, .html-embed-wrapper figcaption.pull-left + p, .html-embed-wrapper figcaption.pull-left + pre, .html-embed-wrapper figcaption.pull-left + ul, .html-embed-wrapper figcaption.pull-right + address, .html-embed-wrapper figcaption.pull-right + blockquote, .html-embed-wrapper figcaption.pull-right + dl, .html-embed-wrapper figcaption.pull-right + figure, .html-embed-wrapper figcaption.pull-right + ol, .html-embed-wrapper figcaption.pull-right + p, .html-embed-wrapper figcaption.pull-right + pre, .html-embed-wrapper figcaption.pull-right + ul, .html-embed-wrapper figure.pull-left + address, .html-embed-wrapper figure.pull-left + blockquote, .html-embed-wrapper figure.pull-left + dl, .html-embed-wrapper figure.pull-left + figure, .html-embed-wrapper figure.pull-left + ol, .html-embed-wrapper figure.pull-left + p, .html-embed-wrapper figure.pull-left + pre, .html-embed-wrapper figure.pull-left + ul, .html-embed-wrapper figure.pull-right + address, .html-embed-wrapper figure.pull-right + blockquote, .html-embed-wrapper figure.pull-right + dl, .html-embed-wrapper figure.pull-right + figure, .html-embed-wrapper figure.pull-right + ol, .html-embed-wrapper figure.pull-right + p, .html-embed-wrapper figure.pull-right + pre, .html-embed-wrapper figure.pull-right + ul, .html-embed-wrapper p.pull-left + address, .html-embed-wrapper p.pull-left + blockquote, .html-embed-wrapper p.pull-left + dl, .html-embed-wrapper p.pull-left + figure, .html-embed-wrapper p.pull-left + ol, .html-embed-wrapper p.pull-left + p, .html-embed-wrapper p.pull-left + pre, .html-embed-wrapper p.pull-left + ul, .html-embed-wrapper p.pull-right + address, .html-embed-wrapper p.pull-right + blockquote, .html-embed-wrapper p.pull-right + dl, .html-embed-wrapper p.pull-right + figure, .html-embed-wrapper p.pull-right + ol, .html-embed-wrapper p.pull-right + p, .html-embed-wrapper p.pull-right + pre, .html-embed-wrapper p.pull-right + ul, .html-embed-wrapper q.pull-left + address, .html-embed-wrapper q.pull-left + blockquote, .html-embed-wrapper q.pull-left + dl, .html-embed-wrapper q.pull-left + figure, .html-embed-wrapper q.pull-left + ol, .html-embed-wrapper q.pull-left + p, .html-embed-wrapper q.pull-left + pre, .html-embed-wrapper q.pull-left + ul, .html-embed-wrapper q.pull-right + address, .html-embed-wrapper q.pull-right + blockquote, .html-embed-wrapper q.pull-right + dl, .html-embed-wrapper q.pull-right + figure, .html-embed-wrapper q.pull-right + ol, .html-embed-wrapper q.pull-right + p, .html-embed-wrapper q.pull-right + pre, .html-embed-wrapper q.pull-right + ul {margin-top: 0}
+.html-embed-wrapper aside.full-width.diag-back.full-width .pull-right {margin-right: initial;
+margin-top: 25px;
+margin-left: initial;
+min-width: 100%}
+.html-embed-wrapper aside.full-width.diag-back.full-width .pull-right img {min-width: 100%}
+@media (min-width: 480px) {
+.html-embed-wrapper aside.full-width.diag-back.full-width .pull-right {margin-top: 25px;
+margin-left: 5px;
+min-width: initial}
+.html-embed-wrapper aside.full-width.diag-back.full-width .pull-right img {min-width: initial}
+}
+.html-embed-wrapper aside.full-width.ombre-std.full-width .pull-right {margin-right: initial;
+margin-top: 5px;
+margin-left: initial;
+min-width: 100%}
+.html-embed-wrapper aside.full-width.ombre-std.full-width .pull-right img {min-width: 100%}
+@media (min-width: 480px) {
+.html-embed-wrapper aside.full-width.ombre-std.full-width .pull-right {margin-top: 25px;
+margin-left: 5px;
+min-width: initial}
+.html-embed-wrapper aside.full-width.ombre-std.full-width .pull-right img {min-width: initial}
+}
+.html-embed-wrapper aside.full-width.has-image figure.pull-right {margin-right: initial !important;
+max-width: 190px;
+margin-top: 44px !important;
+border-radius: initial}
+.html-embed-wrapper aside.full-width.has-image figure.pull-right img {border-radius: 50%}
+@media (max-width: 1309px) {
+.html-embed-wrapper aside.full-width.has-image figure.pull-right {margin-right: calc(100vw - 220px - 830px)}
+}
+@media (max-width: 1200px) {
+.html-embed-wrapper aside.full-width.has-image figure.pull-right {margin-right: calc(100vw - 220px - 750px)}
+}
+@media (max-width: 768px) {
+.html-embed-wrapper aside.full-width.has-image figure.pull-right {width: 22.5vw;
+max-width: 100%;
+width: 100%;
+margin: 0;
+float: initial !important;
+padding: 6% 20% 0 20%}
+.html-embed-wrapper aside.full-width.has-image figure.pull-right img {width: 100%}
+}
+.html-embed-wrapper aside.full-width.has-image figure.pull-right img:last-child {margin-bottom: 0}
+.html-embed-wrapper img.pull-left {margin: 0 15px 15px 0}
+.html-embed-wrapper img.pull-right {margin: 0 0 15px 15px}
+.html-embed-wrapper .text-block aside.full-width blockquote, .html-embed-wrapper .text-block aside.pull-left blockquote, .html-embed-wrapper .text-block aside.pull-right blockquote {margin: 25px 0 15px}
+.html-embed-wrapper .text-block aside.full-width blockquote, .html-embed-wrapper .text-block aside.pull-left blockquote, .html-embed-wrapper .text-block aside.pull-right blockquote {margin: 25px 0 15px}
+.html-embed-wrapper .text-block aside.full-width blockquote + cite, .html-embed-wrapper .text-block aside.pull-left blockquote + cite, .html-embed-wrapper .text-block aside.pull-right blockquote + cite {margin-bottom: 25px}
+.html-embed-wrapper .text-block aside.full-width blockquote + cite, .html-embed-wrapper .text-block aside.pull-left blockquote + cite, .html-embed-wrapper .text-block aside.pull-right blockquote + cite {margin-bottom: 25px}
+@media (min-width: 768px) {
+.html-embed-wrapper .text-block aside.pull-left, .html-embed-wrapper .text-block figure.pull-left {width: 46%;
+margin-right: 4%;
+margin-left: 0;
+padding-top: 0.7rem}
+.html-embed-wrapper .text-block aside.pull-left + h2, .html-embed-wrapper .text-block aside.pull-left + p, .html-embed-wrapper .text-block figure.pull-left + h2, .html-embed-wrapper .text-block figure.pull-left + p {margin-top: 0}
+.html-embed-wrapper .text-block aside.pull-left.one-third, .html-embed-wrapper .text-block figure.pull-left.one-third {width: 29%;
+margin-right: 4%}
+.html-embed-wrapper .text-block aside.pull-right, .html-embed-wrapper .text-block figure.pull-right {width: 46%;
+margin-left: 4%;
+margin-right: 0;
+padding-top: 0.7rem}
+.html-embed-wrapper .text-block aside.pull-right + h2, .html-embed-wrapper .text-block aside.pull-right + p, .html-embed-wrapper .text-block figure.pull-right + h2, .html-embed-wrapper .text-block figure.pull-right + p {margin-top: 0}
+.html-embed-wrapper .text-block aside.pull-right.one-third, .html-embed-wrapper .text-block figure.pull-right.one-third {width: 29%;
+margin-right: 4%}
+}
+.html-embed-wrapper ol.subtle-collapsible-list.col-xs-12, .html-embed-wrapper ul.subtle-collapsible-list.col-xs-12 {padding: 0 15px 0 0}
+.html-embed-wrapper .template-INSTITUTE .full-width figure.pull-right {width: 100%;
+margin: 0 !important;
+margin-top: 10px !important;
+min-width: 100%}
+.html-embed-wrapper .template-INSTITUTE .full-width figure.pull-right img {width: 100%;
+min-width: 100%}
+@media (min-width: 480px) {
+.html-embed-wrapper .template-INSTITUTE .full-width figure.pull-right {width: initial !important;
+min-width: initial !important;
+margin: 0;
+margin-top: 47px !important}
+.html-embed-wrapper .template-INSTITUTE .full-width figure.pull-right img {width: initial;
+min-width: initial}
+}
+.html-embed-wrapper .profile-block .pull-left img {border-radius: 50%}
+.html-embed-wrapper .profile-block .media-body {display: -ms-flexbox;
+display: flex;
+width: auto;
+-ms-flex-direction: column;
+flex-direction: column;
+width: 100%}
+.html-embed-wrapper .profile-block .media-body {display: -ms-flexbox;
+display: flex;
+width: auto;
+-ms-flex-direction: column;
+flex-direction: column;
+width: 100%}
+.html-embed-wrapper .profile-block .media-body h2 {color: #1a1c21;
+font-family: "GT Walsheim", Arial, sans-serif;
+font-size: 24px;
+margin-bottom: 5px;
+line-height: 3.5rem}
+.html-embed-wrapper .profile-block .media-body h2 {color: #1a1c21;
+font-family: "GT Walsheim", Arial, sans-serif;
+font-size: 24px;
+margin-bottom: 5px;
+line-height: 3.5rem}
+.html-embed-wrapper .profile-block .media-body span a {text-decoration: underline;
+font-weight: 700;
+line-height: 1}
+.html-embed-wrapper .profile-block .media-body span a {text-decoration: underline;
+font-weight: 700;
+line-height: 1}
+.html-embed-wrapper .profile-block .media-body address {line-height: 1.4em;
+font-size: 0.9em;
+margin-bottom: 5px;
+margin-top: 15px;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body address {line-height: 1.4em;
+font-size: 0.9em;
+margin-bottom: 5px;
+margin-top: 15px;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body address strong {margin-bottom: 10px;
+font-weight: 400}
+.html-embed-wrapper .profile-block .media-body address strong {margin-bottom: 10px;
+font-weight: 400}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-family: Arial, Helvetica, sans-serif;
+background-image: none !important;
+text-transform: uppercase;
+padding: 12px 24px;
+line-height: 1em;
+height: auto;
+border-radius: 25px;
+letter-spacing: 1px;
+font-size: 12px;
+background-color: #1a1c21 !important}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-family: Arial, Helvetica, sans-serif;
+background-image: none !important;
+text-transform: uppercase;
+padding: 12px 24px;
+line-height: 1em;
+height: auto;
+border-radius: 25px;
+letter-spacing: 1px;
+font-size: 12px;
+background-color: #1a1c21 !important}
+.html-embed-wrapper .profile-block .media-body .content {width: 100%;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .content {width: 100%;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .contact {font-family: Arial, Helvetica, sans-serif;
+width: 100%;
+display: -ms-flexbox;
+display: flex;
+-ms-flex-direction: column;
+flex-direction: column;
+-ms-flex-pack: center;
+justify-content: center}
+.html-embed-wrapper .profile-block .media-body .contact {font-family: Arial, Helvetica, sans-serif;
+width: 100%;
+display: -ms-flexbox;
+display: flex;
+-ms-flex-direction: column;
+flex-direction: column;
+-ms-flex-pack: center;
+justify-content: center}
+.html-embed-wrapper .profile-block .media-body .contact a {font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .contact a {font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .contact i.fa-envelope, .html-embed-wrapper .profile-block .media-body .contact i.fa-phone {color: #005099 !important}
+.html-embed-wrapper .profile-block .media-body .contact i.fa-envelope, .html-embed-wrapper .profile-block .media-body .contact i.fa-phone {color: #005099 !important}
+@media (min-width: 992px) {
+.html-embed-wrapper .profile-block .media-body {-ms-flex-direction: initial;
+flex-direction: initial;
+padding-left: 12px}
+.html-embed-wrapper .profile-block .media-body {-ms-flex-direction: initial;
+flex-direction: initial;
+padding-left: 12px}
+.html-embed-wrapper .profile-block .media-body h2 {font-size: 42px}
+.html-embed-wrapper .profile-block .media-body h2 {font-size: 42px}
+.html-embed-wrapper .profile-block .media-body span {font-size: 16px}
+.html-embed-wrapper .profile-block .media-body span {font-size: 16px}
+.html-embed-wrapper .profile-block .media-body address {margin-bottom: 0}
+.html-embed-wrapper .profile-block .media-body address {margin-bottom: 0}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-size: 13px;
+padding: 12px 24px}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-size: 13px;
+padding: 12px 24px}
+.html-embed-wrapper .profile-block .media-body .content {width: 61%}
+.html-embed-wrapper .profile-block .media-body .content {width: 61%}
+.html-embed-wrapper .profile-block .media-body .contact {width: 39%;
+border-left: 1px solid #707070;
+margin-left: 20px;
+padding-left: 20px}
+.html-embed-wrapper .profile-block .media-body .contact {width: 39%;
+border-left: 1px solid #707070;
+margin-left: 20px;
+padding-left: 20px}
+}
+&lt;/style&gt;&lt;section class="text-block clearfix" data-element="2016 Text Block" id="txt-5507353"&gt;
+ &lt;div class="col-xs-12"&gt;
+  &lt;div class="media"&gt;
+   &lt;div class="pull-left"&gt;
+    &lt;p&gt;
+     &lt;img alt="door opening" height="60px" src="/about/sustainability/images/door.png" title="door opening" width="60px"/&gt;
+    &lt;/p&gt;
+   &lt;/div&gt;
+   &lt;div class="media-body"&gt;
+    &lt;div class="pull-right"&gt;
+     &lt;h2&gt;
+      &lt;small&gt;
+       &lt;strong&gt;
+        Office of Sustainability Created
+       &lt;/strong&gt;
+      &lt;/small&gt;
+     &lt;/h2&gt;
+     &lt;p&gt;
+      AU’s Office of Sustainability was founded to help meet the university's goal of "acting on our values of social responsibility, service, and an active pursuit of sustainability."
+     &lt;/p&gt;
+    &lt;/div&gt;
+   &lt;/div&gt;
+  &lt;/div&gt;
+ &lt;/div&gt;
+&lt;/section&gt;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/about/sustainability/milestones</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>txt-5507380</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>txt-5507380</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+.html-embed-wrapper .blockquote-reverse, .html-embed-wrapper blockquote.pull-right {padding-right: 15px;
+padding-left: 0;
+border-right: 5px solid #eee;
+border-left: 0;
+text-align: right}
+.html-embed-wrapper .blockquote-reverse .small:before, .html-embed-wrapper .blockquote-reverse footer:before, .html-embed-wrapper .blockquote-reverse small:before, .html-embed-wrapper blockquote.pull-right .small:before, .html-embed-wrapper blockquote.pull-right footer:before, .html-embed-wrapper blockquote.pull-right small:before {content: ""}
+.html-embed-wrapper .blockquote-reverse .small:after, .html-embed-wrapper .blockquote-reverse footer:after, .html-embed-wrapper .blockquote-reverse small:after, .html-embed-wrapper blockquote.pull-right .small:after, .html-embed-wrapper blockquote.pull-right footer:after, .html-embed-wrapper blockquote.pull-right small:after {content: " —"}
+.html-embed-wrapper .col-lg-1, .html-embed-wrapper .col-lg-10, .html-embed-wrapper .col-lg-11, .html-embed-wrapper .col-lg-12, .html-embed-wrapper .col-lg-2, .html-embed-wrapper .col-lg-3, .html-embed-wrapper .col-lg-4, .html-embed-wrapper .col-lg-5, .html-embed-wrapper .col-lg-6, .html-embed-wrapper .col-lg-7, .html-embed-wrapper .col-lg-8, .html-embed-wrapper .col-lg-9, .html-embed-wrapper .col-md-1, .html-embed-wrapper .col-md-10, .html-embed-wrapper .col-md-11, .html-embed-wrapper .col-md-12, .html-embed-wrapper .col-md-2, .html-embed-wrapper .col-md-3, .html-embed-wrapper .col-md-4, .html-embed-wrapper .col-md-5, .html-embed-wrapper .col-md-6, .html-embed-wrapper .col-md-7, .html-embed-wrapper .col-md-8, .html-embed-wrapper .col-md-9, .html-embed-wrapper .col-sm-1, .html-embed-wrapper .col-sm-10, .html-embed-wrapper .col-sm-11, .html-embed-wrapper .col-sm-12, .html-embed-wrapper .col-sm-2, .html-embed-wrapper .col-sm-3, .html-embed-wrapper .col-sm-4, .html-embed-wrapper .col-sm-5, .html-embed-wrapper .col-sm-6, .html-embed-wrapper .col-sm-7, .html-embed-wrapper .col-sm-8, .html-embed-wrapper .col-sm-9, .html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {position: relative;
+min-height: 1px;
+padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {float: left}
+.html-embed-wrapper .col-xs-12 {width: 100%}
+.html-embed-wrapper .dropdown-menu.pull-right {right: 0;
+left: auto}
+.html-embed-wrapper .pull-right &gt; .dropdown-menu {right: 0;
+left: auto}
+.html-embed-wrapper .media {margin-top: 15px}
+.html-embed-wrapper .media:first-child {margin-top: 0}
+.html-embed-wrapper .media, .html-embed-wrapper .media-body {zoom: 1;
+overflow: hidden}
+.html-embed-wrapper .media, .html-embed-wrapper .media-body {zoom: 1;
+overflow: hidden}
+.html-embed-wrapper .media-body {width: 10000px}
+.html-embed-wrapper .media-body {width: 10000px}
+.html-embed-wrapper .media-object {display: block}
+.html-embed-wrapper .media-object.img-thumbnail {max-width: none}
+.html-embed-wrapper .media-right, .html-embed-wrapper .media &gt; .pull-right {padding-left: 10px}
+.html-embed-wrapper .media-right, .html-embed-wrapper .media &gt; .pull-right {padding-left: 10px}
+.html-embed-wrapper .media-left, .html-embed-wrapper .media &gt; .pull-left {padding-right: 10px}
+.html-embed-wrapper .media-left, .html-embed-wrapper .media &gt; .pull-left {padding-right: 10px}
+.html-embed-wrapper .media-body, .html-embed-wrapper .media-left, .html-embed-wrapper .media-right {display: table-cell;
+vertical-align: top}
+.html-embed-wrapper .media-body, .html-embed-wrapper .media-left, .html-embed-wrapper .media-right {display: table-cell;
+vertical-align: top}
+.html-embed-wrapper .media-middle {vertical-align: middle}
+.html-embed-wrapper .media-bottom {vertical-align: bottom}
+.html-embed-wrapper .media-heading {margin-top: 0;
+margin-bottom: 5px}
+.html-embed-wrapper .media-list {padding-left: 0;
+list-style: none}
+.html-embed-wrapper .pull-right {float: right !important}
+.html-embed-wrapper .pull-left {float: left !important}
+.html-embed-wrapper address.pull-left + address, .html-embed-wrapper address.pull-left + blockquote, .html-embed-wrapper address.pull-left + dl, .html-embed-wrapper address.pull-left + figure, .html-embed-wrapper address.pull-left + ol, .html-embed-wrapper address.pull-left + p, .html-embed-wrapper address.pull-left + pre, .html-embed-wrapper address.pull-left + ul, .html-embed-wrapper address.pull-right + address, .html-embed-wrapper address.pull-right + blockquote, .html-embed-wrapper address.pull-right + dl, .html-embed-wrapper address.pull-right + figure, .html-embed-wrapper address.pull-right + ol, .html-embed-wrapper address.pull-right + p, .html-embed-wrapper address.pull-right + pre, .html-embed-wrapper address.pull-right + ul, .html-embed-wrapper blockquote.pull-left + address, .html-embed-wrapper blockquote.pull-left + blockquote, .html-embed-wrapper blockquote.pull-left + dl, .html-embed-wrapper blockquote.pull-left + figure, .html-embed-wrapper blockquote.pull-left + ol, .html-embed-wrapper blockquote.pull-left + p, .html-embed-wrapper blockquote.pull-left + pre, .html-embed-wrapper blockquote.pull-left + ul, .html-embed-wrapper blockquote.pull-right + address, .html-embed-wrapper blockquote.pull-right + blockquote, .html-embed-wrapper blockquote.pull-right + dl, .html-embed-wrapper blockquote.pull-right + figure, .html-embed-wrapper blockquote.pull-right + ol, .html-embed-wrapper blockquote.pull-right + p, .html-embed-wrapper blockquote.pull-right + pre, .html-embed-wrapper blockquote.pull-right + ul, .html-embed-wrapper figcaption.pull-left + address, .html-embed-wrapper figcaption.pull-left + blockquote, .html-embed-wrapper figcaption.pull-left + dl, .html-embed-wrapper figcaption.pull-left + figure, .html-embed-wrapper figcaption.pull-left + ol, .html-embed-wrapper figcaption.pull-left + p, .html-embed-wrapper figcaption.pull-left + pre, .html-embed-wrapper figcaption.pull-left + ul, .html-embed-wrapper figcaption.pull-right + address, .html-embed-wrapper figcaption.pull-right + blockquote, .html-embed-wrapper figcaption.pull-right + dl, .html-embed-wrapper figcaption.pull-right + figure, .html-embed-wrapper figcaption.pull-right + ol, .html-embed-wrapper figcaption.pull-right + p, .html-embed-wrapper figcaption.pull-right + pre, .html-embed-wrapper figcaption.pull-right + ul, .html-embed-wrapper figure.pull-left + address, .html-embed-wrapper figure.pull-left + blockquote, .html-embed-wrapper figure.pull-left + dl, .html-embed-wrapper figure.pull-left + figure, .html-embed-wrapper figure.pull-left + ol, .html-embed-wrapper figure.pull-left + p, .html-embed-wrapper figure.pull-left + pre, .html-embed-wrapper figure.pull-left + ul, .html-embed-wrapper figure.pull-right + address, .html-embed-wrapper figure.pull-right + blockquote, .html-embed-wrapper figure.pull-right + dl, .html-embed-wrapper figure.pull-right + figure, .html-embed-wrapper figure.pull-right + ol, .html-embed-wrapper figure.pull-right + p, .html-embed-wrapper figure.pull-right + pre, .html-embed-wrapper figure.pull-right + ul, .html-embed-wrapper p.pull-left + address, .html-embed-wrapper p.pull-left + blockquote, .html-embed-wrapper p.pull-left + dl, .html-embed-wrapper p.pull-left + figure, .html-embed-wrapper p.pull-left + ol, .html-embed-wrapper p.pull-left + p, .html-embed-wrapper p.pull-left + pre, .html-embed-wrapper p.pull-left + ul, .html-embed-wrapper p.pull-right + address, .html-embed-wrapper p.pull-right + blockquote, .html-embed-wrapper p.pull-right + dl, .html-embed-wrapper p.pull-right + figure, .html-embed-wrapper p.pull-right + ol, .html-embed-wrapper p.pull-right + p, .html-embed-wrapper p.pull-right + pre, .html-embed-wrapper p.pull-right + ul, .html-embed-wrapper q.pull-left + address, .html-embed-wrapper q.pull-left + blockquote, .html-embed-wrapper q.pull-left + dl, .html-embed-wrapper q.pull-left + figure, .html-embed-wrapper q.pull-left + ol, .html-embed-wrapper q.pull-left + p, .html-embed-wrapper q.pull-left + pre, .html-embed-wrapper q.pull-left + ul, .html-embed-wrapper q.pull-right + address, .html-embed-wrapper q.pull-right + blockquote, .html-embed-wrapper q.pull-right + dl, .html-embed-wrapper q.pull-right + figure, .html-embed-wrapper q.pull-right + ol, .html-embed-wrapper q.pull-right + p, .html-embed-wrapper q.pull-right + pre, .html-embed-wrapper q.pull-right + ul {margin-top: 0}
+.html-embed-wrapper address.pull-left + address, .html-embed-wrapper address.pull-left + blockquote, .html-embed-wrapper address.pull-left + dl, .html-embed-wrapper address.pull-left + figure, .html-embed-wrapper address.pull-left + ol, .html-embed-wrapper address.pull-left + p, .html-embed-wrapper address.pull-left + pre, .html-embed-wrapper address.pull-left + ul, .html-embed-wrapper address.pull-right + address, .html-embed-wrapper address.pull-right + blockquote, .html-embed-wrapper address.pull-right + dl, .html-embed-wrapper address.pull-right + figure, .html-embed-wrapper address.pull-right + ol, .html-embed-wrapper address.pull-right + p, .html-embed-wrapper address.pull-right + pre, .html-embed-wrapper address.pull-right + ul, .html-embed-wrapper blockquote.pull-left + address, .html-embed-wrapper blockquote.pull-left + blockquote, .html-embed-wrapper blockquote.pull-left + dl, .html-embed-wrapper blockquote.pull-left + figure, .html-embed-wrapper blockquote.pull-left + ol, .html-embed-wrapper blockquote.pull-left + p, .html-embed-wrapper blockquote.pull-left + pre, .html-embed-wrapper blockquote.pull-left + ul, .html-embed-wrapper blockquote.pull-right + address, .html-embed-wrapper blockquote.pull-right + blockquote, .html-embed-wrapper blockquote.pull-right + dl, .html-embed-wrapper blockquote.pull-right + figure, .html-embed-wrapper blockquote.pull-right + ol, .html-embed-wrapper blockquote.pull-right + p, .html-embed-wrapper blockquote.pull-right + pre, .html-embed-wrapper blockquote.pull-right + ul, .html-embed-wrapper figcaption.pull-left + address, .html-embed-wrapper figcaption.pull-left + blockquote, .html-embed-wrapper figcaption.pull-left + dl, .html-embed-wrapper figcaption.pull-left + figure, .html-embed-wrapper figcaption.pull-left + ol, .html-embed-wrapper figcaption.pull-left + p, .html-embed-wrapper figcaption.pull-left + pre, .html-embed-wrapper figcaption.pull-left + ul, .html-embed-wrapper figcaption.pull-right + address, .html-embed-wrapper figcaption.pull-right + blockquote, .html-embed-wrapper figcaption.pull-right + dl, .html-embed-wrapper figcaption.pull-right + figure, .html-embed-wrapper figcaption.pull-right + ol, .html-embed-wrapper figcaption.pull-right + p, .html-embed-wrapper figcaption.pull-right + pre, .html-embed-wrapper figcaption.pull-right + ul, .html-embed-wrapper figure.pull-left + address, .html-embed-wrapper figure.pull-left + blockquote, .html-embed-wrapper figure.pull-left + dl, .html-embed-wrapper figure.pull-left + figure, .html-embed-wrapper figure.pull-left + ol, .html-embed-wrapper figure.pull-left + p, .html-embed-wrapper figure.pull-left + pre, .html-embed-wrapper figure.pull-left + ul, .html-embed-wrapper figure.pull-right + address, .html-embed-wrapper figure.pull-right + blockquote, .html-embed-wrapper figure.pull-right + dl, .html-embed-wrapper figure.pull-right + figure, .html-embed-wrapper figure.pull-right + ol, .html-embed-wrapper figure.pull-right + p, .html-embed-wrapper figure.pull-right + pre, .html-embed-wrapper figure.pull-right + ul, .html-embed-wrapper p.pull-left + address, .html-embed-wrapper p.pull-left + blockquote, .html-embed-wrapper p.pull-left + dl, .html-embed-wrapper p.pull-left + figure, .html-embed-wrapper p.pull-left + ol, .html-embed-wrapper p.pull-left + p, .html-embed-wrapper p.pull-left + pre, .html-embed-wrapper p.pull-left + ul, .html-embed-wrapper p.pull-right + address, .html-embed-wrapper p.pull-right + blockquote, .html-embed-wrapper p.pull-right + dl, .html-embed-wrapper p.pull-right + figure, .html-embed-wrapper p.pull-right + ol, .html-embed-wrapper p.pull-right + p, .html-embed-wrapper p.pull-right + pre, .html-embed-wrapper p.pull-right + ul, .html-embed-wrapper q.pull-left + address, .html-embed-wrapper q.pull-left + blockquote, .html-embed-wrapper q.pull-left + dl, .html-embed-wrapper q.pull-left + figure, .html-embed-wrapper q.pull-left + ol, .html-embed-wrapper q.pull-left + p, .html-embed-wrapper q.pull-left + pre, .html-embed-wrapper q.pull-left + ul, .html-embed-wrapper q.pull-right + address, .html-embed-wrapper q.pull-right + blockquote, .html-embed-wrapper q.pull-right + dl, .html-embed-wrapper q.pull-right + figure, .html-embed-wrapper q.pull-right + ol, .html-embed-wrapper q.pull-right + p, .html-embed-wrapper q.pull-right + pre, .html-embed-wrapper q.pull-right + ul {margin-top: 0}
+.html-embed-wrapper aside.full-width.diag-back.full-width .pull-right {margin-right: initial;
+margin-top: 25px;
+margin-left: initial;
+min-width: 100%}
+.html-embed-wrapper aside.full-width.diag-back.full-width .pull-right img {min-width: 100%}
+@media (min-width: 480px) {
+.html-embed-wrapper aside.full-width.diag-back.full-width .pull-right {margin-top: 25px;
+margin-left: 5px;
+min-width: initial}
+.html-embed-wrapper aside.full-width.diag-back.full-width .pull-right img {min-width: initial}
+}
+.html-embed-wrapper aside.full-width.ombre-std.full-width .pull-right {margin-right: initial;
+margin-top: 5px;
+margin-left: initial;
+min-width: 100%}
+.html-embed-wrapper aside.full-width.ombre-std.full-width .pull-right img {min-width: 100%}
+@media (min-width: 480px) {
+.html-embed-wrapper aside.full-width.ombre-std.full-width .pull-right {margin-top: 25px;
+margin-left: 5px;
+min-width: initial}
+.html-embed-wrapper aside.full-width.ombre-std.full-width .pull-right img {min-width: initial}
+}
+.html-embed-wrapper aside.full-width.has-image figure.pull-right {margin-right: initial !important;
+max-width: 190px;
+margin-top: 44px !important;
+border-radius: initial}
+.html-embed-wrapper aside.full-width.has-image figure.pull-right img {border-radius: 50%}
+@media (max-width: 1309px) {
+.html-embed-wrapper aside.full-width.has-image figure.pull-right {margin-right: calc(100vw - 220px - 830px)}
+}
+@media (max-width: 1200px) {
+.html-embed-wrapper aside.full-width.has-image figure.pull-right {margin-right: calc(100vw - 220px - 750px)}
+}
+@media (max-width: 768px) {
+.html-embed-wrapper aside.full-width.has-image figure.pull-right {width: 22.5vw;
+max-width: 100%;
+width: 100%;
+margin: 0;
+float: initial !important;
+padding: 6% 20% 0 20%}
+.html-embed-wrapper aside.full-width.has-image figure.pull-right img {width: 100%}
+}
+.html-embed-wrapper aside.full-width.has-image figure.pull-right img:last-child {margin-bottom: 0}
+.html-embed-wrapper img.pull-left {margin: 0 15px 15px 0}
+.html-embed-wrapper img.pull-right {margin: 0 0 15px 15px}
+.html-embed-wrapper .text-block aside.full-width blockquote, .html-embed-wrapper .text-block aside.pull-left blockquote, .html-embed-wrapper .text-block aside.pull-right blockquote {margin: 25px 0 15px}
+.html-embed-wrapper .text-block aside.full-width blockquote, .html-embed-wrapper .text-block aside.pull-left blockquote, .html-embed-wrapper .text-block aside.pull-right blockquote {margin: 25px 0 15px}
+.html-embed-wrapper .text-block aside.full-width blockquote + cite, .html-embed-wrapper .text-block aside.pull-left blockquote + cite, .html-embed-wrapper .text-block aside.pull-right blockquote + cite {margin-bottom: 25px}
+.html-embed-wrapper .text-block aside.full-width blockquote + cite, .html-embed-wrapper .text-block aside.pull-left blockquote + cite, .html-embed-wrapper .text-block aside.pull-right blockquote + cite {margin-bottom: 25px}
+@media (min-width: 768px) {
+.html-embed-wrapper .text-block aside.pull-left, .html-embed-wrapper .text-block figure.pull-left {width: 46%;
+margin-right: 4%;
+margin-left: 0;
+padding-top: 0.7rem}
+.html-embed-wrapper .text-block aside.pull-left + h2, .html-embed-wrapper .text-block aside.pull-left + p, .html-embed-wrapper .text-block figure.pull-left + h2, .html-embed-wrapper .text-block figure.pull-left + p {margin-top: 0}
+.html-embed-wrapper .text-block aside.pull-left.one-third, .html-embed-wrapper .text-block figure.pull-left.one-third {width: 29%;
+margin-right: 4%}
+.html-embed-wrapper .text-block aside.pull-right, .html-embed-wrapper .text-block figure.pull-right {width: 46%;
+margin-left: 4%;
+margin-right: 0;
+padding-top: 0.7rem}
+.html-embed-wrapper .text-block aside.pull-right + h2, .html-embed-wrapper .text-block aside.pull-right + p, .html-embed-wrapper .text-block figure.pull-right + h2, .html-embed-wrapper .text-block figure.pull-right + p {margin-top: 0}
+.html-embed-wrapper .text-block aside.pull-right.one-third, .html-embed-wrapper .text-block figure.pull-right.one-third {width: 29%;
+margin-right: 4%}
+}
+.html-embed-wrapper ol.subtle-collapsible-list.col-xs-12, .html-embed-wrapper ul.subtle-collapsible-list.col-xs-12 {padding: 0 15px 0 0}
+.html-embed-wrapper .template-INSTITUTE .full-width figure.pull-right {width: 100%;
+margin: 0 !important;
+margin-top: 10px !important;
+min-width: 100%}
+.html-embed-wrapper .template-INSTITUTE .full-width figure.pull-right img {width: 100%;
+min-width: 100%}
+@media (min-width: 480px) {
+.html-embed-wrapper .template-INSTITUTE .full-width figure.pull-right {width: initial !important;
+min-width: initial !important;
+margin: 0;
+margin-top: 47px !important}
+.html-embed-wrapper .template-INSTITUTE .full-width figure.pull-right img {width: initial;
+min-width: initial}
+}
+.html-embed-wrapper .profile-block .pull-left img {border-radius: 50%}
+.html-embed-wrapper .profile-block .media-body {display: -ms-flexbox;
+display: flex;
+width: auto;
+-ms-flex-direction: column;
+flex-direction: column;
+width: 100%}
+.html-embed-wrapper .profile-block .media-body {display: -ms-flexbox;
+display: flex;
+width: auto;
+-ms-flex-direction: column;
+flex-direction: column;
+width: 100%}
+.html-embed-wrapper .profile-block .media-body h2 {color: #1a1c21;
+font-family: "GT Walsheim", Arial, sans-serif;
+font-size: 24px;
+margin-bottom: 5px;
+line-height: 3.5rem}
+.html-embed-wrapper .profile-block .media-body h2 {color: #1a1c21;
+font-family: "GT Walsheim", Arial, sans-serif;
+font-size: 24px;
+margin-bottom: 5px;
+line-height: 3.5rem}
+.html-embed-wrapper .profile-block .media-body span a {text-decoration: underline;
+font-weight: 700;
+line-height: 1}
+.html-embed-wrapper .profile-block .media-body span a {text-decoration: underline;
+font-weight: 700;
+line-height: 1}
+.html-embed-wrapper .profile-block .media-body address {line-height: 1.4em;
+font-size: 0.9em;
+margin-bottom: 5px;
+margin-top: 15px;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body address {line-height: 1.4em;
+font-size: 0.9em;
+margin-bottom: 5px;
+margin-top: 15px;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body address strong {margin-bottom: 10px;
+font-weight: 400}
+.html-embed-wrapper .profile-block .media-body address strong {margin-bottom: 10px;
+font-weight: 400}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-family: Arial, Helvetica, sans-serif;
+background-image: none !important;
+text-transform: uppercase;
+padding: 12px 24px;
+line-height: 1em;
+height: auto;
+border-radius: 25px;
+letter-spacing: 1px;
+font-size: 12px;
+background-color: #1a1c21 !important}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-family: Arial, Helvetica, sans-serif;
+background-image: none !important;
+text-transform: uppercase;
+padding: 12px 24px;
+line-height: 1em;
+height: auto;
+border-radius: 25px;
+letter-spacing: 1px;
+font-size: 12px;
+background-color: #1a1c21 !important}
+.html-embed-wrapper .profile-block .media-body .content {width: 100%;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .content {width: 100%;
+font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .contact {font-family: Arial, Helvetica, sans-serif;
+width: 100%;
+display: -ms-flexbox;
+display: flex;
+-ms-flex-direction: column;
+flex-direction: column;
+-ms-flex-pack: center;
+justify-content: center}
+.html-embed-wrapper .profile-block .media-body .contact {font-family: Arial, Helvetica, sans-serif;
+width: 100%;
+display: -ms-flexbox;
+display: flex;
+-ms-flex-direction: column;
+flex-direction: column;
+-ms-flex-pack: center;
+justify-content: center}
+.html-embed-wrapper .profile-block .media-body .contact a {font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .contact a {font-family: Arial, Helvetica, sans-serif}
+.html-embed-wrapper .profile-block .media-body .contact i.fa-envelope, .html-embed-wrapper .profile-block .media-body .contact i.fa-phone {color: #005099 !important}
+.html-embed-wrapper .profile-block .media-body .contact i.fa-envelope, .html-embed-wrapper .profile-block .media-body .contact i.fa-phone {color: #005099 !important}
+@media (min-width: 992px) {
+.html-embed-wrapper .profile-block .media-body {-ms-flex-direction: initial;
+flex-direction: initial;
+padding-left: 12px}
+.html-embed-wrapper .profile-block .media-body {-ms-flex-direction: initial;
+flex-direction: initial;
+padding-left: 12px}
+.html-embed-wrapper .profile-block .media-body h2 {font-size: 42px}
+.html-embed-wrapper .profile-block .media-body h2 {font-size: 42px}
+.html-embed-wrapper .profile-block .media-body span {font-size: 16px}
+.html-embed-wrapper .profile-block .media-body span {font-size: 16px}
+.html-embed-wrapper .profile-block .media-body address {margin-bottom: 0}
+.html-embed-wrapper .profile-block .media-body address {margin-bottom: 0}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-size: 13px;
+padding: 12px 24px}
+.html-embed-wrapper .profile-block .media-body .btn-cta {font-size: 13px;
+padding: 12px 24px}
+.html-embed-wrapper .profile-block .media-body .content {width: 61%}
+.html-embed-wrapper .profile-block .media-body .content {width: 61%}
+.html-embed-wrapper .profile-block .media-body .contact {width: 39%;
+border-left: 1px solid #707070;
+margin-left: 20px;
+padding-left: 20px}
+.html-embed-wrapper .profile-block .media-body .contact {width: 39%;
+border-left: 1px solid #707070;
+margin-left: 20px;
+padding-left: 20px}
+}
+&lt;/style&gt;&lt;section class="text-block clearfix" data-element="2016 Text Block" id="txt-5507380"&gt;
+ &lt;div class="col-xs-12"&gt;
+  &lt;div class="media"&gt;
+   &lt;div class="pull-left"&gt;
+    &lt;p&gt;
+     &lt;img alt="signature" height="60px" src="https://www.american.edu/about/sustainability/images/signature_1.png" title="signature" width="60px"/&gt;
+    &lt;/p&gt;
+   &lt;/div&gt;
+   &lt;div class="media-body"&gt;
+    &lt;div class="pull-right"&gt;
+     &lt;h2&gt;
+      &lt;small&gt;
+       &lt;strong&gt;
+        First Climate Commitment
+       &lt;/strong&gt;
+      &lt;/small&gt;
+     &lt;/h2&gt;
+     &lt;p&gt;
+      American University joined more than 500 other US universities in signing the American College and University Presidents Climate Commitment to address the threat of climate change.
+     &lt;/p&gt;
+    &lt;/div&gt;
+   &lt;/div&gt;
+  &lt;/div&gt;
+ &lt;/div&gt;
+&lt;/section&gt;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/about/sustainability/plastic-reduction</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>cs_control_6346253-collapse</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>cs_control_6346253-collapse</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+@media print {
+.html-embed-wrapper .table {border-collapse: collapse !important}
+.html-embed-wrapper .table td, .html-embed-wrapper .table th {background-color: #fff !important}
+.html-embed-wrapper .table-bordered td, .html-embed-wrapper .table-bordered th {border: 1px solid #ddd !important}
+}
+.html-embed-wrapper .text-left {text-align: left}
+.html-embed-wrapper .table {width: 100%;
+max-width: 100%;
+margin-bottom: 20px}
+.html-embed-wrapper .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th {padding: 8px;
+line-height: 1.428571;
+vertical-align: top;
+border-top: 1px solid #ddd}
+.html-embed-wrapper .table &gt; thead &gt; tr &gt; th {vertical-align: bottom;
+border-bottom: 2px solid #ddd}
+.html-embed-wrapper .table &gt; caption + thead &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; caption + thead &gt; tr:first-child &gt; th, .html-embed-wrapper .table &gt; colgroup + thead &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; colgroup + thead &gt; tr:first-child &gt; th, .html-embed-wrapper .table &gt; thead:first-child &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; thead:first-child &gt; tr:first-child &gt; th {border-top: 0}
+.html-embed-wrapper .table &gt; tbody + tbody {border-top: 2px solid #ddd}
+.html-embed-wrapper .table .table {background-color: #fff}
+.html-embed-wrapper .table-condensed &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-condensed &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-condensed &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; thead &gt; tr &gt; th {padding: 5px}
+.html-embed-wrapper .table-bordered {border: 1px solid #ddd}
+.html-embed-wrapper .table-bordered &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-bordered &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; th {border: 1px solid #ddd}
+.html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; th {border-bottom-width: 2px}
+.html-embed-wrapper .table-striped &gt; tbody &gt; tr:nth-of-type(odd) {background-color: #f9f9f9}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover {background-color: #f5f5f5}
+.html-embed-wrapper .table &gt; tbody &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.active, .html-embed-wrapper .table &gt; tfoot &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.active, .html-embed-wrapper .table &gt; thead &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.active {background-color: #f5f5f5}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.active:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.active:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .active, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.active:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.active:hover {background-color: #e8e8e8}
+.html-embed-wrapper .table &gt; tbody &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.success, .html-embed-wrapper .table &gt; tfoot &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.success, .html-embed-wrapper .table &gt; thead &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.success {background-color: #dff0d8}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.success:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.success:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .success, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.success:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.success:hover {background-color: #d0e9c6}
+.html-embed-wrapper .table &gt; tbody &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.info, .html-embed-wrapper .table &gt; tfoot &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.info, .html-embed-wrapper .table &gt; thead &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.info {background-color: #d9edf7}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.info:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.info:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .info, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.info:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.info:hover {background-color: #c4e3f3}
+.html-embed-wrapper .table &gt; tbody &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.warning, .html-embed-wrapper .table &gt; tfoot &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.warning, .html-embed-wrapper .table &gt; thead &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.warning {background-color: #fcf8e3}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.warning:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.warning:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .warning, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.warning:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.warning:hover {background-color: #faf2cc}
+.html-embed-wrapper .table &gt; tbody &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.danger, .html-embed-wrapper .table &gt; tfoot &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.danger, .html-embed-wrapper .table &gt; thead &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.danger {background-color: #f2dede}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.danger:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.danger:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .danger, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.danger:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.danger:hover {background-color: #ebcccc}
+.html-embed-wrapper .table-responsive {overflow-x: auto;
+min-height: 0.01%}
+.html-embed-wrapper .table-responsive {overflow-x: auto;
+min-height: 0.01%}
+@media screen and (max-width: 767px) {
+.html-embed-wrapper .table-responsive {width: 100%;
+margin-bottom: 15px;
+overflow-y: hidden;
+-ms-overflow-style: -ms-autohiding-scrollbar;
+border: 1px solid #ddd}
+.html-embed-wrapper .table-responsive {width: 100%;
+margin-bottom: 15px;
+overflow-y: hidden;
+-ms-overflow-style: -ms-autohiding-scrollbar;
+border: 1px solid #ddd}
+.html-embed-wrapper .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; th {white-space: nowrap}
+.html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; th {white-space: nowrap}
+.html-embed-wrapper .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table, .html-embed-wrapper .panel &gt; .table, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table, .html-embed-wrapper .panel &gt; .table, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table caption, .html-embed-wrapper .panel &gt; .table caption, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table caption {padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table caption, .html-embed-wrapper .panel &gt; .table caption, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table caption {padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child, .html-embed-wrapper .panel &gt; .table:first-child {border-top-right-radius: 3px;
+border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child, .html-embed-wrapper .panel &gt; .table:first-child {border-top-right-radius: 3px;
+border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child {border-top-left-radius: 3px;
+border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child {border-top-left-radius: 3px;
+border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child {border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child {border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child {border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child {border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child, .html-embed-wrapper .panel &gt; .table:last-child {border-bottom-right-radius: 3px;
+border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child, .html-embed-wrapper .panel &gt; .table:last-child {border-bottom-right-radius: 3px;
+border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child {border-bottom-left-radius: 3px;
+border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child {border-bottom-left-radius: 3px;
+border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child {border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child {border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child {border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child {border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .panel-body + .table, .html-embed-wrapper .panel &gt; .panel-body + .table-responsive, .html-embed-wrapper .panel &gt; .table + .panel-body, .html-embed-wrapper .panel &gt; .table-responsive + .panel-body {border-top: 1px solid #ddd}
+.html-embed-wrapper .panel &gt; .panel-body + .table, .html-embed-wrapper .panel &gt; .panel-body + .table-responsive, .html-embed-wrapper .panel &gt; .table + .panel-body, .html-embed-wrapper .panel &gt; .table-responsive + .panel-body {border-top: 1px solid #ddd}
+.html-embed-wrapper .panel &gt; .table &gt; tbody:first-child &gt; tr:first-child td, .html-embed-wrapper .panel &gt; .table &gt; tbody:first-child &gt; tr:first-child th {border-top: 0}
+.html-embed-wrapper .panel &gt; .table-bordered, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .panel &gt; .table-bordered, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-responsive {border: 0;
+margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-responsive {border: 0;
+margin-bottom: 0}
+.html-embed-wrapper .text-left {text-align: left}
+.html-embed-wrapper table.table {border-color: #d2d2d2;
+border-collapse: collapse}
+.html-embed-wrapper table.table tbody th[tabindex]:focus, .html-embed-wrapper table.table tbody th[tabindex]:hover, .html-embed-wrapper table.table tfoot th[tabindex]:focus, .html-embed-wrapper table.table tfoot th[tabindex]:hover, .html-embed-wrapper table.table thead th[tabindex]:focus, .html-embed-wrapper table.table thead th[tabindex]:hover {background-color: #d9dce3;
+outline: 1px dotted #0672b9}
+.html-embed-wrapper table.table tbody td, .html-embed-wrapper table.table tbody th, .html-embed-wrapper table.table tfoot td, .html-embed-wrapper table.table tfoot th, .html-embed-wrapper table.table thead td, .html-embed-wrapper table.table thead th {padding: 10px;
+font-variant-numeric: lining-nums tabular-nums;
+-moz-font-feature-settings: "lnum" 1, "tnum" 1;
+font-feature-settings: "lnum" 1, "tnum" 1}
+.html-embed-wrapper table.table tbody td.align-decimal, .html-embed-wrapper table.table tbody th.align-decimal, .html-embed-wrapper table.table tfoot td.align-decimal, .html-embed-wrapper table.table tfoot th.align-decimal, .html-embed-wrapper table.table thead td.align-decimal, .html-embed-wrapper table.table thead th.align-decimal {text-align: "." right !important}
+.html-embed-wrapper table.table tbody td.align-x, .html-embed-wrapper table.table tbody th.align-x, .html-embed-wrapper table.table tfoot td.align-x, .html-embed-wrapper table.table tfoot th.align-x, .html-embed-wrapper table.table thead td.align-x, .html-embed-wrapper table.table thead th.align-x {text-align: "x" center !important}
+.html-embed-wr</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/about/sustainability/plastic-reduction</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>cs_control_6361607-collapse</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>cs_control_6361607-collapse</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+@media print {
+.html-embed-wrapper .table {border-collapse: collapse !important}
+.html-embed-wrapper .table td, .html-embed-wrapper .table th {background-color: #fff !important}
+.html-embed-wrapper .table-bordered td, .html-embed-wrapper .table-bordered th {border: 1px solid #ddd !important}
+}
+.html-embed-wrapper .text-left {text-align: left}
+.html-embed-wrapper .table {width: 100%;
+max-width: 100%;
+margin-bottom: 20px}
+.html-embed-wrapper .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th {padding: 8px;
+line-height: 1.428571;
+vertical-align: top;
+border-top: 1px solid #ddd}
+.html-embed-wrapper .table &gt; thead &gt; tr &gt; th {vertical-align: bottom;
+border-bottom: 2px solid #ddd}
+.html-embed-wrapper .table &gt; caption + thead &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; caption + thead &gt; tr:first-child &gt; th, .html-embed-wrapper .table &gt; colgroup + thead &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; colgroup + thead &gt; tr:first-child &gt; th, .html-embed-wrapper .table &gt; thead:first-child &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; thead:first-child &gt; tr:first-child &gt; th {border-top: 0}
+.html-embed-wrapper .table &gt; tbody + tbody {border-top: 2px solid #ddd}
+.html-embed-wrapper .table .table {background-color: #fff}
+.html-embed-wrapper .table-condensed &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-condensed &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-condensed &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; thead &gt; tr &gt; th {padding: 5px}
+.html-embed-wrapper .table-bordered {border: 1px solid #ddd}
+.html-embed-wrapper .table-bordered &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-bordered &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; th {border: 1px solid #ddd}
+.html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; th {border-bottom-width: 2px}
+.html-embed-wrapper .table-striped &gt; tbody &gt; tr:nth-of-type(odd) {background-color: #f9f9f9}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover {background-color: #f5f5f5}
+.html-embed-wrapper .table &gt; tbody &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.active, .html-embed-wrapper .table &gt; tfoot &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.active, .html-embed-wrapper .table &gt; thead &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.active {background-color: #f5f5f5}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.active:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.active:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .active, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.active:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.active:hover {background-color: #e8e8e8}
+.html-embed-wrapper .table &gt; tbody &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.success, .html-embed-wrapper .table &gt; tfoot &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.success, .html-embed-wrapper .table &gt; thead &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.success {background-color: #dff0d8}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.success:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.success:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .success, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.success:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.success:hover {background-color: #d0e9c6}
+.html-embed-wrapper .table &gt; tbody &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.info, .html-embed-wrapper .table &gt; tfoot &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.info, .html-embed-wrapper .table &gt; thead &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.info {background-color: #d9edf7}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.info:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.info:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .info, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.info:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.info:hover {background-color: #c4e3f3}
+.html-embed-wrapper .table &gt; tbody &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.warning, .html-embed-wrapper .table &gt; tfoot &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.warning, .html-embed-wrapper .table &gt; thead &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.warning {background-color: #fcf8e3}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.warning:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.warning:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .warning, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.warning:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.warning:hover {background-color: #faf2cc}
+.html-embed-wrapper .table &gt; tbody &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.danger, .html-embed-wrapper .table &gt; tfoot &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.danger, .html-embed-wrapper .table &gt; thead &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.danger {background-color: #f2dede}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.danger:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.danger:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .danger, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.danger:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.danger:hover {background-color: #ebcccc}
+.html-embed-wrapper .table-responsive {overflow-x: auto;
+min-height: 0.01%}
+.html-embed-wrapper .table-responsive {overflow-x: auto;
+min-height: 0.01%}
+@media screen and (max-width: 767px) {
+.html-embed-wrapper .table-responsive {width: 100%;
+margin-bottom: 15px;
+overflow-y: hidden;
+-ms-overflow-style: -ms-autohiding-scrollbar;
+border: 1px solid #ddd}
+.html-embed-wrapper .table-responsive {width: 100%;
+margin-bottom: 15px;
+overflow-y: hidden;
+-ms-overflow-style: -ms-autohiding-scrollbar;
+border: 1px solid #ddd}
+.html-embed-wrapper .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; th {white-space: nowrap}
+.html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; th {white-space: nowrap}
+.html-embed-wrapper .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table, .html-embed-wrapper .panel &gt; .table, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table, .html-embed-wrapper .panel &gt; .table, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table caption, .html-embed-wrapper .panel &gt; .table caption, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table caption {padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table caption, .html-embed-wrapper .panel &gt; .table caption, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table caption {padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child, .html-embed-wrapper .panel &gt; .table:first-child {border-top-right-radius: 3px;
+border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child, .html-embed-wrapper .panel &gt; .table:first-child {border-top-right-radius: 3px;
+border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child {border-top-left-radius: 3px;
+border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child {border-top-left-radius: 3px;
+border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child {border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child {border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child {border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child {border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child, .html-embed-wrapper .panel &gt; .table:last-child {border-bottom-right-radius: 3px;
+border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child, .html-embed-wrapper .panel &gt; .table:last-child {border-bottom-right-radius: 3px;
+border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child {border-bottom-left-radius: 3px;
+border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child {border-bottom-left-radius: 3px;
+border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child {border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child {border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child {border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child {border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .panel-body + .table, .html-embed-wrapper .panel &gt; .panel-body + .table-responsive, .html-embed-wrapper .panel &gt; .table + .panel-body, .html-embed-wrapper .panel &gt; .table-responsive + .panel-body {border-top: 1px solid #ddd}
+.html-embed-wrapper .panel &gt; .panel-body + .table, .html-embed-wrapper .panel &gt; .panel-body + .table-responsive, .html-embed-wrapper .panel &gt; .table + .panel-body, .html-embed-wrapper .panel &gt; .table-responsive + .panel-body {border-top: 1px solid #ddd}
+.html-embed-wrapper .panel &gt; .table &gt; tbody:first-child &gt; tr:first-child td, .html-embed-wrapper .panel &gt; .table &gt; tbody:first-child &gt; tr:first-child th {border-top: 0}
+.html-embed-wrapper .panel &gt; .table-bordered, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .panel &gt; .table-bordered, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-responsive {border: 0;
+margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-responsive {border: 0;
+margin-bottom: 0}
+.html-embed-wrapper .text-left {text-align: left}
+.html-embed-wrapper table.table {border-color: #d2d2d2;
+border-collapse: collapse}
+.html-embed-wrapper table.table tbody th[tabindex]:focus, .html-embed-wrapper table.table tbody th[tabindex]:hover, .html-embed-wrapper table.table tfoot th[tabindex]:focus, .html-embed-wrapper table.table tfoot th[tabindex]:hover, .html-embed-wrapper table.table thead th[tabindex]:focus, .html-embed-wrapper table.table thead th[tabindex]:hover {background-color: #d9dce3;
+outline: 1px dotted #0672b9}
+.html-embed-wrapper table.table tbody td, .html-embed-wrapper table.table tbody th, .html-embed-wrapper table.table tfoot td, .html-embed-wrapper table.table tfoot th, .html-embed-wrapper table.table thead td, .html-embed-wrapper table.table thead th {padding: 10px;
+font-variant-numeric: lining-nums tabular-nums;
+-moz-font-feature-settings: "lnum" 1, "tnum" 1;
+font-feature-settings: "lnum" 1, "tnum" 1}
+.html-embed-wrapper table.table tbody td.align-decimal, .html-embed-wrapper table.table tbody th.align-decimal, .html-embed-wrapper table.table tfoot td.align-decimal, .html-embed-wrapper table.table tfoot th.align-decimal, .html-embed-wrapper table.table thead td.align-decimal, .html-embed-wrapper table.table thead th.align-decimal {text-align: "." right !important}
+.html-embed-wrapper table.table tbody td.align-x, .html-embed-wrapper table.table tbody th.align-x, .html-embed-wrapper table.table tfoot td.align-x, .html-embed-wrapper table.table tfoot th.align-x, .html-embed-wrapper table.table thead td.align-x, .html-embed-wrapper table.table thead th.align-x {text-align: "x" center !important}
+.html-embed-wr</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/about/sustainability/plastic-reduction</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>cs_control_6346259-collapse</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>cs_control_6346259-collapse</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+@media print {
+.html-embed-wrapper .table {border-collapse: collapse !important}
+.html-embed-wrapper .table td, .html-embed-wrapper .table th {background-color: #fff !important}
+.html-embed-wrapper .table-bordered td, .html-embed-wrapper .table-bordered th {border: 1px solid #ddd !important}
+}
+.html-embed-wrapper .text-left {text-align: left}
+.html-embed-wrapper .table {width: 100%;
+max-width: 100%;
+margin-bottom: 20px}
+.html-embed-wrapper .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th {padding: 8px;
+line-height: 1.428571;
+vertical-align: top;
+border-top: 1px solid #ddd}
+.html-embed-wrapper .table &gt; thead &gt; tr &gt; th {vertical-align: bottom;
+border-bottom: 2px solid #ddd}
+.html-embed-wrapper .table &gt; caption + thead &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; caption + thead &gt; tr:first-child &gt; th, .html-embed-wrapper .table &gt; colgroup + thead &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; colgroup + thead &gt; tr:first-child &gt; th, .html-embed-wrapper .table &gt; thead:first-child &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; thead:first-child &gt; tr:first-child &gt; th {border-top: 0}
+.html-embed-wrapper .table &gt; tbody + tbody {border-top: 2px solid #ddd}
+.html-embed-wrapper .table .table {background-color: #fff}
+.html-embed-wrapper .table-condensed &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-condensed &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-condensed &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; thead &gt; tr &gt; th {padding: 5px}
+.html-embed-wrapper .table-bordered {border: 1px solid #ddd}
+.html-embed-wrapper .table-bordered &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-bordered &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; th {border: 1px solid #ddd}
+.html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; th {border-bottom-width: 2px}
+.html-embed-wrapper .table-striped &gt; tbody &gt; tr:nth-of-type(odd) {background-color: #f9f9f9}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover {background-color: #f5f5f5}
+.html-embed-wrapper .table &gt; tbody &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.active, .html-embed-wrapper .table &gt; tfoot &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.active, .html-embed-wrapper .table &gt; thead &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.active {background-color: #f5f5f5}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.active:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.active:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .active, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.active:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.active:hover {background-color: #e8e8e8}
+.html-embed-wrapper .table &gt; tbody &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.success, .html-embed-wrapper .table &gt; tfoot &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.success, .html-embed-wrapper .table &gt; thead &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.success {background-color: #dff0d8}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.success:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.success:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .success, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.success:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.success:hover {background-color: #d0e9c6}
+.html-embed-wrapper .table &gt; tbody &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.info, .html-embed-wrapper .table &gt; tfoot &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.info, .html-embed-wrapper .table &gt; thead &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.info {background-color: #d9edf7}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.info:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.info:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .info, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.info:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.info:hover {background-color: #c4e3f3}
+.html-embed-wrapper .table &gt; tbody &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.warning, .html-embed-wrapper .table &gt; tfoot &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.warning, .html-embed-wrapper .table &gt; thead &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.warning {background-color: #fcf8e3}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.warning:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.warning:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .warning, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.warning:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.warning:hover {background-color: #faf2cc}
+.html-embed-wrapper .table &gt; tbody &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.danger, .html-embed-wrapper .table &gt; tfoot &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.danger, .html-embed-wrapper .table &gt; thead &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.danger {background-color: #f2dede}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.danger:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.danger:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .danger, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.danger:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.danger:hover {background-color: #ebcccc}
+.html-embed-wrapper .table-responsive {overflow-x: auto;
+min-height: 0.01%}
+.html-embed-wrapper .table-responsive {overflow-x: auto;
+min-height: 0.01%}
+@media screen and (max-width: 767px) {
+.html-embed-wrapper .table-responsive {width: 100%;
+margin-bottom: 15px;
+overflow-y: hidden;
+-ms-overflow-style: -ms-autohiding-scrollbar;
+border: 1px solid #ddd}
+.html-embed-wrapper .table-responsive {width: 100%;
+margin-bottom: 15px;
+overflow-y: hidden;
+-ms-overflow-style: -ms-autohiding-scrollbar;
+border: 1px solid #ddd}
+.html-embed-wrapper .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; th {white-space: nowrap}
+.html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; th {white-space: nowrap}
+.html-embed-wrapper .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table, .html-embed-wrapper .panel &gt; .table, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table, .html-embed-wrapper .panel &gt; .table, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table caption, .html-embed-wrapper .panel &gt; .table caption, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table caption {padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table caption, .html-embed-wrapper .panel &gt; .table caption, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table caption {padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child, .html-embed-wrapper .panel &gt; .table:first-child {border-top-right-radius: 3px;
+border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child, .html-embed-wrapper .panel &gt; .table:first-child {border-top-right-radius: 3px;
+border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child {border-top-left-radius: 3px;
+border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child {border-top-left-radius: 3px;
+border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child {border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child {border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child {border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child {border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child, .html-embed-wrapper .panel &gt; .table:last-child {border-bottom-right-radius: 3px;
+border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child, .html-embed-wrapper .panel &gt; .table:last-child {border-bottom-right-radius: 3px;
+border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child {border-bottom-left-radius: 3px;
+border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child {border-bottom-left-radius: 3px;
+border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child {border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child {border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child {border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child {border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .panel-body + .table, .html-embed-wrapper .panel &gt; .panel-body + .table-responsive, .html-embed-wrapper .panel &gt; .table + .panel-body, .html-embed-wrapper .panel &gt; .table-responsive + .panel-body {border-top: 1px solid #ddd}
+.html-embed-wrapper .panel &gt; .panel-body + .table, .html-embed-wrapper .panel &gt; .panel-body + .table-responsive, .html-embed-wrapper .panel &gt; .table + .panel-body, .html-embed-wrapper .panel &gt; .table-responsive + .panel-body {border-top: 1px solid #ddd}
+.html-embed-wrapper .panel &gt; .table &gt; tbody:first-child &gt; tr:first-child td, .html-embed-wrapper .panel &gt; .table &gt; tbody:first-child &gt; tr:first-child th {border-top: 0}
+.html-embed-wrapper .panel &gt; .table-bordered, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .panel &gt; .table-bordered, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-responsive {border: 0;
+margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-responsive {border: 0;
+margin-bottom: 0}
+.html-embed-wrapper .text-left {text-align: left}
+.html-embed-wrapper table.table {border-color: #d2d2d2;
+border-collapse: collapse}
+.html-embed-wrapper table.table tbody th[tabindex]:focus, .html-embed-wrapper table.table tbody th[tabindex]:hover, .html-embed-wrapper table.table tfoot th[tabindex]:focus, .html-embed-wrapper table.table tfoot th[tabindex]:hover, .html-embed-wrapper table.table thead th[tabindex]:focus, .html-embed-wrapper table.table thead th[tabindex]:hover {background-color: #d9dce3;
+outline: 1px dotted #0672b9}
+.html-embed-wrapper table.table tbody td, .html-embed-wrapper table.table tbody th, .html-embed-wrapper table.table tfoot td, .html-embed-wrapper table.table tfoot th, .html-embed-wrapper table.table thead td, .html-embed-wrapper table.table thead th {padding: 10px;
+font-variant-numeric: lining-nums tabular-nums;
+-moz-font-feature-settings: "lnum" 1, "tnum" 1;
+font-feature-settings: "lnum" 1, "tnum" 1}
+.html-embed-wrapper table.table tbody td.align-decimal, .html-embed-wrapper table.table tbody th.align-decimal, .html-embed-wrapper table.table tfoot td.align-decimal, .html-embed-wrapper table.table tfoot th.align-decimal, .html-embed-wrapper table.table thead td.align-decimal, .html-embed-wrapper table.table thead th.align-decimal {text-align: "." right !important}
+.html-embed-wrapper table.table tbody td.align-x, .html-embed-wrapper table.table tbody th.align-x, .html-embed-wrapper table.table tfoot td.align-x, .html-embed-wrapper table.table tfoot th.align-x, .html-embed-wrapper table.table thead td.align-x, .html-embed-wrapper table.table thead th.align-x {text-align: "x" center !important}
+.html-embed-wr</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/about/sustainability/plastic-reduction</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>cs_control_6346261-collapse</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>cs_control_6346261-collapse</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+@media print {
+.html-embed-wrapper .table {border-collapse: collapse !important}
+.html-embed-wrapper .table td, .html-embed-wrapper .table th {background-color: #fff !important}
+.html-embed-wrapper .table-bordered td, .html-embed-wrapper .table-bordered th {border: 1px solid #ddd !important}
+}
+.html-embed-wrapper .text-left {text-align: left}
+.html-embed-wrapper .table {width: 100%;
+max-width: 100%;
+margin-bottom: 20px}
+.html-embed-wrapper .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th {padding: 8px;
+line-height: 1.428571;
+vertical-align: top;
+border-top: 1px solid #ddd}
+.html-embed-wrapper .table &gt; thead &gt; tr &gt; th {vertical-align: bottom;
+border-bottom: 2px solid #ddd}
+.html-embed-wrapper .table &gt; caption + thead &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; caption + thead &gt; tr:first-child &gt; th, .html-embed-wrapper .table &gt; colgroup + thead &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; colgroup + thead &gt; tr:first-child &gt; th, .html-embed-wrapper .table &gt; thead:first-child &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; thead:first-child &gt; tr:first-child &gt; th {border-top: 0}
+.html-embed-wrapper .table &gt; tbody + tbody {border-top: 2px solid #ddd}
+.html-embed-wrapper .table .table {background-color: #fff}
+.html-embed-wrapper .table-condensed &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-condensed &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-condensed &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; thead &gt; tr &gt; th {padding: 5px}
+.html-embed-wrapper .table-bordered {border: 1px solid #ddd}
+.html-embed-wrapper .table-bordered &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-bordered &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; th {border: 1px solid #ddd}
+.html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; th {border-bottom-width: 2px}
+.html-embed-wrapper .table-striped &gt; tbody &gt; tr:nth-of-type(odd) {background-color: #f9f9f9}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover {background-color: #f5f5f5}
+.html-embed-wrapper .table &gt; tbody &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.active, .html-embed-wrapper .table &gt; tfoot &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.active, .html-embed-wrapper .table &gt; thead &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.active {background-color: #f5f5f5}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.active:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.active:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .active, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.active:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.active:hover {background-color: #e8e8e8}
+.html-embed-wrapper .table &gt; tbody &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.success, .html-embed-wrapper .table &gt; tfoot &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.success, .html-embed-wrapper .table &gt; thead &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.success {background-color: #dff0d8}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.success:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.success:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .success, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.success:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.success:hover {background-color: #d0e9c6}
+.html-embed-wrapper .table &gt; tbody &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.info, .html-embed-wrapper .table &gt; tfoot &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.info, .html-embed-wrapper .table &gt; thead &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.info {background-color: #d9edf7}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.info:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.info:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .info, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.info:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.info:hover {background-color: #c4e3f3}
+.html-embed-wrapper .table &gt; tbody &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.warning, .html-embed-wrapper .table &gt; tfoot &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.warning, .html-embed-wrapper .table &gt; thead &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.warning {background-color: #fcf8e3}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.warning:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.warning:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .warning, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.warning:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.warning:hover {background-color: #faf2cc}
+.html-embed-wrapper .table &gt; tbody &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.danger, .html-embed-wrapper .table &gt; tfoot &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.danger, .html-embed-wrapper .table &gt; thead &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.danger {background-color: #f2dede}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.danger:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.danger:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .danger, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.danger:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.danger:hover {background-color: #ebcccc}
+.html-embed-wrapper .table-responsive {overflow-x: auto;
+min-height: 0.01%}
+.html-embed-wrapper .table-responsive {overflow-x: auto;
+min-height: 0.01%}
+@media screen and (max-width: 767px) {
+.html-embed-wrapper .table-responsive {width: 100%;
+margin-bottom: 15px;
+overflow-y: hidden;
+-ms-overflow-style: -ms-autohiding-scrollbar;
+border: 1px solid #ddd}
+.html-embed-wrapper .table-responsive {width: 100%;
+margin-bottom: 15px;
+overflow-y: hidden;
+-ms-overflow-style: -ms-autohiding-scrollbar;
+border: 1px solid #ddd}
+.html-embed-wrapper .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; th {white-space: nowrap}
+.html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; th {white-space: nowrap}
+.html-embed-wrapper .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table, .html-embed-wrapper .panel &gt; .table, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table, .html-embed-wrapper .panel &gt; .table, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table caption, .html-embed-wrapper .panel &gt; .table caption, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table caption {padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table caption, .html-embed-wrapper .panel &gt; .table caption, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table caption {padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child, .html-embed-wrapper .panel &gt; .table:first-child {border-top-right-radius: 3px;
+border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child, .html-embed-wrapper .panel &gt; .table:first-child {border-top-right-radius: 3px;
+border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child {border-top-left-radius: 3px;
+border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child {border-top-left-radius: 3px;
+border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child {border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child {border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child {border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child {border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child, .html-embed-wrapper .panel &gt; .table:last-child {border-bottom-right-radius: 3px;
+border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child, .html-embed-wrapper .panel &gt; .table:last-child {border-bottom-right-radius: 3px;
+border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child {border-bottom-left-radius: 3px;
+border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child {border-bottom-left-radius: 3px;
+border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child {border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child {border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child {border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child {border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .panel-body + .table, .html-embed-wrapper .panel &gt; .panel-body + .table-responsive, .html-embed-wrapper .panel &gt; .table + .panel-body, .html-embed-wrapper .panel &gt; .table-responsive + .panel-body {border-top: 1px solid #ddd}
+.html-embed-wrapper .panel &gt; .panel-body + .table, .html-embed-wrapper .panel &gt; .panel-body + .table-responsive, .html-embed-wrapper .panel &gt; .table + .panel-body, .html-embed-wrapper .panel &gt; .table-responsive + .panel-body {border-top: 1px solid #ddd}
+.html-embed-wrapper .panel &gt; .table &gt; tbody:first-child &gt; tr:first-child td, .html-embed-wrapper .panel &gt; .table &gt; tbody:first-child &gt; tr:first-child th {border-top: 0}
+.html-embed-wrapper .panel &gt; .table-bordered, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .panel &gt; .table-bordered, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-responsive {border: 0;
+margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-responsive {border: 0;
+margin-bottom: 0}
+.html-embed-wrapper .text-left {text-align: left}
+.html-embed-wrapper table.table {border-color: #d2d2d2;
+border-collapse: collapse}
+.html-embed-wrapper table.table tbody th[tabindex]:focus, .html-embed-wrapper table.table tbody th[tabindex]:hover, .html-embed-wrapper table.table tfoot th[tabindex]:focus, .html-embed-wrapper table.table tfoot th[tabindex]:hover, .html-embed-wrapper table.table thead th[tabindex]:focus, .html-embed-wrapper table.table thead th[tabindex]:hover {background-color: #d9dce3;
+outline: 1px dotted #0672b9}
+.html-embed-wrapper table.table tbody td, .html-embed-wrapper table.table tbody th, .html-embed-wrapper table.table tfoot td, .html-embed-wrapper table.table tfoot th, .html-embed-wrapper table.table thead td, .html-embed-wrapper table.table thead th {padding: 10px;
+font-variant-numeric: lining-nums tabular-nums;
+-moz-font-feature-settings: "lnum" 1, "tnum" 1;
+font-feature-settings: "lnum" 1, "tnum" 1}
+.html-embed-wrapper table.table tbody td.align-decimal, .html-embed-wrapper table.table tbody th.align-decimal, .html-embed-wrapper table.table tfoot td.align-decimal, .html-embed-wrapper table.table tfoot th.align-decimal, .html-embed-wrapper table.table thead td.align-decimal, .html-embed-wrapper table.table thead th.align-decimal {text-align: "." right !important}
+.html-embed-wrapper table.table tbody td.align-x, .html-embed-wrapper table.table tbody th.align-x, .html-embed-wrapper table.table tfoot td.align-x, .html-embed-wrapper table.table tfoot th.align-x, .html-embed-wrapper table.table thead td.align-x, .html-embed-wrapper table.table thead th.align-x {text-align: "x" center !important}
+.html-embed-wr</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/about/sustainability/plastic-reduction</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>cs_control_6361592-collapse</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>cs_control_6361592-collapse</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+@media print {
+.html-embed-wrapper .table {border-collapse: collapse !important}
+.html-embed-wrapper .table td, .html-embed-wrapper .table th {background-color: #fff !important}
+.html-embed-wrapper .table-bordered td, .html-embed-wrapper .table-bordered th {border: 1px solid #ddd !important}
+}
+.html-embed-wrapper .text-left {text-align: left}
+.html-embed-wrapper .table {width: 100%;
+max-width: 100%;
+margin-bottom: 20px}
+.html-embed-wrapper .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th {padding: 8px;
+line-height: 1.428571;
+vertical-align: top;
+border-top: 1px solid #ddd}
+.html-embed-wrapper .table &gt; thead &gt; tr &gt; th {vertical-align: bottom;
+border-bottom: 2px solid #ddd}
+.html-embed-wrapper .table &gt; caption + thead &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; caption + thead &gt; tr:first-child &gt; th, .html-embed-wrapper .table &gt; colgroup + thead &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; colgroup + thead &gt; tr:first-child &gt; th, .html-embed-wrapper .table &gt; thead:first-child &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; thead:first-child &gt; tr:first-child &gt; th {border-top: 0}
+.html-embed-wrapper .table &gt; tbody + tbody {border-top: 2px solid #ddd}
+.html-embed-wrapper .table .table {background-color: #fff}
+.html-embed-wrapper .table-condensed &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-condensed &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-condensed &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; thead &gt; tr &gt; th {padding: 5px}
+.html-embed-wrapper .table-bordered {border: 1px solid #ddd}
+.html-embed-wrapper .table-bordered &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-bordered &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; th {border: 1px solid #ddd}
+.html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; th {border-bottom-width: 2px}
+.html-embed-wrapper .table-striped &gt; tbody &gt; tr:nth-of-type(odd) {background-color: #f9f9f9}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover {background-color: #f5f5f5}
+.html-embed-wrapper .table &gt; tbody &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.active, .html-embed-wrapper .table &gt; tfoot &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.active, .html-embed-wrapper .table &gt; thead &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.active {background-color: #f5f5f5}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.active:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.active:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .active, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.active:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.active:hover {background-color: #e8e8e8}
+.html-embed-wrapper .table &gt; tbody &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.success, .html-embed-wrapper .table &gt; tfoot &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.success, .html-embed-wrapper .table &gt; thead &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.success {background-color: #dff0d8}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.success:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.success:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .success, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.success:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.success:hover {background-color: #d0e9c6}
+.html-embed-wrapper .table &gt; tbody &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.info, .html-embed-wrapper .table &gt; tfoot &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.info, .html-embed-wrapper .table &gt; thead &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.info {background-color: #d9edf7}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.info:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.info:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .info, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.info:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.info:hover {background-color: #c4e3f3}
+.html-embed-wrapper .table &gt; tbody &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.warning, .html-embed-wrapper .table &gt; tfoot &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.warning, .html-embed-wrapper .table &gt; thead &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.warning {background-color: #fcf8e3}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.warning:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.warning:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .warning, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.warning:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.warning:hover {background-color: #faf2cc}
+.html-embed-wrapper .table &gt; tbody &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.danger, .html-embed-wrapper .table &gt; tfoot &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.danger, .html-embed-wrapper .table &gt; thead &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.danger {background-color: #f2dede}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.danger:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.danger:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .danger, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.danger:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.danger:hover {background-color: #ebcccc}
+.html-embed-wrapper .table-responsive {overflow-x: auto;
+min-height: 0.01%}
+.html-embed-wrapper .table-responsive {overflow-x: auto;
+min-height: 0.01%}
+@media screen and (max-width: 767px) {
+.html-embed-wrapper .table-responsive {width: 100%;
+margin-bottom: 15px;
+overflow-y: hidden;
+-ms-overflow-style: -ms-autohiding-scrollbar;
+border: 1px solid #ddd}
+.html-embed-wrapper .table-responsive {width: 100%;
+margin-bottom: 15px;
+overflow-y: hidden;
+-ms-overflow-style: -ms-autohiding-scrollbar;
+border: 1px solid #ddd}
+.html-embed-wrapper .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; th {white-space: nowrap}
+.html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; th {white-space: nowrap}
+.html-embed-wrapper .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table, .html-embed-wrapper .panel &gt; .table, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table, .html-embed-wrapper .panel &gt; .table, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table caption, .html-embed-wrapper .panel &gt; .table caption, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table caption {padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table caption, .html-embed-wrapper .panel &gt; .table caption, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table caption {padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child, .html-embed-wrapper .panel &gt; .table:first-child {border-top-right-radius: 3px;
+border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child, .html-embed-wrapper .panel &gt; .table:first-child {border-top-right-radius: 3px;
+border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child {border-top-left-radius: 3px;
+border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child {border-top-left-radius: 3px;
+border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child {border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child {border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child {border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child {border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child, .html-embed-wrapper .panel &gt; .table:last-child {border-bottom-right-radius: 3px;
+border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child, .html-embed-wrapper .panel &gt; .table:last-child {border-bottom-right-radius: 3px;
+border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child {border-bottom-left-radius: 3px;
+border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child {border-bottom-left-radius: 3px;
+border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child {border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child {border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child {border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child {border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .panel-body + .table, .html-embed-wrapper .panel &gt; .panel-body + .table-responsive, .html-embed-wrapper .panel &gt; .table + .panel-body, .html-embed-wrapper .panel &gt; .table-responsive + .panel-body {border-top: 1px solid #ddd}
+.html-embed-wrapper .panel &gt; .panel-body + .table, .html-embed-wrapper .panel &gt; .panel-body + .table-responsive, .html-embed-wrapper .panel &gt; .table + .panel-body, .html-embed-wrapper .panel &gt; .table-responsive + .panel-body {border-top: 1px solid #ddd}
+.html-embed-wrapper .panel &gt; .table &gt; tbody:first-child &gt; tr:first-child td, .html-embed-wrapper .panel &gt; .table &gt; tbody:first-child &gt; tr:first-child th {border-top: 0}
+.html-embed-wrapper .panel &gt; .table-bordered, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .panel &gt; .table-bordered, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-responsive {border: 0;
+margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-responsive {border: 0;
+margin-bottom: 0}
+.html-embed-wrapper .text-left {text-align: left}
+.html-embed-wrapper table.table {border-color: #d2d2d2;
+border-collapse: collapse}
+.html-embed-wrapper table.table tbody th[tabindex]:focus, .html-embed-wrapper table.table tbody th[tabindex]:hover, .html-embed-wrapper table.table tfoot th[tabindex]:focus, .html-embed-wrapper table.table tfoot th[tabindex]:hover, .html-embed-wrapper table.table thead th[tabindex]:focus, .html-embed-wrapper table.table thead th[tabindex]:hover {background-color: #d9dce3;
+outline: 1px dotted #0672b9}
+.html-embed-wrapper table.table tbody td, .html-embed-wrapper table.table tbody th, .html-embed-wrapper table.table tfoot td, .html-embed-wrapper table.table tfoot th, .html-embed-wrapper table.table thead td, .html-embed-wrapper table.table thead th {padding: 10px;
+font-variant-numeric: lining-nums tabular-nums;
+-moz-font-feature-settings: "lnum" 1, "tnum" 1;
+font-feature-settings: "lnum" 1, "tnum" 1}
+.html-embed-wrapper table.table tbody td.align-decimal, .html-embed-wrapper table.table tbody th.align-decimal, .html-embed-wrapper table.table tfoot td.align-decimal, .html-embed-wrapper table.table tfoot th.align-decimal, .html-embed-wrapper table.table thead td.align-decimal, .html-embed-wrapper table.table thead th.align-decimal {text-align: "." right !important}
+.html-embed-wrapper table.table tbody td.align-x, .html-embed-wrapper table.table tbody th.align-x, .html-embed-wrapper table.table tfoot td.align-x, .html-embed-wrapper table.table tfoot th.align-x, .html-embed-wrapper table.table thead td.align-x, .html-embed-wrapper table.table thead th.align-x {text-align: "x" center !important}
+.html-embed-wr</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/about/sustainability/plastic-reduction</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>cs_control_6346274-collapse</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>cs_control_6346274-collapse</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+@media print {
+.html-embed-wrapper .table {border-collapse: collapse !important}
+.html-embed-wrapper .table td, .html-embed-wrapper .table th {background-color: #fff !important}
+.html-embed-wrapper .table-bordered td, .html-embed-wrapper .table-bordered th {border: 1px solid #ddd !important}
+}
+.html-embed-wrapper .text-left {text-align: left}
+.html-embed-wrapper .table {width: 100%;
+max-width: 100%;
+margin-bottom: 20px}
+.html-embed-wrapper .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th {padding: 8px;
+line-height: 1.428571;
+vertical-align: top;
+border-top: 1px solid #ddd}
+.html-embed-wrapper .table &gt; thead &gt; tr &gt; th {vertical-align: bottom;
+border-bottom: 2px solid #ddd}
+.html-embed-wrapper .table &gt; caption + thead &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; caption + thead &gt; tr:first-child &gt; th, .html-embed-wrapper .table &gt; colgroup + thead &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; colgroup + thead &gt; tr:first-child &gt; th, .html-embed-wrapper .table &gt; thead:first-child &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; thead:first-child &gt; tr:first-child &gt; th {border-top: 0}
+.html-embed-wrapper .table &gt; tbody + tbody {border-top: 2px solid #ddd}
+.html-embed-wrapper .table .table {background-color: #fff}
+.html-embed-wrapper .table-condensed &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-condensed &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-condensed &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; thead &gt; tr &gt; th {padding: 5px}
+.html-embed-wrapper .table-bordered {border: 1px solid #ddd}
+.html-embed-wrapper .table-bordered &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-bordered &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; th {border: 1px solid #ddd}
+.html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; th {border-bottom-width: 2px}
+.html-embed-wrapper .table-striped &gt; tbody &gt; tr:nth-of-type(odd) {background-color: #f9f9f9}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover {background-color: #f5f5f5}
+.html-embed-wrapper .table &gt; tbody &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.active, .html-embed-wrapper .table &gt; tfoot &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.active, .html-embed-wrapper .table &gt; thead &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.active {background-color: #f5f5f5}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.active:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.active:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .active, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.active:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.active:hover {background-color: #e8e8e8}
+.html-embed-wrapper .table &gt; tbody &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.success, .html-embed-wrapper .table &gt; tfoot &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.success, .html-embed-wrapper .table &gt; thead &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.success {background-color: #dff0d8}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.success:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.success:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .success, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.success:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.success:hover {background-color: #d0e9c6}
+.html-embed-wrapper .table &gt; tbody &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.info, .html-embed-wrapper .table &gt; tfoot &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.info, .html-embed-wrapper .table &gt; thead &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.info {background-color: #d9edf7}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.info:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.info:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .info, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.info:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.info:hover {background-color: #c4e3f3}
+.html-embed-wrapper .table &gt; tbody &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.warning, .html-embed-wrapper .table &gt; tfoot &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.warning, .html-embed-wrapper .table &gt; thead &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.warning {background-color: #fcf8e3}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.warning:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.warning:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .warning, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.warning:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.warning:hover {background-color: #faf2cc}
+.html-embed-wrapper .table &gt; tbody &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.danger, .html-embed-wrapper .table &gt; tfoot &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.danger, .html-embed-wrapper .table &gt; thead &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.danger {background-color: #f2dede}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.danger:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.danger:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .danger, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.danger:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.danger:hover {background-color: #ebcccc}
+.html-embed-wrapper .table-responsive {overflow-x: auto;
+min-height: 0.01%}
+.html-embed-wrapper .table-responsive {overflow-x: auto;
+min-height: 0.01%}
+@media screen and (max-width: 767px) {
+.html-embed-wrapper .table-responsive {width: 100%;
+margin-bottom: 15px;
+overflow-y: hidden;
+-ms-overflow-style: -ms-autohiding-scrollbar;
+border: 1px solid #ddd}
+.html-embed-wrapper .table-responsive {width: 100%;
+margin-bottom: 15px;
+overflow-y: hidden;
+-ms-overflow-style: -ms-autohiding-scrollbar;
+border: 1px solid #ddd}
+.html-embed-wrapper .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; th {white-space: nowrap}
+.html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; th {white-space: nowrap}
+.html-embed-wrapper .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table, .html-embed-wrapper .panel &gt; .table, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table, .html-embed-wrapper .panel &gt; .table, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table caption, .html-embed-wrapper .panel &gt; .table caption, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table caption {padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table caption, .html-embed-wrapper .panel &gt; .table caption, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table caption {padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child, .html-embed-wrapper .panel &gt; .table:first-child {border-top-right-radius: 3px;
+border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child, .html-embed-wrapper .panel &gt; .table:first-child {border-top-right-radius: 3px;
+border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child {border-top-left-radius: 3px;
+border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child {border-top-left-radius: 3px;
+border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child {border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child {border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child {border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child {border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child, .html-embed-wrapper .panel &gt; .table:last-child {border-bottom-right-radius: 3px;
+border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child, .html-embed-wrapper .panel &gt; .table:last-child {border-bottom-right-radius: 3px;
+border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child {border-bottom-left-radius: 3px;
+border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child {border-bottom-left-radius: 3px;
+border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child {border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child {border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child {border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child {border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .panel-body + .table, .html-embed-wrapper .panel &gt; .panel-body + .table-responsive, .html-embed-wrapper .panel &gt; .table + .panel-body, .html-embed-wrapper .panel &gt; .table-responsive + .panel-body {border-top: 1px solid #ddd}
+.html-embed-wrapper .panel &gt; .panel-body + .table, .html-embed-wrapper .panel &gt; .panel-body + .table-responsive, .html-embed-wrapper .panel &gt; .table + .panel-body, .html-embed-wrapper .panel &gt; .table-responsive + .panel-body {border-top: 1px solid #ddd}
+.html-embed-wrapper .panel &gt; .table &gt; tbody:first-child &gt; tr:first-child td, .html-embed-wrapper .panel &gt; .table &gt; tbody:first-child &gt; tr:first-child th {border-top: 0}
+.html-embed-wrapper .panel &gt; .table-bordered, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .panel &gt; .table-bordered, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-responsive {border: 0;
+margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-responsive {border: 0;
+margin-bottom: 0}
+.html-embed-wrapper .text-left {text-align: left}
+.html-embed-wrapper table.table {border-color: #d2d2d2;
+border-collapse: collapse}
+.html-embed-wrapper table.table tbody th[tabindex]:focus, .html-embed-wrapper table.table tbody th[tabindex]:hover, .html-embed-wrapper table.table tfoot th[tabindex]:focus, .html-embed-wrapper table.table tfoot th[tabindex]:hover, .html-embed-wrapper table.table thead th[tabindex]:focus, .html-embed-wrapper table.table thead th[tabindex]:hover {background-color: #d9dce3;
+outline: 1px dotted #0672b9}
+.html-embed-wrapper table.table tbody td, .html-embed-wrapper table.table tbody th, .html-embed-wrapper table.table tfoot td, .html-embed-wrapper table.table tfoot th, .html-embed-wrapper table.table thead td, .html-embed-wrapper table.table thead th {padding: 10px;
+font-variant-numeric: lining-nums tabular-nums;
+-moz-font-feature-settings: "lnum" 1, "tnum" 1;
+font-feature-settings: "lnum" 1, "tnum" 1}
+.html-embed-wrapper table.table tbody td.align-decimal, .html-embed-wrapper table.table tbody th.align-decimal, .html-embed-wrapper table.table tfoot td.align-decimal, .html-embed-wrapper table.table tfoot th.align-decimal, .html-embed-wrapper table.table thead td.align-decimal, .html-embed-wrapper table.table thead th.align-decimal {text-align: "." right !important}
+.html-embed-wrapper table.table tbody td.align-x, .html-embed-wrapper table.table tbody th.align-x, .html-embed-wrapper table.table tfoot td.align-x, .html-embed-wrapper table.table tfoot th.align-x, .html-embed-wrapper table.table thead td.align-x, .html-embed-wrapper table.table thead th.align-x {text-align: "x" center !important}
+.html-embed-wr</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/about/sustainability/plastic-reduction</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>cs_control_6346263-collapse</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>cs_control_6346263-collapse</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+@media print {
+.html-embed-wrapper .table {border-collapse: collapse !important}
+.html-embed-wrapper .table td, .html-embed-wrapper .table th {background-color: #fff !important}
+.html-embed-wrapper .table-bordered td, .html-embed-wrapper .table-bordered th {border: 1px solid #ddd !important}
+}
+.html-embed-wrapper .text-left {text-align: left}
+.html-embed-wrapper .table {width: 100%;
+max-width: 100%;
+margin-bottom: 20px}
+.html-embed-wrapper .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th {padding: 8px;
+line-height: 1.428571;
+vertical-align: top;
+border-top: 1px solid #ddd}
+.html-embed-wrapper .table &gt; thead &gt; tr &gt; th {vertical-align: bottom;
+border-bottom: 2px solid #ddd}
+.html-embed-wrapper .table &gt; caption + thead &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; caption + thead &gt; tr:first-child &gt; th, .html-embed-wrapper .table &gt; colgroup + thead &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; colgroup + thead &gt; tr:first-child &gt; th, .html-embed-wrapper .table &gt; thead:first-child &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; thead:first-child &gt; tr:first-child &gt; th {border-top: 0}
+.html-embed-wrapper .table &gt; tbody + tbody {border-top: 2px solid #ddd}
+.html-embed-wrapper .table .table {background-color: #fff}
+.html-embed-wrapper .table-condensed &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-condensed &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-condensed &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; thead &gt; tr &gt; th {padding: 5px}
+.html-embed-wrapper .table-bordered {border: 1px solid #ddd}
+.html-embed-wrapper .table-bordered &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-bordered &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; th {border: 1px solid #ddd}
+.html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; th {border-bottom-width: 2px}
+.html-embed-wrapper .table-striped &gt; tbody &gt; tr:nth-of-type(odd) {background-color: #f9f9f9}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover {background-color: #f5f5f5}
+.html-embed-wrapper .table &gt; tbody &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.active, .html-embed-wrapper .table &gt; tfoot &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.active, .html-embed-wrapper .table &gt; thead &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.active {background-color: #f5f5f5}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.active:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.active:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .active, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.active:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.active:hover {background-color: #e8e8e8}
+.html-embed-wrapper .table &gt; tbody &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.success, .html-embed-wrapper .table &gt; tfoot &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.success, .html-embed-wrapper .table &gt; thead &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.success {background-color: #dff0d8}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.success:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.success:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .success, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.success:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.success:hover {background-color: #d0e9c6}
+.html-embed-wrapper .table &gt; tbody &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.info, .html-embed-wrapper .table &gt; tfoot &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.info, .html-embed-wrapper .table &gt; thead &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.info {background-color: #d9edf7}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.info:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.info:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .info, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.info:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.info:hover {background-color: #c4e3f3}
+.html-embed-wrapper .table &gt; tbody &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.warning, .html-embed-wrapper .table &gt; tfoot &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.warning, .html-embed-wrapper .table &gt; thead &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.warning {background-color: #fcf8e3}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.warning:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.warning:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .warning, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.warning:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.warning:hover {background-color: #faf2cc}
+.html-embed-wrapper .table &gt; tbody &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.danger, .html-embed-wrapper .table &gt; tfoot &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.danger, .html-embed-wrapper .table &gt; thead &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.danger {background-color: #f2dede}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.danger:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.danger:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .danger, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.danger:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.danger:hover {background-color: #ebcccc}
+.html-embed-wrapper .table-responsive {overflow-x: auto;
+min-height: 0.01%}
+.html-embed-wrapper .table-responsive {overflow-x: auto;
+min-height: 0.01%}
+@media screen and (max-width: 767px) {
+.html-embed-wrapper .table-responsive {width: 100%;
+margin-bottom: 15px;
+overflow-y: hidden;
+-ms-overflow-style: -ms-autohiding-scrollbar;
+border: 1px solid #ddd}
+.html-embed-wrapper .table-responsive {width: 100%;
+margin-bottom: 15px;
+overflow-y: hidden;
+-ms-overflow-style: -ms-autohiding-scrollbar;
+border: 1px solid #ddd}
+.html-embed-wrapper .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; th {white-space: nowrap}
+.html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; th {white-space: nowrap}
+.html-embed-wrapper .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table, .html-embed-wrapper .panel &gt; .table, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table, .html-embed-wrapper .panel &gt; .table, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table caption, .html-embed-wrapper .panel &gt; .table caption, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table caption {padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table caption, .html-embed-wrapper .panel &gt; .table caption, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table caption {padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child, .html-embed-wrapper .panel &gt; .table:first-child {border-top-right-radius: 3px;
+border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child, .html-embed-wrapper .panel &gt; .table:first-child {border-top-right-radius: 3px;
+border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child {border-top-left-radius: 3px;
+border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child {border-top-left-radius: 3px;
+border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child {border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child {border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child {border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child {border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child, .html-embed-wrapper .panel &gt; .table:last-child {border-bottom-right-radius: 3px;
+border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child, .html-embed-wrapper .panel &gt; .table:last-child {border-bottom-right-radius: 3px;
+border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child {border-bottom-left-radius: 3px;
+border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child {border-bottom-left-radius: 3px;
+border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child {border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child {border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child {border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child {border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .panel-body + .table, .html-embed-wrapper .panel &gt; .panel-body + .table-responsive, .html-embed-wrapper .panel &gt; .table + .panel-body, .html-embed-wrapper .panel &gt; .table-responsive + .panel-body {border-top: 1px solid #ddd}
+.html-embed-wrapper .panel &gt; .panel-body + .table, .html-embed-wrapper .panel &gt; .panel-body + .table-responsive, .html-embed-wrapper .panel &gt; .table + .panel-body, .html-embed-wrapper .panel &gt; .table-responsive + .panel-body {border-top: 1px solid #ddd}
+.html-embed-wrapper .panel &gt; .table &gt; tbody:first-child &gt; tr:first-child td, .html-embed-wrapper .panel &gt; .table &gt; tbody:first-child &gt; tr:first-child th {border-top: 0}
+.html-embed-wrapper .panel &gt; .table-bordered, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .panel &gt; .table-bordered, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-responsive {border: 0;
+margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-responsive {border: 0;
+margin-bottom: 0}
+.html-embed-wrapper .text-left {text-align: left}
+.html-embed-wrapper table.table {border-color: #d2d2d2;
+border-collapse: collapse}
+.html-embed-wrapper table.table tbody th[tabindex]:focus, .html-embed-wrapper table.table tbody th[tabindex]:hover, .html-embed-wrapper table.table tfoot th[tabindex]:focus, .html-embed-wrapper table.table tfoot th[tabindex]:hover, .html-embed-wrapper table.table thead th[tabindex]:focus, .html-embed-wrapper table.table thead th[tabindex]:hover {background-color: #d9dce3;
+outline: 1px dotted #0672b9}
+.html-embed-wrapper table.table tbody td, .html-embed-wrapper table.table tbody th, .html-embed-wrapper table.table tfoot td, .html-embed-wrapper table.table tfoot th, .html-embed-wrapper table.table thead td, .html-embed-wrapper table.table thead th {padding: 10px;
+font-variant-numeric: lining-nums tabular-nums;
+-moz-font-feature-settings: "lnum" 1, "tnum" 1;
+font-feature-settings: "lnum" 1, "tnum" 1}
+.html-embed-wrapper table.table tbody td.align-decimal, .html-embed-wrapper table.table tbody th.align-decimal, .html-embed-wrapper table.table tfoot td.align-decimal, .html-embed-wrapper table.table tfoot th.align-decimal, .html-embed-wrapper table.table thead td.align-decimal, .html-embed-wrapper table.table thead th.align-decimal {text-align: "." right !important}
+.html-embed-wrapper table.table tbody td.align-x, .html-embed-wrapper table.table tbody th.align-x, .html-embed-wrapper table.table tfoot td.align-x, .html-embed-wrapper table.table tfoot th.align-x, .html-embed-wrapper table.table thead td.align-x, .html-embed-wrapper table.table thead th.align-x {text-align: "x" center !important}
+.html-embed-wr</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/about/sustainability/plastic-reduction</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>cs_control_6361600-collapse</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>cs_control_6361600-collapse</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+@media print {
+.html-embed-wrapper .table {border-collapse: collapse !important}
+.html-embed-wrapper .table td, .html-embed-wrapper .table th {background-color: #fff !important}
+.html-embed-wrapper .table-bordered td, .html-embed-wrapper .table-bordered th {border: 1px solid #ddd !important}
+}
+.html-embed-wrapper .text-left {text-align: left}
+.html-embed-wrapper .table {width: 100%;
+max-width: 100%;
+margin-bottom: 20px}
+.html-embed-wrapper .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th {padding: 8px;
+line-height: 1.428571;
+vertical-align: top;
+border-top: 1px solid #ddd}
+.html-embed-wrapper .table &gt; thead &gt; tr &gt; th {vertical-align: bottom;
+border-bottom: 2px solid #ddd}
+.html-embed-wrapper .table &gt; caption + thead &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; caption + thead &gt; tr:first-child &gt; th, .html-embed-wrapper .table &gt; colgroup + thead &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; colgroup + thead &gt; tr:first-child &gt; th, .html-embed-wrapper .table &gt; thead:first-child &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; thead:first-child &gt; tr:first-child &gt; th {border-top: 0}
+.html-embed-wrapper .table &gt; tbody + tbody {border-top: 2px solid #ddd}
+.html-embed-wrapper .table .table {background-color: #fff}
+.html-embed-wrapper .table-condensed &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-condensed &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-condensed &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; thead &gt; tr &gt; th {padding: 5px}
+.html-embed-wrapper .table-bordered {border: 1px solid #ddd}
+.html-embed-wrapper .table-bordered &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-bordered &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; th {border: 1px solid #ddd}
+.html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; th {border-bottom-width: 2px}
+.html-embed-wrapper .table-striped &gt; tbody &gt; tr:nth-of-type(odd) {background-color: #f9f9f9}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover {background-color: #f5f5f5}
+.html-embed-wrapper .table &gt; tbody &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.active, .html-embed-wrapper .table &gt; tfoot &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.active, .html-embed-wrapper .table &gt; thead &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.active {background-color: #f5f5f5}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.active:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.active:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .active, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.active:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.active:hover {background-color: #e8e8e8}
+.html-embed-wrapper .table &gt; tbody &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.success, .html-embed-wrapper .table &gt; tfoot &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.success, .html-embed-wrapper .table &gt; thead &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.success {background-color: #dff0d8}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.success:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.success:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .success, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.success:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.success:hover {background-color: #d0e9c6}
+.html-embed-wrapper .table &gt; tbody &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.info, .html-embed-wrapper .table &gt; tfoot &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.info, .html-embed-wrapper .table &gt; thead &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.info {background-color: #d9edf7}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.info:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.info:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .info, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.info:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.info:hover {background-color: #c4e3f3}
+.html-embed-wrapper .table &gt; tbody &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.warning, .html-embed-wrapper .table &gt; tfoot &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.warning, .html-embed-wrapper .table &gt; thead &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.warning {background-color: #fcf8e3}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.warning:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.warning:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .warning, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.warning:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.warning:hover {background-color: #faf2cc}
+.html-embed-wrapper .table &gt; tbody &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.danger, .html-embed-wrapper .table &gt; tfoot &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.danger, .html-embed-wrapper .table &gt; thead &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.danger {background-color: #f2dede}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.danger:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.danger:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .danger, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.danger:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.danger:hover {background-color: #ebcccc}
+.html-embed-wrapper .table-responsive {overflow-x: auto;
+min-height: 0.01%}
+.html-embed-wrapper .table-responsive {overflow-x: auto;
+min-height: 0.01%}
+@media screen and (max-width: 767px) {
+.html-embed-wrapper .table-responsive {width: 100%;
+margin-bottom: 15px;
+overflow-y: hidden;
+-ms-overflow-style: -ms-autohiding-scrollbar;
+border: 1px solid #ddd}
+.html-embed-wrapper .table-responsive {width: 100%;
+margin-bottom: 15px;
+overflow-y: hidden;
+-ms-overflow-style: -ms-autohiding-scrollbar;
+border: 1px solid #ddd}
+.html-embed-wrapper .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; th {white-space: nowrap}
+.html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; th {white-space: nowrap}
+.html-embed-wrapper .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table, .html-embed-wrapper .panel &gt; .table, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table, .html-embed-wrapper .panel &gt; .table, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table caption, .html-embed-wrapper .panel &gt; .table caption, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table caption {padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table caption, .html-embed-wrapper .panel &gt; .table caption, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table caption {padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child, .html-embed-wrapper .panel &gt; .table:first-child {border-top-right-radius: 3px;
+border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child, .html-embed-wrapper .panel &gt; .table:first-child {border-top-right-radius: 3px;
+border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child {border-top-left-radius: 3px;
+border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child {border-top-left-radius: 3px;
+border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child {border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child {border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child {border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child {border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child, .html-embed-wrapper .panel &gt; .table:last-child {border-bottom-right-radius: 3px;
+border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child, .html-embed-wrapper .panel &gt; .table:last-child {border-bottom-right-radius: 3px;
+border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child {border-bottom-left-radius: 3px;
+border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child {border-bottom-left-radius: 3px;
+border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child {border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child {border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child {border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child {border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .panel-body + .table, .html-embed-wrapper .panel &gt; .panel-body + .table-responsive, .html-embed-wrapper .panel &gt; .table + .panel-body, .html-embed-wrapper .panel &gt; .table-responsive + .panel-body {border-top: 1px solid #ddd}
+.html-embed-wrapper .panel &gt; .panel-body + .table, .html-embed-wrapper .panel &gt; .panel-body + .table-responsive, .html-embed-wrapper .panel &gt; .table + .panel-body, .html-embed-wrapper .panel &gt; .table-responsive + .panel-body {border-top: 1px solid #ddd}
+.html-embed-wrapper .panel &gt; .table &gt; tbody:first-child &gt; tr:first-child td, .html-embed-wrapper .panel &gt; .table &gt; tbody:first-child &gt; tr:first-child th {border-top: 0}
+.html-embed-wrapper .panel &gt; .table-bordered, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .panel &gt; .table-bordered, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-responsive {border: 0;
+margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-responsive {border: 0;
+margin-bottom: 0}
+.html-embed-wrapper .text-left {text-align: left}
+.html-embed-wrapper table.table {border-color: #d2d2d2;
+border-collapse: collapse}
+.html-embed-wrapper table.table tbody th[tabindex]:focus, .html-embed-wrapper table.table tbody th[tabindex]:hover, .html-embed-wrapper table.table tfoot th[tabindex]:focus, .html-embed-wrapper table.table tfoot th[tabindex]:hover, .html-embed-wrapper table.table thead th[tabindex]:focus, .html-embed-wrapper table.table thead th[tabindex]:hover {background-color: #d9dce3;
+outline: 1px dotted #0672b9}
+.html-embed-wrapper table.table tbody td, .html-embed-wrapper table.table tbody th, .html-embed-wrapper table.table tfoot td, .html-embed-wrapper table.table tfoot th, .html-embed-wrapper table.table thead td, .html-embed-wrapper table.table thead th {padding: 10px;
+font-variant-numeric: lining-nums tabular-nums;
+-moz-font-feature-settings: "lnum" 1, "tnum" 1;
+font-feature-settings: "lnum" 1, "tnum" 1}
+.html-embed-wrapper table.table tbody td.align-decimal, .html-embed-wrapper table.table tbody th.align-decimal, .html-embed-wrapper table.table tfoot td.align-decimal, .html-embed-wrapper table.table tfoot th.align-decimal, .html-embed-wrapper table.table thead td.align-decimal, .html-embed-wrapper table.table thead th.align-decimal {text-align: "." right !important}
+.html-embed-wrapper table.table tbody td.align-x, .html-embed-wrapper table.table tbody th.align-x, .html-embed-wrapper table.table tfoot td.align-x, .html-embed-wrapper table.table tfoot th.align-x, .html-embed-wrapper table.table thead td.align-x, .html-embed-wrapper table.table thead th.align-x {text-align: "x" center !important}
+.html-embed-wr</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/about/sustainability/plastic-reduction</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>cs_control_6346271-collapse</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>cs_control_6346271-collapse</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+@media print {
+.html-embed-wrapper .table {border-collapse: collapse !important}
+.html-embed-wrapper .table td, .html-embed-wrapper .table th {background-color: #fff !important}
+.html-embed-wrapper .table-bordered td, .html-embed-wrapper .table-bordered th {border: 1px solid #ddd !important}
+}
+.html-embed-wrapper .text-left {text-align: left}
+.html-embed-wrapper .table {width: 100%;
+max-width: 100%;
+margin-bottom: 20px}
+.html-embed-wrapper .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th {padding: 8px;
+line-height: 1.428571;
+vertical-align: top;
+border-top: 1px solid #ddd}
+.html-embed-wrapper .table &gt; thead &gt; tr &gt; th {vertical-align: bottom;
+border-bottom: 2px solid #ddd}
+.html-embed-wrapper .table &gt; caption + thead &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; caption + thead &gt; tr:first-child &gt; th, .html-embed-wrapper .table &gt; colgroup + thead &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; colgroup + thead &gt; tr:first-child &gt; th, .html-embed-wrapper .table &gt; thead:first-child &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; thead:first-child &gt; tr:first-child &gt; th {border-top: 0}
+.html-embed-wrapper .table &gt; tbody + tbody {border-top: 2px solid #ddd}
+.html-embed-wrapper .table .table {background-color: #fff}
+.html-embed-wrapper .table-condensed &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-condensed &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-condensed &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; thead &gt; tr &gt; th {padding: 5px}
+.html-embed-wrapper .table-bordered {border: 1px solid #ddd}
+.html-embed-wrapper .table-bordered &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-bordered &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; th {border: 1px solid #ddd}
+.html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; th {border-bottom-width: 2px}
+.html-embed-wrapper .table-striped &gt; tbody &gt; tr:nth-of-type(odd) {background-color: #f9f9f9}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover {background-color: #f5f5f5}
+.html-embed-wrapper .table &gt; tbody &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.active, .html-embed-wrapper .table &gt; tfoot &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.active, .html-embed-wrapper .table &gt; thead &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.active {background-color: #f5f5f5}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.active:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.active:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .active, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.active:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.active:hover {background-color: #e8e8e8}
+.html-embed-wrapper .table &gt; tbody &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.success, .html-embed-wrapper .table &gt; tfoot &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.success, .html-embed-wrapper .table &gt; thead &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.success {background-color: #dff0d8}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.success:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.success:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .success, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.success:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.success:hover {background-color: #d0e9c6}
+.html-embed-wrapper .table &gt; tbody &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.info, .html-embed-wrapper .table &gt; tfoot &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.info, .html-embed-wrapper .table &gt; thead &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.info {background-color: #d9edf7}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.info:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.info:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .info, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.info:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.info:hover {background-color: #c4e3f3}
+.html-embed-wrapper .table &gt; tbody &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.warning, .html-embed-wrapper .table &gt; tfoot &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.warning, .html-embed-wrapper .table &gt; thead &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.warning {background-color: #fcf8e3}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.warning:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.warning:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .warning, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.warning:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.warning:hover {background-color: #faf2cc}
+.html-embed-wrapper .table &gt; tbody &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.danger, .html-embed-wrapper .table &gt; tfoot &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.danger, .html-embed-wrapper .table &gt; thead &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.danger {background-color: #f2dede}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.danger:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.danger:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .danger, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.danger:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.danger:hover {background-color: #ebcccc}
+.html-embed-wrapper .table-responsive {overflow-x: auto;
+min-height: 0.01%}
+.html-embed-wrapper .table-responsive {overflow-x: auto;
+min-height: 0.01%}
+@media screen and (max-width: 767px) {
+.html-embed-wrapper .table-responsive {width: 100%;
+margin-bottom: 15px;
+overflow-y: hidden;
+-ms-overflow-style: -ms-autohiding-scrollbar;
+border: 1px solid #ddd}
+.html-embed-wrapper .table-responsive {width: 100%;
+margin-bottom: 15px;
+overflow-y: hidden;
+-ms-overflow-style: -ms-autohiding-scrollbar;
+border: 1px solid #ddd}
+.html-embed-wrapper .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; th {white-space: nowrap}
+.html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; th {white-space: nowrap}
+.html-embed-wrapper .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table, .html-embed-wrapper .panel &gt; .table, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table, .html-embed-wrapper .panel &gt; .table, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table caption, .html-embed-wrapper .panel &gt; .table caption, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table caption {padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table caption, .html-embed-wrapper .panel &gt; .table caption, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table caption {padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child, .html-embed-wrapper .panel &gt; .table:first-child {border-top-right-radius: 3px;
+border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child, .html-embed-wrapper .panel &gt; .table:first-child {border-top-right-radius: 3px;
+border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child {border-top-left-radius: 3px;
+border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child {border-top-left-radius: 3px;
+border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child {border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child {border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child {border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child {border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child, .html-embed-wrapper .panel &gt; .table:last-child {border-bottom-right-radius: 3px;
+border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child, .html-embed-wrapper .panel &gt; .table:last-child {border-bottom-right-radius: 3px;
+border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child {border-bottom-left-radius: 3px;
+border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child {border-bottom-left-radius: 3px;
+border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child {border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child {border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child {border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child {border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .panel-body + .table, .html-embed-wrapper .panel &gt; .panel-body + .table-responsive, .html-embed-wrapper .panel &gt; .table + .panel-body, .html-embed-wrapper .panel &gt; .table-responsive + .panel-body {border-top: 1px solid #ddd}
+.html-embed-wrapper .panel &gt; .panel-body + .table, .html-embed-wrapper .panel &gt; .panel-body + .table-responsive, .html-embed-wrapper .panel &gt; .table + .panel-body, .html-embed-wrapper .panel &gt; .table-responsive + .panel-body {border-top: 1px solid #ddd}
+.html-embed-wrapper .panel &gt; .table &gt; tbody:first-child &gt; tr:first-child td, .html-embed-wrapper .panel &gt; .table &gt; tbody:first-child &gt; tr:first-child th {border-top: 0}
+.html-embed-wrapper .panel &gt; .table-bordered, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .panel &gt; .table-bordered, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-responsive {border: 0;
+margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-responsive {border: 0;
+margin-bottom: 0}
+.html-embed-wrapper .text-left {text-align: left}
+.html-embed-wrapper table.table {border-color: #d2d2d2;
+border-collapse: collapse}
+.html-embed-wrapper table.table tbody th[tabindex]:focus, .html-embed-wrapper table.table tbody th[tabindex]:hover, .html-embed-wrapper table.table tfoot th[tabindex]:focus, .html-embed-wrapper table.table tfoot th[tabindex]:hover, .html-embed-wrapper table.table thead th[tabindex]:focus, .html-embed-wrapper table.table thead th[tabindex]:hover {background-color: #d9dce3;
+outline: 1px dotted #0672b9}
+.html-embed-wrapper table.table tbody td, .html-embed-wrapper table.table tbody th, .html-embed-wrapper table.table tfoot td, .html-embed-wrapper table.table tfoot th, .html-embed-wrapper table.table thead td, .html-embed-wrapper table.table thead th {padding: 10px;
+font-variant-numeric: lining-nums tabular-nums;
+-moz-font-feature-settings: "lnum" 1, "tnum" 1;
+font-feature-settings: "lnum" 1, "tnum" 1}
+.html-embed-wrapper table.table tbody td.align-decimal, .html-embed-wrapper table.table tbody th.align-decimal, .html-embed-wrapper table.table tfoot td.align-decimal, .html-embed-wrapper table.table tfoot th.align-decimal, .html-embed-wrapper table.table thead td.align-decimal, .html-embed-wrapper table.table thead th.align-decimal {text-align: "." right !important}
+.html-embed-wrapper table.table tbody td.align-x, .html-embed-wrapper table.table tbody th.align-x, .html-embed-wrapper table.table tfoot td.align-x, .html-embed-wrapper table.table tfoot th.align-x, .html-embed-wrapper table.table thead td.align-x, .html-embed-wrapper table.table thead th.align-x {text-align: "x" center !important}
+.html-embed-wr</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/about/sustainability/plastic-reduction</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>cs_control_6346279-collapse</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>cs_control_6346279-collapse</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+@media print {
+.html-embed-wrapper .table {border-collapse: collapse !important}
+.html-embed-wrapper .table td, .html-embed-wrapper .table th {background-color: #fff !important}
+.html-embed-wrapper .table-bordered td, .html-embed-wrapper .table-bordered th {border: 1px solid #ddd !important}
+}
+.html-embed-wrapper .text-left {text-align: left}
+.html-embed-wrapper .table {width: 100%;
+max-width: 100%;
+margin-bottom: 20px}
+.html-embed-wrapper .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th {padding: 8px;
+line-height: 1.428571;
+vertical-align: top;
+border-top: 1px solid #ddd}
+.html-embed-wrapper .table &gt; thead &gt; tr &gt; th {vertical-align: bottom;
+border-bottom: 2px solid #ddd}
+.html-embed-wrapper .table &gt; caption + thead &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; caption + thead &gt; tr:first-child &gt; th, .html-embed-wrapper .table &gt; colgroup + thead &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; colgroup + thead &gt; tr:first-child &gt; th, .html-embed-wrapper .table &gt; thead:first-child &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; thead:first-child &gt; tr:first-child &gt; th {border-top: 0}
+.html-embed-wrapper .table &gt; tbody + tbody {border-top: 2px solid #ddd}
+.html-embed-wrapper .table .table {background-color: #fff}
+.html-embed-wrapper .table-condensed &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-condensed &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-condensed &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; thead &gt; tr &gt; th {padding: 5px}
+.html-embed-wrapper .table-bordered {border: 1px solid #ddd}
+.html-embed-wrapper .table-bordered &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-bordered &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; th {border: 1px solid #ddd}
+.html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; th {border-bottom-width: 2px}
+.html-embed-wrapper .table-striped &gt; tbody &gt; tr:nth-of-type(odd) {background-color: #f9f9f9}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover {background-color: #f5f5f5}
+.html-embed-wrapper .table &gt; tbody &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.active, .html-embed-wrapper .table &gt; tfoot &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.active, .html-embed-wrapper .table &gt; thead &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.active {background-color: #f5f5f5}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.active:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.active:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .active, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.active:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.active:hover {background-color: #e8e8e8}
+.html-embed-wrapper .table &gt; tbody &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.success, .html-embed-wrapper .table &gt; tfoot &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.success, .html-embed-wrapper .table &gt; thead &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.success {background-color: #dff0d8}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.success:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.success:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .success, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.success:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.success:hover {background-color: #d0e9c6}
+.html-embed-wrapper .table &gt; tbody &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.info, .html-embed-wrapper .table &gt; tfoot &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.info, .html-embed-wrapper .table &gt; thead &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.info {background-color: #d9edf7}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.info:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.info:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .info, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.info:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.info:hover {background-color: #c4e3f3}
+.html-embed-wrapper .table &gt; tbody &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.warning, .html-embed-wrapper .table &gt; tfoot &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.warning, .html-embed-wrapper .table &gt; thead &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.warning {background-color: #fcf8e3}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.warning:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.warning:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .warning, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.warning:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.warning:hover {background-color: #faf2cc}
+.html-embed-wrapper .table &gt; tbody &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.danger, .html-embed-wrapper .table &gt; tfoot &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.danger, .html-embed-wrapper .table &gt; thead &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.danger {background-color: #f2dede}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.danger:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.danger:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .danger, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.danger:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.danger:hover {background-color: #ebcccc}
+.html-embed-wrapper .table-responsive {overflow-x: auto;
+min-height: 0.01%}
+.html-embed-wrapper .table-responsive {overflow-x: auto;
+min-height: 0.01%}
+@media screen and (max-width: 767px) {
+.html-embed-wrapper .table-responsive {width: 100%;
+margin-bottom: 15px;
+overflow-y: hidden;
+-ms-overflow-style: -ms-autohiding-scrollbar;
+border: 1px solid #ddd}
+.html-embed-wrapper .table-responsive {width: 100%;
+margin-bottom: 15px;
+overflow-y: hidden;
+-ms-overflow-style: -ms-autohiding-scrollbar;
+border: 1px solid #ddd}
+.html-embed-wrapper .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; th {white-space: nowrap}
+.html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; th {white-space: nowrap}
+.html-embed-wrapper .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table, .html-embed-wrapper .panel &gt; .table, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table, .html-embed-wrapper .panel &gt; .table, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table caption, .html-embed-wrapper .panel &gt; .table caption, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table caption {padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table caption, .html-embed-wrapper .panel &gt; .table caption, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table caption {padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child, .html-embed-wrapper .panel &gt; .table:first-child {border-top-right-radius: 3px;
+border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child, .html-embed-wrapper .panel &gt; .table:first-child {border-top-right-radius: 3px;
+border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child {border-top-left-radius: 3px;
+border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child {border-top-left-radius: 3px;
+border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child {border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child {border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child {border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child {border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child, .html-embed-wrapper .panel &gt; .table:last-child {border-bottom-right-radius: 3px;
+border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child, .html-embed-wrapper .panel &gt; .table:last-child {border-bottom-right-radius: 3px;
+border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child {border-bottom-left-radius: 3px;
+border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child {border-bottom-left-radius: 3px;
+border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child {border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child {border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child {border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child {border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .panel-body + .table, .html-embed-wrapper .panel &gt; .panel-body + .table-responsive, .html-embed-wrapper .panel &gt; .table + .panel-body, .html-embed-wrapper .panel &gt; .table-responsive + .panel-body {border-top: 1px solid #ddd}
+.html-embed-wrapper .panel &gt; .panel-body + .table, .html-embed-wrapper .panel &gt; .panel-body + .table-responsive, .html-embed-wrapper .panel &gt; .table + .panel-body, .html-embed-wrapper .panel &gt; .table-responsive + .panel-body {border-top: 1px solid #ddd}
+.html-embed-wrapper .panel &gt; .table &gt; tbody:first-child &gt; tr:first-child td, .html-embed-wrapper .panel &gt; .table &gt; tbody:first-child &gt; tr:first-child th {border-top: 0}
+.html-embed-wrapper .panel &gt; .table-bordered, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .panel &gt; .table-bordered, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-responsive {border: 0;
+margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-responsive {border: 0;
+margin-bottom: 0}
+.html-embed-wrapper .text-left {text-align: left}
+.html-embed-wrapper table.table {border-color: #d2d2d2;
+border-collapse: collapse}
+.html-embed-wrapper table.table tbody th[tabindex]:focus, .html-embed-wrapper table.table tbody th[tabindex]:hover, .html-embed-wrapper table.table tfoot th[tabindex]:focus, .html-embed-wrapper table.table tfoot th[tabindex]:hover, .html-embed-wrapper table.table thead th[tabindex]:focus, .html-embed-wrapper table.table thead th[tabindex]:hover {background-color: #d9dce3;
+outline: 1px dotted #0672b9}
+.html-embed-wrapper table.table tbody td, .html-embed-wrapper table.table tbody th, .html-embed-wrapper table.table tfoot td, .html-embed-wrapper table.table tfoot th, .html-embed-wrapper table.table thead td, .html-embed-wrapper table.table thead th {padding: 10px;
+font-variant-numeric: lining-nums tabular-nums;
+-moz-font-feature-settings: "lnum" 1, "tnum" 1;
+font-feature-settings: "lnum" 1, "tnum" 1}
+.html-embed-wrapper table.table tbody td.align-decimal, .html-embed-wrapper table.table tbody th.align-decimal, .html-embed-wrapper table.table tfoot td.align-decimal, .html-embed-wrapper table.table tfoot th.align-decimal, .html-embed-wrapper table.table thead td.align-decimal, .html-embed-wrapper table.table thead th.align-decimal {text-align: "." right !important}
+.html-embed-wrapper table.table tbody td.align-x, .html-embed-wrapper table.table tbody th.align-x, .html-embed-wrapper table.table tfoot td.align-x, .html-embed-wrapper table.table tfoot th.align-x, .html-embed-wrapper table.table thead td.align-x, .html-embed-wrapper table.table thead th.align-x {text-align: "x" center !important}
+.html-embed-wr</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/about/sustainability/plastic-reduction</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>cs_control_6361613-collapse</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>cs_control_6361613-collapse</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+@media print {
+.html-embed-wrapper .table {border-collapse: collapse !important}
+.html-embed-wrapper .table td, .html-embed-wrapper .table th {background-color: #fff !important}
+.html-embed-wrapper .table-bordered td, .html-embed-wrapper .table-bordered th {border: 1px solid #ddd !important}
+}
+.html-embed-wrapper .text-left {text-align: left}
+.html-embed-wrapper .table {width: 100%;
+max-width: 100%;
+margin-bottom: 20px}
+.html-embed-wrapper .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th {padding: 8px;
+line-height: 1.428571;
+vertical-align: top;
+border-top: 1px solid #ddd}
+.html-embed-wrapper .table &gt; thead &gt; tr &gt; th {vertical-align: bottom;
+border-bottom: 2px solid #ddd}
+.html-embed-wrapper .table &gt; caption + thead &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; caption + thead &gt; tr:first-child &gt; th, .html-embed-wrapper .table &gt; colgroup + thead &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; colgroup + thead &gt; tr:first-child &gt; th, .html-embed-wrapper .table &gt; thead:first-child &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; thead:first-child &gt; tr:first-child &gt; th {border-top: 0}
+.html-embed-wrapper .table &gt; tbody + tbody {border-top: 2px solid #ddd}
+.html-embed-wrapper .table .table {background-color: #fff}
+.html-embed-wrapper .table-condensed &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-condensed &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-condensed &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; thead &gt; tr &gt; th {padding: 5px}
+.html-embed-wrapper .table-bordered {border: 1px solid #ddd}
+.html-embed-wrapper .table-bordered &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-bordered &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; th {border: 1px solid #ddd}
+.html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; th {border-bottom-width: 2px}
+.html-embed-wrapper .table-striped &gt; tbody &gt; tr:nth-of-type(odd) {background-color: #f9f9f9}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover {background-color: #f5f5f5}
+.html-embed-wrapper .table &gt; tbody &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.active, .html-embed-wrapper .table &gt; tfoot &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.active, .html-embed-wrapper .table &gt; thead &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.active {background-color: #f5f5f5}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.active:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.active:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .active, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.active:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.active:hover {background-color: #e8e8e8}
+.html-embed-wrapper .table &gt; tbody &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.success, .html-embed-wrapper .table &gt; tfoot &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.success, .html-embed-wrapper .table &gt; thead &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.success {background-color: #dff0d8}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.success:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.success:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .success, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.success:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.success:hover {background-color: #d0e9c6}
+.html-embed-wrapper .table &gt; tbody &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.info, .html-embed-wrapper .table &gt; tfoot &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.info, .html-embed-wrapper .table &gt; thead &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.info {background-color: #d9edf7}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.info:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.info:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .info, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.info:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.info:hover {background-color: #c4e3f3}
+.html-embed-wrapper .table &gt; tbody &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.warning, .html-embed-wrapper .table &gt; tfoot &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.warning, .html-embed-wrapper .table &gt; thead &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.warning {background-color: #fcf8e3}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.warning:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.warning:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .warning, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.warning:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.warning:hover {background-color: #faf2cc}
+.html-embed-wrapper .table &gt; tbody &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.danger, .html-embed-wrapper .table &gt; tfoot &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.danger, .html-embed-wrapper .table &gt; thead &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.danger {background-color: #f2dede}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.danger:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.danger:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .danger, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.danger:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.danger:hover {background-color: #ebcccc}
+.html-embed-wrapper .table-responsive {overflow-x: auto;
+min-height: 0.01%}
+.html-embed-wrapper .table-responsive {overflow-x: auto;
+min-height: 0.01%}
+@media screen and (max-width: 767px) {
+.html-embed-wrapper .table-responsive {width: 100%;
+margin-bottom: 15px;
+overflow-y: hidden;
+-ms-overflow-style: -ms-autohiding-scrollbar;
+border: 1px solid #ddd}
+.html-embed-wrapper .table-responsive {width: 100%;
+margin-bottom: 15px;
+overflow-y: hidden;
+-ms-overflow-style: -ms-autohiding-scrollbar;
+border: 1px solid #ddd}
+.html-embed-wrapper .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; th {white-space: nowrap}
+.html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; th {white-space: nowrap}
+.html-embed-wrapper .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table, .html-embed-wrapper .panel &gt; .table, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table, .html-embed-wrapper .panel &gt; .table, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table caption, .html-embed-wrapper .panel &gt; .table caption, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table caption {padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table caption, .html-embed-wrapper .panel &gt; .table caption, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table caption {padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child, .html-embed-wrapper .panel &gt; .table:first-child {border-top-right-radius: 3px;
+border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child, .html-embed-wrapper .panel &gt; .table:first-child {border-top-right-radius: 3px;
+border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child {border-top-left-radius: 3px;
+border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child {border-top-left-radius: 3px;
+border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child {border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child {border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child {border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child {border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child, .html-embed-wrapper .panel &gt; .table:last-child {border-bottom-right-radius: 3px;
+border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child, .html-embed-wrapper .panel &gt; .table:last-child {border-bottom-right-radius: 3px;
+border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child {border-bottom-left-radius: 3px;
+border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child {border-bottom-left-radius: 3px;
+border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child {border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child {border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child {border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child {border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .panel-body + .table, .html-embed-wrapper .panel &gt; .panel-body + .table-responsive, .html-embed-wrapper .panel &gt; .table + .panel-body, .html-embed-wrapper .panel &gt; .table-responsive + .panel-body {border-top: 1px solid #ddd}
+.html-embed-wrapper .panel &gt; .panel-body + .table, .html-embed-wrapper .panel &gt; .panel-body + .table-responsive, .html-embed-wrapper .panel &gt; .table + .panel-body, .html-embed-wrapper .panel &gt; .table-responsive + .panel-body {border-top: 1px solid #ddd}
+.html-embed-wrapper .panel &gt; .table &gt; tbody:first-child &gt; tr:first-child td, .html-embed-wrapper .panel &gt; .table &gt; tbody:first-child &gt; tr:first-child th {border-top: 0}
+.html-embed-wrapper .panel &gt; .table-bordered, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .panel &gt; .table-bordered, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-responsive {border: 0;
+margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-responsive {border: 0;
+margin-bottom: 0}
+.html-embed-wrapper .text-left {text-align: left}
+.html-embed-wrapper table.table {border-color: #d2d2d2;
+border-collapse: collapse}
+.html-embed-wrapper table.table tbody th[tabindex]:focus, .html-embed-wrapper table.table tbody th[tabindex]:hover, .html-embed-wrapper table.table tfoot th[tabindex]:focus, .html-embed-wrapper table.table tfoot th[tabindex]:hover, .html-embed-wrapper table.table thead th[tabindex]:focus, .html-embed-wrapper table.table thead th[tabindex]:hover {background-color: #d9dce3;
+outline: 1px dotted #0672b9}
+.html-embed-wrapper table.table tbody td, .html-embed-wrapper table.table tbody th, .html-embed-wrapper table.table tfoot td, .html-embed-wrapper table.table tfoot th, .html-embed-wrapper table.table thead td, .html-embed-wrapper table.table thead th {padding: 10px;
+font-variant-numeric: lining-nums tabular-nums;
+-moz-font-feature-settings: "lnum" 1, "tnum" 1;
+font-feature-settings: "lnum" 1, "tnum" 1}
+.html-embed-wrapper table.table tbody td.align-decimal, .html-embed-wrapper table.table tbody th.align-decimal, .html-embed-wrapper table.table tfoot td.align-decimal, .html-embed-wrapper table.table tfoot th.align-decimal, .html-embed-wrapper table.table thead td.align-decimal, .html-embed-wrapper table.table thead th.align-decimal {text-align: "." right !important}
+.html-embed-wrapper table.table tbody td.align-x, .html-embed-wrapper table.table tbody th.align-x, .html-embed-wrapper table.table tfoot td.align-x, .html-embed-wrapper table.table tfoot th.align-x, .html-embed-wrapper table.table thead td.align-x, .html-embed-wrapper table.table thead th.align-x {text-align: "x" center !important}
+.html-embed-wr</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/about/sustainability/plastic-reduction</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>cs_control_6346252-collapse</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>cs_control_6346252-collapse</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+@media print {
+.html-embed-wrapper .table {border-collapse: collapse !important}
+.html-embed-wrapper .table td, .html-embed-wrapper .table th {background-color: #fff !important}
+.html-embed-wrapper .table-bordered td, .html-embed-wrapper .table-bordered th {border: 1px solid #ddd !important}
+}
+.html-embed-wrapper .text-left {text-align: left}
+.html-embed-wrapper .table {width: 100%;
+max-width: 100%;
+margin-bottom: 20px}
+.html-embed-wrapper .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th {padding: 8px;
+line-height: 1.428571;
+vertical-align: top;
+border-top: 1px solid #ddd}
+.html-embed-wrapper .table &gt; thead &gt; tr &gt; th {vertical-align: bottom;
+border-bottom: 2px solid #ddd}
+.html-embed-wrapper .table &gt; caption + thead &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; caption + thead &gt; tr:first-child &gt; th, .html-embed-wrapper .table &gt; colgroup + thead &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; colgroup + thead &gt; tr:first-child &gt; th, .html-embed-wrapper .table &gt; thead:first-child &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; thead:first-child &gt; tr:first-child &gt; th {border-top: 0}
+.html-embed-wrapper .table &gt; tbody + tbody {border-top: 2px solid #ddd}
+.html-embed-wrapper .table .table {background-color: #fff}
+.html-embed-wrapper .table-condensed &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-condensed &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-condensed &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; thead &gt; tr &gt; th {padding: 5px}
+.html-embed-wrapper .table-bordered {border: 1px solid #ddd}
+.html-embed-wrapper .table-bordered &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-bordered &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; th {border: 1px solid #ddd}
+.html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; th {border-bottom-width: 2px}
+.html-embed-wrapper .table-striped &gt; tbody &gt; tr:nth-of-type(odd) {background-color: #f9f9f9}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover {background-color: #f5f5f5}
+.html-embed-wrapper .table &gt; tbody &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.active, .html-embed-wrapper .table &gt; tfoot &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.active, .html-embed-wrapper .table &gt; thead &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.active {background-color: #f5f5f5}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.active:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.active:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .active, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.active:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.active:hover {background-color: #e8e8e8}
+.html-embed-wrapper .table &gt; tbody &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.success, .html-embed-wrapper .table &gt; tfoot &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.success, .html-embed-wrapper .table &gt; thead &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.success {background-color: #dff0d8}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.success:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.success:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .success, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.success:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.success:hover {background-color: #d0e9c6}
+.html-embed-wrapper .table &gt; tbody &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.info, .html-embed-wrapper .table &gt; tfoot &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.info, .html-embed-wrapper .table &gt; thead &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.info {background-color: #d9edf7}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.info:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.info:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .info, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.info:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.info:hover {background-color: #c4e3f3}
+.html-embed-wrapper .table &gt; tbody &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.warning, .html-embed-wrapper .table &gt; tfoot &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.warning, .html-embed-wrapper .table &gt; thead &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.warning {background-color: #fcf8e3}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.warning:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.warning:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .warning, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.warning:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.warning:hover {background-color: #faf2cc}
+.html-embed-wrapper .table &gt; tbody &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.danger, .html-embed-wrapper .table &gt; tfoot &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.danger, .html-embed-wrapper .table &gt; thead &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.danger {background-color: #f2dede}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.danger:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.danger:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .danger, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.danger:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.danger:hover {background-color: #ebcccc}
+.html-embed-wrapper .table-responsive {overflow-x: auto;
+min-height: 0.01%}
+.html-embed-wrapper .table-responsive {overflow-x: auto;
+min-height: 0.01%}
+@media screen and (max-width: 767px) {
+.html-embed-wrapper .table-responsive {width: 100%;
+margin-bottom: 15px;
+overflow-y: hidden;
+-ms-overflow-style: -ms-autohiding-scrollbar;
+border: 1px solid #ddd}
+.html-embed-wrapper .table-responsive {width: 100%;
+margin-bottom: 15px;
+overflow-y: hidden;
+-ms-overflow-style: -ms-autohiding-scrollbar;
+border: 1px solid #ddd}
+.html-embed-wrapper .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; th {white-space: nowrap}
+.html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; th {white-space: nowrap}
+.html-embed-wrapper .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table, .html-embed-wrapper .panel &gt; .table, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table, .html-embed-wrapper .panel &gt; .table, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table caption, .html-embed-wrapper .panel &gt; .table caption, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table caption {padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table caption, .html-embed-wrapper .panel &gt; .table caption, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table caption {padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child, .html-embed-wrapper .panel &gt; .table:first-child {border-top-right-radius: 3px;
+border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child, .html-embed-wrapper .panel &gt; .table:first-child {border-top-right-radius: 3px;
+border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child {border-top-left-radius: 3px;
+border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child {border-top-left-radius: 3px;
+border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child {border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child {border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child {border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child {border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child, .html-embed-wrapper .panel &gt; .table:last-child {border-bottom-right-radius: 3px;
+border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child, .html-embed-wrapper .panel &gt; .table:last-child {border-bottom-right-radius: 3px;
+border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child {border-bottom-left-radius: 3px;
+border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child {border-bottom-left-radius: 3px;
+border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child {border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child {border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child {border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child {border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .panel-body + .table, .html-embed-wrapper .panel &gt; .panel-body + .table-responsive, .html-embed-wrapper .panel &gt; .table + .panel-body, .html-embed-wrapper .panel &gt; .table-responsive + .panel-body {border-top: 1px solid #ddd}
+.html-embed-wrapper .panel &gt; .panel-body + .table, .html-embed-wrapper .panel &gt; .panel-body + .table-responsive, .html-embed-wrapper .panel &gt; .table + .panel-body, .html-embed-wrapper .panel &gt; .table-responsive + .panel-body {border-top: 1px solid #ddd}
+.html-embed-wrapper .panel &gt; .table &gt; tbody:first-child &gt; tr:first-child td, .html-embed-wrapper .panel &gt; .table &gt; tbody:first-child &gt; tr:first-child th {border-top: 0}
+.html-embed-wrapper .panel &gt; .table-bordered, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .panel &gt; .table-bordered, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-responsive {border: 0;
+margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-responsive {border: 0;
+margin-bottom: 0}
+.html-embed-wrapper .text-left {text-align: left}
+.html-embed-wrapper table.table {border-color: #d2d2d2;
+border-collapse: collapse}
+.html-embed-wrapper table.table tbody th[tabindex]:focus, .html-embed-wrapper table.table tbody th[tabindex]:hover, .html-embed-wrapper table.table tfoot th[tabindex]:focus, .html-embed-wrapper table.table tfoot th[tabindex]:hover, .html-embed-wrapper table.table thead th[tabindex]:focus, .html-embed-wrapper table.table thead th[tabindex]:hover {background-color: #d9dce3;
+outline: 1px dotted #0672b9}
+.html-embed-wrapper table.table tbody td, .html-embed-wrapper table.table tbody th, .html-embed-wrapper table.table tfoot td, .html-embed-wrapper table.table tfoot th, .html-embed-wrapper table.table thead td, .html-embed-wrapper table.table thead th {padding: 10px;
+font-variant-numeric: lining-nums tabular-nums;
+-moz-font-feature-settings: "lnum" 1, "tnum" 1;
+font-feature-settings: "lnum" 1, "tnum" 1}
+.html-embed-wrapper table.table tbody td.align-decimal, .html-embed-wrapper table.table tbody th.align-decimal, .html-embed-wrapper table.table tfoot td.align-decimal, .html-embed-wrapper table.table tfoot th.align-decimal, .html-embed-wrapper table.table thead td.align-decimal, .html-embed-wrapper table.table thead th.align-decimal {text-align: "." right !important}
+.html-embed-wrapper table.table tbody td.align-x, .html-embed-wrapper table.table tbody th.align-x, .html-embed-wrapper table.table tfoot td.align-x, .html-embed-wrapper table.table tfoot th.align-x, .html-embed-wrapper table.table thead td.align-x, .html-embed-wrapper table.table thead th.align-x {text-align: "x" center !important}
+.html-embed-wr</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/about/sustainability/plastic-reduction</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>cs_control_6346257-collapse</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>cs_control_6346257-collapse</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+@media print {
+.html-embed-wrapper .table {border-collapse: collapse !important}
+.html-embed-wrapper .table td, .html-embed-wrapper .table th {background-color: #fff !important}
+.html-embed-wrapper .table-bordered td, .html-embed-wrapper .table-bordered th {border: 1px solid #ddd !important}
+}
+.html-embed-wrapper .text-left {text-align: left}
+.html-embed-wrapper .table {width: 100%;
+max-width: 100%;
+margin-bottom: 20px}
+.html-embed-wrapper .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th {padding: 8px;
+line-height: 1.428571;
+vertical-align: top;
+border-top: 1px solid #ddd}
+.html-embed-wrapper .table &gt; thead &gt; tr &gt; th {vertical-align: bottom;
+border-bottom: 2px solid #ddd}
+.html-embed-wrapper .table &gt; caption + thead &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; caption + thead &gt; tr:first-child &gt; th, .html-embed-wrapper .table &gt; colgroup + thead &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; colgroup + thead &gt; tr:first-child &gt; th, .html-embed-wrapper .table &gt; thead:first-child &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; thead:first-child &gt; tr:first-child &gt; th {border-top: 0}
+.html-embed-wrapper .table &gt; tbody + tbody {border-top: 2px solid #ddd}
+.html-embed-wrapper .table .table {background-color: #fff}
+.html-embed-wrapper .table-condensed &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-condensed &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-condensed &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; thead &gt; tr &gt; th {padding: 5px}
+.html-embed-wrapper .table-bordered {border: 1px solid #ddd}
+.html-embed-wrapper .table-bordered &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-bordered &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; th {border: 1px solid #ddd}
+.html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; th {border-bottom-width: 2px}
+.html-embed-wrapper .table-striped &gt; tbody &gt; tr:nth-of-type(odd) {background-color: #f9f9f9}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover {background-color: #f5f5f5}
+.html-embed-wrapper .table &gt; tbody &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.active, .html-embed-wrapper .table &gt; tfoot &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.active, .html-embed-wrapper .table &gt; thead &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.active {background-color: #f5f5f5}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.active:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.active:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .active, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.active:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.active:hover {background-color: #e8e8e8}
+.html-embed-wrapper .table &gt; tbody &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.success, .html-embed-wrapper .table &gt; tfoot &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.success, .html-embed-wrapper .table &gt; thead &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.success {background-color: #dff0d8}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.success:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.success:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .success, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.success:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.success:hover {background-color: #d0e9c6}
+.html-embed-wrapper .table &gt; tbody &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.info, .html-embed-wrapper .table &gt; tfoot &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.info, .html-embed-wrapper .table &gt; thead &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.info {background-color: #d9edf7}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.info:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.info:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .info, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.info:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.info:hover {background-color: #c4e3f3}
+.html-embed-wrapper .table &gt; tbody &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.warning, .html-embed-wrapper .table &gt; tfoot &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.warning, .html-embed-wrapper .table &gt; thead &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.warning {background-color: #fcf8e3}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.warning:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.warning:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .warning, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.warning:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.warning:hover {background-color: #faf2cc}
+.html-embed-wrapper .table &gt; tbody &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.danger, .html-embed-wrapper .table &gt; tfoot &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.danger, .html-embed-wrapper .table &gt; thead &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.danger {background-color: #f2dede}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.danger:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.danger:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .danger, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.danger:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.danger:hover {background-color: #ebcccc}
+.html-embed-wrapper .table-responsive {overflow-x: auto;
+min-height: 0.01%}
+.html-embed-wrapper .table-responsive {overflow-x: auto;
+min-height: 0.01%}
+@media screen and (max-width: 767px) {
+.html-embed-wrapper .table-responsive {width: 100%;
+margin-bottom: 15px;
+overflow-y: hidden;
+-ms-overflow-style: -ms-autohiding-scrollbar;
+border: 1px solid #ddd}
+.html-embed-wrapper .table-responsive {width: 100%;
+margin-bottom: 15px;
+overflow-y: hidden;
+-ms-overflow-style: -ms-autohiding-scrollbar;
+border: 1px solid #ddd}
+.html-embed-wrapper .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; th {white-space: nowrap}
+.html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; th {white-space: nowrap}
+.html-embed-wrapper .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table, .html-embed-wrapper .panel &gt; .table, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table, .html-embed-wrapper .panel &gt; .table, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table caption, .html-embed-wrapper .panel &gt; .table caption, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table caption {padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table caption, .html-embed-wrapper .panel &gt; .table caption, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table caption {padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child, .html-embed-wrapper .panel &gt; .table:first-child {border-top-right-radius: 3px;
+border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child, .html-embed-wrapper .panel &gt; .table:first-child {border-top-right-radius: 3px;
+border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child {border-top-left-radius: 3px;
+border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child {border-top-left-radius: 3px;
+border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child {border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child {border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child {border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child {border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child, .html-embed-wrapper .panel &gt; .table:last-child {border-bottom-right-radius: 3px;
+border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child, .html-embed-wrapper .panel &gt; .table:last-child {border-bottom-right-radius: 3px;
+border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child {border-bottom-left-radius: 3px;
+border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child {border-bottom-left-radius: 3px;
+border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child {border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child {border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child {border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child {border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .panel-body + .table, .html-embed-wrapper .panel &gt; .panel-body + .table-responsive, .html-embed-wrapper .panel &gt; .table + .panel-body, .html-embed-wrapper .panel &gt; .table-responsive + .panel-body {border-top: 1px solid #ddd}
+.html-embed-wrapper .panel &gt; .panel-body + .table, .html-embed-wrapper .panel &gt; .panel-body + .table-responsive, .html-embed-wrapper .panel &gt; .table + .panel-body, .html-embed-wrapper .panel &gt; .table-responsive + .panel-body {border-top: 1px solid #ddd}
+.html-embed-wrapper .panel &gt; .table &gt; tbody:first-child &gt; tr:first-child td, .html-embed-wrapper .panel &gt; .table &gt; tbody:first-child &gt; tr:first-child th {border-top: 0}
+.html-embed-wrapper .panel &gt; .table-bordered, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .panel &gt; .table-bordered, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-responsive {border: 0;
+margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-responsive {border: 0;
+margin-bottom: 0}
+.html-embed-wrapper .text-left {text-align: left}
+.html-embed-wrapper table.table {border-color: #d2d2d2;
+border-collapse: collapse}
+.html-embed-wrapper table.table tbody th[tabindex]:focus, .html-embed-wrapper table.table tbody th[tabindex]:hover, .html-embed-wrapper table.table tfoot th[tabindex]:focus, .html-embed-wrapper table.table tfoot th[tabindex]:hover, .html-embed-wrapper table.table thead th[tabindex]:focus, .html-embed-wrapper table.table thead th[tabindex]:hover {background-color: #d9dce3;
+outline: 1px dotted #0672b9}
+.html-embed-wrapper table.table tbody td, .html-embed-wrapper table.table tbody th, .html-embed-wrapper table.table tfoot td, .html-embed-wrapper table.table tfoot th, .html-embed-wrapper table.table thead td, .html-embed-wrapper table.table thead th {padding: 10px;
+font-variant-numeric: lining-nums tabular-nums;
+-moz-font-feature-settings: "lnum" 1, "tnum" 1;
+font-feature-settings: "lnum" 1, "tnum" 1}
+.html-embed-wrapper table.table tbody td.align-decimal, .html-embed-wrapper table.table tbody th.align-decimal, .html-embed-wrapper table.table tfoot td.align-decimal, .html-embed-wrapper table.table tfoot th.align-decimal, .html-embed-wrapper table.table thead td.align-decimal, .html-embed-wrapper table.table thead th.align-decimal {text-align: "." right !important}
+.html-embed-wrapper table.table tbody td.align-x, .html-embed-wrapper table.table tbody th.align-x, .html-embed-wrapper table.table tfoot td.align-x, .html-embed-wrapper table.table tfoot th.align-x, .html-embed-wrapper table.table thead td.align-x, .html-embed-wrapper table.table thead th.align-x {text-align: "x" center !important}
+.html-embed-wr</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/about/sustainability/plastic-reduction</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>cs_control_6346269-collapse</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>cs_control_6346269-collapse</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+@media print {
+.html-embed-wrapper .table {border-collapse: collapse !important}
+.html-embed-wrapper .table td, .html-embed-wrapper .table th {background-color: #fff !important}
+.html-embed-wrapper .table-bordered td, .html-embed-wrapper .table-bordered th {border: 1px solid #ddd !important}
+}
+.html-embed-wrapper .text-left {text-align: left}
+.html-embed-wrapper .table {width: 100%;
+max-width: 100%;
+margin-bottom: 20px}
+.html-embed-wrapper .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th {padding: 8px;
+line-height: 1.428571;
+vertical-align: top;
+border-top: 1px solid #ddd}
+.html-embed-wrapper .table &gt; thead &gt; tr &gt; th {vertical-align: bottom;
+border-bottom: 2px solid #ddd}
+.html-embed-wrapper .table &gt; caption + thead &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; caption + thead &gt; tr:first-child &gt; th, .html-embed-wrapper .table &gt; colgroup + thead &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; colgroup + thead &gt; tr:first-child &gt; th, .html-embed-wrapper .table &gt; thead:first-child &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; thead:first-child &gt; tr:first-child &gt; th {border-top: 0}
+.html-embed-wrapper .table &gt; tbody + tbody {border-top: 2px solid #ddd}
+.html-embed-wrapper .table .table {background-color: #fff}
+.html-embed-wrapper .table-condensed &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-condensed &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-condensed &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; thead &gt; tr &gt; th {padding: 5px}
+.html-embed-wrapper .table-bordered {border: 1px solid #ddd}
+.html-embed-wrapper .table-bordered &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-bordered &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; th {border: 1px solid #ddd}
+.html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; th {border-bottom-width: 2px}
+.html-embed-wrapper .table-striped &gt; tbody &gt; tr:nth-of-type(odd) {background-color: #f9f9f9}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover {background-color: #f5f5f5}
+.html-embed-wrapper .table &gt; tbody &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.active, .html-embed-wrapper .table &gt; tfoot &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.active, .html-embed-wrapper .table &gt; thead &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.active {background-color: #f5f5f5}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.active:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.active:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .active, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.active:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.active:hover {background-color: #e8e8e8}
+.html-embed-wrapper .table &gt; tbody &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.success, .html-embed-wrapper .table &gt; tfoot &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.success, .html-embed-wrapper .table &gt; thead &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.success {background-color: #dff0d8}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.success:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.success:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .success, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.success:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.success:hover {background-color: #d0e9c6}
+.html-embed-wrapper .table &gt; tbody &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.info, .html-embed-wrapper .table &gt; tfoot &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.info, .html-embed-wrapper .table &gt; thead &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.info {background-color: #d9edf7}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.info:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.info:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .info, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.info:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.info:hover {background-color: #c4e3f3}
+.html-embed-wrapper .table &gt; tbody &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.warning, .html-embed-wrapper .table &gt; tfoot &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.warning, .html-embed-wrapper .table &gt; thead &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.warning {background-color: #fcf8e3}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.warning:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.warning:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .warning, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.warning:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.warning:hover {background-color: #faf2cc}
+.html-embed-wrapper .table &gt; tbody &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.danger, .html-embed-wrapper .table &gt; tfoot &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.danger, .html-embed-wrapper .table &gt; thead &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.danger {background-color: #f2dede}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.danger:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.danger:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .danger, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.danger:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.danger:hover {background-color: #ebcccc}
+.html-embed-wrapper .table-responsive {overflow-x: auto;
+min-height: 0.01%}
+.html-embed-wrapper .table-responsive {overflow-x: auto;
+min-height: 0.01%}
+@media screen and (max-width: 767px) {
+.html-embed-wrapper .table-responsive {width: 100%;
+margin-bottom: 15px;
+overflow-y: hidden;
+-ms-overflow-style: -ms-autohiding-scrollbar;
+border: 1px solid #ddd}
+.html-embed-wrapper .table-responsive {width: 100%;
+margin-bottom: 15px;
+overflow-y: hidden;
+-ms-overflow-style: -ms-autohiding-scrollbar;
+border: 1px solid #ddd}
+.html-embed-wrapper .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; th {white-space: nowrap}
+.html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; th {white-space: nowrap}
+.html-embed-wrapper .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table, .html-embed-wrapper .panel &gt; .table, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table, .html-embed-wrapper .panel &gt; .table, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table caption, .html-embed-wrapper .panel &gt; .table caption, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table caption {padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table caption, .html-embed-wrapper .panel &gt; .table caption, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table caption {padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child, .html-embed-wrapper .panel &gt; .table:first-child {border-top-right-radius: 3px;
+border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child, .html-embed-wrapper .panel &gt; .table:first-child {border-top-right-radius: 3px;
+border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child {border-top-left-radius: 3px;
+border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child {border-top-left-radius: 3px;
+border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child {border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child {border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child {border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child {border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child, .html-embed-wrapper .panel &gt; .table:last-child {border-bottom-right-radius: 3px;
+border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child, .html-embed-wrapper .panel &gt; .table:last-child {border-bottom-right-radius: 3px;
+border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child {border-bottom-left-radius: 3px;
+border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child {border-bottom-left-radius: 3px;
+border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child {border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child {border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child {border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child {border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .panel-body + .table, .html-embed-wrapper .panel &gt; .panel-body + .table-responsive, .html-embed-wrapper .panel &gt; .table + .panel-body, .html-embed-wrapper .panel &gt; .table-responsive + .panel-body {border-top: 1px solid #ddd}
+.html-embed-wrapper .panel &gt; .panel-body + .table, .html-embed-wrapper .panel &gt; .panel-body + .table-responsive, .html-embed-wrapper .panel &gt; .table + .panel-body, .html-embed-wrapper .panel &gt; .table-responsive + .panel-body {border-top: 1px solid #ddd}
+.html-embed-wrapper .panel &gt; .table &gt; tbody:first-child &gt; tr:first-child td, .html-embed-wrapper .panel &gt; .table &gt; tbody:first-child &gt; tr:first-child th {border-top: 0}
+.html-embed-wrapper .panel &gt; .table-bordered, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .panel &gt; .table-bordered, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-responsive {border: 0;
+margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-responsive {border: 0;
+margin-bottom: 0}
+.html-embed-wrapper .text-left {text-align: left}
+.html-embed-wrapper table.table {border-color: #d2d2d2;
+border-collapse: collapse}
+.html-embed-wrapper table.table tbody th[tabindex]:focus, .html-embed-wrapper table.table tbody th[tabindex]:hover, .html-embed-wrapper table.table tfoot th[tabindex]:focus, .html-embed-wrapper table.table tfoot th[tabindex]:hover, .html-embed-wrapper table.table thead th[tabindex]:focus, .html-embed-wrapper table.table thead th[tabindex]:hover {background-color: #d9dce3;
+outline: 1px dotted #0672b9}
+.html-embed-wrapper table.table tbody td, .html-embed-wrapper table.table tbody th, .html-embed-wrapper table.table tfoot td, .html-embed-wrapper table.table tfoot th, .html-embed-wrapper table.table thead td, .html-embed-wrapper table.table thead th {padding: 10px;
+font-variant-numeric: lining-nums tabular-nums;
+-moz-font-feature-settings: "lnum" 1, "tnum" 1;
+font-feature-settings: "lnum" 1, "tnum" 1}
+.html-embed-wrapper table.table tbody td.align-decimal, .html-embed-wrapper table.table tbody th.align-decimal, .html-embed-wrapper table.table tfoot td.align-decimal, .html-embed-wrapper table.table tfoot th.align-decimal, .html-embed-wrapper table.table thead td.align-decimal, .html-embed-wrapper table.table thead th.align-decimal {text-align: "." right !important}
+.html-embed-wrapper table.table tbody td.align-x, .html-embed-wrapper table.table tbody th.align-x, .html-embed-wrapper table.table tfoot td.align-x, .html-embed-wrapper table.table tfoot th.align-x, .html-embed-wrapper table.table thead td.align-x, .html-embed-wrapper table.table thead th.align-x {text-align: "x" center !important}
+.html-embed-wr</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/about/sustainability/sustainability-competitions</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>cs_control_5896649-collapse</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>cs_control_5896649-collapse</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+@media print {
+.html-embed-wrapper .table {border-collapse: collapse !important}
+.html-embed-wrapper .table td, .html-embed-wrapper .table th {background-color: #fff !important}
+.html-embed-wrapper .table-bordered td, .html-embed-wrapper .table-bordered th {border: 1px solid #ddd !important}
+}
+.html-embed-wrapper .table {width: 100%;
+max-width: 100%;
+margin-bottom: 20px}
+.html-embed-wrapper .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th {padding: 8px;
+line-height: 1.428571;
+vertical-align: top;
+border-top: 1px solid #ddd}
+.html-embed-wrapper .table &gt; thead &gt; tr &gt; th {vertical-align: bottom;
+border-bottom: 2px solid #ddd}
+.html-embed-wrapper .table &gt; caption + thead &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; caption + thead &gt; tr:first-child &gt; th, .html-embed-wrapper .table &gt; colgroup + thead &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; colgroup + thead &gt; tr:first-child &gt; th, .html-embed-wrapper .table &gt; thead:first-child &gt; tr:first-child &gt; td, .html-embed-wrapper .table &gt; thead:first-child &gt; tr:first-child &gt; th {border-top: 0}
+.html-embed-wrapper .table &gt; tbody + tbody {border-top: 2px solid #ddd}
+.html-embed-wrapper .table .table {background-color: #fff}
+.html-embed-wrapper .table-condensed &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-condensed &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-condensed &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-condensed &gt; thead &gt; tr &gt; th {padding: 5px}
+.html-embed-wrapper .table-bordered {border: 1px solid #ddd}
+.html-embed-wrapper .table-bordered &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-bordered &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; th {border: 1px solid #ddd}
+.html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-bordered &gt; thead &gt; tr &gt; th {border-bottom-width: 2px}
+.html-embed-wrapper .table-striped &gt; tbody &gt; tr:nth-of-type(odd) {background-color: #f9f9f9}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover {background-color: #f5f5f5}
+.html-embed-wrapper .table &gt; tbody &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.active, .html-embed-wrapper .table &gt; tfoot &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.active, .html-embed-wrapper .table &gt; thead &gt; tr.active &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.active &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.active, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.active {background-color: #f5f5f5}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.active:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.active:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .active, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.active:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.active:hover {background-color: #e8e8e8}
+.html-embed-wrapper .table &gt; tbody &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.success, .html-embed-wrapper .table &gt; tfoot &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.success, .html-embed-wrapper .table &gt; thead &gt; tr.success &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.success &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.success, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.success {background-color: #dff0d8}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.success:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.success:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .success, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.success:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.success:hover {background-color: #d0e9c6}
+.html-embed-wrapper .table &gt; tbody &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.info, .html-embed-wrapper .table &gt; tfoot &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.info, .html-embed-wrapper .table &gt; thead &gt; tr.info &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.info &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.info, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.info {background-color: #d9edf7}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.info:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.info:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .info, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.info:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.info:hover {background-color: #c4e3f3}
+.html-embed-wrapper .table &gt; tbody &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.warning, .html-embed-wrapper .table &gt; tfoot &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.warning, .html-embed-wrapper .table &gt; thead &gt; tr.warning &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.warning &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.warning, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.warning {background-color: #fcf8e3}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.warning:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.warning:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .warning, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.warning:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.warning:hover {background-color: #faf2cc}
+.html-embed-wrapper .table &gt; tbody &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; tbody &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; tbody &gt; tr &gt; th.danger, .html-embed-wrapper .table &gt; tfoot &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; tfoot &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; tfoot &gt; tr &gt; th.danger, .html-embed-wrapper .table &gt; thead &gt; tr.danger &gt; td, .html-embed-wrapper .table &gt; thead &gt; tr.danger &gt; th, .html-embed-wrapper .table &gt; thead &gt; tr &gt; td.danger, .html-embed-wrapper .table &gt; thead &gt; tr &gt; th.danger {background-color: #f2dede}
+.html-embed-wrapper .table-hover &gt; tbody &gt; tr.danger:hover &gt; td, .html-embed-wrapper .table-hover &gt; tbody &gt; tr.danger:hover &gt; th, .html-embed-wrapper .table-hover &gt; tbody &gt; tr:hover &gt; .danger, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; td.danger:hover, .html-embed-wrapper .table-hover &gt; tbody &gt; tr &gt; th.danger:hover {background-color: #ebcccc}
+.html-embed-wrapper .table-responsive {overflow-x: auto;
+min-height: 0.01%}
+.html-embed-wrapper .table-responsive {overflow-x: auto;
+min-height: 0.01%}
+@media screen and (max-width: 767px) {
+.html-embed-wrapper .table-responsive {width: 100%;
+margin-bottom: 15px;
+overflow-y: hidden;
+-ms-overflow-style: -ms-autohiding-scrollbar;
+border: 1px solid #ddd}
+.html-embed-wrapper .table-responsive {width: 100%;
+margin-bottom: 15px;
+overflow-y: hidden;
+-ms-overflow-style: -ms-autohiding-scrollbar;
+border: 1px solid #ddd}
+.html-embed-wrapper .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; th {white-space: nowrap}
+.html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tbody &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; tfoot &gt; tr &gt; th, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; td, .html-embed-wrapper .table-responsive &gt; .table &gt; thead &gt; tr &gt; th {white-space: nowrap}
+.html-embed-wrapper .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table, .html-embed-wrapper .panel &gt; .table, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table, .html-embed-wrapper .panel &gt; .table, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table {margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table caption, .html-embed-wrapper .panel &gt; .table caption, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table caption {padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .panel &gt; .panel-collapse &gt; .table caption, .html-embed-wrapper .panel &gt; .table caption, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table caption {padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child, .html-embed-wrapper .panel &gt; .table:first-child {border-top-right-radius: 3px;
+border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child, .html-embed-wrapper .panel &gt; .table:first-child {border-top-right-radius: 3px;
+border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child {border-top-left-radius: 3px;
+border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child {border-top-left-radius: 3px;
+border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child {border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:first-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:first-child {border-top-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child {border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:first-child &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; tbody:first-child &gt; tr:first-child th:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child td:last-child, .html-embed-wrapper .panel &gt; .table:first-child &gt; thead:first-child &gt; tr:first-child th:last-child {border-top-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child, .html-embed-wrapper .panel &gt; .table:last-child {border-bottom-right-radius: 3px;
+border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child, .html-embed-wrapper .panel &gt; .table:last-child {border-bottom-right-radius: 3px;
+border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child {border-bottom-left-radius: 3px;
+border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child {border-bottom-left-radius: 3px;
+border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child {border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:first-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:first-child {border-bottom-left-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child {border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table-responsive:last-child &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tbody:last-child &gt; tr:last-child th:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child td:last-child, .html-embed-wrapper .panel &gt; .table:last-child &gt; tfoot:last-child &gt; tr:last-child th:last-child {border-bottom-right-radius: 3px}
+.html-embed-wrapper .panel &gt; .panel-body + .table, .html-embed-wrapper .panel &gt; .panel-body + .table-responsive, .html-embed-wrapper .panel &gt; .table + .panel-body, .html-embed-wrapper .panel &gt; .table-responsive + .panel-body {border-top: 1px solid #ddd}
+.html-embed-wrapper .panel &gt; .panel-body + .table, .html-embed-wrapper .panel &gt; .panel-body + .table-responsive, .html-embed-wrapper .panel &gt; .table + .panel-body, .html-embed-wrapper .panel &gt; .table-responsive + .panel-body {border-top: 1px solid #ddd}
+.html-embed-wrapper .panel &gt; .table &gt; tbody:first-child &gt; tr:first-child td, .html-embed-wrapper .panel &gt; .table &gt; tbody:first-child &gt; tr:first-child th {border-top: 0}
+.html-embed-wrapper .panel &gt; .table-bordered, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .panel &gt; .table-bordered, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered {border: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:first-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:first-child {border-left: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr &gt; th:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; td:last-child, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr &gt; th:last-child {border-right: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:first-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; thead &gt; tr:first-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tbody &gt; tr:last-child &gt; th, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; td, .html-embed-wrapper .panel &gt; .table-responsive &gt; .table-bordered &gt; tfoot &gt; tr:last-child &gt; th {border-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-responsive {border: 0;
+margin-bottom: 0}
+.html-embed-wrapper .panel &gt; .table-responsive {border: 0;
+margin-bottom: 0}
+.html-embed-wrapper table.table {border-color: #d2d2d2;
+border-collapse: collapse}
+.html-embed-wrapper table.table tbody th[tabindex]:focus, .html-embed-wrapper table.table tbody th[tabindex]:hover, .html-embed-wrapper table.table tfoot th[tabindex]:focus, .html-embed-wrapper table.table tfoot th[tabindex]:hover, .html-embed-wrapper table.table thead th[tabindex]:focus, .html-embed-wrapper table.table thead th[tabindex]:hover {background-color: #d9dce3;
+outline: 1px dotted #0672b9}
+.html-embed-wrapper table.table tbody td, .html-embed-wrapper table.table tbody th, .html-embed-wrapper table.table tfoot td, .html-embed-wrapper table.table tfoot th, .html-embed-wrapper table.table thead td, .html-embed-wrapper table.table thead th {padding: 10px;
+font-variant-numeric: lining-nums tabular-nums;
+-moz-font-feature-settings: "lnum" 1, "tnum" 1;
+font-feature-settings: "lnum" 1, "tnum" 1}
+.html-embed-wrapper table.table tbody td.align-decimal, .html-embed-wrapper table.table tbody th.align-decimal, .html-embed-wrapper table.table tfoot td.align-decimal, .html-embed-wrapper table.table tfoot th.align-decimal, .html-embed-wrapper table.table thead td.align-decimal, .html-embed-wrapper table.table thead th.align-decimal {text-align: "." right !important}
+.html-embed-wrapper table.table tbody td.align-x, .html-embed-wrapper table.table tbody th.align-x, .html-embed-wrapper table.table tfoot td.align-x, .html-embed-wrapper table.table tfoot th.align-x, .html-embed-wrapper table.table thead td.align-x, .html-embed-wrapper table.table thead th.align-x {text-align: "x" center !important}
+.html-embed-wrapper table.table tbody td.align-colon, .html-embed-wrapper table.table tbody th.align-colon, .html-</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/academics/integrity/adjudication</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>adjudication-process</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>adjudication-process</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+.html-embed-wrapper .col-lg-1, .html-embed-wrapper .col-lg-10, .html-embed-wrapper .col-lg-11, .html-embed-wrapper .col-lg-12, .html-embed-wrapper .col-lg-2, .html-embed-wrapper .col-lg-3, .html-embed-wrapper .col-lg-4, .html-embed-wrapper .col-lg-5, .html-embed-wrapper .col-lg-6, .html-embed-wrapper .col-lg-7, .html-embed-wrapper .col-lg-8, .html-embed-wrapper .col-lg-9, .html-embed-wrapper .col-md-1, .html-embed-wrapper .col-md-10, .html-embed-wrapper .col-md-11, .html-embed-wrapper .col-md-12, .html-embed-wrapper .col-md-2, .html-embed-wrapper .col-md-3, .html-embed-wrapper .col-md-4, .html-embed-wrapper .col-md-5, .html-embed-wrapper .col-md-6, .html-embed-wrapper .col-md-7, .html-embed-wrapper .col-md-8, .html-embed-wrapper .col-md-9, .html-embed-wrapper .col-sm-1, .html-embed-wrapper .col-sm-10, .html-embed-wrapper .col-sm-11, .html-embed-wrapper .col-sm-12, .html-embed-wrapper .col-sm-2, .html-embed-wrapper .col-sm-3, .html-embed-wrapper .col-sm-4, .html-embed-wrapper .col-sm-5, .html-embed-wrapper .col-sm-6, .html-embed-wrapper .col-sm-7, .html-embed-wrapper .col-sm-8, .html-embed-wrapper .col-sm-9, .html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {position: relative;
+min-height: 1px;
+padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {float: left}
+.html-embed-wrapper .col-xs-12 {width: 100%}
+@media (min-width: 992px) {
+.html-embed-wrapper .no-bs-padding-left {padding-left: 0}
+}
+@media (min-width: 992px) {
+.html-embed-wrapper #site-wrapper &gt; main #section-content .section-main [class^=col-] [class^=col-].no-bs-padding-left {padding-left: 0}
+}
+.html-embed-wrapper ol.subtle-collapsible-list.col-xs-12, .html-embed-wrapper ul.subtle-collapsible-list.col-xs-12 {padding: 0 15px 0 0}
+&lt;/style&gt;&lt;section class="row text-block clearfix" data-element="2016 Text Block" id="adjudication-process"&gt;
+ &lt;header class="col-xs-12 no-bs-padding-left"&gt;
+  &lt;h1&gt;
+   Adjudication Process
+  &lt;/h1&gt;
+ &lt;/header&gt;
+ &lt;div class="col-xs-12 no-bs-padding-left"&gt;
+  &lt;p&gt;
+   &lt;em&gt;
+    &lt;strong&gt;
+     What is the academic integrity review process?
+    &lt;/strong&gt;
+   &lt;/em&gt;
+  &lt;/p&gt;
+  &lt;p&gt;
+   &lt;img alt="academic integrity review process" id="||CPIMAGE:6497980|0|" src="/academics/integrity/images/process_1.jpg" title="Process"/&gt;
+  &lt;/p&gt;
+  &lt;ol&gt;
+   &lt;li&gt;
+    The instructor reports an academic integrity concern to the Office of Academic Integrity
+   &lt;/li&gt;
+   &lt;li&gt;
+    OAI examines the materials and, if there’s evidence of a suspected violation, the student receives a letter from our office, by email, that reports the concern.
+   &lt;/li&gt;
+   &lt;li&gt;
+    The student is invited to talk with Academic Integrity Coordinator. During the meeting, the goal is for the student to offer their account, to be heard, and to understand the AIC process.
+   &lt;/li&gt;
+   &lt;li&gt;
+    Students have 5 business days to decide whether they would like this case to go to panel or if it will go to our Assistant Director (Jacqueline Raynolds) for review.
+   &lt;/li&gt;
+   &lt;li&gt;
+    If they choose to go to panel, the Office convenes a group of two professors and one student to examine the materials and make a recommendation. The student may appear before the panel to offer information and comments.
+   &lt;/li&gt;
+   &lt;li&gt;
+    If they choose to go directly to the Assistant Director, (with the option to meet with her in the process) the Assistant Director will examine the materials and provide a recommendation.
+   &lt;/li&gt;
+   &lt;li&gt;
+    The Assistant Dean receives a recommendation either from a panel or from the Assistant Director, reviews the cases, and makes a final decision. The student will receive a resolution letter reporting the outcome
+   &lt;/li&gt;
+   &lt;li&gt;
+    If the sanction requires a change to the student’s transcript, the student may appeal to the Provost’s office within ten business days.
+   &lt;/li&gt;
+  &lt;/ol&gt;
+  &lt;p&gt;
+   Faculty seeking to learn more about the adjudication process and about submitting a concern should consult the
+   &lt;a href="https://american0.sharepoint.com/sites/AcademicIntegrity/SitePages/The-Academic-Integrity-Process.aspx?promotedState=0http%3A%2F%2F"&gt;
+    AIC Sharepoint
+   &lt;/a&gt;
+   page (AU credentials required for login)
+  &lt;/p&gt;
+  &lt;p&gt;
+   &lt;b&gt;
+    &lt;i&gt;
+     What are the potential outcomes of AIC cases?
+    &lt;/i&gt;
+   &lt;/b&gt;
+   &lt;b&gt;
+    &lt;i&gt;
+    &lt;/i&gt;
+   &lt;/b&gt;
+  &lt;/p&gt;
+  &lt;p&gt;
+   The Academic Integrity Code lists possible outcomes for violation as follows:
+  &lt;/p&gt;
+  &lt;ol&gt;
+   &lt;li&gt;
+    A failing grade for the course
+   &lt;/li&gt;
+   &lt;li&gt;
+    A failing grade for the course and a notation of the violation on the permanent record (transcript)
+   &lt;/li&gt;
+   &lt;li&gt;
+    Suspension for one or more academic terms and a notation on the permanent record (transcript)
+   &lt;/li&gt;
+   &lt;li&gt;
+    Dismissal from the University (for a specified term or permanently) and a notation on the permanent record (transcript)
+   &lt;/li&gt;
+   &lt;li&gt;
+    Other sanctions as appropriate (for example, a lower course grade)
+   &lt;/li&gt;
+  &lt;/ol&gt;
+  &lt;p&gt;
+  &lt;/p&gt;
+ &lt;/div&gt;
+&lt;/section&gt;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/academics/integrity/code</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>watch-academic-integrity-videos</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>watch-academic-integrity-videos</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+.html-embed-wrapper .col-lg-1, .html-embed-wrapper .col-lg-10, .html-embed-wrapper .col-lg-11, .html-embed-wrapper .col-lg-12, .html-embed-wrapper .col-lg-2, .html-embed-wrapper .col-lg-3, .html-embed-wrapper .col-lg-4, .html-embed-wrapper .col-lg-5, .html-embed-wrapper .col-lg-6, .html-embed-wrapper .col-lg-7, .html-embed-wrapper .col-lg-8, .html-embed-wrapper .col-lg-9, .html-embed-wrapper .col-md-1, .html-embed-wrapper .col-md-10, .html-embed-wrapper .col-md-11, .html-embed-wrapper .col-md-12, .html-embed-wrapper .col-md-2, .html-embed-wrapper .col-md-3, .html-embed-wrapper .col-md-4, .html-embed-wrapper .col-md-5, .html-embed-wrapper .col-md-6, .html-embed-wrapper .col-md-7, .html-embed-wrapper .col-md-8, .html-embed-wrapper .col-md-9, .html-embed-wrapper .col-sm-1, .html-embed-wrapper .col-sm-10, .html-embed-wrapper .col-sm-11, .html-embed-wrapper .col-sm-12, .html-embed-wrapper .col-sm-2, .html-embed-wrapper .col-sm-3, .html-embed-wrapper .col-sm-4, .html-embed-wrapper .col-sm-5, .html-embed-wrapper .col-sm-6, .html-embed-wrapper .col-sm-7, .html-embed-wrapper .col-sm-8, .html-embed-wrapper .col-sm-9, .html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {position: relative;
+min-height: 1px;
+padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {float: left}
+.html-embed-wrapper .col-xs-12 {width: 100%}
+@media (min-width: 992px) {
+.html-embed-wrapper .no-bs-padding-left {padding-left: 0}
+}
+@media (min-width: 992px) {
+.html-embed-wrapper #site-wrapper &gt; main #section-content .section-main [class^=col-] [class^=col-].no-bs-padding-left {padding-left: 0}
+}
+.html-embed-wrapper ol.subtle-collapsible-list.col-xs-12, .html-embed-wrapper ul.subtle-collapsible-list.col-xs-12 {padding: 0 15px 0 0}
+&lt;/style&gt;&lt;section class="row text-block clearfix" data-element="2016 Text Block" id="watch-academic-integrity-videos"&gt;
+ &lt;header class="col-xs-12 no-bs-padding-left"&gt;
+  &lt;h1&gt;
+   Watch Academic Integrity Videos
+  &lt;/h1&gt;
+ &lt;/header&gt;
+ &lt;div class="col-xs-12 no-bs-padding-left"&gt;
+  &lt;p&gt;
+   What Is Academic Integrity
+   &lt;a href="http://www.kaltura.com/tiny/s4xzh" style="display: table-cell; text-align: center;" target="_blank"&gt;
+    &lt;img height="140" id="LPThumbnailImageID_15351230065430.13334851325274388" src="http://cfvod.kaltura.com/p/1905581/sp/190558100/thumbnail/entry_id/1_uihrl54x/version/100001/width/560" title=""/&gt;
+   &lt;/a&gt;
+  &lt;/p&gt;
+ &lt;/div&gt;
+&lt;/section&gt;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/academics/integrity/code</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>txt-5644841</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>txt-5644841</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+.html-embed-wrapper .col-lg-1, .html-embed-wrapper .col-lg-10, .html-embed-wrapper .col-lg-11, .html-embed-wrapper .col-lg-12, .html-embed-wrapper .col-lg-2, .html-embed-wrapper .col-lg-3, .html-embed-wrapper .col-lg-4, .html-embed-wrapper .col-lg-5, .html-embed-wrapper .col-lg-6, .html-embed-wrapper .col-lg-7, .html-embed-wrapper .col-lg-8, .html-embed-wrapper .col-lg-9, .html-embed-wrapper .col-md-1, .html-embed-wrapper .col-md-10, .html-embed-wrapper .col-md-11, .html-embed-wrapper .col-md-12, .html-embed-wrapper .col-md-2, .html-embed-wrapper .col-md-3, .html-embed-wrapper .col-md-4, .html-embed-wrapper .col-md-5, .html-embed-wrapper .col-md-6, .html-embed-wrapper .col-md-7, .html-embed-wrapper .col-md-8, .html-embed-wrapper .col-md-9, .html-embed-wrapper .col-sm-1, .html-embed-wrapper .col-sm-10, .html-embed-wrapper .col-sm-11, .html-embed-wrapper .col-sm-12, .html-embed-wrapper .col-sm-2, .html-embed-wrapper .col-sm-3, .html-embed-wrapper .col-sm-4, .html-embed-wrapper .col-sm-5, .html-embed-wrapper .col-sm-6, .html-embed-wrapper .col-sm-7, .html-embed-wrapper .col-sm-8, .html-embed-wrapper .col-sm-9, .html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {position: relative;
+min-height: 1px;
+padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {float: left}
+.html-embed-wrapper .col-xs-12 {width: 100%}
+@media (min-width: 992px) {
+.html-embed-wrapper .no-bs-padding-left {padding-left: 0}
+}
+@media (min-width: 992px) {
+.html-embed-wrapper #site-wrapper &gt; main #section-content .section-main [class^=col-] [class^=col-].no-bs-padding-left {padding-left: 0}
+}
+.html-embed-wrapper ol.subtle-collapsible-list.col-xs-12, .html-embed-wrapper ul.subtle-collapsible-list.col-xs-12 {padding: 0 15px 0 0}
+&lt;/style&gt;&lt;section class="row text-block clearfix" data-element="2016 Text Block" id="txt-5644841"&gt;
+ &lt;div class="col-xs-12 no-bs-padding-left"&gt;
+  &lt;p&gt;
+   Plagiarism, Inappropriate Collaboration, and Dishonesty in Exams
+   &lt;a href="http://www.kaltura.com/tiny/prr5i" style="display: table-cell; text-align: center;" target="_blank"&gt;
+    &lt;img id="LPThumbnailImageID_15351243425080.19113912195827587" src="http://cfvod.kaltura.com/p/1905581/sp/190558100/thumbnail/entry_id/1_jm3csmni/version/100001/width/560" title=""/&gt;
+   &lt;/a&gt;
+  &lt;/p&gt;
+ &lt;/div&gt;
+&lt;/section&gt;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/academics/integrity/code</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>txt-5644844</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>txt-5644844</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+.html-embed-wrapper .col-lg-1, .html-embed-wrapper .col-lg-10, .html-embed-wrapper .col-lg-11, .html-embed-wrapper .col-lg-12, .html-embed-wrapper .col-lg-2, .html-embed-wrapper .col-lg-3, .html-embed-wrapper .col-lg-4, .html-embed-wrapper .col-lg-5, .html-embed-wrapper .col-lg-6, .html-embed-wrapper .col-lg-7, .html-embed-wrapper .col-lg-8, .html-embed-wrapper .col-lg-9, .html-embed-wrapper .col-md-1, .html-embed-wrapper .col-md-10, .html-embed-wrapper .col-md-11, .html-embed-wrapper .col-md-12, .html-embed-wrapper .col-md-2, .html-embed-wrapper .col-md-3, .html-embed-wrapper .col-md-4, .html-embed-wrapper .col-md-5, .html-embed-wrapper .col-md-6, .html-embed-wrapper .col-md-7, .html-embed-wrapper .col-md-8, .html-embed-wrapper .col-md-9, .html-embed-wrapper .col-sm-1, .html-embed-wrapper .col-sm-10, .html-embed-wrapper .col-sm-11, .html-embed-wrapper .col-sm-12, .html-embed-wrapper .col-sm-2, .html-embed-wrapper .col-sm-3, .html-embed-wrapper .col-sm-4, .html-embed-wrapper .col-sm-5, .html-embed-wrapper .col-sm-6, .html-embed-wrapper .col-sm-7, .html-embed-wrapper .col-sm-8, .html-embed-wrapper .col-sm-9, .html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {position: relative;
+min-height: 1px;
+padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {float: left}
+.html-embed-wrapper .col-xs-12 {width: 100%}
+@media (min-width: 992px) {
+.html-embed-wrapper .no-bs-padding-left {padding-left: 0}
+}
+@media (min-width: 992px) {
+.html-embed-wrapper #site-wrapper &gt; main #section-content .section-main [class^=col-] [class^=col-].no-bs-padding-left {padding-left: 0}
+}
+.html-embed-wrapper ol.subtle-collapsible-list.col-xs-12, .html-embed-wrapper ul.subtle-collapsible-list.col-xs-12 {padding: 0 15px 0 0}
+&lt;/style&gt;&lt;section class="row text-block clearfix" data-element="2016 Text Block" id="txt-5644844"&gt;
+ &lt;div class="col-xs-12 no-bs-padding-left"&gt;
+  &lt;p&gt;
+   Pro Tips
+   &lt;a href="http://www.kaltura.com/tiny/utej6" style="display: table-cell; text-align: center;" target="_blank"&gt;
+    &lt;img height="140" id="LPThumbnailImageID_15351230065430.13334851325274388" src="http://cfvod.kaltura.com/p/1905581/sp/190558100/thumbnail/entry_id/1_uihrl54x/version/100001/width/560" title=""/&gt;
+   &lt;/a&gt;
+  &lt;/p&gt;
+ &lt;/div&gt;
+&lt;/section&gt;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>/content/dam/au/cf/html/academics/integrity/faculty</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>faculty-resources</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>faculty-resources</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>/conf/au/settings/dam/cfm/models/htmlEmbed</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;style&gt;
+.html-embed-wrapper .col-lg-1, .html-embed-wrapper .col-lg-10, .html-embed-wrapper .col-lg-11, .html-embed-wrapper .col-lg-12, .html-embed-wrapper .col-lg-2, .html-embed-wrapper .col-lg-3, .html-embed-wrapper .col-lg-4, .html-embed-wrapper .col-lg-5, .html-embed-wrapper .col-lg-6, .html-embed-wrapper .col-lg-7, .html-embed-wrapper .col-lg-8, .html-embed-wrapper .col-lg-9, .html-embed-wrapper .col-md-1, .html-embed-wrapper .col-md-10, .html-embed-wrapper .col-md-11, .html-embed-wrapper .col-md-12, .html-embed-wrapper .col-md-2, .html-embed-wrapper .col-md-3, .html-embed-wrapper .col-md-4, .html-embed-wrapper .col-md-5, .html-embed-wrapper .col-md-6, .html-embed-wrapper .col-md-7, .html-embed-wrapper .col-md-8, .html-embed-wrapper .col-md-9, .html-embed-wrapper .col-sm-1, .html-embed-wrapper .col-sm-10, .html-embed-wrapper .col-sm-11, .html-embed-wrapper .col-sm-12, .html-embed-wrapper .col-sm-2, .html-embed-wrapper .col-sm-3, .html-embed-wrapper .col-sm-4, .html-embed-wrapper .col-sm-5, .html-embed-wrapper .col-sm-6, .html-embed-wrapper .col-sm-7, .html-embed-wrapper .col-sm-8, .html-embed-wrapper .col-sm-9, .html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {position: relative;
+min-height: 1px;
+padding-left: 15px;
+padding-right: 15px}
+.html-embed-wrapper .col-xs-1, .html-embed-wrapper .col-xs-10, .html-embed-wrapper .col-xs-11, .html-embed-wrapper .col-xs-12, .html-embed-wrapper .col-xs-2, .html-embed-wrapper .col-xs-3, .html-embed-wrapper .col-xs-4, .html-embed-wrapper .col-xs-5, .html-embed-wrapper .col-xs-6, .html-embed-wrapper .col-xs-7, .html-embed-wrapper .col-xs-8, .html-embed-wrapper .col-xs-9 {float: left}
+.html-embed-wrapper .col-xs-12 {width: 100%}
+@media (min-width: 992px) {
+.html-embed-wrapper .no-bs-padding-left {padding-left: 0}
+}
+@media (min-width: 992px) {
+.html-embed-wrapper #site-wrapper &gt; main #section-content .section-main [class^=col-] [class^=col-].no-bs-padding-left {padding-left: 0}
+}
+.html-embed-wrapper ol.subtle-collapsible-list.col-xs-12, .html-embed-wrapper ul.subtle-collapsible-list.col-xs-12 {padding: 0 15px 0 0}
+&lt;/style&gt;&lt;section class="row text-block clearfix" data-element="2016 Text Block" id="faculty-resources"&gt;
+ &lt;header class="col-xs-12 no-bs-padding-left"&gt;
+  &lt;h1&gt;
+   Faculty Resources
+  &lt;/h1&gt;
+ &lt;/header&gt;
+ &lt;div class="col-xs-12 no-bs-padding-left"&gt;
+  &lt;p&gt;
+   Faculty are responsible for teaching students the concepts and skills associated with academic integrity. Being clear about expectations, explicit in instructions for assignments and exams, and directly examining academic integrity in the disciplines is central to best practices. Support for faculty is available through the following resources:
+   &lt;br&gt;
+    &lt;a href="/academics/integrity/code"&gt;
+     Academic Integrity Code
+    &lt;/a&gt;
+    &lt;br&gt;
+     &lt;a href="/faculty-excellence/"&gt;
+      Center for Faculty Excellence
+     &lt;/a&gt;
+    &lt;/br&gt;
+   &lt;/br&gt;
+  &lt;/p&gt;
+  &lt;p&gt;
+   &lt;strong&gt;
+    &lt;a href="https://american0.sharepoint.com/sites/AcademicIntegrity/SitePages/Academic-Integrity.aspx"&gt;
+     Academic Integrity Code Sharepoint site
+    &lt;/a&gt;
+    (login required) contains:
+   &lt;/strong&gt;
+  &lt;/p&gt;
+  &lt;ul&gt;
+   &lt;li&gt;
+    Information about the Code
+   &lt;/li&gt;
+   &lt;li&gt;
+    Resources for faculty submitting a concern
+   &lt;/li&gt;
+   &lt;li&gt;
+    Resources for teaching academic integrity
+   &lt;/li&gt;
+   &lt;li&gt;
+    Advice and additional reading
+   &lt;/li&gt;
+  &lt;/ul&gt;
+  &lt;p&gt;
+   &lt;img alt="Academic Integrity at AU Sharepoint site" id="||CPIMAGE:6116443|0|" src="/academics/images/AIC-sharepoint.jpg" title="AIC sharepoint"/&gt;
+  &lt;/p&gt;
+  &lt;p&gt;
+   &lt;strong&gt;
+    Support resources to offer students include:
+   &lt;/strong&gt;
+   &lt;br/&gt;
+   &lt;a href="/library/"&gt;
+    AU Library website
+   &lt;/a&gt;
+   &lt;br/&gt;
+   &lt;a href="/provost/academic-access/writing-center/"&gt;
+    The Writing Center
+   &lt;/a&gt;
+   &lt;br/&gt;
+   &lt;a href="/provost/academic-access/"&gt;
+    The Academic Support and Access Center
+   &lt;/a&gt;
+   &lt;br/&gt;
+   &lt;a href="/student-affairs/isss/" onmouseout="" onmouseover=""&gt;
+    International Student &amp;amp; Scholar Services
+   &lt;/a&gt;
+  &lt;/p&gt;
+  &lt;p&gt;
+   Faculty can always get support and advice from the Academic Integrity Code administrators in their unit, and may file a concern about an academic integrity matter in a course by contacting the following individuals.
+  &lt;/p&gt;
+  &lt;p&gt;
+   Any questions or concerns may be directed to the
+   &lt;a href="/academics/integrity/contacts"&gt;
+    Office of Academic Integrity
+   &lt;/a&gt;
+   :
+   &lt;a href="/cdn-cgi/l/email-protection#1071737174757d7973797e6475776279646950717d75627973717e3e757465" title="mailto:academicintegrity@american.edu"&gt;
+    &lt;span class="__cf_email__" data-cfemail="1071737174757d7973797e6475776279646950717d75627973717e3e757465"&gt;
+     [email protected]
+    &lt;/span&gt;
+   &lt;/a&gt;
+  &lt;/p&gt;
+ &lt;/div&gt;
+&lt;/section&gt;
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
